--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E20B4F-D2EB-4E74-BA0F-1455AD42E4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E5AC0-2E01-43F9-AB8D-913AEE70B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7375" yWindow="3932" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="7713" yWindow="4270" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966896" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -153,14 +153,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -186,12 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -421,7 +422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0250C63C-F4F2-4E9B-B5D1-98117EED77CC}" type="CELLRANGE">
+                    <a:fld id="{4803B07E-2674-4FF8-A36D-EFFD2D502961}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1123,6 +1124,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2550636716713776E-4"/>
+                  <c:y val="1.7182751674549367E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1137,7 +1144,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1781,6 +1788,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DB56D7B4-B8EE-48DB-9666-A9A319171134}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.1692369098367369E-2"/>
@@ -1812,9 +1853,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1878,10 +1916,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$12</c:f>
+              <c:f>[1]青城!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -1913,6 +1951,9 @@
                   <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>467</c:v>
                 </c:pt>
               </c:numCache>
@@ -1920,10 +1961,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$12</c:f>
+              <c:f>[1]青城!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -1955,6 +1996,9 @@
                   <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>469</c:v>
                 </c:pt>
               </c:numCache>
@@ -1964,9 +2008,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$12</c15:f>
+                <c15:f>[1]青城!$B$2:$B$13</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -1998,6 +2042,9 @@
                     <c:v>ユニフォーム松川一静ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>アート松川一静ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2761,12 +2808,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0511562523204641E-2"/>
+                  <c:y val="-6.9191080772341039E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8EA7828-2985-44F6-B5EF-DC863CDA9D68}" type="CELLRANGE">
+                    <a:fld id="{2332FF69-3224-4B16-BAB0-F0961D7FAD35}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E3E8A426-9F33-497A-9079-1B0CD4399652}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2789,40 +2875,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-D64C-4F4B-A79B-996E4DDA24D1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{379D9ADC-F2F4-4284-9164-7879AD8A536D}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000030-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
@@ -2834,7 +2886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{252AC6FD-037B-4316-A551-DD7B60B54822}" type="CELLRANGE">
+                    <a:fld id="{EC7E0392-582B-4F06-B911-8DFBEF5EE37B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5511,7 +5563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{636FD4EC-490F-4A09-BD05-DD54EBD46162}" type="CELLRANGE">
+                    <a:fld id="{09E83581-4598-4951-90D1-938B84BAAD95}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5545,7 +5597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC996CE8-1406-4840-87C4-3111E3FE98C9}" type="CELLRANGE">
+                    <a:fld id="{B297F18A-8099-48E6-9A7E-097521A3EEF9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5856,8 +5908,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.7254160369284296E-3"/>
-                  <c:y val="-2.7989815016750842E-3"/>
+                  <c:x val="-3.5670421958773409E-2"/>
+                  <c:y val="-4.9654564887545837E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8146,7 +8198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5A1B643-C910-4FD5-B063-FA8DC1F72E01}" type="CELLRANGE">
+                    <a:fld id="{E25DDB64-3942-42DB-9783-BD68F1A43FE1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8867,7 +8919,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F94AB1BB-8FC7-412E-83B4-7021D1C5DF7C}" type="CELLRANGE">
+                    <a:fld id="{278B0979-704A-4C0E-BC3E-9ED3C26BE10D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15176,14 +15228,14 @@
       <sheetName val="Settings"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2" t="str">
@@ -15589,12 +15641,23 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
+            <v>アート松川一静ICONIC</v>
+          </cell>
+          <cell r="F12">
+            <v>473</v>
+          </cell>
+          <cell r="G12">
+            <v>464</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
             <v>ユニフォーム花巻貴大ICONIC</v>
           </cell>
-          <cell r="F12">
+          <cell r="F13">
             <v>467</v>
           </cell>
-          <cell r="G12">
+          <cell r="G13">
             <v>469</v>
           </cell>
         </row>
@@ -16864,14 +16927,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45264.923336921296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="150" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45267.580353703706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="151" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Q_Stat" r:id="rId2"/>
   </cacheSource>
@@ -16880,7 +16943,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="服装" numFmtId="0">
-      <sharedItems count="8">
+      <sharedItems count="9">
         <s v="ユニフォーム"/>
         <s v="制服"/>
         <s v="夏祭り"/>
@@ -16889,6 +16952,7 @@
         <s v="プール掃除"/>
         <s v="文化祭"/>
         <s v="探偵"/>
+        <s v="アート"/>
       </sharedItems>
     </cacheField>
     <cacheField name="名前" numFmtId="0">
@@ -17413,7 +17477,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="151">
   <r>
     <s v="1"/>
     <x v="0"/>
@@ -18636,7 +18700,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="67"/>
+    <s v="68"/>
     <x v="0"/>
     <x v="35"/>
     <x v="2"/>
@@ -18669,7 +18733,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="68"/>
+    <s v="69"/>
     <x v="0"/>
     <x v="36"/>
     <x v="2"/>
@@ -18702,7 +18766,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="69"/>
+    <s v="70"/>
     <x v="0"/>
     <x v="37"/>
     <x v="1"/>
@@ -18735,7 +18799,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="70"/>
+    <s v="71"/>
     <x v="0"/>
     <x v="38"/>
     <x v="1"/>
@@ -18768,7 +18832,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="71"/>
+    <s v="72"/>
     <x v="0"/>
     <x v="39"/>
     <x v="1"/>
@@ -18801,7 +18865,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="72"/>
+    <s v="73"/>
     <x v="0"/>
     <x v="40"/>
     <x v="1"/>
@@ -18834,7 +18898,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="73"/>
+    <s v="74"/>
     <x v="0"/>
     <x v="41"/>
     <x v="1"/>
@@ -18867,7 +18931,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="74"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="42"/>
     <x v="1"/>
@@ -18900,7 +18964,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="75"/>
+    <s v="76"/>
     <x v="0"/>
     <x v="43"/>
     <x v="0"/>
@@ -18933,7 +18997,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="76"/>
+    <s v="77"/>
     <x v="0"/>
     <x v="44"/>
     <x v="0"/>
@@ -18966,7 +19030,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="77"/>
+    <s v="78"/>
     <x v="0"/>
     <x v="45"/>
     <x v="1"/>
@@ -18999,7 +19063,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="78"/>
+    <s v="79"/>
     <x v="0"/>
     <x v="46"/>
     <x v="0"/>
@@ -19032,7 +19096,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="79"/>
+    <s v="80"/>
     <x v="0"/>
     <x v="47"/>
     <x v="0"/>
@@ -19065,7 +19129,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="80"/>
+    <s v="81"/>
     <x v="0"/>
     <x v="48"/>
     <x v="0"/>
@@ -19098,7 +19162,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="81"/>
+    <s v="82"/>
     <x v="0"/>
     <x v="49"/>
     <x v="0"/>
@@ -19131,7 +19195,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="82"/>
+    <s v="83"/>
     <x v="0"/>
     <x v="50"/>
     <x v="2"/>
@@ -19164,7 +19228,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="83"/>
+    <s v="84"/>
     <x v="0"/>
     <x v="51"/>
     <x v="0"/>
@@ -19197,7 +19261,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="84"/>
+    <s v="85"/>
     <x v="0"/>
     <x v="52"/>
     <x v="2"/>
@@ -19230,7 +19294,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="85"/>
+    <s v="86"/>
     <x v="0"/>
     <x v="53"/>
     <x v="2"/>
@@ -19263,7 +19327,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="86"/>
+    <s v="87"/>
     <x v="0"/>
     <x v="54"/>
     <x v="2"/>
@@ -19296,7 +19360,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="87"/>
+    <s v="88"/>
     <x v="0"/>
     <x v="55"/>
     <x v="2"/>
@@ -19329,7 +19393,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="88"/>
+    <s v="89"/>
     <x v="0"/>
     <x v="56"/>
     <x v="2"/>
@@ -19362,7 +19426,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="90"/>
+    <s v="91"/>
     <x v="0"/>
     <x v="57"/>
     <x v="1"/>
@@ -19395,7 +19459,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="92"/>
+    <s v="93"/>
     <x v="0"/>
     <x v="58"/>
     <x v="1"/>
@@ -19428,7 +19492,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="93"/>
+    <s v="94"/>
     <x v="0"/>
     <x v="59"/>
     <x v="2"/>
@@ -19461,7 +19525,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="95"/>
+    <s v="96"/>
     <x v="0"/>
     <x v="60"/>
     <x v="2"/>
@@ -19494,7 +19558,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="96"/>
+    <s v="97"/>
     <x v="0"/>
     <x v="61"/>
     <x v="1"/>
@@ -19527,7 +19591,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="97"/>
+    <s v="98"/>
     <x v="0"/>
     <x v="62"/>
     <x v="1"/>
@@ -19560,7 +19624,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="98"/>
+    <s v="99"/>
     <x v="0"/>
     <x v="63"/>
     <x v="1"/>
@@ -19593,7 +19657,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="99"/>
+    <s v="100"/>
     <x v="0"/>
     <x v="64"/>
     <x v="0"/>
@@ -19626,7 +19690,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="100"/>
+    <s v="101"/>
     <x v="0"/>
     <x v="65"/>
     <x v="1"/>
@@ -19659,7 +19723,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="101"/>
+    <s v="102"/>
     <x v="0"/>
     <x v="66"/>
     <x v="0"/>
@@ -19692,7 +19756,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="102"/>
+    <s v="103"/>
     <x v="0"/>
     <x v="67"/>
     <x v="0"/>
@@ -19725,7 +19789,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="103"/>
+    <s v="104"/>
     <x v="0"/>
     <x v="68"/>
     <x v="0"/>
@@ -19758,7 +19822,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="104"/>
+    <s v="105"/>
     <x v="0"/>
     <x v="69"/>
     <x v="0"/>
@@ -19791,7 +19855,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="105"/>
+    <s v="106"/>
     <x v="0"/>
     <x v="70"/>
     <x v="0"/>
@@ -19824,7 +19888,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="106"/>
+    <s v="107"/>
     <x v="0"/>
     <x v="71"/>
     <x v="2"/>
@@ -19857,7 +19921,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="108"/>
+    <s v="109"/>
     <x v="0"/>
     <x v="72"/>
     <x v="2"/>
@@ -19890,7 +19954,7 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="111"/>
+    <s v="112"/>
     <x v="0"/>
     <x v="73"/>
     <x v="0"/>
@@ -19923,7 +19987,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="113"/>
+    <s v="114"/>
     <x v="0"/>
     <x v="74"/>
     <x v="2"/>
@@ -19956,7 +20020,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="115"/>
+    <s v="116"/>
     <x v="0"/>
     <x v="75"/>
     <x v="2"/>
@@ -19989,7 +20053,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="116"/>
+    <s v="117"/>
     <x v="0"/>
     <x v="76"/>
     <x v="2"/>
@@ -20022,7 +20086,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="117"/>
+    <s v="118"/>
     <x v="0"/>
     <x v="77"/>
     <x v="2"/>
@@ -20055,7 +20119,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="118"/>
+    <s v="119"/>
     <x v="0"/>
     <x v="78"/>
     <x v="2"/>
@@ -20088,7 +20152,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="119"/>
+    <s v="120"/>
     <x v="0"/>
     <x v="79"/>
     <x v="0"/>
@@ -20121,7 +20185,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="121"/>
+    <s v="122"/>
     <x v="0"/>
     <x v="80"/>
     <x v="1"/>
@@ -20154,7 +20218,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="122"/>
+    <s v="123"/>
     <x v="0"/>
     <x v="81"/>
     <x v="0"/>
@@ -20187,7 +20251,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="123"/>
+    <s v="124"/>
     <x v="0"/>
     <x v="82"/>
     <x v="0"/>
@@ -20220,7 +20284,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="124"/>
+    <s v="125"/>
     <x v="0"/>
     <x v="83"/>
     <x v="0"/>
@@ -20253,7 +20317,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="125"/>
+    <s v="126"/>
     <x v="0"/>
     <x v="84"/>
     <x v="0"/>
@@ -20286,7 +20350,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="126"/>
+    <s v="127"/>
     <x v="0"/>
     <x v="85"/>
     <x v="0"/>
@@ -20319,7 +20383,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="127"/>
+    <s v="128"/>
     <x v="0"/>
     <x v="86"/>
     <x v="0"/>
@@ -20352,7 +20416,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="128"/>
+    <s v="129"/>
     <x v="0"/>
     <x v="87"/>
     <x v="1"/>
@@ -20385,7 +20449,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="130"/>
+    <s v="131"/>
     <x v="0"/>
     <x v="88"/>
     <x v="1"/>
@@ -20418,7 +20482,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="132"/>
+    <s v="133"/>
     <x v="0"/>
     <x v="89"/>
     <x v="1"/>
@@ -20451,7 +20515,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="133"/>
+    <s v="134"/>
     <x v="0"/>
     <x v="90"/>
     <x v="1"/>
@@ -20484,7 +20548,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="134"/>
+    <s v="135"/>
     <x v="0"/>
     <x v="91"/>
     <x v="1"/>
@@ -20517,7 +20581,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="135"/>
+    <s v="136"/>
     <x v="0"/>
     <x v="92"/>
     <x v="1"/>
@@ -20550,7 +20614,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="136"/>
+    <s v="137"/>
     <x v="0"/>
     <x v="93"/>
     <x v="2"/>
@@ -20583,7 +20647,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="138"/>
+    <s v="139"/>
     <x v="0"/>
     <x v="94"/>
     <x v="0"/>
@@ -20616,7 +20680,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="140"/>
+    <s v="141"/>
     <x v="0"/>
     <x v="95"/>
     <x v="0"/>
@@ -20649,7 +20713,7 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="141"/>
+    <s v="142"/>
     <x v="0"/>
     <x v="96"/>
     <x v="0"/>
@@ -20682,7 +20746,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="142"/>
+    <s v="143"/>
     <x v="0"/>
     <x v="97"/>
     <x v="0"/>
@@ -20715,7 +20779,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="143"/>
+    <s v="144"/>
     <x v="0"/>
     <x v="98"/>
     <x v="1"/>
@@ -20748,7 +20812,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="144"/>
+    <s v="145"/>
     <x v="0"/>
     <x v="99"/>
     <x v="1"/>
@@ -20781,7 +20845,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="145"/>
+    <s v="146"/>
     <x v="0"/>
     <x v="100"/>
     <x v="1"/>
@@ -20814,7 +20878,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="146"/>
+    <s v="147"/>
     <x v="0"/>
     <x v="101"/>
     <x v="1"/>
@@ -20847,7 +20911,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="147"/>
+    <s v="148"/>
     <x v="0"/>
     <x v="102"/>
     <x v="1"/>
@@ -20880,7 +20944,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="148"/>
+    <s v="149"/>
     <x v="0"/>
     <x v="103"/>
     <x v="1"/>
@@ -20913,7 +20977,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="149"/>
+    <s v="150"/>
     <x v="0"/>
     <x v="104"/>
     <x v="1"/>
@@ -20946,7 +21010,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="150"/>
+    <s v="151"/>
     <x v="0"/>
     <x v="105"/>
     <x v="1"/>
@@ -21936,7 +22000,40 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="89"/>
+    <s v="67"/>
+    <x v="8"/>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="464"/>
+    <n v="473"/>
+    <s v="アート松川一静ICONIC"/>
+    <s v="まつかわいっせい"/>
+    <n v="1065"/>
+    <x v="7"/>
+    <n v="232"/>
+    <n v="231"/>
+    <x v="5"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="90"/>
     <x v="4"/>
     <x v="56"/>
     <x v="1"/>
@@ -21969,7 +22066,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="91"/>
+    <s v="92"/>
     <x v="1"/>
     <x v="57"/>
     <x v="0"/>
@@ -22002,7 +22099,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="94"/>
+    <s v="95"/>
     <x v="1"/>
     <x v="59"/>
     <x v="1"/>
@@ -22035,7 +22132,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="107"/>
+    <s v="108"/>
     <x v="3"/>
     <x v="71"/>
     <x v="1"/>
@@ -22068,7 +22165,7 @@
     <x v="28"/>
   </r>
   <r>
-    <s v="109"/>
+    <s v="110"/>
     <x v="3"/>
     <x v="72"/>
     <x v="1"/>
@@ -22101,7 +22198,7 @@
     <x v="29"/>
   </r>
   <r>
-    <s v="110"/>
+    <s v="111"/>
     <x v="6"/>
     <x v="72"/>
     <x v="0"/>
@@ -22134,7 +22231,7 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="112"/>
+    <s v="113"/>
     <x v="4"/>
     <x v="73"/>
     <x v="2"/>
@@ -22167,7 +22264,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="114"/>
+    <s v="115"/>
     <x v="7"/>
     <x v="74"/>
     <x v="1"/>
@@ -22200,7 +22297,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="120"/>
+    <s v="121"/>
     <x v="6"/>
     <x v="79"/>
     <x v="2"/>
@@ -22233,7 +22330,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="129"/>
+    <s v="130"/>
     <x v="2"/>
     <x v="87"/>
     <x v="0"/>
@@ -22266,7 +22363,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="131"/>
+    <s v="132"/>
     <x v="7"/>
     <x v="88"/>
     <x v="0"/>
@@ -22299,7 +22396,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="137"/>
+    <s v="138"/>
     <x v="2"/>
     <x v="93"/>
     <x v="1"/>
@@ -22332,7 +22429,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="139"/>
+    <s v="140"/>
     <x v="6"/>
     <x v="94"/>
     <x v="2"/>
@@ -22368,12 +22465,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="5"/>
         <item x="0"/>
         <item x="2"/>
@@ -22382,6 +22479,7 @@
         <item x="1"/>
         <item x="7"/>
         <item x="6"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22844,9 +22942,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="バッジ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="バッジ">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -22854,100 +22952,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="2A1A00"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="F3F3F2"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="F8B323"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="656A59"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="46B2B5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8CAA7E"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D36F68"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="826276"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="46B2B5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="A46694"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="バッジ">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Impact" panose="020B0806030902050204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -22971,26 +23017,46 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Corbel"/>
+        <a:font script="Cyrl" typeface="Corbel"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="휴먼매직체"/>
+        <a:font script="Hans" typeface="华文中宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Majalla UI"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="バッジ">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22999,23 +23065,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -23025,23 +23091,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -23049,26 +23115,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="in">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="in">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="50800" cap="flat" cmpd="sng" algn="in">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -23080,9 +23143,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="25000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -23103,16 +23166,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -23132,7 +23195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Badge" id="{71A07785-5930-41D4-9A83-E23602B48E98}" vid="{771EA782-DFA6-45B1-AEA3-661F1715B310}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23142,11 +23205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B970C4B-C838-43B3-B4FA-E7DDFCCCDF62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT75" sqref="AT75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23159,175 +23222,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B63BC9-AD81-470E-8072-89FD1AB1E6AD}">
   <dimension ref="A83:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="46" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="58" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="63" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="72" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="91" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="97" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="98" max="101" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="109" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="114" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="116" max="123" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="127" max="135" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="142" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="144" max="148" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="149" max="152" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="5" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="157" max="160" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="165" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="167" max="174" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="176" max="186" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="188" max="193" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="195" max="199" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="200" max="203" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="5" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="208" max="216" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="225" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="227" max="244" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="246" max="250" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="251" max="254" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="5" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="259" max="262" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="264" max="266" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="267" max="268" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="269" max="276" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="278" max="288" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="290" max="295" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="297" max="301" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="302" max="305" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="5" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="310" max="313" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="315" max="317" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="320" max="327" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="329" max="339" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="341" max="346" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="348" max="352" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="353" max="356" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="5" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="361" max="369" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="371" max="378" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="380" max="390" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="392" max="397" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="399" max="403" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="404" max="407" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="5" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="412" max="415" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="417" max="419" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="420" max="421" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="422" max="429" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="431" max="441" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="443" max="448" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="450" max="454" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="455" max="458" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="5" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="463" max="470" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="6" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="473" max="480" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="482" max="492" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="6" bestFit="1" customWidth="1"/>
-    <col min="494" max="499" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="501" max="505" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="506" max="509" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="5" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="9" max="11" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="15.296875" customWidth="1"/>
+    <col min="13" max="13" width="5.3984375" customWidth="1"/>
+    <col min="14" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="33" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="58" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="60" max="63" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="65" max="72" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="76" max="91" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="93" max="97" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="98" max="101" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="15" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="106" max="109" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="111" max="114" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="116" max="123" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="127" max="135" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="137" max="142" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="144" max="148" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="149" max="152" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="160" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="162" max="165" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="167" max="174" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="176" max="186" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="188" max="193" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="195" max="199" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="200" max="203" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="208" max="216" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="227" max="244" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="246" max="250" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="251" max="254" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="259" max="262" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="264" max="266" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="267" max="268" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="269" max="276" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="278" max="288" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="290" max="295" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="297" max="301" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="302" max="305" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="310" max="313" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="315" max="317" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="320" max="327" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="329" max="339" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="341" max="346" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="348" max="352" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="353" max="356" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="361" max="369" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="371" max="378" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="380" max="390" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="392" max="397" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="399" max="403" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="404" max="407" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="412" max="415" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="417" max="419" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="420" max="421" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="422" max="429" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="431" max="441" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="443" max="448" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="450" max="454" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="455" max="458" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="463" max="470" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="473" max="480" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="482" max="492" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="494" max="499" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="501" max="505" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="506" max="509" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="4.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>34</v>
       </c>
@@ -23335,7 +23398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
@@ -23343,7 +23406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>31</v>
       </c>
@@ -23351,7 +23414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>29</v>
       </c>
@@ -23359,7 +23422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>27</v>
       </c>
@@ -23397,611 +23460,611 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>127.5</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>123.5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>113.5</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>121</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>101</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>124.5</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>120.5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>116.5</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>119</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>38.5</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>1105.5</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>122</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>118.5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>116.5</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>122.5</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>101</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>114</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>117.5</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>127</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>120.5</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>38.5</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>1098</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>121.25</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>120</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>117.25</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>121.875</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>117.75</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>118.5</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>117.125</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>119</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>35</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>1087.75</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>121</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>1087.2857142857142</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>122.5</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>119.75</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>116</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>120.25</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>99.5</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>119.25</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>118</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>117.75</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>118.25</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>34.125</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>1085.375</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>114</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>1075.7142857142858</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>119</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>115.875</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>115</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>120.75</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>98.5</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>116.75</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>118.625</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>117.125</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>117.125</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>35.375</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>1074.125</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>117.75</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>120.5</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>118</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>1073.5833333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>116</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>41</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>1073.2857142857142</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>1072.3333333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>36</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="3">
         <v>1070.5714285714287</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>120.5</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>117.5</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>116</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>120</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>98.5</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>115.75</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>116</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>115.75</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>117.25</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>33</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>1070.25</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="3">
         <v>1066.4285714285713</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="3">
         <v>1064.5714285714287</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>117</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>116</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="3">
         <v>1062.2857142857142</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="3">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E5AC0-2E01-43F9-AB8D-913AEE70B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEBF436-6B92-4788-BBE7-751BDC87C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7713" yWindow="4270" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6461" yWindow="5835" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966896" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -422,7 +422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4803B07E-2674-4FF8-A36D-EFFD2D502961}" type="CELLRANGE">
+                    <a:fld id="{8B00F921-9C08-491D-B06B-5366F71E01E3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1048,8 +1048,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0346962774491748E-2"/>
-                  <c:y val="7.1540321445011292E-3"/>
+                  <c:x val="4.5771347710628603E-3"/>
+                  <c:y val="-1.9926691793614216E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1556,8 +1556,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19028116829058606"/>
-                  <c:y val="-1.2964102841038395E-2"/>
+                  <c:x val="-6.7670630319372843E-2"/>
+                  <c:y val="1.3033427699410266E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1793,7 +1793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB56D7B4-B8EE-48DB-9666-A9A319171134}" type="CELLRANGE">
+                    <a:fld id="{26217460-DD53-45DE-8F0A-7496E4835DB8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1824,8 +1824,47 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1692369098367369E-2"/>
-                  <c:y val="-3.4743483739155319E-2"/>
+                  <c:x val="-1.7479908351137528E-2"/>
+                  <c:y val="-3.1291775241959037E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC6FD73B-553D-4857-8B0B-5F0BAE256814}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3E27-4255-AB68-31F094F5ECC8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8644957015382177E-2"/>
+                  <c:y val="-9.8292002720185827E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1916,10 +1955,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$13</c:f>
+              <c:f>[1]青城!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -1955,16 +1994,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$13</c:f>
+              <c:f>[1]青城!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2000,6 +2042,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,9 +2053,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$13</c15:f>
+                <c15:f>[1]青城!$B$2:$B$14</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="13"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2046,6 +2091,9 @@
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>アート花巻貴大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2852,7 +2900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3E8A426-9F33-497A-9079-1B0CD4399652}" type="CELLRANGE">
+                    <a:fld id="{C2C49D7F-4CAB-486C-A7FC-6436516B6DC1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2886,7 +2934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC7E0392-582B-4F06-B911-8DFBEF5EE37B}" type="CELLRANGE">
+                    <a:fld id="{18703F17-0FE5-4367-88BB-E48C867480EA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3500,8 +3548,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.3133292159633405E-3"/>
-                  <c:y val="-3.6669804219225971E-2"/>
+                  <c:x val="3.1198212519367727E-3"/>
+                  <c:y val="-5.3459856831157504E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3539,8 +3587,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9450333837488076E-3"/>
-                  <c:y val="-2.3521380571954596E-2"/>
+                  <c:x val="-3.9738141140341502E-3"/>
+                  <c:y val="-4.0853068085930727E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5521,8 +5569,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1338906442190787E-2"/>
-                  <c:y val="-1.1788324970006699E-2"/>
+                  <c:x val="1.2769537034667993E-3"/>
+                  <c:y val="-1.4976289638208972E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5563,7 +5611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09E83581-4598-4951-90D1-938B84BAAD95}" type="CELLRANGE">
+                    <a:fld id="{37A9BBA7-8456-4AD5-B0CE-B32EBDDB343B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5597,7 +5645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B297F18A-8099-48E6-9A7E-097521A3EEF9}" type="CELLRANGE">
+                    <a:fld id="{9357650B-A746-47E7-B8C7-7431733F8159}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5986,8 +6034,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.6582500192158599E-3"/>
-                  <c:y val="-3.6680746268969965E-2"/>
+                  <c:x val="-2.3698689960669764E-2"/>
+                  <c:y val="-3.3972683336405407E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7275,8 +7323,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5318324674956607E-3"/>
-                  <c:y val="-1.0733779199215429E-2"/>
+                  <c:x val="-1.1897321933020139E-2"/>
+                  <c:y val="-1.0192167499033488E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8198,7 +8246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E25DDB64-3942-42DB-9783-BD68F1A43FE1}" type="CELLRANGE">
+                    <a:fld id="{FED05CD7-4B7E-49DF-9C4C-212D2B10FF02}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8919,7 +8967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{278B0979-704A-4C0E-BC3E-9ED3C26BE10D}" type="CELLRANGE">
+                    <a:fld id="{533097DB-4D60-4A7C-B80B-E297930B2C15}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13842,7 +13890,7 @@
         <c:axId val="1766553759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1120"/>
+          <c:max val="1140"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15661,6 +15709,17 @@
             <v>469</v>
           </cell>
         </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>アート花巻貴大ICONIC</v>
+          </cell>
+          <cell r="F14">
+            <v>473</v>
+          </cell>
+          <cell r="G14">
+            <v>477</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
@@ -16934,7 +16993,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45267.580353703706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="151" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45271.630576736112" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="152" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Q_Stat" r:id="rId2"/>
   </cacheSource>
@@ -17477,7 +17536,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="151">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="152">
   <r>
     <s v="1"/>
     <x v="0"/>
@@ -18733,7 +18792,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="69"/>
+    <s v="70"/>
     <x v="0"/>
     <x v="36"/>
     <x v="2"/>
@@ -18766,7 +18825,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="70"/>
+    <s v="71"/>
     <x v="0"/>
     <x v="37"/>
     <x v="1"/>
@@ -18799,7 +18858,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="71"/>
+    <s v="72"/>
     <x v="0"/>
     <x v="38"/>
     <x v="1"/>
@@ -18832,7 +18891,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="72"/>
+    <s v="73"/>
     <x v="0"/>
     <x v="39"/>
     <x v="1"/>
@@ -18865,7 +18924,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="73"/>
+    <s v="74"/>
     <x v="0"/>
     <x v="40"/>
     <x v="1"/>
@@ -18898,7 +18957,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="74"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="41"/>
     <x v="1"/>
@@ -18931,7 +18990,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="75"/>
+    <s v="76"/>
     <x v="0"/>
     <x v="42"/>
     <x v="1"/>
@@ -18964,7 +19023,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="76"/>
+    <s v="77"/>
     <x v="0"/>
     <x v="43"/>
     <x v="0"/>
@@ -18997,7 +19056,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="77"/>
+    <s v="78"/>
     <x v="0"/>
     <x v="44"/>
     <x v="0"/>
@@ -19030,7 +19089,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="78"/>
+    <s v="79"/>
     <x v="0"/>
     <x v="45"/>
     <x v="1"/>
@@ -19063,7 +19122,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="79"/>
+    <s v="80"/>
     <x v="0"/>
     <x v="46"/>
     <x v="0"/>
@@ -19096,7 +19155,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="80"/>
+    <s v="81"/>
     <x v="0"/>
     <x v="47"/>
     <x v="0"/>
@@ -19129,7 +19188,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="81"/>
+    <s v="82"/>
     <x v="0"/>
     <x v="48"/>
     <x v="0"/>
@@ -19162,7 +19221,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="82"/>
+    <s v="83"/>
     <x v="0"/>
     <x v="49"/>
     <x v="0"/>
@@ -19195,7 +19254,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="83"/>
+    <s v="84"/>
     <x v="0"/>
     <x v="50"/>
     <x v="2"/>
@@ -19228,7 +19287,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="84"/>
+    <s v="85"/>
     <x v="0"/>
     <x v="51"/>
     <x v="0"/>
@@ -19261,7 +19320,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="85"/>
+    <s v="86"/>
     <x v="0"/>
     <x v="52"/>
     <x v="2"/>
@@ -19294,7 +19353,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="86"/>
+    <s v="87"/>
     <x v="0"/>
     <x v="53"/>
     <x v="2"/>
@@ -19327,7 +19386,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="87"/>
+    <s v="88"/>
     <x v="0"/>
     <x v="54"/>
     <x v="2"/>
@@ -19360,7 +19419,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="88"/>
+    <s v="89"/>
     <x v="0"/>
     <x v="55"/>
     <x v="2"/>
@@ -19393,7 +19452,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="89"/>
+    <s v="90"/>
     <x v="0"/>
     <x v="56"/>
     <x v="2"/>
@@ -19426,7 +19485,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="91"/>
+    <s v="92"/>
     <x v="0"/>
     <x v="57"/>
     <x v="1"/>
@@ -19459,7 +19518,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="93"/>
+    <s v="94"/>
     <x v="0"/>
     <x v="58"/>
     <x v="1"/>
@@ -19492,7 +19551,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="94"/>
+    <s v="95"/>
     <x v="0"/>
     <x v="59"/>
     <x v="2"/>
@@ -19525,7 +19584,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="96"/>
+    <s v="97"/>
     <x v="0"/>
     <x v="60"/>
     <x v="2"/>
@@ -19558,7 +19617,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="97"/>
+    <s v="98"/>
     <x v="0"/>
     <x v="61"/>
     <x v="1"/>
@@ -19591,7 +19650,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="98"/>
+    <s v="99"/>
     <x v="0"/>
     <x v="62"/>
     <x v="1"/>
@@ -19624,7 +19683,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="99"/>
+    <s v="100"/>
     <x v="0"/>
     <x v="63"/>
     <x v="1"/>
@@ -19657,7 +19716,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="100"/>
+    <s v="101"/>
     <x v="0"/>
     <x v="64"/>
     <x v="0"/>
@@ -19690,7 +19749,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="101"/>
+    <s v="102"/>
     <x v="0"/>
     <x v="65"/>
     <x v="1"/>
@@ -19723,7 +19782,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="102"/>
+    <s v="103"/>
     <x v="0"/>
     <x v="66"/>
     <x v="0"/>
@@ -19756,7 +19815,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="103"/>
+    <s v="104"/>
     <x v="0"/>
     <x v="67"/>
     <x v="0"/>
@@ -19789,7 +19848,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="104"/>
+    <s v="105"/>
     <x v="0"/>
     <x v="68"/>
     <x v="0"/>
@@ -19822,7 +19881,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="105"/>
+    <s v="106"/>
     <x v="0"/>
     <x v="69"/>
     <x v="0"/>
@@ -19855,7 +19914,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="106"/>
+    <s v="107"/>
     <x v="0"/>
     <x v="70"/>
     <x v="0"/>
@@ -19888,7 +19947,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="107"/>
+    <s v="108"/>
     <x v="0"/>
     <x v="71"/>
     <x v="2"/>
@@ -19921,7 +19980,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="109"/>
+    <s v="110"/>
     <x v="0"/>
     <x v="72"/>
     <x v="2"/>
@@ -19954,7 +20013,7 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="112"/>
+    <s v="113"/>
     <x v="0"/>
     <x v="73"/>
     <x v="0"/>
@@ -19987,7 +20046,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="114"/>
+    <s v="115"/>
     <x v="0"/>
     <x v="74"/>
     <x v="2"/>
@@ -20020,7 +20079,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="116"/>
+    <s v="117"/>
     <x v="0"/>
     <x v="75"/>
     <x v="2"/>
@@ -20053,7 +20112,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="117"/>
+    <s v="118"/>
     <x v="0"/>
     <x v="76"/>
     <x v="2"/>
@@ -20086,7 +20145,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="118"/>
+    <s v="119"/>
     <x v="0"/>
     <x v="77"/>
     <x v="2"/>
@@ -20119,7 +20178,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="119"/>
+    <s v="120"/>
     <x v="0"/>
     <x v="78"/>
     <x v="2"/>
@@ -20152,7 +20211,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="120"/>
+    <s v="121"/>
     <x v="0"/>
     <x v="79"/>
     <x v="0"/>
@@ -20185,7 +20244,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="122"/>
+    <s v="123"/>
     <x v="0"/>
     <x v="80"/>
     <x v="1"/>
@@ -20218,7 +20277,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="123"/>
+    <s v="124"/>
     <x v="0"/>
     <x v="81"/>
     <x v="0"/>
@@ -20251,7 +20310,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="124"/>
+    <s v="125"/>
     <x v="0"/>
     <x v="82"/>
     <x v="0"/>
@@ -20284,7 +20343,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="125"/>
+    <s v="126"/>
     <x v="0"/>
     <x v="83"/>
     <x v="0"/>
@@ -20317,7 +20376,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="126"/>
+    <s v="127"/>
     <x v="0"/>
     <x v="84"/>
     <x v="0"/>
@@ -20350,7 +20409,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="127"/>
+    <s v="128"/>
     <x v="0"/>
     <x v="85"/>
     <x v="0"/>
@@ -20383,7 +20442,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="128"/>
+    <s v="129"/>
     <x v="0"/>
     <x v="86"/>
     <x v="0"/>
@@ -20416,7 +20475,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="129"/>
+    <s v="130"/>
     <x v="0"/>
     <x v="87"/>
     <x v="1"/>
@@ -20449,7 +20508,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="131"/>
+    <s v="132"/>
     <x v="0"/>
     <x v="88"/>
     <x v="1"/>
@@ -20482,7 +20541,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="133"/>
+    <s v="134"/>
     <x v="0"/>
     <x v="89"/>
     <x v="1"/>
@@ -20515,7 +20574,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="134"/>
+    <s v="135"/>
     <x v="0"/>
     <x v="90"/>
     <x v="1"/>
@@ -20548,7 +20607,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="135"/>
+    <s v="136"/>
     <x v="0"/>
     <x v="91"/>
     <x v="1"/>
@@ -20581,7 +20640,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="136"/>
+    <s v="137"/>
     <x v="0"/>
     <x v="92"/>
     <x v="1"/>
@@ -20614,7 +20673,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="137"/>
+    <s v="138"/>
     <x v="0"/>
     <x v="93"/>
     <x v="2"/>
@@ -20647,7 +20706,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="139"/>
+    <s v="140"/>
     <x v="0"/>
     <x v="94"/>
     <x v="0"/>
@@ -20680,7 +20739,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="141"/>
+    <s v="142"/>
     <x v="0"/>
     <x v="95"/>
     <x v="0"/>
@@ -20713,7 +20772,7 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="142"/>
+    <s v="143"/>
     <x v="0"/>
     <x v="96"/>
     <x v="0"/>
@@ -20746,7 +20805,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="143"/>
+    <s v="144"/>
     <x v="0"/>
     <x v="97"/>
     <x v="0"/>
@@ -20779,7 +20838,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="144"/>
+    <s v="145"/>
     <x v="0"/>
     <x v="98"/>
     <x v="1"/>
@@ -20812,7 +20871,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="145"/>
+    <s v="146"/>
     <x v="0"/>
     <x v="99"/>
     <x v="1"/>
@@ -20845,7 +20904,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="146"/>
+    <s v="147"/>
     <x v="0"/>
     <x v="100"/>
     <x v="1"/>
@@ -20878,7 +20937,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="147"/>
+    <s v="148"/>
     <x v="0"/>
     <x v="101"/>
     <x v="1"/>
@@ -20911,7 +20970,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="148"/>
+    <s v="149"/>
     <x v="0"/>
     <x v="102"/>
     <x v="1"/>
@@ -20944,7 +21003,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="149"/>
+    <s v="150"/>
     <x v="0"/>
     <x v="103"/>
     <x v="1"/>
@@ -20977,7 +21036,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="150"/>
+    <s v="151"/>
     <x v="0"/>
     <x v="104"/>
     <x v="1"/>
@@ -21010,7 +21069,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="151"/>
+    <s v="152"/>
     <x v="0"/>
     <x v="105"/>
     <x v="1"/>
@@ -22033,7 +22092,40 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="90"/>
+    <s v="69"/>
+    <x v="8"/>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="477"/>
+    <n v="473"/>
+    <s v="アート花巻貴大ICONIC"/>
+    <s v="はなまきたかひろ"/>
+    <n v="1078"/>
+    <x v="4"/>
+    <n v="239"/>
+    <n v="237"/>
+    <x v="18"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="91"/>
     <x v="4"/>
     <x v="56"/>
     <x v="1"/>
@@ -22066,7 +22158,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="92"/>
+    <s v="93"/>
     <x v="1"/>
     <x v="57"/>
     <x v="0"/>
@@ -22099,7 +22191,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="95"/>
+    <s v="96"/>
     <x v="1"/>
     <x v="59"/>
     <x v="1"/>
@@ -22132,7 +22224,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="108"/>
+    <s v="109"/>
     <x v="3"/>
     <x v="71"/>
     <x v="1"/>
@@ -22165,7 +22257,7 @@
     <x v="28"/>
   </r>
   <r>
-    <s v="110"/>
+    <s v="111"/>
     <x v="3"/>
     <x v="72"/>
     <x v="1"/>
@@ -22198,7 +22290,7 @@
     <x v="29"/>
   </r>
   <r>
-    <s v="111"/>
+    <s v="112"/>
     <x v="6"/>
     <x v="72"/>
     <x v="0"/>
@@ -22231,7 +22323,7 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="113"/>
+    <s v="114"/>
     <x v="4"/>
     <x v="73"/>
     <x v="2"/>
@@ -22264,7 +22356,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="115"/>
+    <s v="116"/>
     <x v="7"/>
     <x v="74"/>
     <x v="1"/>
@@ -22297,7 +22389,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="121"/>
+    <s v="122"/>
     <x v="6"/>
     <x v="79"/>
     <x v="2"/>
@@ -22330,7 +22422,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="130"/>
+    <s v="131"/>
     <x v="2"/>
     <x v="87"/>
     <x v="0"/>
@@ -22363,7 +22455,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="132"/>
+    <s v="133"/>
     <x v="7"/>
     <x v="88"/>
     <x v="0"/>
@@ -22396,7 +22488,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="138"/>
+    <s v="139"/>
     <x v="2"/>
     <x v="93"/>
     <x v="1"/>
@@ -22429,7 +22521,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="140"/>
+    <s v="141"/>
     <x v="6"/>
     <x v="94"/>
     <x v="2"/>
@@ -23228,15 +23320,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="12.69921875" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="9" max="11" width="14.59765625" customWidth="1"/>
-    <col min="12" max="12" width="15.296875" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.3984375" customWidth="1"/>
     <col min="14" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.8984375" bestFit="1" customWidth="1"/>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEBF436-6B92-4788-BBE7-751BDC87C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CDB34-3A01-4207-A0F9-85B72F3889BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6461" yWindow="5835" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="5322" yWindow="3782" windowWidth="33495" windowHeight="20610" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
     <sheet name="PivotStat" sheetId="2" r:id="rId2"/>
+    <sheet name="RadarChtStat" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966574" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -422,7 +423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B00F921-9C08-491D-B06B-5366F71E01E3}" type="CELLRANGE">
+                    <a:fld id="{D5AB14B6-5AEB-4EBB-B1A3-3439DC670ED5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,8 +1485,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4870799821579986E-2"/>
-                  <c:y val="-1.6007312662739134E-2"/>
+                  <c:x val="1.068059164476474E-2"/>
+                  <c:y val="2.4075845181406371E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1556,8 +1557,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.7670630319372843E-2"/>
-                  <c:y val="1.3033427699410266E-2"/>
+                  <c:x val="9.2073530679049435E-3"/>
+                  <c:y val="-1.0485577735417149E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1793,7 +1794,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26217460-DD53-45DE-8F0A-7496E4835DB8}" type="CELLRANGE">
+                    <a:fld id="{CF2BB6FA-B018-44DE-B032-D403C3A26830}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1861,6 +1862,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{98ABCE1B-65C2-450C-B088-7F9FF2BD4B11}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A533-492A-AC48-5FB5FCFDCDE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.8644957015382177E-2"/>
@@ -1955,10 +1990,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$14</c:f>
+              <c:f>[1]青城!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -1966,36 +2001,39 @@
                   <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
@@ -2003,10 +2041,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$14</c:f>
+              <c:f>[1]青城!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2014,36 +2052,39 @@
                   <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
@@ -2053,9 +2094,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$14</c15:f>
+                <c15:f>[1]青城!$B$2:$B$15</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2063,36 +2104,39 @@
                     <c:v>プール掃除及川徹ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Xmas及川徹ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>ユニフォーム岩泉一ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>プール掃除岩泉一ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ユニフォーム金田一勇太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム京谷賢太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>職業体験国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム渡親治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>アート松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>アート花巻貴大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2900,7 +2944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2C49D7F-4CAB-486C-A7FC-6436516B6DC1}" type="CELLRANGE">
+                    <a:fld id="{979569F2-50DC-4F96-927E-497562F1DE44}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2934,7 +2978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18703F17-0FE5-4367-88BB-E48C867480EA}" type="CELLRANGE">
+                    <a:fld id="{C16B3037-F28F-42BB-BCB1-DA8A617773BD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5611,7 +5655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37A9BBA7-8456-4AD5-B0CE-B32EBDDB343B}" type="CELLRANGE">
+                    <a:fld id="{B102D7B2-236D-486F-8AE0-3885A6393FFC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5645,7 +5689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9357650B-A746-47E7-B8C7-7431733F8159}" type="CELLRANGE">
+                    <a:fld id="{D4342D3D-B981-47EA-8DD2-9ABF5FC58E53}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6149,6 +6193,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8071277454116588E-2"/>
+                  <c:y val="-1.2064448923120462E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6163,7 +6213,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8132,8 +8182,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4439697267641525E-2"/>
-                  <c:y val="-1.4806519083940003E-2"/>
+                  <c:x val="8.0323135253346292E-3"/>
+                  <c:y val="-2.9430112880206225E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8246,7 +8296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FED05CD7-4B7E-49DF-9C4C-212D2B10FF02}" type="CELLRANGE">
+                    <a:fld id="{05DDA3A0-B5D1-48BA-A3E1-E34772FD0590}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8967,7 +9017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{533097DB-4D60-4A7C-B80B-E297930B2C15}" type="CELLRANGE">
+                    <a:fld id="{3A9B152A-C51C-42BF-B58B-F877D9D052E7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15601,122 +15651,133 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム岩泉一ICONIC</v>
+            <v>Xmas及川徹ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>464</v>
+            <v>465</v>
           </cell>
           <cell r="G4">
-            <v>482</v>
+            <v>519</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>プール掃除岩泉一ICONIC</v>
+            <v>ユニフォーム岩泉一ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>470</v>
+            <v>464</v>
           </cell>
           <cell r="G5">
-            <v>490</v>
+            <v>482</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>ユニフォーム金田一勇太郎ICONIC</v>
+            <v>プール掃除岩泉一ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>465</v>
+            <v>470</v>
           </cell>
           <cell r="G6">
-            <v>459</v>
+            <v>490</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム京谷賢太郎ICONIC</v>
+            <v>ユニフォーム金田一勇太郎ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>461</v>
+            <v>465</v>
           </cell>
           <cell r="G7">
-            <v>484</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム国見英ICONIC</v>
+            <v>ユニフォーム京谷賢太郎ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>462</v>
+            <v>461</v>
           </cell>
           <cell r="G8">
-            <v>467</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>職業体験国見英ICONIC</v>
+            <v>ユニフォーム国見英ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>468</v>
+            <v>462</v>
           </cell>
           <cell r="G9">
-            <v>475</v>
+            <v>467</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム渡親治ICONIC</v>
+            <v>職業体験国見英ICONIC</v>
           </cell>
           <cell r="F10">
+            <v>468</v>
+          </cell>
+          <cell r="G10">
             <v>475</v>
-          </cell>
-          <cell r="G10">
-            <v>463</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム松川一静ICONIC</v>
+            <v>ユニフォーム渡親治ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>465</v>
+            <v>475</v>
           </cell>
           <cell r="G11">
-            <v>458</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>アート松川一静ICONIC</v>
+            <v>ユニフォーム松川一静ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>473</v>
+            <v>465</v>
           </cell>
           <cell r="G12">
-            <v>464</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム花巻貴大ICONIC</v>
+            <v>アート松川一静ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>467</v>
+            <v>473</v>
           </cell>
           <cell r="G13">
-            <v>469</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
+            <v>ユニフォーム花巻貴大ICONIC</v>
+          </cell>
+          <cell r="F14">
+            <v>467</v>
+          </cell>
+          <cell r="G14">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
             <v>アート花巻貴大ICONIC</v>
           </cell>
-          <cell r="F14">
+          <cell r="F15">
             <v>473</v>
           </cell>
-          <cell r="G14">
+          <cell r="G15">
             <v>477</v>
           </cell>
         </row>
@@ -16993,7 +17054,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45271.630576736112" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="152" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45273.700344328703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="152" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Q_Stat" r:id="rId2"/>
   </cacheSource>
@@ -23295,9 +23356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B970C4B-C838-43B3-B4FA-E7DDFCCCDF62}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -23312,6 +23374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B63BC9-AD81-470E-8072-89FD1AB1E6AD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A83:L104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -24162,4 +24225,17 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E1130C-3FD1-4DFA-8EA9-1A83EE3EE352}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CDB34-3A01-4207-A0F9-85B72F3889BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F06D3-6D60-475E-970E-FFEBAEE6EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5322" yWindow="3782" windowWidth="33495" windowHeight="20610" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="9617" yWindow="3669" windowWidth="33495" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966574" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -418,13 +418,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4295181158241557E-3"/>
+                  <c:y val="-1.531413787841711E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5AB14B6-5AEB-4EBB-B1A3-3439DC670ED5}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{E7137908-9009-4F5C-B3DC-948472BB1F3C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -432,7 +438,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -442,11 +448,49 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3082952104628313E-3"/>
+                  <c:y val="-1.8022212007831061E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D1282CD8-617C-4771-8526-C2941C182510}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3202-4223-BEE5-06E7CE49A952}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -510,10 +554,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]鴎台!$F$2:$F$4</c:f>
+              <c:f>[1]鴎台!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>483</c:v>
                 </c:pt>
@@ -522,16 +566,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]鴎台!$G$2:$G$4</c:f>
+              <c:f>[1]鴎台!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>491</c:v>
                 </c:pt>
@@ -540,6 +587,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,9 +598,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]鴎台!$B$2:$B$4</c15:f>
+                <c15:f>[1]鴎台!$B$2:$B$5</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム星海光来ICONIC</c:v>
                   </c:pt>
@@ -559,6 +609,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>ユニフォーム昼神幸郎ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Xmas昼神幸郎ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -710,8 +763,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6170844401637438E-2"/>
-                  <c:y val="-2.1429882244751518E-3"/>
+                  <c:x val="-5.8285928606569302E-2"/>
+                  <c:y val="2.3455760176025671E-5"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1794,7 +1847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF2BB6FA-B018-44DE-B032-D403C3A26830}" type="CELLRANGE">
+                    <a:fld id="{8765E9E6-9C97-4D22-B59B-C280053DA5D8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1867,7 +1920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98ABCE1B-65C2-450C-B088-7F9FF2BD4B11}" type="CELLRANGE">
+                    <a:fld id="{B9DCF244-0DA9-4CDC-9711-C55945FE0B67}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1927,6 +1980,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2944,7 +3000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{979569F2-50DC-4F96-927E-497562F1DE44}" type="CELLRANGE">
+                    <a:fld id="{00DCC389-C30D-438D-A473-1CBB854AFC60}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2978,7 +3034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C16B3037-F28F-42BB-BCB1-DA8A617773BD}" type="CELLRANGE">
+                    <a:fld id="{2E1AC992-FC63-4E7C-953E-511FB68B5E49}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5655,7 +5711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B102D7B2-236D-486F-8AE0-3885A6393FFC}" type="CELLRANGE">
+                    <a:fld id="{22301DFB-93DA-44B2-B114-008774308047}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5689,7 +5745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4342D3D-B981-47EA-8DD2-9ABF5FC58E53}" type="CELLRANGE">
+                    <a:fld id="{10E3E689-4E42-4245-9225-82994BB3E5D3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8296,7 +8352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05DDA3A0-B5D1-48BA-A3E1-E34772FD0590}" type="CELLRANGE">
+                    <a:fld id="{3E7DEF07-0436-439A-AD94-E551D147B94C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9017,7 +9073,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A9B152A-C51C-42BF-B58B-F877D9D052E7}" type="CELLRANGE">
+                    <a:fld id="{43C741B0-9E1A-4A71-82A5-FE2E41D05A8D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15458,6 +15514,17 @@
             <v>480</v>
           </cell>
         </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Xmas昼神幸郎ICONIC</v>
+          </cell>
+          <cell r="F5">
+            <v>486</v>
+          </cell>
+          <cell r="G5">
+            <v>486</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
@@ -22618,7 +22685,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -23359,7 +23426,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F06D3-6D60-475E-970E-FFEBAEE6EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C32C6-B2E2-45D1-B00A-E1CC4F7E5323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9617" yWindow="3669" windowWidth="33495" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="8903" yWindow="3406" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -187,13 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1575,6 +1574,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5956198827170721E-2"/>
+                  <c:y val="-2.3167552853717341E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1589,7 +1594,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1649,8 +1654,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.411767126778072E-2"/>
-                  <c:y val="-3.0208984226639507E-2"/>
+                  <c:x val="-7.3041472451326472E-2"/>
+                  <c:y val="1.5828288141475435E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1688,8 +1693,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15739807645861573"/>
-                  <c:y val="-3.8453955979121141E-3"/>
+                  <c:x val="-2.1777438843432282E-2"/>
+                  <c:y val="-2.4968358179522622E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1766,8 +1771,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.5617724840983387E-2"/>
-                  <c:y val="3.7917908998587268E-3"/>
+                  <c:x val="-3.3663026523385438E-2"/>
+                  <c:y val="-8.1237532730381781E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1805,8 +1810,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.6154247156957868E-2"/>
-                  <c:y val="1.8241904035592147E-2"/>
+                  <c:x val="1.8358269966297181E-2"/>
+                  <c:y val="1.4518262612224627E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1842,13 +1847,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.543408044308543E-2"/>
+                  <c:y val="3.5326848341622315E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8765E9E6-9C97-4D22-B59B-C280053DA5D8}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{C43C540E-4F1B-47DF-AA51-4167213DBFA3}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1856,7 +1867,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1866,7 +1877,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1920,7 +1930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9DCF244-0DA9-4CDC-9711-C55945FE0B67}" type="CELLRANGE">
+                    <a:fld id="{CB950196-8DCA-43BA-8CB2-04D2378B049C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3000,7 +3010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00DCC389-C30D-438D-A473-1CBB854AFC60}" type="CELLRANGE">
+                    <a:fld id="{E87A0E62-4E51-4AD3-900B-A0A797F6F345}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3034,7 +3044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E1AC992-FC63-4E7C-953E-511FB68B5E49}" type="CELLRANGE">
+                    <a:fld id="{98636D4E-1B2B-43E2-BC9A-2DF3E556037A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4611,8 +4621,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.9245125464604045E-3"/>
-                  <c:y val="-3.2311619394411557E-3"/>
+                  <c:x val="4.219516335197817E-2"/>
+                  <c:y val="5.6012355300357245E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5552,8 +5562,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.594615605451433E-2"/>
-                  <c:y val="3.5075232355410851E-2"/>
+                  <c:x val="1.2546120581432861E-2"/>
+                  <c:y val="-7.1707244136679131E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5591,8 +5601,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0304072787165804E-2"/>
-                  <c:y val="-7.113467126587847E-3"/>
+                  <c:x val="-3.922708027197639E-2"/>
+                  <c:y val="4.325672909509639E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5630,8 +5640,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11887515006049856"/>
-                  <c:y val="-1.1796003196982888E-2"/>
+                  <c:x val="1.9899461664754006E-2"/>
+                  <c:y val="1.7443835608726874E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5669,8 +5679,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2769537034667993E-3"/>
-                  <c:y val="-1.4976289638208972E-3"/>
+                  <c:x val="-3.8482451890183575E-3"/>
+                  <c:y val="-5.8305475708830944E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5706,12 +5716,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.24450433397555E-4"/>
+                  <c:y val="3.9269207218327399E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22301DFB-93DA-44B2-B114-008774308047}" type="CELLRANGE">
+                    <a:fld id="{47F0241F-19F6-480C-8502-81098022DA2D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000066-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AFD17B8B-66FD-450E-9D6F-2CDC88105BA1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5734,18 +5783,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000066-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000067-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10E3E689-4E42-4245-9225-82994BB3E5D3}" type="CELLRANGE">
+                    <a:fld id="{220A6016-34F0-41C9-92AB-A7EEFC79DB24}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5768,7 +5817,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000067-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000001-B8BC-4BA4-BE87-A64C9E5DD061}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5832,10 +5881,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]梟谷!$F$2:$F$11</c:f>
+              <c:f>[1]梟谷!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>481</c:v>
                 </c:pt>
@@ -5843,27 +5892,30 @@
                   <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -5871,10 +5923,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]梟谷!$G$2:$G$11</c:f>
+              <c:f>[1]梟谷!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>488</c:v>
                 </c:pt>
@@ -5882,27 +5934,30 @@
                   <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>456</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
@@ -5912,9 +5967,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]梟谷!$B$2:$B$11</c15:f>
+                <c15:f>[1]梟谷!$B$2:$B$12</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム木兎光太郎ICONIC</c:v>
                   </c:pt>
@@ -5922,27 +5977,30 @@
                     <c:v>夏祭り木兎光太郎ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Xmas木兎光太郎ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>ユニフォーム木葉秋紀ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>探偵木葉秋紀ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ユニフォーム猿杙大和ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム小見春樹ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム尾長渉ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム鷲尾辰生ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム赤葦京治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>夏祭り赤葦京治ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -8352,7 +8410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E7DEF07-0436-439A-AD94-E551D147B94C}" type="CELLRANGE">
+                    <a:fld id="{F9B64D48-5EDD-4180-9762-5E88277C46FE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8914,8 +8972,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7252524165419937E-2"/>
-                  <c:y val="-4.4402990468600523E-3"/>
+                  <c:x val="-4.0012250808545972E-2"/>
+                  <c:y val="-3.8986885159489359E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9073,7 +9131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43C741B0-9E1A-4A71-82A5-FE2E41D05A8D}" type="CELLRANGE">
+                    <a:fld id="{3298D3DC-E58F-4398-8F58-2A7E35DA7FBA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16520,89 +16578,100 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム木葉秋紀ICONIC</v>
+            <v>Xmas木兎光太郎ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>479</v>
+            <v>490</v>
           </cell>
           <cell r="G4">
-            <v>483</v>
+            <v>494</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>探偵木葉秋紀ICONIC</v>
+            <v>ユニフォーム木葉秋紀ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>485</v>
+            <v>479</v>
           </cell>
           <cell r="G5">
-            <v>491</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>ユニフォーム猿杙大和ICONIC</v>
+            <v>探偵木葉秋紀ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>483</v>
+            <v>485</v>
           </cell>
           <cell r="G6">
-            <v>479</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム小見春樹ICONIC</v>
+            <v>ユニフォーム猿杙大和ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>474</v>
+            <v>483</v>
           </cell>
           <cell r="G7">
-            <v>456</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム尾長渉ICONIC</v>
+            <v>ユニフォーム小見春樹ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>463</v>
+            <v>474</v>
           </cell>
           <cell r="G8">
-            <v>462</v>
+            <v>456</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム鷲尾辰生ICONIC</v>
+            <v>ユニフォーム尾長渉ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>471</v>
+            <v>463</v>
           </cell>
           <cell r="G9">
-            <v>476</v>
+            <v>462</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム赤葦京治ICONIC</v>
+            <v>ユニフォーム鷲尾辰生ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>472</v>
+            <v>471</v>
           </cell>
           <cell r="G10">
-            <v>492</v>
+            <v>476</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
+            <v>ユニフォーム赤葦京治ICONIC</v>
+          </cell>
+          <cell r="F11">
+            <v>472</v>
+          </cell>
+          <cell r="G11">
+            <v>492</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
             <v>夏祭り赤葦京治ICONIC</v>
           </cell>
-          <cell r="F11">
+          <cell r="F12">
             <v>476</v>
           </cell>
-          <cell r="G11">
+          <cell r="G12">
             <v>502</v>
           </cell>
         </row>
@@ -23682,37 +23751,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>127.5</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>123.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>113.5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>121</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>101</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>124.5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89">
         <v>120.5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89">
         <v>116.5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>119</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <v>38.5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>1105.5</v>
       </c>
     </row>
@@ -23720,37 +23789,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>122</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>118.5</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>116.5</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>122.5</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>101</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>114</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90">
         <v>117.5</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90">
         <v>127</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>120.5</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <v>38.5</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>1098</v>
       </c>
     </row>
@@ -23758,37 +23827,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>121.25</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>120</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>117.25</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>121.875</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>117.75</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91">
         <v>118.5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91">
         <v>117.125</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>119</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91">
         <v>35</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>1087.75</v>
       </c>
     </row>
@@ -23796,37 +23865,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>121</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -23834,37 +23903,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>122.5</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>119.75</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>116</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>120.25</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>99.5</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>119.25</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93">
         <v>118</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93">
         <v>117.75</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>118.25</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>34.125</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>1085.375</v>
       </c>
     </row>
@@ -23872,37 +23941,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>114</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -23910,37 +23979,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>119</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>115.875</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>115</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>120.75</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>98.5</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>116.75</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95">
         <v>118.625</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95">
         <v>117.125</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>117.125</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95">
         <v>35.375</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95">
         <v>1074.125</v>
       </c>
     </row>
@@ -23948,37 +24017,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>117.75</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>120.5</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96">
         <v>118</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -23986,37 +24055,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>116</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97">
         <v>41</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24024,37 +24093,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24062,37 +24131,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>36</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24100,37 +24169,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>120.5</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>117.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>116</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>120</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>98.5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>115.75</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100">
         <v>116</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>115.75</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>117.25</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100">
         <v>33</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>1070.25</v>
       </c>
     </row>
@@ -24138,37 +24207,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101">
         <v>116</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -24176,37 +24245,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -24214,37 +24283,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>117</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>116</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -24252,37 +24321,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C32C6-B2E2-45D1-B00A-E1CC4F7E5323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248625FA-E8B6-4907-A4D9-BB7318C80D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8903" yWindow="3406" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6386" yWindow="5722" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -294,8 +294,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.7709824024771961E-2"/>
-          <c:y val="2.2082486613571279E-2"/>
+          <c:x val="1.8104058859510073E-2"/>
+          <c:y val="2.2082489387974392E-2"/>
           <c:w val="0.96401082695089213"/>
           <c:h val="0.93818426370670249"/>
         </c:manualLayout>
@@ -945,8 +945,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.4659600879027239E-2"/>
-                  <c:y val="-8.9064768807889487E-3"/>
+                  <c:x val="3.6630830216409373E-2"/>
+                  <c:y val="-5.6568043582337696E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1693,8 +1693,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1777438843432282E-2"/>
-                  <c:y val="-2.4968358179522622E-2"/>
+                  <c:x val="-3.2816328765708065E-2"/>
+                  <c:y val="-4.2841647433654102E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1930,7 +1930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB950196-8DCA-43BA-8CB2-04D2378B049C}" type="CELLRANGE">
+                    <a:fld id="{590D1073-8C29-4F28-A570-38EC19F9ABAB}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2472,8 +2472,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10795882681338803"/>
-                  <c:y val="-2.2084453086935473E-2"/>
+                  <c:x val="-0.11308402122546332"/>
+                  <c:y val="-3.8332895918945079E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3010,7 +3010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E87A0E62-4E51-4AD3-900B-A0A797F6F345}" type="CELLRANGE">
+                    <a:fld id="{FCCC370A-D4D4-4BAE-A104-38585E3CF798}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3044,7 +3044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98636D4E-1B2B-43E2-BC9A-2DF3E556037A}" type="CELLRANGE">
+                    <a:fld id="{36545F45-5EAE-44E5-B9CE-1368836078B7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4216,8 +4216,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8237424583147441E-2"/>
-                  <c:y val="-1.8822625845713682E-2"/>
+                  <c:x val="-2.6114300813599714E-3"/>
+                  <c:y val="-1.7739378186944797E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4364,6 +4364,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.1460861112884007E-3"/>
+                  <c:y val="-3.398611708996148E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4378,7 +4384,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4438,8 +4444,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1154663681013843E-2"/>
-                  <c:y val="-4.5970140287681505E-4"/>
+                  <c:x val="9.9719110541133509E-3"/>
+                  <c:y val="-1.4541675725565559E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4477,8 +4483,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11830368749258104"/>
-                  <c:y val="-3.2334564663294756E-2"/>
+                  <c:x val="1.7711209725746292E-2"/>
+                  <c:y val="-1.0669982657237474E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4516,8 +4522,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3193282659271057E-2"/>
-                  <c:y val="-1.7275508307125757E-2"/>
+                  <c:x val="-0.11329983214430375"/>
+                  <c:y val="-2.810780506199187E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4621,8 +4627,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.219516335197817E-2"/>
-                  <c:y val="5.6012355300357245E-4"/>
+                  <c:x val="4.8897346519074181E-2"/>
+                  <c:y val="-9.1889433128864492E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4660,8 +4666,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6062856451382471E-2"/>
-                  <c:y val="-2.4037886549478901E-2"/>
+                  <c:x val="1.343100122607423E-2"/>
+                  <c:y val="-2.3732964614470407E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4966,8 +4972,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.1319266532692783E-2"/>
-                  <c:y val="-2.6191994509108135E-3"/>
+                  <c:x val="9.7161477974496563E-4"/>
+                  <c:y val="-3.1608129476480111E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5003,6 +5009,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BDBCBF5A-4354-49EA-BFBA-8AD1A17D7027}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005C-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.8664666437033598E-2"/>
@@ -5034,9 +5074,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005C-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5100,10 +5137,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]烏野!$F$2:$F$29</c:f>
+              <c:f>[1]烏野!$F$2:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>493</c:v>
                 </c:pt>
@@ -5123,69 +5160,72 @@
                   <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
@@ -5193,10 +5233,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]烏野!$G$2:$G$29</c:f>
+              <c:f>[1]烏野!$G$2:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>453</c:v>
                 </c:pt>
@@ -5216,69 +5256,72 @@
                   <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
@@ -5288,9 +5331,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]烏野!$B$2:$B$29</c15:f>
+                <c15:f>[1]烏野!$B$2:$B$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="28"/>
+                  <c:ptCount val="29"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム日向翔陽ICONIC</c:v>
                   </c:pt>
@@ -5310,69 +5353,72 @@
                     <c:v>夏祭り影山飛雄ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>Xmas影山飛雄ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>ユニフォーム月島蛍ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>水着月島蛍ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>職業体験月島蛍ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム山口忠ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>水着山口忠ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>制服西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>ユニフォーム田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>制服田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>ユニフォーム澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>プール掃除澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>文化祭澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>ユニフォーム菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>プール掃除菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>文化祭菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>ユニフォーム東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>プール掃除東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>ユニフォーム東峰旭YELL</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>ユニフォーム縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>探偵縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>ユニフォーム木下久志ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>ユニフォーム成田一仁ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -5760,7 +5806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFD17B8B-66FD-450E-9D6F-2CDC88105BA1}" type="CELLRANGE">
+                    <a:fld id="{DF790A5C-0B86-413D-B86B-BE3B031127F8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5794,7 +5840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{220A6016-34F0-41C9-92AB-A7EEFC79DB24}" type="CELLRANGE">
+                    <a:fld id="{6B7B9F47-CA5C-4F5C-8454-CAD20E4BEC19}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8035,8 +8081,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.4482413266854469E-2"/>
-                  <c:y val="-1.9749426899538791E-2"/>
+                  <c:x val="2.4913961228041116E-2"/>
+                  <c:y val="-3.653946849588624E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8410,7 +8456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9B64D48-5EDD-4180-9762-5E88277C46FE}" type="CELLRANGE">
+                    <a:fld id="{9AA99EBD-7E79-4B52-8142-0EC821A8F358}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9131,7 +9177,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3298D3DC-E58F-4398-8F58-2A7E35DA7FBA}" type="CELLRANGE">
+                    <a:fld id="{4CB4D48F-2C12-424B-9119-B3A69CE481D4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16312,243 +16358,254 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム月島蛍ICONIC</v>
+            <v>Xmas影山飛雄ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>472</v>
+            <v>471</v>
           </cell>
           <cell r="G8">
-            <v>466</v>
+            <v>516</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>水着月島蛍ICONIC</v>
+            <v>ユニフォーム月島蛍ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>480</v>
+            <v>472</v>
           </cell>
           <cell r="G9">
-            <v>472</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>職業体験月島蛍ICONIC</v>
+            <v>水着月島蛍ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>474</v>
+            <v>480</v>
           </cell>
           <cell r="G10">
-            <v>478</v>
+            <v>472</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム山口忠ICONIC</v>
+            <v>職業体験月島蛍ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>469</v>
+            <v>474</v>
           </cell>
           <cell r="G11">
-            <v>475</v>
+            <v>478</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>水着山口忠ICONIC</v>
+            <v>ユニフォーム山口忠ICONIC</v>
           </cell>
           <cell r="F12">
+            <v>469</v>
+          </cell>
+          <cell r="G12">
             <v>475</v>
-          </cell>
-          <cell r="G12">
-            <v>483</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム西谷夕ICONIC</v>
+            <v>水着山口忠ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>479</v>
+            <v>475</v>
           </cell>
           <cell r="G13">
-            <v>470</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>制服西谷夕ICONIC</v>
+            <v>ユニフォーム西谷夕ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>487</v>
+            <v>479</v>
           </cell>
           <cell r="G14">
-            <v>476</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ユニフォーム田中龍之介ICONIC</v>
+            <v>制服西谷夕ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>463</v>
+            <v>487</v>
           </cell>
           <cell r="G15">
-            <v>469</v>
+            <v>476</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>制服田中龍之介ICONIC</v>
+            <v>ユニフォーム田中龍之介ICONIC</v>
           </cell>
           <cell r="F16">
+            <v>463</v>
+          </cell>
+          <cell r="G16">
             <v>469</v>
-          </cell>
-          <cell r="G16">
-            <v>477</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>ユニフォーム澤村大地ICONIC</v>
+            <v>制服田中龍之介ICONIC</v>
           </cell>
           <cell r="F17">
+            <v>469</v>
+          </cell>
+          <cell r="G17">
             <v>477</v>
-          </cell>
-          <cell r="G17">
-            <v>473</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>プール掃除澤村大地ICONIC</v>
+            <v>ユニフォーム澤村大地ICONIC</v>
           </cell>
           <cell r="F18">
-            <v>483</v>
+            <v>477</v>
           </cell>
           <cell r="G18">
-            <v>481</v>
+            <v>473</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>文化祭澤村大地ICONIC</v>
+            <v>プール掃除澤村大地ICONIC</v>
           </cell>
           <cell r="F19">
-            <v>485</v>
+            <v>483</v>
           </cell>
           <cell r="G19">
-            <v>479</v>
+            <v>481</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>ユニフォーム菅原考支ICONIC</v>
+            <v>文化祭澤村大地ICONIC</v>
           </cell>
           <cell r="F20">
-            <v>462</v>
+            <v>485</v>
           </cell>
           <cell r="G20">
-            <v>477</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>プール掃除菅原考支ICONIC</v>
+            <v>ユニフォーム菅原考支ICONIC</v>
           </cell>
           <cell r="F21">
-            <v>466</v>
+            <v>462</v>
           </cell>
           <cell r="G21">
-            <v>487</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>文化祭菅原考支ICONIC</v>
+            <v>プール掃除菅原考支ICONIC</v>
           </cell>
           <cell r="F22">
-            <v>464</v>
+            <v>466</v>
           </cell>
           <cell r="G22">
-            <v>489</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>ユニフォーム東峰旭ICONIC</v>
+            <v>文化祭菅原考支ICONIC</v>
           </cell>
           <cell r="F23">
-            <v>465</v>
+            <v>464</v>
           </cell>
           <cell r="G23">
-            <v>485</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>プール掃除東峰旭ICONIC</v>
+            <v>ユニフォーム東峰旭ICONIC</v>
           </cell>
           <cell r="F24">
-            <v>453</v>
+            <v>465</v>
           </cell>
           <cell r="G24">
-            <v>477</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>ユニフォーム東峰旭YELL</v>
+            <v>プール掃除東峰旭ICONIC</v>
           </cell>
           <cell r="F25">
-            <v>461</v>
+            <v>453</v>
           </cell>
           <cell r="G25">
-            <v>491</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>ユニフォーム縁下力ICONIC</v>
+            <v>ユニフォーム東峰旭YELL</v>
           </cell>
           <cell r="F26">
             <v>461</v>
           </cell>
           <cell r="G26">
-            <v>459</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>探偵縁下力ICONIC</v>
+            <v>ユニフォーム縁下力ICONIC</v>
           </cell>
           <cell r="F27">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G27">
-            <v>468</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>ユニフォーム木下久志ICONIC</v>
+            <v>探偵縁下力ICONIC</v>
           </cell>
           <cell r="F28">
-            <v>460</v>
+            <v>467</v>
           </cell>
           <cell r="G28">
-            <v>469</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>ユニフォーム成田一仁ICONIC</v>
+            <v>ユニフォーム木下久志ICONIC</v>
           </cell>
           <cell r="F29">
             <v>460</v>
           </cell>
           <cell r="G29">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>ユニフォーム成田一仁ICONIC</v>
+          </cell>
+          <cell r="F30">
+            <v>460</v>
+          </cell>
+          <cell r="G30">
             <v>464</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248625FA-E8B6-4907-A4D9-BB7318C80D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B58B6-C529-4474-85B5-13B537FC948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6386" yWindow="5722" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="1127" yWindow="1127" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1930,7 +1930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{590D1073-8C29-4F28-A570-38EC19F9ABAB}" type="CELLRANGE">
+                    <a:fld id="{FA57C49B-543F-42C5-803C-7F743FE73E77}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2472,8 +2472,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11308402122546332"/>
-                  <c:y val="-3.8332895918945079E-2"/>
+                  <c:x val="-0.11505525156872685"/>
+                  <c:y val="-3.1291903182468932E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3010,7 +3010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCCC370A-D4D4-4BAE-A104-38585E3CF798}" type="CELLRANGE">
+                    <a:fld id="{9A0CCF45-40E4-4038-9A6E-47CA948ABEC7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3044,7 +3044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36545F45-5EAE-44E5-B9CE-1368836078B7}" type="CELLRANGE">
+                    <a:fld id="{1391C58F-1B6D-4DAE-8DDA-4084733B1A4C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4559,6 +4559,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12037813226949397"/>
+                  <c:y val="-4.4561338476087016E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4573,7 +4579,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4627,8 +4633,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8897346519074181E-2"/>
-                  <c:y val="-9.1889433128864492E-3"/>
+                  <c:x val="-6.2971030923047386E-3"/>
+                  <c:y val="-1.8938010178776471E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5009,13 +5015,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6266411501505091E-3"/>
+                  <c:y val="-1.2321524054650498E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDBCBF5A-4354-49EA-BFBA-8AD1A17D7027}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{F16A3EDB-D694-4D14-867D-5AA8A5EC0C77}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5023,7 +5035,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5033,7 +5045,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5043,6 +5054,45 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2333386644507761E-2"/>
+                  <c:y val="-1.2064448923120462E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DBD678A7-190B-4174-9B6D-504CFBC24BFA}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0A91-426F-8024-23152343A418}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.8664666437033598E-2"/>
@@ -5137,10 +5187,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]烏野!$F$2:$F$30</c:f>
+              <c:f>[1]烏野!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>493</c:v>
                 </c:pt>
@@ -5184,48 +5234,51 @@
                   <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
@@ -5233,10 +5286,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]烏野!$G$2:$G$30</c:f>
+              <c:f>[1]烏野!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>453</c:v>
                 </c:pt>
@@ -5280,48 +5333,51 @@
                   <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
@@ -5331,9 +5387,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]烏野!$B$2:$B$30</c15:f>
+                <c15:f>[1]烏野!$B$2:$B$31</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="29"/>
+                  <c:ptCount val="30"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム日向翔陽ICONIC</c:v>
                   </c:pt>
@@ -5377,48 +5433,51 @@
                     <c:v>制服西谷夕ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="14">
+                    <c:v>Xmas西谷夕ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
                     <c:v>ユニフォーム田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>制服田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>ユニフォーム澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>プール掃除澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>文化祭澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>ユニフォーム菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>プール掃除菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>文化祭菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>ユニフォーム東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>プール掃除東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>ユニフォーム東峰旭YELL</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>ユニフォーム縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>探偵縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>ユニフォーム木下久志ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>ユニフォーム成田一仁ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -5806,7 +5865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF790A5C-0B86-413D-B86B-BE3B031127F8}" type="CELLRANGE">
+                    <a:fld id="{1F2B6AF3-38C5-419F-A59C-A10D7D109DE6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5840,7 +5899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B7B9F47-CA5C-4F5C-8454-CAD20E4BEC19}" type="CELLRANGE">
+                    <a:fld id="{21EBF961-8AA5-497E-8E39-2DEB2C5115CC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6277,8 +6336,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11032811350611173"/>
-                  <c:y val="-4.6893574835987432E-2"/>
+                  <c:x val="-9.731799676805146E-2"/>
+                  <c:y val="-6.7474929417352947E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7605,8 +7664,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13059679316048547"/>
-                  <c:y val="-1.4992907551032039E-2"/>
+                  <c:x val="-7.5008108430955289E-2"/>
+                  <c:y val="-1.4525512574463237E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8456,7 +8515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AA99EBD-7E79-4B52-8142-0EC821A8F358}" type="CELLRANGE">
+                    <a:fld id="{F12ADF37-C04A-438D-B1E0-6DE73A883CDE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9177,7 +9236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CB4D48F-2C12-424B-9119-B3A69CE481D4}" type="CELLRANGE">
+                    <a:fld id="{65D024B4-2255-43BD-AD8D-98B914FDD736}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16446,166 +16505,177 @@
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>ユニフォーム田中龍之介ICONIC</v>
+            <v>Xmas西谷夕ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>463</v>
+            <v>493</v>
           </cell>
           <cell r="G16">
-            <v>469</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>制服田中龍之介ICONIC</v>
+            <v>ユニフォーム田中龍之介ICONIC</v>
           </cell>
           <cell r="F17">
+            <v>463</v>
+          </cell>
+          <cell r="G17">
             <v>469</v>
-          </cell>
-          <cell r="G17">
-            <v>477</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>ユニフォーム澤村大地ICONIC</v>
+            <v>制服田中龍之介ICONIC</v>
           </cell>
           <cell r="F18">
+            <v>469</v>
+          </cell>
+          <cell r="G18">
             <v>477</v>
-          </cell>
-          <cell r="G18">
-            <v>473</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>プール掃除澤村大地ICONIC</v>
+            <v>ユニフォーム澤村大地ICONIC</v>
           </cell>
           <cell r="F19">
-            <v>483</v>
+            <v>477</v>
           </cell>
           <cell r="G19">
-            <v>481</v>
+            <v>473</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>文化祭澤村大地ICONIC</v>
+            <v>プール掃除澤村大地ICONIC</v>
           </cell>
           <cell r="F20">
-            <v>485</v>
+            <v>483</v>
           </cell>
           <cell r="G20">
-            <v>479</v>
+            <v>481</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>ユニフォーム菅原考支ICONIC</v>
+            <v>文化祭澤村大地ICONIC</v>
           </cell>
           <cell r="F21">
-            <v>462</v>
+            <v>485</v>
           </cell>
           <cell r="G21">
-            <v>477</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>プール掃除菅原考支ICONIC</v>
+            <v>ユニフォーム菅原考支ICONIC</v>
           </cell>
           <cell r="F22">
-            <v>466</v>
+            <v>462</v>
           </cell>
           <cell r="G22">
-            <v>487</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>文化祭菅原考支ICONIC</v>
+            <v>プール掃除菅原考支ICONIC</v>
           </cell>
           <cell r="F23">
-            <v>464</v>
+            <v>466</v>
           </cell>
           <cell r="G23">
-            <v>489</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>ユニフォーム東峰旭ICONIC</v>
+            <v>文化祭菅原考支ICONIC</v>
           </cell>
           <cell r="F24">
-            <v>465</v>
+            <v>464</v>
           </cell>
           <cell r="G24">
-            <v>485</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>プール掃除東峰旭ICONIC</v>
+            <v>ユニフォーム東峰旭ICONIC</v>
           </cell>
           <cell r="F25">
-            <v>453</v>
+            <v>465</v>
           </cell>
           <cell r="G25">
-            <v>477</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>ユニフォーム東峰旭YELL</v>
+            <v>プール掃除東峰旭ICONIC</v>
           </cell>
           <cell r="F26">
-            <v>461</v>
+            <v>453</v>
           </cell>
           <cell r="G26">
-            <v>491</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>ユニフォーム縁下力ICONIC</v>
+            <v>ユニフォーム東峰旭YELL</v>
           </cell>
           <cell r="F27">
             <v>461</v>
           </cell>
           <cell r="G27">
-            <v>459</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>探偵縁下力ICONIC</v>
+            <v>ユニフォーム縁下力ICONIC</v>
           </cell>
           <cell r="F28">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G28">
-            <v>468</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>ユニフォーム木下久志ICONIC</v>
+            <v>探偵縁下力ICONIC</v>
           </cell>
           <cell r="F29">
-            <v>460</v>
+            <v>467</v>
           </cell>
           <cell r="G29">
-            <v>469</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>ユニフォーム成田一仁ICONIC</v>
+            <v>ユニフォーム木下久志ICONIC</v>
           </cell>
           <cell r="F30">
             <v>460</v>
           </cell>
           <cell r="G30">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>ユニフォーム成田一仁ICONIC</v>
+          </cell>
+          <cell r="F31">
+            <v>460</v>
+          </cell>
+          <cell r="G31">
             <v>464</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B58B6-C529-4474-85B5-13B537FC948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3214AC7D-6879-42AB-902F-AFF83ADBBAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1127" yWindow="1127" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="2141" yWindow="2141" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -89,9 +89,6 @@
     <t>鴎台</t>
   </si>
   <si>
-    <t>平均 / TotalStat</t>
-  </si>
-  <si>
     <t>平均 / メンタル</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   <si>
     <t>服装</t>
   </si>
+  <si>
+    <t>平均 / 合計</t>
+  </si>
 </sst>
 </file>
 
@@ -187,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -317,8 +318,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -1888,8 +1889,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7479908351137528E-2"/>
-                  <c:y val="-3.1291775241959037E-2"/>
+                  <c:x val="-5.6525262915563873E-3"/>
+                  <c:y val="-1.5043330465475881E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1930,7 +1931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA57C49B-543F-42C5-803C-7F743FE73E77}" type="CELLRANGE">
+                    <a:fld id="{04C11E5F-7593-4FB0-9C59-CE01B93C76F4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2929,8 +2930,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.785759044260274E-2"/>
-                  <c:y val="-1.3445875965515384E-2"/>
+                  <c:x val="8.5888523850831695E-3"/>
+                  <c:y val="4.9690388230360129E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2968,8 +2969,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0511562523204641E-2"/>
-                  <c:y val="-6.9191080772341039E-3"/>
+                  <c:x val="-8.2924755747486825E-2"/>
+                  <c:y val="-5.8358784254686335E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3005,12 +3006,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8002237827606064E-2"/>
+                  <c:y val="-3.1278042960546813E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A0CCF45-40E4-4038-9A6E-47CA948ABEC7}" type="CELLRANGE">
+                    <a:fld id="{7624D660-9DEA-40E0-8E69-1BCC23761BFF}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2CB4D86E-2741-4144-B34C-804685903588}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3033,18 +3073,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000031-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1391C58F-1B6D-4DAE-8DDA-4084733B1A4C}" type="CELLRANGE">
+                    <a:fld id="{FACD73D9-CC0C-4B94-A149-9D3C0DFA2D0A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3067,7 +3107,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000002-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3131,10 +3171,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]稲荷崎!$F$2:$F$10</c:f>
+              <c:f>[1]稲荷崎!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>465</c:v>
                 </c:pt>
@@ -3151,15 +3191,18 @@
                   <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -3167,10 +3210,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]稲荷崎!$G$2:$G$10</c:f>
+              <c:f>[1]稲荷崎!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>506</c:v>
                 </c:pt>
@@ -3187,15 +3230,18 @@
                   <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>474</c:v>
                 </c:pt>
               </c:numCache>
@@ -3205,9 +3251,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]稲荷崎!$B$2:$B$10</c15:f>
+                <c15:f>[1]稲荷崎!$B$2:$B$11</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム宮侑ICONIC</c:v>
                   </c:pt>
@@ -3224,15 +3270,18 @@
                     <c:v>ユニフォーム北信介ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>Xmas北信介ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>ユニフォーム尾白アランICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム赤木路成ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム大耳練ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム理石平介ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -4327,8 +4376,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3409906217383477E-3"/>
-                  <c:y val="-2.0005742958380457E-3"/>
+                  <c:x val="-2.6014652791522927E-3"/>
+                  <c:y val="-1.4999318930018161E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4522,8 +4571,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11329983214430375"/>
-                  <c:y val="-2.810780506199187E-2"/>
+                  <c:x val="-1.3949822843821687E-2"/>
+                  <c:y val="-2.0525197499633024E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4978,8 +5027,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7161477974496563E-4"/>
-                  <c:y val="-3.1608129476480111E-3"/>
+                  <c:x val="-0.15554407447537955"/>
+                  <c:y val="3.4752224864146211E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5124,6 +5173,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5628,8 +5680,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.3383081540147948E-3"/>
-                  <c:y val="-8.2438563929447001E-3"/>
+                  <c:x val="1.622322572505876E-2"/>
+                  <c:y val="-3.2616513929864206E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5784,7 +5836,7 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8482451890183575E-3"/>
+                  <c:x val="-3.7359161024498419E-2"/>
                   <c:y val="-5.8305475708830944E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -5865,7 +5917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F2B6AF3-38C5-419F-A59C-A10D7D109DE6}" type="CELLRANGE">
+                    <a:fld id="{2537FFE5-2BC7-486A-B2AB-DE96C876DF4A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5899,7 +5951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21EBF961-8AA5-497E-8E39-2DEB2C5115CC}" type="CELLRANGE">
+                    <a:fld id="{CABA9B30-56A0-4D16-B621-5DCAEABEF1C4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8515,7 +8567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F12ADF37-C04A-438D-B1E0-6DE73A883CDE}" type="CELLRANGE">
+                    <a:fld id="{018E6953-672A-49F5-B0B9-BA4E79796643}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9236,7 +9288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65D024B4-2255-43BD-AD8D-98B914FDD736}" type="CELLRANGE">
+                    <a:fld id="{56F7B676-6DB1-410C-968E-DEB00FDD345A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13895,7 +13947,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>平均 / TotalStat</c:v>
+                  <c:v>平均 / 合計</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16160,45 +16212,56 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム尾白アランICONIC</v>
+            <v>Xmas北信介ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>467</v>
+            <v>486</v>
           </cell>
           <cell r="G7">
-            <v>479</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム赤木路成ICONIC</v>
+            <v>ユニフォーム尾白アランICONIC</v>
           </cell>
           <cell r="F8">
-            <v>474</v>
+            <v>467</v>
           </cell>
           <cell r="G8">
-            <v>464</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム大耳練ICONIC</v>
+            <v>ユニフォーム赤木路成ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>476</v>
+            <v>474</v>
           </cell>
           <cell r="G9">
-            <v>466</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
+            <v>ユニフォーム大耳練ICONIC</v>
+          </cell>
+          <cell r="F10">
+            <v>476</v>
+          </cell>
+          <cell r="G10">
+            <v>466</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
             <v>ユニフォーム理石平介ICONIC</v>
           </cell>
-          <cell r="F10">
+          <cell r="F11">
             <v>465</v>
           </cell>
-          <cell r="G10">
+          <cell r="G11">
             <v>474</v>
           </cell>
         </row>
@@ -17317,7 +17380,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45273.700344328703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="152" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45288.798768518522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="158" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Q_Stat" r:id="rId2"/>
   </cacheSource>
@@ -17326,10 +17389,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="服装" numFmtId="0">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="ユニフォーム"/>
         <s v="制服"/>
         <s v="夏祭り"/>
+        <s v="Xmas"/>
         <s v="水着"/>
         <s v="職業体験"/>
         <s v="プール掃除"/>
@@ -17504,7 +17568,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="総合値" numFmtId="0">
-      <sharedItems count="18">
+      <sharedItems count="19">
         <s v="74"/>
         <s v="78"/>
         <s v="75"/>
@@ -17523,6 +17587,7 @@
         <s v="83"/>
         <s v="72"/>
         <s v="87"/>
+        <s v="88"/>
       </sharedItems>
     </cacheField>
     <cacheField name="スパイク" numFmtId="0">
@@ -17578,7 +17643,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="セッティング" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="133" count="21">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="135" count="23">
         <n v="112"/>
         <n v="129"/>
         <n v="118"/>
@@ -17598,12 +17663,14 @@
         <n v="130"/>
         <n v="126"/>
         <n v="132"/>
+        <n v="135"/>
+        <n v="125"/>
         <n v="117"/>
         <n v="133"/>
       </sharedItems>
     </cacheField>
     <cacheField name="頭脳" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113" maxValue="132" count="18">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113" maxValue="132" count="19">
         <n v="114"/>
         <n v="123"/>
         <n v="126"/>
@@ -17620,6 +17687,7 @@
         <n v="116"/>
         <n v="113"/>
         <n v="128"/>
+        <n v="125"/>
         <n v="132"/>
         <n v="130"/>
       </sharedItems>
@@ -17633,7 +17701,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ブロック" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="133" count="22">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="134" count="23">
         <n v="123"/>
         <n v="115"/>
         <n v="127"/>
@@ -17656,10 +17724,11 @@
         <n v="111"/>
         <n v="132"/>
         <n v="133"/>
+        <n v="134"/>
       </sharedItems>
     </cacheField>
     <cacheField name="レシーブ" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="133" count="19">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="136" count="20">
         <n v="112"/>
         <n v="120"/>
         <n v="114"/>
@@ -17678,6 +17747,7 @@
         <n v="121"/>
         <n v="131"/>
         <n v="133"/>
+        <n v="136"/>
         <n v="127"/>
       </sharedItems>
     </cacheField>
@@ -17703,7 +17773,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="スピード" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="111" maxValue="130" count="16">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="111" maxValue="130" count="17">
         <n v="129"/>
         <n v="115"/>
         <n v="119"/>
@@ -17719,6 +17789,7 @@
         <n v="117"/>
         <n v="130"/>
         <n v="126"/>
+        <n v="128"/>
         <n v="111"/>
       </sharedItems>
     </cacheField>
@@ -17787,7 +17858,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="224" maxValue="264"/>
     </cacheField>
     <cacheField name="ReceiveVal" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="223" maxValue="259" count="26">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="223" maxValue="264" count="27">
         <n v="241"/>
         <n v="235"/>
         <n v="229"/>
@@ -17812,6 +17883,7 @@
         <n v="238"/>
         <n v="228"/>
         <n v="259"/>
+        <n v="264"/>
         <n v="248"/>
         <n v="223"/>
       </sharedItems>
@@ -17860,7 +17932,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="152">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="158">
   <r>
     <s v="1"/>
     <x v="0"/>
@@ -17928,7 +18000,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="7"/>
+    <s v="8"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
@@ -17961,7 +18033,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="10"/>
+    <s v="11"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -17994,7 +18066,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="12"/>
+    <s v="13"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
@@ -18027,7 +18099,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="14"/>
+    <s v="16"/>
     <x v="0"/>
     <x v="5"/>
     <x v="1"/>
@@ -18060,7 +18132,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="16"/>
+    <s v="18"/>
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
@@ -18093,7 +18165,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="19"/>
+    <s v="21"/>
     <x v="0"/>
     <x v="7"/>
     <x v="1"/>
@@ -18126,7 +18198,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="22"/>
+    <s v="24"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
@@ -18159,7 +18231,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="24"/>
+    <s v="26"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
@@ -18192,7 +18264,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="25"/>
+    <s v="27"/>
     <x v="0"/>
     <x v="9"/>
     <x v="1"/>
@@ -18225,7 +18297,7 @@
     <x v="8"/>
   </r>
   <r>
-    <s v="27"/>
+    <s v="29"/>
     <x v="0"/>
     <x v="10"/>
     <x v="1"/>
@@ -18258,7 +18330,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="28"/>
+    <s v="30"/>
     <x v="0"/>
     <x v="11"/>
     <x v="1"/>
@@ -18291,7 +18363,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="29"/>
+    <s v="31"/>
     <x v="0"/>
     <x v="12"/>
     <x v="1"/>
@@ -18324,7 +18396,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="32"/>
+    <s v="34"/>
     <x v="0"/>
     <x v="13"/>
     <x v="2"/>
@@ -18357,7 +18429,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="35"/>
+    <s v="37"/>
     <x v="0"/>
     <x v="14"/>
     <x v="2"/>
@@ -18390,7 +18462,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="37"/>
+    <s v="39"/>
     <x v="0"/>
     <x v="15"/>
     <x v="1"/>
@@ -18423,7 +18495,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="38"/>
+    <s v="40"/>
     <x v="0"/>
     <x v="16"/>
     <x v="1"/>
@@ -18456,7 +18528,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="39"/>
+    <s v="41"/>
     <x v="0"/>
     <x v="17"/>
     <x v="1"/>
@@ -18489,7 +18561,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="40"/>
+    <s v="42"/>
     <x v="0"/>
     <x v="18"/>
     <x v="1"/>
@@ -18522,7 +18594,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="41"/>
+    <s v="43"/>
     <x v="0"/>
     <x v="19"/>
     <x v="1"/>
@@ -18555,7 +18627,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="42"/>
+    <s v="44"/>
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
@@ -18588,7 +18660,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="43"/>
+    <s v="45"/>
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
@@ -18621,7 +18693,7 @@
     <x v="14"/>
   </r>
   <r>
-    <s v="44"/>
+    <s v="46"/>
     <x v="0"/>
     <x v="21"/>
     <x v="2"/>
@@ -18654,7 +18726,7 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="47"/>
+    <s v="49"/>
     <x v="0"/>
     <x v="22"/>
     <x v="0"/>
@@ -18687,7 +18759,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="50"/>
+    <s v="52"/>
     <x v="0"/>
     <x v="23"/>
     <x v="2"/>
@@ -18720,7 +18792,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="53"/>
+    <s v="55"/>
     <x v="0"/>
     <x v="24"/>
     <x v="2"/>
@@ -18753,7 +18825,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="54"/>
+    <s v="56"/>
     <x v="0"/>
     <x v="25"/>
     <x v="2"/>
@@ -18786,7 +18858,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="55"/>
+    <s v="57"/>
     <x v="0"/>
     <x v="26"/>
     <x v="2"/>
@@ -18819,7 +18891,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="56"/>
+    <s v="58"/>
     <x v="0"/>
     <x v="27"/>
     <x v="2"/>
@@ -18852,7 +18924,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="57"/>
+    <s v="59"/>
     <x v="0"/>
     <x v="28"/>
     <x v="2"/>
@@ -18885,7 +18957,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="59"/>
+    <s v="62"/>
     <x v="0"/>
     <x v="29"/>
     <x v="0"/>
@@ -18918,7 +18990,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="61"/>
+    <s v="64"/>
     <x v="0"/>
     <x v="30"/>
     <x v="1"/>
@@ -18951,7 +19023,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="62"/>
+    <s v="65"/>
     <x v="0"/>
     <x v="31"/>
     <x v="0"/>
@@ -18984,7 +19056,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="63"/>
+    <s v="66"/>
     <x v="0"/>
     <x v="32"/>
     <x v="2"/>
@@ -19017,7 +19089,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="65"/>
+    <s v="68"/>
     <x v="0"/>
     <x v="33"/>
     <x v="2"/>
@@ -19050,7 +19122,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="66"/>
+    <s v="69"/>
     <x v="0"/>
     <x v="34"/>
     <x v="2"/>
@@ -19083,7 +19155,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="68"/>
+    <s v="71"/>
     <x v="0"/>
     <x v="35"/>
     <x v="2"/>
@@ -19116,7 +19188,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="70"/>
+    <s v="73"/>
     <x v="0"/>
     <x v="36"/>
     <x v="2"/>
@@ -19149,7 +19221,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="71"/>
+    <s v="74"/>
     <x v="0"/>
     <x v="37"/>
     <x v="1"/>
@@ -19182,7 +19254,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="72"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="38"/>
     <x v="1"/>
@@ -19215,7 +19287,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="73"/>
+    <s v="76"/>
     <x v="0"/>
     <x v="39"/>
     <x v="1"/>
@@ -19248,7 +19320,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="74"/>
+    <s v="77"/>
     <x v="0"/>
     <x v="40"/>
     <x v="1"/>
@@ -19281,7 +19353,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="75"/>
+    <s v="78"/>
     <x v="0"/>
     <x v="41"/>
     <x v="1"/>
@@ -19314,7 +19386,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="76"/>
+    <s v="79"/>
     <x v="0"/>
     <x v="42"/>
     <x v="1"/>
@@ -19347,7 +19419,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="77"/>
+    <s v="80"/>
     <x v="0"/>
     <x v="43"/>
     <x v="0"/>
@@ -19380,7 +19452,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="78"/>
+    <s v="81"/>
     <x v="0"/>
     <x v="44"/>
     <x v="0"/>
@@ -19413,7 +19485,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="79"/>
+    <s v="82"/>
     <x v="0"/>
     <x v="45"/>
     <x v="1"/>
@@ -19446,7 +19518,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="80"/>
+    <s v="83"/>
     <x v="0"/>
     <x v="46"/>
     <x v="0"/>
@@ -19479,7 +19551,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="81"/>
+    <s v="84"/>
     <x v="0"/>
     <x v="47"/>
     <x v="0"/>
@@ -19512,7 +19584,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="82"/>
+    <s v="85"/>
     <x v="0"/>
     <x v="48"/>
     <x v="0"/>
@@ -19545,7 +19617,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="83"/>
+    <s v="86"/>
     <x v="0"/>
     <x v="49"/>
     <x v="0"/>
@@ -19578,7 +19650,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="84"/>
+    <s v="87"/>
     <x v="0"/>
     <x v="50"/>
     <x v="2"/>
@@ -19611,7 +19683,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="85"/>
+    <s v="88"/>
     <x v="0"/>
     <x v="51"/>
     <x v="0"/>
@@ -19644,7 +19716,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="86"/>
+    <s v="89"/>
     <x v="0"/>
     <x v="52"/>
     <x v="2"/>
@@ -19677,7 +19749,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="87"/>
+    <s v="90"/>
     <x v="0"/>
     <x v="53"/>
     <x v="2"/>
@@ -19710,7 +19782,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="88"/>
+    <s v="91"/>
     <x v="0"/>
     <x v="54"/>
     <x v="2"/>
@@ -19743,7 +19815,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="89"/>
+    <s v="92"/>
     <x v="0"/>
     <x v="55"/>
     <x v="2"/>
@@ -19776,7 +19848,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="90"/>
+    <s v="93"/>
     <x v="0"/>
     <x v="56"/>
     <x v="2"/>
@@ -19809,7 +19881,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="92"/>
+    <s v="95"/>
     <x v="0"/>
     <x v="57"/>
     <x v="1"/>
@@ -19842,7 +19914,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="94"/>
+    <s v="97"/>
     <x v="0"/>
     <x v="58"/>
     <x v="1"/>
@@ -19875,7 +19947,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="95"/>
+    <s v="98"/>
     <x v="0"/>
     <x v="59"/>
     <x v="2"/>
@@ -19908,7 +19980,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="97"/>
+    <s v="100"/>
     <x v="0"/>
     <x v="60"/>
     <x v="2"/>
@@ -19941,7 +20013,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="98"/>
+    <s v="101"/>
     <x v="0"/>
     <x v="61"/>
     <x v="1"/>
@@ -19974,7 +20046,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="99"/>
+    <s v="102"/>
     <x v="0"/>
     <x v="62"/>
     <x v="1"/>
@@ -20007,7 +20079,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="100"/>
+    <s v="103"/>
     <x v="0"/>
     <x v="63"/>
     <x v="1"/>
@@ -20040,7 +20112,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="101"/>
+    <s v="104"/>
     <x v="0"/>
     <x v="64"/>
     <x v="0"/>
@@ -20073,7 +20145,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="102"/>
+    <s v="105"/>
     <x v="0"/>
     <x v="65"/>
     <x v="1"/>
@@ -20106,7 +20178,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="103"/>
+    <s v="106"/>
     <x v="0"/>
     <x v="66"/>
     <x v="0"/>
@@ -20139,7 +20211,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="104"/>
+    <s v="107"/>
     <x v="0"/>
     <x v="67"/>
     <x v="0"/>
@@ -20172,7 +20244,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="105"/>
+    <s v="108"/>
     <x v="0"/>
     <x v="68"/>
     <x v="0"/>
@@ -20205,7 +20277,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="106"/>
+    <s v="109"/>
     <x v="0"/>
     <x v="69"/>
     <x v="0"/>
@@ -20238,7 +20310,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="107"/>
+    <s v="110"/>
     <x v="0"/>
     <x v="70"/>
     <x v="0"/>
@@ -20271,7 +20343,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="108"/>
+    <s v="111"/>
     <x v="0"/>
     <x v="71"/>
     <x v="2"/>
@@ -20304,7 +20376,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="110"/>
+    <s v="113"/>
     <x v="0"/>
     <x v="72"/>
     <x v="2"/>
@@ -20337,7 +20409,7 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="113"/>
+    <s v="116"/>
     <x v="0"/>
     <x v="73"/>
     <x v="0"/>
@@ -20370,7 +20442,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="115"/>
+    <s v="118"/>
     <x v="0"/>
     <x v="74"/>
     <x v="2"/>
@@ -20403,7 +20475,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="117"/>
+    <s v="120"/>
     <x v="0"/>
     <x v="75"/>
     <x v="2"/>
@@ -20436,7 +20508,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="118"/>
+    <s v="121"/>
     <x v="0"/>
     <x v="76"/>
     <x v="2"/>
@@ -20469,7 +20541,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="119"/>
+    <s v="122"/>
     <x v="0"/>
     <x v="77"/>
     <x v="2"/>
@@ -20502,7 +20574,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="120"/>
+    <s v="123"/>
     <x v="0"/>
     <x v="78"/>
     <x v="2"/>
@@ -20535,7 +20607,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="121"/>
+    <s v="124"/>
     <x v="0"/>
     <x v="79"/>
     <x v="0"/>
@@ -20568,7 +20640,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="123"/>
+    <s v="126"/>
     <x v="0"/>
     <x v="80"/>
     <x v="1"/>
@@ -20601,7 +20673,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="124"/>
+    <s v="127"/>
     <x v="0"/>
     <x v="81"/>
     <x v="0"/>
@@ -20634,7 +20706,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="125"/>
+    <s v="128"/>
     <x v="0"/>
     <x v="82"/>
     <x v="0"/>
@@ -20667,7 +20739,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="126"/>
+    <s v="130"/>
     <x v="0"/>
     <x v="83"/>
     <x v="0"/>
@@ -20700,7 +20772,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="127"/>
+    <s v="131"/>
     <x v="0"/>
     <x v="84"/>
     <x v="0"/>
@@ -20733,7 +20805,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="128"/>
+    <s v="132"/>
     <x v="0"/>
     <x v="85"/>
     <x v="0"/>
@@ -20766,7 +20838,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="129"/>
+    <s v="133"/>
     <x v="0"/>
     <x v="86"/>
     <x v="0"/>
@@ -20799,7 +20871,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="130"/>
+    <s v="134"/>
     <x v="0"/>
     <x v="87"/>
     <x v="1"/>
@@ -20832,7 +20904,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="132"/>
+    <s v="137"/>
     <x v="0"/>
     <x v="88"/>
     <x v="1"/>
@@ -20865,7 +20937,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="134"/>
+    <s v="139"/>
     <x v="0"/>
     <x v="89"/>
     <x v="1"/>
@@ -20898,7 +20970,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="135"/>
+    <s v="140"/>
     <x v="0"/>
     <x v="90"/>
     <x v="1"/>
@@ -20931,7 +21003,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="136"/>
+    <s v="141"/>
     <x v="0"/>
     <x v="91"/>
     <x v="1"/>
@@ -20964,7 +21036,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="137"/>
+    <s v="142"/>
     <x v="0"/>
     <x v="92"/>
     <x v="1"/>
@@ -20997,7 +21069,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="138"/>
+    <s v="143"/>
     <x v="0"/>
     <x v="93"/>
     <x v="2"/>
@@ -21030,7 +21102,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="140"/>
+    <s v="145"/>
     <x v="0"/>
     <x v="94"/>
     <x v="0"/>
@@ -21063,7 +21135,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="142"/>
+    <s v="147"/>
     <x v="0"/>
     <x v="95"/>
     <x v="0"/>
@@ -21096,7 +21168,7 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="143"/>
+    <s v="149"/>
     <x v="0"/>
     <x v="96"/>
     <x v="0"/>
@@ -21129,7 +21201,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="144"/>
+    <s v="150"/>
     <x v="0"/>
     <x v="97"/>
     <x v="0"/>
@@ -21162,7 +21234,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="145"/>
+    <s v="151"/>
     <x v="0"/>
     <x v="98"/>
     <x v="1"/>
@@ -21195,7 +21267,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="146"/>
+    <s v="152"/>
     <x v="0"/>
     <x v="99"/>
     <x v="1"/>
@@ -21228,7 +21300,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="147"/>
+    <s v="153"/>
     <x v="0"/>
     <x v="100"/>
     <x v="1"/>
@@ -21261,7 +21333,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="148"/>
+    <s v="154"/>
     <x v="0"/>
     <x v="101"/>
     <x v="1"/>
@@ -21294,7 +21366,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="149"/>
+    <s v="155"/>
     <x v="0"/>
     <x v="102"/>
     <x v="1"/>
@@ -21327,7 +21399,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="150"/>
+    <s v="156"/>
     <x v="0"/>
     <x v="103"/>
     <x v="1"/>
@@ -21360,7 +21432,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="151"/>
+    <s v="157"/>
     <x v="0"/>
     <x v="104"/>
     <x v="1"/>
@@ -21393,7 +21465,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="152"/>
+    <s v="158"/>
     <x v="0"/>
     <x v="105"/>
     <x v="1"/>
@@ -21558,8 +21630,41 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="8"/>
+    <s v="7"/>
     <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="516"/>
+    <n v="471"/>
+    <s v="Xmas影山飛雄ICONIC"/>
+    <s v="かげやまとびお"/>
+    <n v="1119"/>
+    <x v="12"/>
+    <n v="256"/>
+    <n v="263"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="9"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
@@ -21591,8 +21696,8 @@
     <x v="24"/>
   </r>
   <r>
-    <s v="9"/>
-    <x v="4"/>
+    <s v="10"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
@@ -21624,8 +21729,8 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="11"/>
-    <x v="3"/>
+    <s v="12"/>
+    <x v="4"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
@@ -21657,7 +21762,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="13"/>
+    <s v="14"/>
     <x v="1"/>
     <x v="4"/>
     <x v="2"/>
@@ -21691,6 +21796,39 @@
   </r>
   <r>
     <s v="15"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="13"/>
+    <x v="11"/>
+    <x v="20"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="18"/>
+    <x v="8"/>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="480"/>
+    <n v="493"/>
+    <s v="Xmas西谷夕ICONIC"/>
+    <s v="にしのやゆう"/>
+    <n v="1103"/>
+    <x v="16"/>
+    <n v="236"/>
+    <n v="250"/>
+    <x v="24"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="17"/>
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
@@ -21723,8 +21861,8 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="17"/>
-    <x v="5"/>
+    <s v="19"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="2"/>
     <x v="3"/>
@@ -21736,11 +21874,11 @@
     <x v="6"/>
     <x v="14"/>
     <x v="14"/>
+    <x v="21"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="15"/>
     <x v="19"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="18"/>
     <x v="8"/>
     <x v="10"/>
     <x v="5"/>
@@ -21752,28 +21890,28 @@
     <x v="5"/>
     <n v="243"/>
     <n v="241"/>
-    <x v="24"/>
+    <x v="25"/>
     <x v="17"/>
   </r>
   <r>
-    <s v="18"/>
+    <s v="20"/>
+    <x v="7"/>
     <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="21"/>
+    <x v="10"/>
     <x v="1"/>
     <x v="3"/>
     <x v="19"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="18"/>
     <x v="5"/>
     <x v="10"/>
     <x v="5"/>
@@ -21785,12 +21923,12 @@
     <x v="1"/>
     <n v="239"/>
     <n v="239"/>
-    <x v="24"/>
+    <x v="25"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="20"/>
-    <x v="5"/>
+    <s v="22"/>
+    <x v="6"/>
     <x v="7"/>
     <x v="0"/>
     <x v="1"/>
@@ -21822,8 +21960,8 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="21"/>
-    <x v="6"/>
+    <s v="23"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="0"/>
     <x v="1"/>
@@ -21855,8 +21993,8 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="23"/>
-    <x v="5"/>
+    <s v="25"/>
+    <x v="6"/>
     <x v="8"/>
     <x v="2"/>
     <x v="3"/>
@@ -21874,7 +22012,7 @@
     <x v="3"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="15"/>
+    <x v="16"/>
     <x v="3"/>
     <n v="477"/>
     <n v="453"/>
@@ -21884,12 +22022,12 @@
     <x v="18"/>
     <n v="243"/>
     <n v="229"/>
-    <x v="25"/>
+    <x v="26"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="26"/>
-    <x v="7"/>
+    <s v="28"/>
+    <x v="8"/>
     <x v="9"/>
     <x v="0"/>
     <x v="3"/>
@@ -21921,7 +22059,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="30"/>
+    <s v="32"/>
     <x v="1"/>
     <x v="12"/>
     <x v="1"/>
@@ -21935,7 +22073,7 @@
     <x v="3"/>
     <x v="15"/>
     <x v="16"/>
-    <x v="16"/>
+    <x v="17"/>
     <x v="1"/>
     <x v="14"/>
     <x v="3"/>
@@ -21954,7 +22092,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="31"/>
+    <s v="33"/>
     <x v="2"/>
     <x v="12"/>
     <x v="0"/>
@@ -21968,7 +22106,7 @@
     <x v="16"/>
     <x v="15"/>
     <x v="18"/>
-    <x v="16"/>
+    <x v="17"/>
     <x v="1"/>
     <x v="11"/>
     <x v="1"/>
@@ -21987,7 +22125,7 @@
     <x v="14"/>
   </r>
   <r>
-    <s v="33"/>
+    <s v="35"/>
     <x v="1"/>
     <x v="13"/>
     <x v="2"/>
@@ -22020,7 +22158,7 @@
     <x v="25"/>
   </r>
   <r>
-    <s v="34"/>
+    <s v="36"/>
     <x v="2"/>
     <x v="13"/>
     <x v="1"/>
@@ -22053,8 +22191,8 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="36"/>
-    <x v="7"/>
+    <s v="38"/>
+    <x v="8"/>
     <x v="14"/>
     <x v="1"/>
     <x v="0"/>
@@ -22086,7 +22224,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="45"/>
+    <s v="47"/>
     <x v="1"/>
     <x v="21"/>
     <x v="2"/>
@@ -22119,8 +22257,8 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="46"/>
-    <x v="5"/>
+    <s v="48"/>
+    <x v="6"/>
     <x v="21"/>
     <x v="1"/>
     <x v="0"/>
@@ -22152,7 +22290,7 @@
     <x v="26"/>
   </r>
   <r>
-    <s v="48"/>
+    <s v="50"/>
     <x v="1"/>
     <x v="22"/>
     <x v="0"/>
@@ -22185,8 +22323,8 @@
     <x v="27"/>
   </r>
   <r>
-    <s v="49"/>
-    <x v="5"/>
+    <s v="51"/>
+    <x v="6"/>
     <x v="22"/>
     <x v="2"/>
     <x v="3"/>
@@ -22218,7 +22356,7 @@
     <x v="26"/>
   </r>
   <r>
-    <s v="51"/>
+    <s v="53"/>
     <x v="1"/>
     <x v="23"/>
     <x v="2"/>
@@ -22251,8 +22389,8 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="52"/>
-    <x v="4"/>
+    <s v="54"/>
+    <x v="5"/>
     <x v="23"/>
     <x v="1"/>
     <x v="1"/>
@@ -22284,8 +22422,8 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="58"/>
-    <x v="5"/>
+    <s v="60"/>
+    <x v="6"/>
     <x v="28"/>
     <x v="1"/>
     <x v="1"/>
@@ -22298,7 +22436,7 @@
     <x v="8"/>
     <x v="17"/>
     <x v="18"/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="7"/>
@@ -22317,8 +22455,41 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="60"/>
+    <s v="61"/>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="17"/>
+    <x v="16"/>
+    <x v="19"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
     <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="519"/>
+    <n v="465"/>
+    <s v="Xmas及川徹ICONIC"/>
+    <s v="おいかわとおる"/>
+    <n v="1121"/>
+    <x v="17"/>
+    <n v="254"/>
+    <n v="262"/>
+    <x v="22"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="63"/>
+    <x v="6"/>
     <x v="29"/>
     <x v="2"/>
     <x v="3"/>
@@ -22350,8 +22521,8 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="64"/>
-    <x v="4"/>
+    <s v="67"/>
+    <x v="5"/>
     <x v="32"/>
     <x v="1"/>
     <x v="3"/>
@@ -22383,8 +22554,8 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="67"/>
-    <x v="8"/>
+    <s v="70"/>
+    <x v="9"/>
     <x v="34"/>
     <x v="1"/>
     <x v="0"/>
@@ -22416,8 +22587,8 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="69"/>
-    <x v="8"/>
+    <s v="72"/>
+    <x v="9"/>
     <x v="35"/>
     <x v="1"/>
     <x v="3"/>
@@ -22429,7 +22600,7 @@
     <x v="9"/>
     <x v="14"/>
     <x v="14"/>
-    <x v="19"/>
+    <x v="21"/>
     <x v="3"/>
     <x v="0"/>
     <x v="3"/>
@@ -22449,8 +22620,8 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="91"/>
-    <x v="4"/>
+    <s v="94"/>
+    <x v="5"/>
     <x v="56"/>
     <x v="1"/>
     <x v="3"/>
@@ -22482,7 +22653,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="93"/>
+    <s v="96"/>
     <x v="1"/>
     <x v="57"/>
     <x v="0"/>
@@ -22515,7 +22686,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="96"/>
+    <s v="99"/>
     <x v="1"/>
     <x v="59"/>
     <x v="1"/>
@@ -22548,8 +22719,8 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="109"/>
-    <x v="3"/>
+    <s v="112"/>
+    <x v="4"/>
     <x v="71"/>
     <x v="1"/>
     <x v="3"/>
@@ -22581,8 +22752,8 @@
     <x v="28"/>
   </r>
   <r>
-    <s v="111"/>
-    <x v="3"/>
+    <s v="114"/>
+    <x v="4"/>
     <x v="72"/>
     <x v="1"/>
     <x v="0"/>
@@ -22614,8 +22785,8 @@
     <x v="29"/>
   </r>
   <r>
-    <s v="112"/>
-    <x v="6"/>
+    <s v="115"/>
+    <x v="7"/>
     <x v="72"/>
     <x v="0"/>
     <x v="0"/>
@@ -22647,8 +22818,8 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="114"/>
-    <x v="4"/>
+    <s v="117"/>
+    <x v="5"/>
     <x v="73"/>
     <x v="2"/>
     <x v="3"/>
@@ -22680,8 +22851,8 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="116"/>
-    <x v="7"/>
+    <s v="119"/>
+    <x v="8"/>
     <x v="74"/>
     <x v="1"/>
     <x v="1"/>
@@ -22713,8 +22884,8 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="122"/>
-    <x v="6"/>
+    <s v="125"/>
+    <x v="7"/>
     <x v="79"/>
     <x v="2"/>
     <x v="1"/>
@@ -22726,8 +22897,8 @@
     <x v="15"/>
     <x v="14"/>
     <x v="22"/>
-    <x v="20"/>
-    <x v="17"/>
+    <x v="22"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -22746,7 +22917,40 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="131"/>
+    <s v="129"/>
+    <x v="3"/>
+    <x v="82"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="12"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="486"/>
+    <n v="486"/>
+    <s v="Xmas北信介ICONIC"/>
+    <s v="きたしんすけ"/>
+    <n v="1105"/>
+    <x v="8"/>
+    <n v="242"/>
+    <n v="236"/>
+    <x v="15"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="135"/>
     <x v="2"/>
     <x v="87"/>
     <x v="0"/>
@@ -22779,8 +22983,41 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="133"/>
+    <s v="136"/>
+    <x v="3"/>
+    <x v="87"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="20"/>
     <x v="7"/>
+    <x v="15"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="494"/>
+    <n v="490"/>
+    <s v="Xmas木兎光太郎ICONIC"/>
+    <s v="ぼくとこうたろう"/>
+    <n v="1111"/>
+    <x v="23"/>
+    <n v="246"/>
+    <n v="233"/>
+    <x v="12"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="138"/>
+    <x v="8"/>
     <x v="88"/>
     <x v="0"/>
     <x v="3"/>
@@ -22812,7 +23049,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="139"/>
+    <s v="144"/>
     <x v="2"/>
     <x v="93"/>
     <x v="1"/>
@@ -22845,8 +23082,8 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="141"/>
-    <x v="6"/>
+    <s v="146"/>
+    <x v="7"/>
     <x v="94"/>
     <x v="2"/>
     <x v="3"/>
@@ -22877,25 +23114,59 @@
     <x v="0"/>
     <x v="29"/>
   </r>
+  <r>
+    <s v="148"/>
+    <x v="3"/>
+    <x v="95"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="7"/>
+    <n v="486"/>
+    <n v="486"/>
+    <s v="Xmas昼神幸郎ICONIC"/>
+    <s v="ひるがみさちろう"/>
+    <n v="1114"/>
+    <x v="19"/>
+    <n v="245"/>
+    <n v="235"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="10">
-        <item x="5"/>
+      <items count="11">
+        <item x="6"/>
         <item x="0"/>
         <item x="2"/>
+        <item x="5"/>
         <item x="4"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23242,7 +23513,7 @@
     <dataField name="平均 / レシーブ" fld="17" subtotal="average" baseField="5" baseItem="0"/>
     <dataField name="平均 / スピード" fld="19" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="平均 / メンタル" fld="20" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name="平均 / TotalStat" fld="25" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="平均 / 合計" fld="25" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <chartFormats count="11">
     <chartFormat chart="17" format="22" series="1">
@@ -23641,7 +23912,7 @@
   <dimension ref="A83:L104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X57" sqref="X57"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>
@@ -23649,8 +23920,7 @@
     <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.3984375" customWidth="1"/>
     <col min="14" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.8984375" bestFit="1" customWidth="1"/>
@@ -23806,109 +24076,109 @@
   <sheetData>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L88" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>127.5</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>123.5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>113.5</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>121</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>101</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>124.5</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>120.5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>116.5</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>119</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>38.5</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>1105.5</v>
       </c>
     </row>
@@ -23916,37 +24186,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>122</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>118.5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>116.5</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>122.5</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>101</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>114</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>117.5</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>127</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>120.5</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>38.5</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>1098</v>
       </c>
     </row>
@@ -23954,37 +24224,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>121.25</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>120</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>117.25</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>121.875</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>117.75</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>118.5</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>117.125</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>119</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>35</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>1087.75</v>
       </c>
     </row>
@@ -23992,37 +24262,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>121</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24030,37 +24300,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>122.5</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>119.75</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>116</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>120.25</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>99.5</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>119.25</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>118</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>117.75</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>118.25</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>34.125</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>1085.375</v>
       </c>
     </row>
@@ -24068,37 +24338,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>114</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24106,37 +24376,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>119</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>115.875</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>115</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>120.75</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>98.5</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>116.75</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>118.625</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>117.125</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>117.125</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>35.375</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>1074.125</v>
       </c>
     </row>
@@ -24144,37 +24414,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>117.75</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>120.5</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>118</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24182,37 +24452,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>116</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>41</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24220,37 +24490,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24258,37 +24528,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>36</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="3">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24296,37 +24566,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>120.5</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>117.5</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>116</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>120</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>98.5</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>115.75</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>116</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>115.75</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>117.25</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>33</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>1070.25</v>
       </c>
     </row>
@@ -24334,37 +24604,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="3">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -24372,37 +24642,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="3">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -24410,37 +24680,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>117</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>116</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="3">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -24448,37 +24718,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="3">
         <v>1075.3018867924529</v>
       </c>
     </row>
@@ -24494,11 +24764,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E1130C-3FD1-4DFA-8EA9-1A83EE3EE352}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3214AC7D-6879-42AB-902F-AFF83ADBBAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94A905-0A8F-4E6C-A731-BA247A2C69D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2141" yWindow="2141" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="5973" yWindow="4270" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -187,13 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -420,8 +419,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4295181158241557E-3"/>
-                  <c:y val="-1.531413787841711E-2"/>
+                  <c:x val="-1.8859769591422E-2"/>
+                  <c:y val="-2.3979975092541583E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1180,6 +1179,45 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-2.5364829724191688E-2"/>
+                  <c:y val="-2.3438360266658728E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2795F879-82BC-44D2-AB82-65A0017B3B68}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="4.2550636716713776E-4"/>
                   <c:y val="1.7182751674549367E-2"/>
                 </c:manualLayout>
@@ -1211,7 +1249,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000000-635D-4264-889F-58F8065EC991}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1275,10 +1313,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]音駒!$F$2:$F$16</c:f>
+              <c:f>[1]音駒!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>458</c:v>
                 </c:pt>
@@ -1316,12 +1354,15 @@
                   <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -1329,10 +1370,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]音駒!$G$2:$G$16</c:f>
+              <c:f>[1]音駒!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>484</c:v>
                 </c:pt>
@@ -1370,12 +1411,15 @@
                   <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -1385,9 +1429,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]音駒!$B$2:$B$16</c15:f>
+                <c15:f>[1]音駒!$B$2:$B$17</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="15"/>
+                  <c:ptCount val="16"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム孤爪研磨ICONIC</c:v>
                   </c:pt>
@@ -1425,12 +1469,15 @@
                     <c:v>ユニフォーム山本猛虎ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="12">
+                    <c:v>新年山本猛虎ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>ユニフォーム芝山優生ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>ユニフォーム海信之ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ユニフォーム海信之YELL</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -1931,7 +1978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04C11E5F-7593-4FB0-9C59-CE01B93C76F4}" type="CELLRANGE">
+                    <a:fld id="{B2A08483-98C1-495F-B52E-6F62C2D38D15}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3050,7 +3097,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CB4D86E-2741-4144-B34C-804685903588}" type="CELLRANGE">
+                    <a:fld id="{251A5252-8EC8-4E20-BA78-595B7B8D4A4E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3084,7 +3131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FACD73D9-CC0C-4B94-A149-9D3C0DFA2D0A}" type="CELLRANGE">
+                    <a:fld id="{30206871-718D-40D5-8130-921DF6FCEFE8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4302,6 +4349,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8662646557095704E-2"/>
+                  <c:y val="-1.3689293400768944E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4316,7 +4369,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4647,6 +4700,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2818206246198785E-2"/>
+                  <c:y val="-1.2606063749003317E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4661,7 +4720,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4682,8 +4741,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2971030923047386E-3"/>
-                  <c:y val="-1.8938010178776471E-2"/>
+                  <c:x val="-2.8769129005509014E-2"/>
+                  <c:y val="-7.0224840093554303E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4721,8 +4780,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.343100122607423E-2"/>
-                  <c:y val="-2.3732964614470407E-3"/>
+                  <c:x val="3.574849509756508E-3"/>
+                  <c:y val="-1.5913667108516327E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4797,6 +4856,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.357593973982988E-3"/>
+                  <c:y val="-6.1066858384100208E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4811,7 +4876,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4832,8 +4897,8 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.6505007610315357E-3"/>
-                  <c:y val="-5.266341364476442E-3"/>
+                  <c:x val="-3.5999012087646839E-3"/>
+                  <c:y val="-2.097315987215843E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4949,8 +5014,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15413217959563638"/>
-                  <c:y val="6.1469222671754802E-2"/>
+                  <c:x val="-4.4926015844842598E-2"/>
+                  <c:y val="-1.8689762942440753E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5105,8 +5170,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2333386644507761E-2"/>
-                  <c:y val="-1.2064448923120462E-2"/>
+                  <c:x val="8.3432091456146964E-3"/>
+                  <c:y val="-6.9053757958227515E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5142,6 +5207,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D0025A13-7044-40FA-A4C6-212F56494C98}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.8664666437033598E-2"/>
@@ -5175,7 +5274,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
+                  <c16:uniqueId val="{00000001-635D-4264-889F-58F8065EC991}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5239,10 +5338,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]烏野!$F$2:$F$31</c:f>
+              <c:f>[1]烏野!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>493</c:v>
                 </c:pt>
@@ -5295,42 +5394,45 @@
                   <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
@@ -5338,10 +5440,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]烏野!$G$2:$G$31</c:f>
+              <c:f>[1]烏野!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>453</c:v>
                 </c:pt>
@@ -5394,42 +5496,45 @@
                   <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
@@ -5439,9 +5544,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]烏野!$B$2:$B$31</c15:f>
+                <c15:f>[1]烏野!$B$2:$B$32</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="30"/>
+                  <c:ptCount val="31"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム日向翔陽ICONIC</c:v>
                   </c:pt>
@@ -5494,42 +5599,45 @@
                     <c:v>制服田中龍之介ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="17">
+                    <c:v>新年田中龍之介ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>ユニフォーム澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>プール掃除澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>文化祭澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>ユニフォーム菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>プール掃除菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>文化祭菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>ユニフォーム東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>プール掃除東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>ユニフォーム東峰旭YELL</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>ユニフォーム縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>探偵縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>ユニフォーム木下久志ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>ユニフォーム成田一仁ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -5917,7 +6025,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2537FFE5-2BC7-486A-B2AB-DE96C876DF4A}" type="CELLRANGE">
+                    <a:fld id="{C2E50E5E-6AFF-490C-9873-55BB8B3C81E6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5951,7 +6059,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CABA9B30-56A0-4D16-B621-5DCAEABEF1C4}" type="CELLRANGE">
+                    <a:fld id="{2BB3DC4A-73A3-4D1B-A05C-C847D2104B2D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8192,8 +8300,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4913961228041116E-2"/>
-                  <c:y val="-3.653946849588624E-2"/>
+                  <c:x val="-4.4079100786182594E-2"/>
+                  <c:y val="-1.0541956853512977E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8492,8 +8600,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0807715268403148E-2"/>
-                  <c:y val="-2.0273015014836818E-2"/>
+                  <c:x val="1.7708477941963503E-3"/>
+                  <c:y val="-1.4856878495494739E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8567,7 +8675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{018E6953-672A-49F5-B0B9-BA4E79796643}" type="CELLRANGE">
+                    <a:fld id="{F574EA0F-820A-480D-84CE-3D9757322C03}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9288,7 +9396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56F7B676-6DB1-410C-968E-DEB00FDD345A}" type="CELLRANGE">
+                    <a:fld id="{541B417B-EB74-4961-B018-F6B7C994AC76}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15876,34 +15984,45 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム芝山優生ICONIC</v>
+            <v>新年山本猛虎ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>472</v>
+            <v>467</v>
           </cell>
           <cell r="G14">
-            <v>458</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ユニフォーム海信之ICONIC</v>
+            <v>ユニフォーム芝山優生ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>466</v>
+            <v>472</v>
           </cell>
           <cell r="G15">
-            <v>481</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
+            <v>ユニフォーム海信之ICONIC</v>
+          </cell>
+          <cell r="F16">
+            <v>466</v>
+          </cell>
+          <cell r="G16">
+            <v>481</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
             <v>ユニフォーム海信之YELL</v>
           </cell>
-          <cell r="F16">
+          <cell r="F17">
             <v>450</v>
           </cell>
-          <cell r="G16">
+          <cell r="G17">
             <v>465</v>
           </cell>
         </row>
@@ -16601,144 +16720,155 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>ユニフォーム澤村大地ICONIC</v>
+            <v>新年田中龍之介ICONIC</v>
           </cell>
           <cell r="F19">
-            <v>477</v>
+            <v>472</v>
           </cell>
           <cell r="G19">
-            <v>473</v>
+            <v>474</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>プール掃除澤村大地ICONIC</v>
+            <v>ユニフォーム澤村大地ICONIC</v>
           </cell>
           <cell r="F20">
-            <v>483</v>
+            <v>477</v>
           </cell>
           <cell r="G20">
-            <v>481</v>
+            <v>473</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>文化祭澤村大地ICONIC</v>
+            <v>プール掃除澤村大地ICONIC</v>
           </cell>
           <cell r="F21">
-            <v>485</v>
+            <v>483</v>
           </cell>
           <cell r="G21">
-            <v>479</v>
+            <v>481</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>ユニフォーム菅原考支ICONIC</v>
+            <v>文化祭澤村大地ICONIC</v>
           </cell>
           <cell r="F22">
-            <v>462</v>
+            <v>485</v>
           </cell>
           <cell r="G22">
-            <v>477</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>プール掃除菅原考支ICONIC</v>
+            <v>ユニフォーム菅原考支ICONIC</v>
           </cell>
           <cell r="F23">
-            <v>466</v>
+            <v>462</v>
           </cell>
           <cell r="G23">
-            <v>487</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>文化祭菅原考支ICONIC</v>
+            <v>プール掃除菅原考支ICONIC</v>
           </cell>
           <cell r="F24">
-            <v>464</v>
+            <v>466</v>
           </cell>
           <cell r="G24">
-            <v>489</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>ユニフォーム東峰旭ICONIC</v>
+            <v>文化祭菅原考支ICONIC</v>
           </cell>
           <cell r="F25">
-            <v>465</v>
+            <v>464</v>
           </cell>
           <cell r="G25">
-            <v>485</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>プール掃除東峰旭ICONIC</v>
+            <v>ユニフォーム東峰旭ICONIC</v>
           </cell>
           <cell r="F26">
-            <v>453</v>
+            <v>465</v>
           </cell>
           <cell r="G26">
-            <v>477</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>ユニフォーム東峰旭YELL</v>
+            <v>プール掃除東峰旭ICONIC</v>
           </cell>
           <cell r="F27">
-            <v>461</v>
+            <v>453</v>
           </cell>
           <cell r="G27">
-            <v>491</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>ユニフォーム縁下力ICONIC</v>
+            <v>ユニフォーム東峰旭YELL</v>
           </cell>
           <cell r="F28">
             <v>461</v>
           </cell>
           <cell r="G28">
-            <v>459</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>探偵縁下力ICONIC</v>
+            <v>ユニフォーム縁下力ICONIC</v>
           </cell>
           <cell r="F29">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G29">
-            <v>468</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>ユニフォーム木下久志ICONIC</v>
+            <v>探偵縁下力ICONIC</v>
           </cell>
           <cell r="F30">
-            <v>460</v>
+            <v>467</v>
           </cell>
           <cell r="G30">
-            <v>469</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>ユニフォーム成田一仁ICONIC</v>
+            <v>ユニフォーム木下久志ICONIC</v>
           </cell>
           <cell r="F31">
             <v>460</v>
           </cell>
           <cell r="G31">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ユニフォーム成田一仁ICONIC</v>
+          </cell>
+          <cell r="F32">
+            <v>460</v>
+          </cell>
+          <cell r="G32">
             <v>464</v>
           </cell>
         </row>
@@ -23151,7 +23281,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -24148,37 +24278,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>127.5</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>123.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>113.5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>121</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>101</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>124.5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89">
         <v>120.5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89">
         <v>116.5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>119</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <v>38.5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>1105.5</v>
       </c>
     </row>
@@ -24186,37 +24316,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>122</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>118.5</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>116.5</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>122.5</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>101</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>114</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90">
         <v>117.5</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90">
         <v>127</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>120.5</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <v>38.5</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>1098</v>
       </c>
     </row>
@@ -24224,37 +24354,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>121.25</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>120</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>117.25</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>121.875</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>117.75</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91">
         <v>118.5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91">
         <v>117.125</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>119</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91">
         <v>35</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>1087.75</v>
       </c>
     </row>
@@ -24262,37 +24392,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>121</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24300,37 +24430,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>122.5</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>119.75</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>116</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>120.25</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>99.5</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>119.25</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93">
         <v>118</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93">
         <v>117.75</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>118.25</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>34.125</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>1085.375</v>
       </c>
     </row>
@@ -24338,37 +24468,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>114</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24376,37 +24506,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>119</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>115.875</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>115</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>120.75</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>98.5</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>116.75</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95">
         <v>118.625</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95">
         <v>117.125</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>117.125</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95">
         <v>35.375</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95">
         <v>1074.125</v>
       </c>
     </row>
@@ -24414,37 +24544,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>117.75</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>120.5</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96">
         <v>118</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24452,37 +24582,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>116</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97">
         <v>41</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24490,37 +24620,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24528,37 +24658,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>36</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24566,37 +24696,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>120.5</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>117.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>116</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>120</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>98.5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>115.75</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100">
         <v>116</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>115.75</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>117.25</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100">
         <v>33</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>1070.25</v>
       </c>
     </row>
@@ -24604,37 +24734,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101">
         <v>116</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -24642,37 +24772,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -24680,37 +24810,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>117</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>116</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -24718,37 +24848,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94A905-0A8F-4E6C-A731-BA247A2C69D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE20EA-5B62-4EBD-9C70-74DBBC362ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5973" yWindow="4270" windowWidth="33496" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="764" yWindow="939" windowWidth="33495" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -187,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -341,8 +342,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2588737519911992E-3"/>
-                  <c:y val="1.2535170296999599E-2"/>
+                  <c:x val="2.0451747633840642E-2"/>
+                  <c:y val="2.1742636746442043E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -762,8 +763,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8285928606569302E-2"/>
-                  <c:y val="2.3455760176025671E-5"/>
+                  <c:x val="-5.6708944331958479E-2"/>
+                  <c:y val="-4.3094628468861714E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1062,8 +1063,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.30010164131188E-2"/>
-                  <c:y val="-3.5665173831558816E-2"/>
+                  <c:x val="6.5629739489648217E-2"/>
+                  <c:y val="1.1996938980650192E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1101,8 +1102,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.5771347710628603E-3"/>
-                  <c:y val="-1.9926691793614216E-2"/>
+                  <c:x val="-6.0079220487981019E-2"/>
+                  <c:y val="-1.0177624927724274E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1179,8 +1180,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5364829724191688E-2"/>
-                  <c:y val="-2.3438360266658728E-2"/>
+                  <c:x val="8.1460861112884007E-3"/>
+                  <c:y val="-2.3438360266658888E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1216,6 +1217,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1761B178-7CEC-4A20-995F-1255312AE7F4}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-635D-4264-889F-58F8065EC991}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="4.2550636716713776E-4"/>
@@ -1247,9 +1282,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-635D-4264-889F-58F8065EC991}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1313,10 +1345,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]音駒!$F$2:$F$17</c:f>
+              <c:f>[1]音駒!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>458</c:v>
                 </c:pt>
@@ -1351,18 +1383,21 @@
                   <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -1370,10 +1405,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]音駒!$G$2:$G$17</c:f>
+              <c:f>[1]音駒!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>484</c:v>
                 </c:pt>
@@ -1408,18 +1443,21 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -1429,9 +1467,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]音駒!$B$2:$B$17</c15:f>
+                <c15:f>[1]音駒!$B$2:$B$18</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム孤爪研磨ICONIC</c:v>
                   </c:pt>
@@ -1466,18 +1504,21 @@
                     <c:v>ユニフォーム犬岡走ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>新年犬岡走ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>ユニフォーム山本猛虎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>新年山本猛虎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>ユニフォーム芝山優生ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ユニフォーム海信之ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>ユニフォーム海信之YELL</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -1978,7 +2019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2A08483-98C1-495F-B52E-6F62C2D38D15}" type="CELLRANGE">
+                    <a:fld id="{C2B5B917-0B39-457E-A49C-7E004FA23086}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3097,7 +3138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{251A5252-8EC8-4E20-BA78-595B7B8D4A4E}" type="CELLRANGE">
+                    <a:fld id="{859096A8-4D95-439F-AE3A-C508F2A0192F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3131,7 +3172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30206871-718D-40D5-8130-921DF6FCEFE8}" type="CELLRANGE">
+                    <a:fld id="{F03BC8AA-5966-4AC3-BC08-FB204105912F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3442,8 +3483,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.4551186786884008E-3"/>
-                  <c:y val="1.9703855318323089E-2"/>
+                  <c:x val="2.0113347917747423E-2"/>
+                  <c:y val="6.1634914248726077E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3481,8 +3522,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.2419140251870012E-2"/>
-                  <c:y val="-1.2814497114137449E-2"/>
+                  <c:x val="9.6213424829878161E-3"/>
+                  <c:y val="-1.0648019536345378E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3520,8 +3561,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8534241321768641E-2"/>
-                  <c:y val="-6.832344347341042E-3"/>
+                  <c:x val="-3.1785421860677537E-2"/>
+                  <c:y val="-1.2248512670247238E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3559,8 +3600,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9691667078676819E-2"/>
-                  <c:y val="-6.0459966425906814E-2"/>
+                  <c:x val="-5.5476940888917478E-4"/>
+                  <c:y val="-1.2797846573569839E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3598,8 +3639,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8242539497660832E-3"/>
-                  <c:y val="-1.4753933738243694E-2"/>
+                  <c:x val="-6.6111278467360091E-2"/>
+                  <c:y val="-3.9126596196465184E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3637,8 +3678,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3954810561791448E-2"/>
-                  <c:y val="-3.6320126114645176E-2"/>
+                  <c:x val="-4.5425249331147693E-2"/>
+                  <c:y val="-5.9609573327781287E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3754,8 +3795,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1198212519367727E-3"/>
-                  <c:y val="-5.3459856831157504E-2"/>
+                  <c:x val="-5.8776811526538159E-2"/>
+                  <c:y val="-5.7792775438219701E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3832,6 +3873,45 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-2.3196476346601772E-2"/>
+                  <c:y val="-3.5353886436079847E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D73E53A1-89A5-4E13-AD2C-ACF1D1CF1390}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="6.9053812532556772E-4"/>
                   <c:y val="6.5920599264507829E-2"/>
                 </c:manualLayout>
@@ -3861,9 +3941,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3927,10 +4004,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]白鳥沢!$F$2:$F$14</c:f>
+              <c:f>[1]白鳥沢!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>472</c:v>
                 </c:pt>
@@ -3938,36 +4015,39 @@
                   <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
@@ -3975,10 +4055,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]白鳥沢!$G$2:$G$14</c:f>
+              <c:f>[1]白鳥沢!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>497</c:v>
                 </c:pt>
@@ -3986,36 +4066,39 @@
                   <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>456</c:v>
                 </c:pt>
               </c:numCache>
@@ -4025,9 +4108,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]白鳥沢!$B$2:$B$14</c15:f>
+                <c15:f>[1]白鳥沢!$B$2:$B$15</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="14"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム牛島若利ICONIC</c:v>
                   </c:pt>
@@ -4035,36 +4118,39 @@
                     <c:v>水着牛島若利ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>新年牛島若利ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>ユニフォーム天童覚ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>水着天童覚ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>文化祭天童覚ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム五色工ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>職業体験五色工ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム白布賢二郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>探偵白布賢二郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム大平獅音ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ユニフォーム川西太一ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム瀬見英太ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ユニフォーム山形隼人ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -4429,8 +4515,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6014652791522927E-3"/>
-                  <c:y val="-1.4999318930018161E-2"/>
+                  <c:x val="-1.7582815887955142E-2"/>
+                  <c:y val="-1.7707393059432034E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5212,7 +5298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0025A13-7044-40FA-A4C6-212F56494C98}" type="CELLRANGE">
+                    <a:fld id="{2A883E62-5DCF-4A87-905F-4A8B1F7BAAED}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6025,7 +6111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2E50E5E-6AFF-490C-9873-55BB8B3C81E6}" type="CELLRANGE">
+                    <a:fld id="{AB7DAA87-2823-46D8-9A73-74A424BA753B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6059,7 +6145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BB3DC4A-73A3-4D1B-A05C-C847D2104B2D}" type="CELLRANGE">
+                    <a:fld id="{DCD0A619-EC95-42D4-9B56-4B654FAC6E6C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6307,8 +6393,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8998323642217126E-2"/>
-                  <c:y val="-2.4224896503651103E-2"/>
+                  <c:x val="-8.2834234366684328E-2"/>
+                  <c:y val="-1.9350362442670924E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6418,8 +6504,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4091847895476861E-2"/>
-                  <c:y val="-2.8568931661208531E-2"/>
+                  <c:x val="-3.0937885942066843E-2"/>
+                  <c:y val="-2.9110560132935386E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6457,8 +6543,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3698689960669764E-2"/>
-                  <c:y val="-3.3972683336405407E-2"/>
+                  <c:x val="-2.2121705686058996E-2"/>
+                  <c:y val="-5.1304357764654196E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8378,8 +8464,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8706684879872242E-2"/>
-                  <c:y val="-2.919457911493234E-2"/>
+                  <c:x val="-2.5014633669036449E-2"/>
+                  <c:y val="-7.0898915994175846E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8675,7 +8761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F574EA0F-820A-480D-84CE-3D9757322C03}" type="CELLRANGE">
+                    <a:fld id="{7FA682BF-D11B-45DE-AEAC-747A463A399C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9159,8 +9245,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.9450409290933626E-3"/>
-                  <c:y val="-4.6041097043777228E-2"/>
+                  <c:x val="2.4171630028065411E-2"/>
+                  <c:y val="-4.5499483589454597E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9198,8 +9284,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9098649708419792E-2"/>
-                  <c:y val="1.1776085720235909E-2"/>
+                  <c:x val="7.1719878917408985E-3"/>
+                  <c:y val="-2.2345663017149481E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9237,8 +9323,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0012250808545972E-2"/>
-                  <c:y val="-3.8986885159489359E-3"/>
+                  <c:x val="-2.0299947375910583E-2"/>
+                  <c:y val="7.4752228275893305E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9315,8 +9401,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7259831085852081E-3"/>
-                  <c:y val="-2.000574295838135E-3"/>
+                  <c:x val="-3.6487101137837617E-2"/>
+                  <c:y val="-6.8750965417765427E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9391,12 +9477,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4880010122500633E-2"/>
+                  <c:y val="-2.6688049221955536E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{541B417B-EB74-4961-B018-F6B7C994AC76}" type="CELLRANGE">
+                    <a:fld id="{3F02F7CE-2CBA-44F3-B49C-3295F22CB68D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{000000A2-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB1154B2-D63C-403C-B713-2F62AC028327}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9419,12 +9544,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000A2-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{000000A3-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="2.641895614563908E-3"/>
@@ -9456,9 +9581,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{000000A3-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -9522,32 +9644,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]戸美!$F$2:$F$9</c:f>
+              <c:f>[1]戸美!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
@@ -9555,32 +9680,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]戸美!$G$2:$G$9</c:f>
+              <c:f>[1]戸美!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>456</c:v>
                 </c:pt>
               </c:numCache>
@@ -9590,31 +9718,34 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]戸美!$B$2:$B$9</c15:f>
+                <c15:f>[1]戸美!$B$2:$B$10</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム大将優ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>新年大将優ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>ユニフォーム沼井和馬ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ユニフォーム潜尚保ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>ユニフォーム高千穂恵也ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ユニフォーム広尾倖児ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム先島伊澄ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム背黒晃彦ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム赤間颯ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -15727,32 +15858,32 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>ユニフォーム沼井和馬ICONIC</v>
+            <v>新年大将優ICONIC</v>
           </cell>
           <cell r="F3">
-            <v>477</v>
+            <v>485</v>
           </cell>
           <cell r="G3">
-            <v>479</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム潜尚保ICONIC</v>
+            <v>ユニフォーム沼井和馬ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>469</v>
+            <v>477</v>
           </cell>
           <cell r="G4">
-            <v>476</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム高千穂恵也ICONIC</v>
+            <v>ユニフォーム潜尚保ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>465</v>
+            <v>469</v>
           </cell>
           <cell r="G5">
             <v>476</v>
@@ -15760,45 +15891,56 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>ユニフォーム広尾倖児ICONIC</v>
+            <v>ユニフォーム高千穂恵也ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>468</v>
+            <v>465</v>
           </cell>
           <cell r="G6">
-            <v>466</v>
+            <v>476</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム先島伊澄ICONIC</v>
+            <v>ユニフォーム広尾倖児ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>462</v>
+            <v>468</v>
           </cell>
           <cell r="G7">
-            <v>471</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム背黒晃彦ICONIC</v>
+            <v>ユニフォーム先島伊澄ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>467</v>
+            <v>462</v>
           </cell>
           <cell r="G8">
-            <v>458</v>
+            <v>471</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
+            <v>ユニフォーム背黒晃彦ICONIC</v>
+          </cell>
+          <cell r="F9">
+            <v>467</v>
+          </cell>
+          <cell r="G9">
+            <v>458</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
             <v>ユニフォーム赤間颯ICONIC</v>
           </cell>
-          <cell r="F9">
+          <cell r="F10">
             <v>470</v>
           </cell>
-          <cell r="G9">
+          <cell r="G10">
             <v>456</v>
           </cell>
         </row>
@@ -15973,56 +16115,67 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム山本猛虎ICONIC</v>
+            <v>新年犬岡走ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>461</v>
+            <v>475</v>
           </cell>
           <cell r="G13">
-            <v>479</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>新年山本猛虎ICONIC</v>
+            <v>ユニフォーム山本猛虎ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G14">
-            <v>486</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ユニフォーム芝山優生ICONIC</v>
+            <v>新年山本猛虎ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>472</v>
+            <v>467</v>
           </cell>
           <cell r="G15">
-            <v>458</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>ユニフォーム海信之ICONIC</v>
+            <v>ユニフォーム芝山優生ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>466</v>
+            <v>472</v>
           </cell>
           <cell r="G16">
-            <v>481</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
+            <v>ユニフォーム海信之ICONIC</v>
+          </cell>
+          <cell r="F17">
+            <v>466</v>
+          </cell>
+          <cell r="G17">
+            <v>481</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
             <v>ユニフォーム海信之YELL</v>
           </cell>
-          <cell r="F17">
+          <cell r="F18">
             <v>450</v>
           </cell>
-          <cell r="G17">
+          <cell r="G18">
             <v>465</v>
           </cell>
         </row>
@@ -16410,122 +16563,133 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム天童覚ICONIC</v>
+            <v>新年牛島若利ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>474</v>
+            <v>472</v>
           </cell>
           <cell r="G4">
-            <v>477</v>
+            <v>511</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>水着天童覚ICONIC</v>
+            <v>ユニフォーム天童覚ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>482</v>
+            <v>474</v>
           </cell>
           <cell r="G5">
-            <v>483</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>文化祭天童覚ICONIC</v>
+            <v>水着天童覚ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>485</v>
+            <v>482</v>
           </cell>
           <cell r="G6">
-            <v>480</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム五色工ICONIC</v>
+            <v>文化祭天童覚ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>478</v>
+            <v>485</v>
           </cell>
           <cell r="G7">
-            <v>484</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>職業体験五色工ICONIC</v>
+            <v>ユニフォーム五色工ICONIC</v>
           </cell>
           <cell r="F8">
+            <v>478</v>
+          </cell>
+          <cell r="G8">
             <v>484</v>
-          </cell>
-          <cell r="G8">
-            <v>492</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム白布賢二郎ICONIC</v>
+            <v>職業体験五色工ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>468</v>
+            <v>484</v>
           </cell>
           <cell r="G9">
-            <v>489</v>
+            <v>492</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>探偵白布賢二郎ICONIC</v>
+            <v>ユニフォーム白布賢二郎ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>472</v>
+            <v>468</v>
           </cell>
           <cell r="G10">
-            <v>499</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム大平獅音ICONIC</v>
+            <v>探偵白布賢二郎ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>478</v>
+            <v>472</v>
           </cell>
           <cell r="G11">
-            <v>484</v>
+            <v>499</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ユニフォーム川西太一ICONIC</v>
+            <v>ユニフォーム大平獅音ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>470</v>
+            <v>478</v>
           </cell>
           <cell r="G12">
-            <v>477</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム瀬見英太ICONIC</v>
+            <v>ユニフォーム川西太一ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>469</v>
+            <v>470</v>
           </cell>
           <cell r="G13">
-            <v>479</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
+            <v>ユニフォーム瀬見英太ICONIC</v>
+          </cell>
+          <cell r="F14">
+            <v>469</v>
+          </cell>
+          <cell r="G14">
+            <v>479</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
             <v>ユニフォーム山形隼人ICONIC</v>
           </cell>
-          <cell r="F14">
+          <cell r="F15">
             <v>470</v>
           </cell>
-          <cell r="G14">
+          <cell r="G15">
             <v>456</v>
           </cell>
         </row>
@@ -17510,7 +17674,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45288.798768518522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="158" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45296.701024074071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="160" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Q_Stat" r:id="rId2"/>
   </cacheSource>
@@ -17519,13 +17683,14 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="服装" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="ユニフォーム"/>
         <s v="制服"/>
         <s v="夏祭り"/>
         <s v="Xmas"/>
         <s v="水着"/>
         <s v="職業体験"/>
+        <s v="新年"/>
         <s v="プール掃除"/>
         <s v="文化祭"/>
         <s v="探偵"/>
@@ -17800,7 +17965,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="頭脳" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113" maxValue="132" count="19">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="132" count="20">
         <n v="114"/>
         <n v="123"/>
         <n v="126"/>
@@ -17818,6 +17983,7 @@
         <n v="113"/>
         <n v="128"/>
         <n v="125"/>
+        <n v="112"/>
         <n v="132"/>
         <n v="130"/>
       </sharedItems>
@@ -18062,7 +18228,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="158">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="160">
   <r>
     <s v="1"/>
     <x v="0"/>
@@ -18262,7 +18428,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="18"/>
+    <s v="19"/>
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
@@ -18295,7 +18461,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="21"/>
+    <s v="22"/>
     <x v="0"/>
     <x v="7"/>
     <x v="1"/>
@@ -18328,7 +18494,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="24"/>
+    <s v="25"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
@@ -18361,7 +18527,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="26"/>
+    <s v="27"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
@@ -18394,7 +18560,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="27"/>
+    <s v="28"/>
     <x v="0"/>
     <x v="9"/>
     <x v="1"/>
@@ -18427,7 +18593,7 @@
     <x v="8"/>
   </r>
   <r>
-    <s v="29"/>
+    <s v="30"/>
     <x v="0"/>
     <x v="10"/>
     <x v="1"/>
@@ -18460,7 +18626,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="30"/>
+    <s v="31"/>
     <x v="0"/>
     <x v="11"/>
     <x v="1"/>
@@ -18493,7 +18659,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="31"/>
+    <s v="32"/>
     <x v="0"/>
     <x v="12"/>
     <x v="1"/>
@@ -18526,7 +18692,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="34"/>
+    <s v="35"/>
     <x v="0"/>
     <x v="13"/>
     <x v="2"/>
@@ -18559,7 +18725,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="37"/>
+    <s v="38"/>
     <x v="0"/>
     <x v="14"/>
     <x v="2"/>
@@ -18592,7 +18758,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="39"/>
+    <s v="40"/>
     <x v="0"/>
     <x v="15"/>
     <x v="1"/>
@@ -18625,7 +18791,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="40"/>
+    <s v="41"/>
     <x v="0"/>
     <x v="16"/>
     <x v="1"/>
@@ -18658,7 +18824,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="41"/>
+    <s v="42"/>
     <x v="0"/>
     <x v="17"/>
     <x v="1"/>
@@ -18691,7 +18857,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="42"/>
+    <s v="43"/>
     <x v="0"/>
     <x v="18"/>
     <x v="1"/>
@@ -18724,7 +18890,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="43"/>
+    <s v="45"/>
     <x v="0"/>
     <x v="19"/>
     <x v="1"/>
@@ -18757,7 +18923,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="44"/>
+    <s v="46"/>
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
@@ -18790,7 +18956,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="45"/>
+    <s v="47"/>
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
@@ -18823,7 +18989,7 @@
     <x v="14"/>
   </r>
   <r>
-    <s v="46"/>
+    <s v="48"/>
     <x v="0"/>
     <x v="21"/>
     <x v="2"/>
@@ -18856,7 +19022,7 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="49"/>
+    <s v="51"/>
     <x v="0"/>
     <x v="22"/>
     <x v="0"/>
@@ -18889,7 +19055,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="52"/>
+    <s v="54"/>
     <x v="0"/>
     <x v="23"/>
     <x v="2"/>
@@ -18922,7 +19088,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="55"/>
+    <s v="57"/>
     <x v="0"/>
     <x v="24"/>
     <x v="2"/>
@@ -18955,7 +19121,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="56"/>
+    <s v="58"/>
     <x v="0"/>
     <x v="25"/>
     <x v="2"/>
@@ -18988,7 +19154,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="57"/>
+    <s v="59"/>
     <x v="0"/>
     <x v="26"/>
     <x v="2"/>
@@ -19021,7 +19187,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="58"/>
+    <s v="60"/>
     <x v="0"/>
     <x v="27"/>
     <x v="2"/>
@@ -19054,7 +19220,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="59"/>
+    <s v="61"/>
     <x v="0"/>
     <x v="28"/>
     <x v="2"/>
@@ -19087,7 +19253,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="62"/>
+    <s v="64"/>
     <x v="0"/>
     <x v="29"/>
     <x v="0"/>
@@ -19120,7 +19286,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="64"/>
+    <s v="66"/>
     <x v="0"/>
     <x v="30"/>
     <x v="1"/>
@@ -19153,7 +19319,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="65"/>
+    <s v="67"/>
     <x v="0"/>
     <x v="31"/>
     <x v="0"/>
@@ -19186,7 +19352,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="66"/>
+    <s v="68"/>
     <x v="0"/>
     <x v="32"/>
     <x v="2"/>
@@ -19219,7 +19385,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="68"/>
+    <s v="70"/>
     <x v="0"/>
     <x v="33"/>
     <x v="2"/>
@@ -19252,7 +19418,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="69"/>
+    <s v="71"/>
     <x v="0"/>
     <x v="34"/>
     <x v="2"/>
@@ -19285,7 +19451,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="71"/>
+    <s v="73"/>
     <x v="0"/>
     <x v="35"/>
     <x v="2"/>
@@ -19318,7 +19484,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="73"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="36"/>
     <x v="2"/>
@@ -19351,7 +19517,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="74"/>
+    <s v="76"/>
     <x v="0"/>
     <x v="37"/>
     <x v="1"/>
@@ -19384,7 +19550,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="75"/>
+    <s v="77"/>
     <x v="0"/>
     <x v="38"/>
     <x v="1"/>
@@ -19417,7 +19583,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="76"/>
+    <s v="78"/>
     <x v="0"/>
     <x v="39"/>
     <x v="1"/>
@@ -19450,7 +19616,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="77"/>
+    <s v="79"/>
     <x v="0"/>
     <x v="40"/>
     <x v="1"/>
@@ -19483,7 +19649,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="78"/>
+    <s v="80"/>
     <x v="0"/>
     <x v="41"/>
     <x v="1"/>
@@ -19516,7 +19682,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="79"/>
+    <s v="81"/>
     <x v="0"/>
     <x v="42"/>
     <x v="1"/>
@@ -19549,7 +19715,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="80"/>
+    <s v="82"/>
     <x v="0"/>
     <x v="43"/>
     <x v="0"/>
@@ -19582,7 +19748,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="81"/>
+    <s v="83"/>
     <x v="0"/>
     <x v="44"/>
     <x v="0"/>
@@ -19615,7 +19781,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="82"/>
+    <s v="84"/>
     <x v="0"/>
     <x v="45"/>
     <x v="1"/>
@@ -19648,7 +19814,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="83"/>
+    <s v="85"/>
     <x v="0"/>
     <x v="46"/>
     <x v="0"/>
@@ -19681,7 +19847,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="84"/>
+    <s v="86"/>
     <x v="0"/>
     <x v="47"/>
     <x v="0"/>
@@ -19714,7 +19880,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="85"/>
+    <s v="87"/>
     <x v="0"/>
     <x v="48"/>
     <x v="0"/>
@@ -19747,7 +19913,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="86"/>
+    <s v="88"/>
     <x v="0"/>
     <x v="49"/>
     <x v="0"/>
@@ -19780,7 +19946,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="87"/>
+    <s v="89"/>
     <x v="0"/>
     <x v="50"/>
     <x v="2"/>
@@ -19813,7 +19979,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="88"/>
+    <s v="90"/>
     <x v="0"/>
     <x v="51"/>
     <x v="0"/>
@@ -19846,7 +20012,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="89"/>
+    <s v="91"/>
     <x v="0"/>
     <x v="52"/>
     <x v="2"/>
@@ -19879,7 +20045,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="90"/>
+    <s v="92"/>
     <x v="0"/>
     <x v="53"/>
     <x v="2"/>
@@ -19912,7 +20078,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="91"/>
+    <s v="93"/>
     <x v="0"/>
     <x v="54"/>
     <x v="2"/>
@@ -19945,7 +20111,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="92"/>
+    <s v="94"/>
     <x v="0"/>
     <x v="55"/>
     <x v="2"/>
@@ -19978,7 +20144,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="93"/>
+    <s v="95"/>
     <x v="0"/>
     <x v="56"/>
     <x v="2"/>
@@ -20011,7 +20177,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="95"/>
+    <s v="97"/>
     <x v="0"/>
     <x v="57"/>
     <x v="1"/>
@@ -20044,7 +20210,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="97"/>
+    <s v="99"/>
     <x v="0"/>
     <x v="58"/>
     <x v="1"/>
@@ -20077,7 +20243,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="98"/>
+    <s v="100"/>
     <x v="0"/>
     <x v="59"/>
     <x v="2"/>
@@ -20110,7 +20276,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="100"/>
+    <s v="102"/>
     <x v="0"/>
     <x v="60"/>
     <x v="2"/>
@@ -20143,7 +20309,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="101"/>
+    <s v="103"/>
     <x v="0"/>
     <x v="61"/>
     <x v="1"/>
@@ -20176,7 +20342,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="102"/>
+    <s v="104"/>
     <x v="0"/>
     <x v="62"/>
     <x v="1"/>
@@ -20209,7 +20375,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="103"/>
+    <s v="105"/>
     <x v="0"/>
     <x v="63"/>
     <x v="1"/>
@@ -20242,7 +20408,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="104"/>
+    <s v="106"/>
     <x v="0"/>
     <x v="64"/>
     <x v="0"/>
@@ -20275,7 +20441,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="105"/>
+    <s v="107"/>
     <x v="0"/>
     <x v="65"/>
     <x v="1"/>
@@ -20308,7 +20474,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="106"/>
+    <s v="108"/>
     <x v="0"/>
     <x v="66"/>
     <x v="0"/>
@@ -20341,7 +20507,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="107"/>
+    <s v="109"/>
     <x v="0"/>
     <x v="67"/>
     <x v="0"/>
@@ -20374,7 +20540,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="108"/>
+    <s v="110"/>
     <x v="0"/>
     <x v="68"/>
     <x v="0"/>
@@ -20407,7 +20573,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="109"/>
+    <s v="111"/>
     <x v="0"/>
     <x v="69"/>
     <x v="0"/>
@@ -20440,7 +20606,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="110"/>
+    <s v="112"/>
     <x v="0"/>
     <x v="70"/>
     <x v="0"/>
@@ -20473,7 +20639,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="111"/>
+    <s v="113"/>
     <x v="0"/>
     <x v="71"/>
     <x v="2"/>
@@ -20506,7 +20672,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="113"/>
+    <s v="115"/>
     <x v="0"/>
     <x v="72"/>
     <x v="2"/>
@@ -20539,7 +20705,7 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="116"/>
+    <s v="118"/>
     <x v="0"/>
     <x v="73"/>
     <x v="0"/>
@@ -20572,7 +20738,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="118"/>
+    <s v="120"/>
     <x v="0"/>
     <x v="74"/>
     <x v="2"/>
@@ -20605,7 +20771,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="120"/>
+    <s v="122"/>
     <x v="0"/>
     <x v="75"/>
     <x v="2"/>
@@ -20638,7 +20804,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="121"/>
+    <s v="123"/>
     <x v="0"/>
     <x v="76"/>
     <x v="2"/>
@@ -20671,7 +20837,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="122"/>
+    <s v="124"/>
     <x v="0"/>
     <x v="77"/>
     <x v="2"/>
@@ -20704,7 +20870,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="123"/>
+    <s v="125"/>
     <x v="0"/>
     <x v="78"/>
     <x v="2"/>
@@ -20737,7 +20903,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="124"/>
+    <s v="126"/>
     <x v="0"/>
     <x v="79"/>
     <x v="0"/>
@@ -20770,7 +20936,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="126"/>
+    <s v="128"/>
     <x v="0"/>
     <x v="80"/>
     <x v="1"/>
@@ -20803,7 +20969,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="127"/>
+    <s v="129"/>
     <x v="0"/>
     <x v="81"/>
     <x v="0"/>
@@ -20836,7 +21002,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="128"/>
+    <s v="130"/>
     <x v="0"/>
     <x v="82"/>
     <x v="0"/>
@@ -20869,7 +21035,7 @@
     <x v="11"/>
   </r>
   <r>
-    <s v="130"/>
+    <s v="132"/>
     <x v="0"/>
     <x v="83"/>
     <x v="0"/>
@@ -20902,7 +21068,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="131"/>
+    <s v="133"/>
     <x v="0"/>
     <x v="84"/>
     <x v="0"/>
@@ -20935,7 +21101,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="132"/>
+    <s v="134"/>
     <x v="0"/>
     <x v="85"/>
     <x v="0"/>
@@ -20968,7 +21134,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="133"/>
+    <s v="135"/>
     <x v="0"/>
     <x v="86"/>
     <x v="0"/>
@@ -21001,7 +21167,7 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="134"/>
+    <s v="136"/>
     <x v="0"/>
     <x v="87"/>
     <x v="1"/>
@@ -21034,7 +21200,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="137"/>
+    <s v="139"/>
     <x v="0"/>
     <x v="88"/>
     <x v="1"/>
@@ -21067,7 +21233,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="139"/>
+    <s v="141"/>
     <x v="0"/>
     <x v="89"/>
     <x v="1"/>
@@ -21100,7 +21266,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="140"/>
+    <s v="142"/>
     <x v="0"/>
     <x v="90"/>
     <x v="1"/>
@@ -21133,7 +21299,7 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="141"/>
+    <s v="143"/>
     <x v="0"/>
     <x v="91"/>
     <x v="1"/>
@@ -21166,7 +21332,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="142"/>
+    <s v="144"/>
     <x v="0"/>
     <x v="92"/>
     <x v="1"/>
@@ -21199,7 +21365,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="143"/>
+    <s v="145"/>
     <x v="0"/>
     <x v="93"/>
     <x v="2"/>
@@ -21232,7 +21398,7 @@
     <x v="3"/>
   </r>
   <r>
-    <s v="145"/>
+    <s v="147"/>
     <x v="0"/>
     <x v="94"/>
     <x v="0"/>
@@ -21265,7 +21431,7 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="147"/>
+    <s v="149"/>
     <x v="0"/>
     <x v="95"/>
     <x v="0"/>
@@ -21298,7 +21464,7 @@
     <x v="15"/>
   </r>
   <r>
-    <s v="149"/>
+    <s v="151"/>
     <x v="0"/>
     <x v="96"/>
     <x v="0"/>
@@ -21331,7 +21497,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="150"/>
+    <s v="152"/>
     <x v="0"/>
     <x v="97"/>
     <x v="0"/>
@@ -21364,7 +21530,7 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="151"/>
+    <s v="153"/>
     <x v="0"/>
     <x v="98"/>
     <x v="1"/>
@@ -21397,7 +21563,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="152"/>
+    <s v="154"/>
     <x v="0"/>
     <x v="99"/>
     <x v="1"/>
@@ -21430,7 +21596,7 @@
     <x v="20"/>
   </r>
   <r>
-    <s v="153"/>
+    <s v="155"/>
     <x v="0"/>
     <x v="100"/>
     <x v="1"/>
@@ -21463,7 +21629,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="154"/>
+    <s v="156"/>
     <x v="0"/>
     <x v="101"/>
     <x v="1"/>
@@ -21496,7 +21662,7 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="155"/>
+    <s v="157"/>
     <x v="0"/>
     <x v="102"/>
     <x v="1"/>
@@ -21529,7 +21695,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="156"/>
+    <s v="158"/>
     <x v="0"/>
     <x v="103"/>
     <x v="1"/>
@@ -21562,7 +21728,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="157"/>
+    <s v="159"/>
     <x v="0"/>
     <x v="104"/>
     <x v="1"/>
@@ -21595,7 +21761,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="158"/>
+    <s v="160"/>
     <x v="0"/>
     <x v="105"/>
     <x v="1"/>
@@ -21991,8 +22157,41 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="19"/>
+    <s v="18"/>
     <x v="6"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="474"/>
+    <n v="472"/>
+    <s v="新年田中龍之介ICONIC"/>
+    <s v="たなかりゅうのすけ"/>
+    <n v="1070"/>
+    <x v="11"/>
+    <n v="229"/>
+    <n v="226"/>
+    <x v="9"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="20"/>
+    <x v="7"/>
     <x v="6"/>
     <x v="2"/>
     <x v="3"/>
@@ -22024,8 +22223,8 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="20"/>
-    <x v="7"/>
+    <s v="21"/>
+    <x v="8"/>
     <x v="6"/>
     <x v="1"/>
     <x v="3"/>
@@ -22057,8 +22256,8 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="22"/>
-    <x v="6"/>
+    <s v="23"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="0"/>
     <x v="1"/>
@@ -22090,8 +22289,8 @@
     <x v="9"/>
   </r>
   <r>
-    <s v="23"/>
-    <x v="7"/>
+    <s v="24"/>
+    <x v="8"/>
     <x v="7"/>
     <x v="0"/>
     <x v="1"/>
@@ -22123,8 +22322,8 @@
     <x v="13"/>
   </r>
   <r>
-    <s v="25"/>
-    <x v="6"/>
+    <s v="26"/>
+    <x v="7"/>
     <x v="8"/>
     <x v="2"/>
     <x v="3"/>
@@ -22156,8 +22355,8 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="28"/>
-    <x v="8"/>
+    <s v="29"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="0"/>
     <x v="3"/>
@@ -22189,7 +22388,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="32"/>
+    <s v="33"/>
     <x v="1"/>
     <x v="12"/>
     <x v="1"/>
@@ -22203,7 +22402,7 @@
     <x v="3"/>
     <x v="15"/>
     <x v="16"/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="14"/>
     <x v="3"/>
@@ -22222,7 +22421,7 @@
     <x v="18"/>
   </r>
   <r>
-    <s v="33"/>
+    <s v="34"/>
     <x v="2"/>
     <x v="12"/>
     <x v="0"/>
@@ -22236,7 +22435,7 @@
     <x v="16"/>
     <x v="15"/>
     <x v="18"/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="11"/>
     <x v="1"/>
@@ -22255,7 +22454,7 @@
     <x v="14"/>
   </r>
   <r>
-    <s v="35"/>
+    <s v="36"/>
     <x v="1"/>
     <x v="13"/>
     <x v="2"/>
@@ -22288,7 +22487,7 @@
     <x v="25"/>
   </r>
   <r>
-    <s v="36"/>
+    <s v="37"/>
     <x v="2"/>
     <x v="13"/>
     <x v="1"/>
@@ -22321,8 +22520,8 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="38"/>
-    <x v="8"/>
+    <s v="39"/>
+    <x v="9"/>
     <x v="14"/>
     <x v="1"/>
     <x v="0"/>
@@ -22354,7 +22553,40 @@
     <x v="21"/>
   </r>
   <r>
-    <s v="47"/>
+    <s v="44"/>
+    <x v="6"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="486"/>
+    <n v="467"/>
+    <s v="新年山本猛虎ICONIC"/>
+    <s v="やまもとたけとら"/>
+    <n v="1083"/>
+    <x v="10"/>
+    <n v="245"/>
+    <n v="238"/>
+    <x v="14"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="49"/>
     <x v="1"/>
     <x v="21"/>
     <x v="2"/>
@@ -22387,8 +22619,8 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="48"/>
-    <x v="6"/>
+    <s v="50"/>
+    <x v="7"/>
     <x v="21"/>
     <x v="1"/>
     <x v="0"/>
@@ -22420,7 +22652,7 @@
     <x v="26"/>
   </r>
   <r>
-    <s v="50"/>
+    <s v="52"/>
     <x v="1"/>
     <x v="22"/>
     <x v="0"/>
@@ -22453,8 +22685,8 @@
     <x v="27"/>
   </r>
   <r>
-    <s v="51"/>
-    <x v="6"/>
+    <s v="53"/>
+    <x v="7"/>
     <x v="22"/>
     <x v="2"/>
     <x v="3"/>
@@ -22486,7 +22718,7 @@
     <x v="26"/>
   </r>
   <r>
-    <s v="53"/>
+    <s v="55"/>
     <x v="1"/>
     <x v="23"/>
     <x v="2"/>
@@ -22519,7 +22751,7 @@
     <x v="10"/>
   </r>
   <r>
-    <s v="54"/>
+    <s v="56"/>
     <x v="5"/>
     <x v="23"/>
     <x v="1"/>
@@ -22552,8 +22784,8 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="60"/>
-    <x v="6"/>
+    <s v="62"/>
+    <x v="7"/>
     <x v="28"/>
     <x v="1"/>
     <x v="1"/>
@@ -22566,7 +22798,7 @@
     <x v="8"/>
     <x v="17"/>
     <x v="18"/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="7"/>
@@ -22585,7 +22817,7 @@
     <x v="5"/>
   </r>
   <r>
-    <s v="61"/>
+    <s v="63"/>
     <x v="3"/>
     <x v="28"/>
     <x v="0"/>
@@ -22618,8 +22850,8 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="63"/>
-    <x v="6"/>
+    <s v="65"/>
+    <x v="7"/>
     <x v="29"/>
     <x v="2"/>
     <x v="3"/>
@@ -22651,7 +22883,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="67"/>
+    <s v="69"/>
     <x v="5"/>
     <x v="32"/>
     <x v="1"/>
@@ -22684,8 +22916,8 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="70"/>
-    <x v="9"/>
+    <s v="72"/>
+    <x v="10"/>
     <x v="34"/>
     <x v="1"/>
     <x v="0"/>
@@ -22717,8 +22949,8 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="72"/>
-    <x v="9"/>
+    <s v="74"/>
+    <x v="10"/>
     <x v="35"/>
     <x v="1"/>
     <x v="3"/>
@@ -22750,7 +22982,7 @@
     <x v="12"/>
   </r>
   <r>
-    <s v="94"/>
+    <s v="96"/>
     <x v="5"/>
     <x v="56"/>
     <x v="1"/>
@@ -22783,7 +23015,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="96"/>
+    <s v="98"/>
     <x v="1"/>
     <x v="57"/>
     <x v="0"/>
@@ -22816,7 +23048,7 @@
     <x v="6"/>
   </r>
   <r>
-    <s v="99"/>
+    <s v="101"/>
     <x v="1"/>
     <x v="59"/>
     <x v="1"/>
@@ -22849,7 +23081,7 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="112"/>
+    <s v="114"/>
     <x v="4"/>
     <x v="71"/>
     <x v="1"/>
@@ -22882,7 +23114,7 @@
     <x v="28"/>
   </r>
   <r>
-    <s v="114"/>
+    <s v="116"/>
     <x v="4"/>
     <x v="72"/>
     <x v="1"/>
@@ -22915,8 +23147,8 @@
     <x v="29"/>
   </r>
   <r>
-    <s v="115"/>
-    <x v="7"/>
+    <s v="117"/>
+    <x v="8"/>
     <x v="72"/>
     <x v="0"/>
     <x v="0"/>
@@ -22948,7 +23180,7 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="117"/>
+    <s v="119"/>
     <x v="5"/>
     <x v="73"/>
     <x v="2"/>
@@ -22981,8 +23213,8 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="119"/>
-    <x v="8"/>
+    <s v="121"/>
+    <x v="9"/>
     <x v="74"/>
     <x v="1"/>
     <x v="1"/>
@@ -23014,8 +23246,8 @@
     <x v="17"/>
   </r>
   <r>
-    <s v="125"/>
-    <x v="7"/>
+    <s v="127"/>
+    <x v="8"/>
     <x v="79"/>
     <x v="2"/>
     <x v="1"/>
@@ -23028,7 +23260,7 @@
     <x v="14"/>
     <x v="22"/>
     <x v="22"/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -23047,7 +23279,7 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="129"/>
+    <s v="131"/>
     <x v="3"/>
     <x v="82"/>
     <x v="2"/>
@@ -23080,7 +23312,7 @@
     <x v="19"/>
   </r>
   <r>
-    <s v="135"/>
+    <s v="137"/>
     <x v="2"/>
     <x v="87"/>
     <x v="0"/>
@@ -23113,7 +23345,7 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="136"/>
+    <s v="138"/>
     <x v="3"/>
     <x v="87"/>
     <x v="2"/>
@@ -23146,8 +23378,8 @@
     <x v="27"/>
   </r>
   <r>
-    <s v="138"/>
-    <x v="8"/>
+    <s v="140"/>
+    <x v="9"/>
     <x v="88"/>
     <x v="0"/>
     <x v="3"/>
@@ -23179,7 +23411,7 @@
     <x v="16"/>
   </r>
   <r>
-    <s v="144"/>
+    <s v="146"/>
     <x v="2"/>
     <x v="93"/>
     <x v="1"/>
@@ -23212,8 +23444,8 @@
     <x v="7"/>
   </r>
   <r>
-    <s v="146"/>
-    <x v="7"/>
+    <s v="148"/>
+    <x v="8"/>
     <x v="94"/>
     <x v="2"/>
     <x v="3"/>
@@ -23245,7 +23477,7 @@
     <x v="29"/>
   </r>
   <r>
-    <s v="148"/>
+    <s v="150"/>
     <x v="3"/>
     <x v="95"/>
     <x v="2"/>
@@ -23281,22 +23513,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="11">
-        <item x="6"/>
+      <items count="12">
+        <item x="7"/>
         <item x="0"/>
         <item x="2"/>
         <item x="5"/>
         <item x="4"/>
         <item x="1"/>
+        <item x="9"/>
         <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
+        <item x="10"/>
         <item x="3"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -24278,37 +24511,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>127.5</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>123.5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>113.5</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>121</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>101</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>124.5</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>120.5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>116.5</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>119</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>38.5</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>1105.5</v>
       </c>
     </row>
@@ -24316,37 +24549,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>122</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>118.5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>116.5</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>122.5</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>101</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>114</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>117.5</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>127</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>120.5</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>38.5</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>1098</v>
       </c>
     </row>
@@ -24354,37 +24587,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>121.25</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>120</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>117.25</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>121.875</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>117.75</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>118.5</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>117.125</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>119</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>35</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>1087.75</v>
       </c>
     </row>
@@ -24392,37 +24625,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>121</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24430,37 +24663,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>122.5</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>119.75</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>116</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>120.25</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>99.5</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>119.25</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>118</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>117.75</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>118.25</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>34.125</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>1085.375</v>
       </c>
     </row>
@@ -24468,37 +24701,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>114</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24506,37 +24739,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>119</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>115.875</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>115</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>120.75</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>98.5</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>116.75</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>118.625</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>117.125</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>117.125</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>35.375</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>1074.125</v>
       </c>
     </row>
@@ -24544,37 +24777,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>117.75</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>120.5</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>118</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24582,37 +24815,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>116</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>41</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24620,37 +24853,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24658,37 +24891,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>36</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="3">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24696,37 +24929,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>120.5</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>117.5</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>116</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>120</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>98.5</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>115.75</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>116</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>115.75</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>117.25</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>33</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>1070.25</v>
       </c>
     </row>
@@ -24734,37 +24967,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="3">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -24772,37 +25005,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="3">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -24810,37 +25043,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>117</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>116</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="3">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -24848,37 +25081,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="3">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE20EA-5B62-4EBD-9C70-74DBBC362ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0D29C-4CD5-413E-B5AC-9210465D330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="764" yWindow="939" windowWidth="33495" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="3243" yWindow="2229" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966534" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -187,13 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1024,8 +1023,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.7199961749847634E-2"/>
-                  <c:y val="-1.2964097327617627E-2"/>
+                  <c:x val="1.2923199872450532E-3"/>
+                  <c:y val="1.1179015299892245E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1063,8 +1062,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.5629739489648217E-2"/>
-                  <c:y val="1.1996938980650192E-2"/>
+                  <c:x val="1.2800766290185471E-2"/>
+                  <c:y val="1.1455324154767417E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1141,8 +1140,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4133177104862911E-2"/>
-                  <c:y val="-2.2093743332982228E-2"/>
+                  <c:x val="2.1374655950458358E-3"/>
+                  <c:y val="-2.0468903675210561E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1222,7 +1221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1761B178-7CEC-4A20-995F-1255312AE7F4}" type="CELLRANGE">
+                    <a:fld id="{4225235A-1311-41B9-8B4F-40CA07809157}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1282,6 +1281,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1704,8 +1706,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.2073530679049435E-3"/>
-                  <c:y val="-1.0485577735417149E-3"/>
+                  <c:x val="-3.0611499866018424E-2"/>
+                  <c:y val="-2.2713150808852698E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1743,8 +1745,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.3041472451326472E-2"/>
-                  <c:y val="1.5828288141475435E-2"/>
+                  <c:x val="-3.5588095929319316E-2"/>
+                  <c:y val="-2.1001520018553078E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1782,8 +1784,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2816328765708065E-2"/>
-                  <c:y val="-4.2841647433654102E-2"/>
+                  <c:x val="-8.4856809827865337E-2"/>
+                  <c:y val="3.5692502319348215E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1821,8 +1823,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3930229972687175E-2"/>
-                  <c:y val="-6.4053820712217059E-3"/>
+                  <c:x val="-4.5901448913283995E-2"/>
+                  <c:y val="-4.6484881397867779E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1899,8 +1901,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8358269966297181E-2"/>
-                  <c:y val="1.4518262612224627E-3"/>
+                  <c:x val="-2.7768520066069433E-2"/>
+                  <c:y val="-8.2972406046674003E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1938,8 +1940,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.543408044308543E-2"/>
-                  <c:y val="3.5326848341622315E-2"/>
+                  <c:x val="2.3521682788743958E-2"/>
+                  <c:y val="-4.1973016664080846E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1977,8 +1979,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.6525262915563873E-3"/>
-                  <c:y val="-1.5043330465475881E-2"/>
+                  <c:x val="-6.9126143344642121E-2"/>
+                  <c:y val="5.9699515506347174E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2019,7 +2021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2B5B917-0B39-457E-A49C-7E004FA23086}" type="CELLRANGE">
+                    <a:fld id="{BD90CC76-FA0A-446E-B754-6BD4D8460CCC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2048,6 +2050,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EBE8AACD-FEE2-4717-A9B1-A814A520B77B}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.8644957015382177E-2"/>
@@ -2079,9 +2115,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2145,10 +2178,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$15</c:f>
+              <c:f>[1]青城!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -2159,36 +2192,39 @@
                   <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
@@ -2196,10 +2232,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$15</c:f>
+              <c:f>[1]青城!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2210,36 +2246,39 @@
                   <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
@@ -2249,9 +2288,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$15</c15:f>
+                <c15:f>[1]青城!$B$2:$B$16</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="14"/>
+                  <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2262,36 +2301,39 @@
                     <c:v>Xmas及川徹ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>制服及川徹ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>ユニフォーム岩泉一ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>プール掃除岩泉一ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム金田一勇太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム京谷賢太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>職業体験国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム渡親治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ユニフォーム松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>アート松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>アート花巻貴大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -3138,7 +3180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{859096A8-4D95-439F-AE3A-C508F2A0192F}" type="CELLRANGE">
+                    <a:fld id="{35B6C27B-3B0A-492A-BADC-C2351EADA500}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3172,7 +3214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F03BC8AA-5966-4AC3-BC08-FB204105912F}" type="CELLRANGE">
+                    <a:fld id="{DEEAFD65-FF70-4A1F-8D60-42A11B739C59}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3941,6 +3983,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5256,8 +5301,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.3432091456146964E-3"/>
-                  <c:y val="-6.9053757958227515E-4"/>
+                  <c:x val="5.9777327336985146E-3"/>
+                  <c:y val="-1.4772523052534335E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5298,7 +5343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A883E62-5DCF-4A87-905F-4A8B1F7BAAED}" type="CELLRANGE">
+                    <a:fld id="{6871956E-6C9F-4583-BEB6-6FF5F3E8ABBA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6111,7 +6156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB7DAA87-2823-46D8-9A73-74A424BA753B}" type="CELLRANGE">
+                    <a:fld id="{80064B2C-D5F4-4BC6-A654-3B6D5C6B2043}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6145,7 +6190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCD0A619-EC95-42D4-9B56-4B654FAC6E6C}" type="CELLRANGE">
+                    <a:fld id="{07F38267-7DA5-4101-A867-4EF7C41EABB6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7420,8 +7465,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0930052932766172E-2"/>
-                  <c:y val="-1.8225561667059274E-2"/>
+                  <c:x val="-7.4227873730993307E-2"/>
+                  <c:y val="-2.9599463468677208E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8761,7 +8806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FA682BF-D11B-45DE-AEAC-747A463A399C}" type="CELLRANGE">
+                    <a:fld id="{089DA82F-A6F1-48FF-99F8-FCE843BA35D1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9440,8 +9485,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.9637516652266828E-2"/>
-                  <c:y val="-2.7617684181569117E-2"/>
+                  <c:x val="4.9122749724151921E-3"/>
+                  <c:y val="2.7127652814490782E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9521,7 +9566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB1154B2-D63C-403C-B713-2F62AC028327}" type="CELLRANGE">
+                    <a:fld id="{D9AE7E15-8CE4-4A8E-AC3A-BDEC1C6E0C95}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9581,6 +9626,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -16216,122 +16264,133 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム岩泉一ICONIC</v>
+            <v>制服及川徹ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>464</v>
+            <v>467</v>
           </cell>
           <cell r="G5">
-            <v>482</v>
+            <v>516</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>プール掃除岩泉一ICONIC</v>
+            <v>ユニフォーム岩泉一ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>470</v>
+            <v>464</v>
           </cell>
           <cell r="G6">
-            <v>490</v>
+            <v>482</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム金田一勇太郎ICONIC</v>
+            <v>プール掃除岩泉一ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>465</v>
+            <v>470</v>
           </cell>
           <cell r="G7">
-            <v>459</v>
+            <v>490</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム京谷賢太郎ICONIC</v>
+            <v>ユニフォーム金田一勇太郎ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>461</v>
+            <v>465</v>
           </cell>
           <cell r="G8">
-            <v>484</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム国見英ICONIC</v>
+            <v>ユニフォーム京谷賢太郎ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>462</v>
+            <v>461</v>
           </cell>
           <cell r="G9">
-            <v>467</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>職業体験国見英ICONIC</v>
+            <v>ユニフォーム国見英ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>468</v>
+            <v>462</v>
           </cell>
           <cell r="G10">
-            <v>475</v>
+            <v>467</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム渡親治ICONIC</v>
+            <v>職業体験国見英ICONIC</v>
           </cell>
           <cell r="F11">
+            <v>468</v>
+          </cell>
+          <cell r="G11">
             <v>475</v>
-          </cell>
-          <cell r="G11">
-            <v>463</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ユニフォーム松川一静ICONIC</v>
+            <v>ユニフォーム渡親治ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>465</v>
+            <v>475</v>
           </cell>
           <cell r="G12">
-            <v>458</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>アート松川一静ICONIC</v>
+            <v>ユニフォーム松川一静ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>473</v>
+            <v>465</v>
           </cell>
           <cell r="G13">
-            <v>464</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム花巻貴大ICONIC</v>
+            <v>アート松川一静ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>467</v>
+            <v>473</v>
           </cell>
           <cell r="G14">
-            <v>469</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
+            <v>ユニフォーム花巻貴大ICONIC</v>
+          </cell>
+          <cell r="F15">
+            <v>467</v>
+          </cell>
+          <cell r="G15">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
             <v>アート花巻貴大ICONIC</v>
           </cell>
-          <cell r="F15">
+          <cell r="F16">
             <v>473</v>
           </cell>
-          <cell r="G15">
+          <cell r="G16">
             <v>477</v>
           </cell>
         </row>
@@ -23513,7 +23572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -24256,7 +24315,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -24511,37 +24570,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>127.5</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>123.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>113.5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>121</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>101</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>124.5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89">
         <v>120.5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89">
         <v>116.5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>119</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <v>38.5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>1105.5</v>
       </c>
     </row>
@@ -24549,37 +24608,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>122</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>118.5</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>116.5</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>122.5</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>101</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>114</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90">
         <v>117.5</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90">
         <v>127</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>120.5</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <v>38.5</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>1098</v>
       </c>
     </row>
@@ -24587,37 +24646,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>121.25</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>120</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>117.25</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>121.875</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>117.75</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91">
         <v>118.5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91">
         <v>117.125</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>119</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91">
         <v>35</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>1087.75</v>
       </c>
     </row>
@@ -24625,37 +24684,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>121</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24663,37 +24722,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>122.5</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>119.75</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>116</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>120.25</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>99.5</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>119.25</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93">
         <v>118</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93">
         <v>117.75</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>118.25</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>34.125</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>1085.375</v>
       </c>
     </row>
@@ -24701,37 +24760,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>114</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24739,37 +24798,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>119</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>115.875</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>115</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>120.75</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>98.5</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>116.75</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95">
         <v>118.625</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95">
         <v>117.125</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>117.125</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95">
         <v>35.375</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95">
         <v>1074.125</v>
       </c>
     </row>
@@ -24777,37 +24836,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>117.75</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>120.5</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96">
         <v>118</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24815,37 +24874,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>116</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97">
         <v>41</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24853,37 +24912,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24891,37 +24950,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>36</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24929,37 +24988,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>120.5</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>117.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>116</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>120</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>98.5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>115.75</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100">
         <v>116</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>115.75</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>117.25</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100">
         <v>33</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>1070.25</v>
       </c>
     </row>
@@ -24967,37 +25026,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101">
         <v>116</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -25005,37 +25064,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -25043,37 +25102,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>117</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>116</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -25081,37 +25140,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0D29C-4CD5-413E-B5AC-9210465D330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5CCBB-841C-44D5-82A0-33E43F1D08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3243" yWindow="2229" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="10293" yWindow="4345" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966534" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -187,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1221,7 +1222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4225235A-1311-41B9-8B4F-40CA07809157}" type="CELLRANGE">
+                    <a:fld id="{B0B9505B-DEFE-459B-BECF-F599D0B3B9CA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1784,8 +1785,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4856809827865337E-2"/>
-                  <c:y val="3.5692502319348215E-2"/>
+                  <c:x val="-9.9500567838510853E-3"/>
+                  <c:y val="-2.2801898875991444E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1823,8 +1824,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5901448913283995E-2"/>
-                  <c:y val="-4.6484881397867779E-2"/>
+                  <c:x val="-0.1042498670738846"/>
+                  <c:y val="5.1005787261031492E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1862,8 +1863,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.3663026523385438E-2"/>
-                  <c:y val="-8.1237532730381781E-3"/>
+                  <c:x val="-4.7067392857577488E-2"/>
+                  <c:y val="-3.6829339044825229E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1901,8 +1902,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7768520066069433E-2"/>
-                  <c:y val="-8.2972406046674003E-3"/>
+                  <c:x val="-0.10819471807122159"/>
+                  <c:y val="2.535055912988012E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1940,8 +1941,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.3521682788743958E-2"/>
-                  <c:y val="-4.1973016664080846E-4"/>
+                  <c:x val="-4.0740426401647274E-2"/>
+                  <c:y val="-8.5439525548825068E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1979,8 +1980,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9126143344642121E-2"/>
-                  <c:y val="5.9699515506347174E-2"/>
+                  <c:x val="2.7464143475271024E-2"/>
+                  <c:y val="-2.5861894701719066E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2016,12 +2017,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.8694598493595118E-2"/>
+                  <c:y val="7.053181202400266E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD90CC76-FA0A-446E-B754-6BD4D8460CCC}" type="CELLRANGE">
+                    <a:fld id="{78267F32-6D02-42DC-83A7-EC1AF4903D5B}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A533-492A-AC48-5FB5FCFDCDE5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2BDC71CC-BEF1-4B4F-A128-7D19F76EA801}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2044,18 +2084,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-A533-492A-AC48-5FB5FCFDCDE5}"/>
+                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBE8AACD-FEE2-4717-A9B1-A814A520B77B}" type="CELLRANGE">
+                    <a:fld id="{07A2E177-7A01-41DE-BDF8-D09B385F9E47}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2078,12 +2118,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
+                  <c16:uniqueId val="{00000000-0808-416E-9E90-08DFCF2547A3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.8644957015382177E-2"/>
@@ -2178,10 +2218,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$16</c:f>
+              <c:f>[1]青城!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -2201,30 +2241,33 @@
                   <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
@@ -2232,10 +2275,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$16</c:f>
+              <c:f>[1]青城!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2255,30 +2298,33 @@
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
@@ -2288,9 +2334,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$16</c15:f>
+                <c15:f>[1]青城!$B$2:$B$17</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="15"/>
+                  <c:ptCount val="16"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2310,30 +2356,33 @@
                     <c:v>プール掃除岩泉一ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>制服岩泉一ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>ユニフォーム金田一勇太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム京谷賢太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>職業体験国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ユニフォーム渡親治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>アート松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>アート花巻貴大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -3180,7 +3229,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35B6C27B-3B0A-492A-BADC-C2351EADA500}" type="CELLRANGE">
+                    <a:fld id="{A4F8D95F-5E52-432A-80D1-93328CF73365}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3214,7 +3263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEEAFD65-FF70-4A1F-8D60-42A11B739C59}" type="CELLRANGE">
+                    <a:fld id="{EF4D985C-E139-45D3-88AE-B1ED262086F5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4872,8 +4921,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8769129005509014E-2"/>
-                  <c:y val="-7.0224840093554303E-3"/>
+                  <c:x val="2.9185043086438853E-2"/>
+                  <c:y val="-1.6229936049362518E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5262,8 +5311,8 @@
               <c:idx val="27"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.6266411501505091E-3"/>
-                  <c:y val="-1.2321524054650498E-3"/>
+                  <c:x val="-0.15270630989901593"/>
+                  <c:y val="3.0181507495735956E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5343,7 +5392,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6871956E-6C9F-4583-BEB6-6FF5F3E8ABBA}" type="CELLRANGE">
+                    <a:fld id="{67B0024E-7796-43AE-AAA6-39535E0EC6E4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6156,7 +6205,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80064B2C-D5F4-4BC6-A654-3B6D5C6B2043}" type="CELLRANGE">
+                    <a:fld id="{6DBF2EA8-1EE9-4090-B3D9-EAEDB8803BFC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6190,7 +6239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F38267-7DA5-4101-A867-4EF7C41EABB6}" type="CELLRANGE">
+                    <a:fld id="{F409ECF2-023F-4BA4-B980-B994B8212B35}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6627,8 +6676,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.731799676805146E-2"/>
-                  <c:y val="-6.7474929417352947E-2"/>
+                  <c:x val="-9.3769782150177103E-2"/>
+                  <c:y val="-4.9601640163221307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8806,7 +8855,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{089DA82F-A6F1-48FF-99F8-FCE843BA35D1}" type="CELLRANGE">
+                    <a:fld id="{63227841-2741-4DC5-AB39-76B051186846}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9524,8 +9573,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4880010122500633E-2"/>
-                  <c:y val="-2.6688049221955536E-2"/>
+                  <c:x val="-9.4949260841394392E-2"/>
+                  <c:y val="-5.7018479471390833E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9566,7 +9615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9AE7E15-8CE4-4A8E-AC3A-BDEC1C6E0C95}" type="CELLRANGE">
+                    <a:fld id="{69242DE0-456C-4CED-8FD6-FA10495C7939}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16297,100 +16346,111 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム金田一勇太郎ICONIC</v>
+            <v>制服岩泉一ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>465</v>
+            <v>468</v>
           </cell>
           <cell r="G8">
-            <v>459</v>
+            <v>492</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム京谷賢太郎ICONIC</v>
+            <v>ユニフォーム金田一勇太郎ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>461</v>
+            <v>465</v>
           </cell>
           <cell r="G9">
-            <v>484</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム国見英ICONIC</v>
+            <v>ユニフォーム京谷賢太郎ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>462</v>
+            <v>461</v>
           </cell>
           <cell r="G10">
-            <v>467</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>職業体験国見英ICONIC</v>
+            <v>ユニフォーム国見英ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>468</v>
+            <v>462</v>
           </cell>
           <cell r="G11">
-            <v>475</v>
+            <v>467</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ユニフォーム渡親治ICONIC</v>
+            <v>職業体験国見英ICONIC</v>
           </cell>
           <cell r="F12">
+            <v>468</v>
+          </cell>
+          <cell r="G12">
             <v>475</v>
-          </cell>
-          <cell r="G12">
-            <v>463</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム松川一静ICONIC</v>
+            <v>ユニフォーム渡親治ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>465</v>
+            <v>475</v>
           </cell>
           <cell r="G13">
-            <v>458</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>アート松川一静ICONIC</v>
+            <v>ユニフォーム松川一静ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>473</v>
+            <v>465</v>
           </cell>
           <cell r="G14">
-            <v>464</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ユニフォーム花巻貴大ICONIC</v>
+            <v>アート松川一静ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>467</v>
+            <v>473</v>
           </cell>
           <cell r="G15">
-            <v>469</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
+            <v>ユニフォーム花巻貴大ICONIC</v>
+          </cell>
+          <cell r="F16">
+            <v>467</v>
+          </cell>
+          <cell r="G16">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
             <v>アート花巻貴大ICONIC</v>
           </cell>
-          <cell r="F16">
+          <cell r="F17">
             <v>473</v>
           </cell>
-          <cell r="G16">
+          <cell r="G17">
             <v>477</v>
           </cell>
         </row>
@@ -17733,7 +17793,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45296.701024074071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="160" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="45303.751076273147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="164" xr:uid="{D2A25710-863A-4840-9337-C405E37CEEDB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Q_Stat" r:id="rId2"/>
   </cacheSource>
@@ -17907,45 +17967,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="LV" numFmtId="0">
-      <sharedItems count="1">
-        <s v="99"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="装備" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="☆" numFmtId="0">
-      <sharedItems count="1">
-        <s v="5"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="総合値" numFmtId="0">
-      <sharedItems count="19">
-        <s v="74"/>
-        <s v="78"/>
-        <s v="75"/>
-        <s v="73"/>
-        <s v="86"/>
-        <s v="80"/>
-        <s v="79"/>
-        <s v="84"/>
-        <s v="76"/>
-        <s v="77"/>
-        <s v="71"/>
-        <s v="70"/>
-        <s v="85"/>
-        <s v="82"/>
-        <s v="81"/>
-        <s v="83"/>
-        <s v="72"/>
-        <s v="87"/>
-        <s v="88"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="スパイク" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="133" count="21">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="136" count="22">
         <n v="115"/>
         <n v="123"/>
         <n v="116"/>
@@ -17967,10 +18001,11 @@
         <n v="129"/>
         <n v="131"/>
         <n v="133"/>
+        <n v="136"/>
       </sharedItems>
     </cacheField>
     <cacheField name="サーブ" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="133" count="23">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="135" count="24">
         <n v="112"/>
         <n v="123"/>
         <n v="110"/>
@@ -17993,175 +18028,33 @@
         <n v="126"/>
         <n v="124"/>
         <n v="133"/>
+        <n v="135"/>
         <n v="132"/>
       </sharedItems>
     </cacheField>
     <cacheField name="セッティング" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="135" count="23">
-        <n v="112"/>
-        <n v="129"/>
-        <n v="118"/>
-        <n v="120"/>
-        <n v="113"/>
-        <n v="116"/>
-        <n v="124"/>
-        <n v="111"/>
-        <n v="127"/>
-        <n v="114"/>
-        <n v="110"/>
-        <n v="123"/>
-        <n v="119"/>
-        <n v="121"/>
-        <n v="122"/>
-        <n v="115"/>
-        <n v="130"/>
-        <n v="126"/>
-        <n v="132"/>
-        <n v="135"/>
-        <n v="125"/>
-        <n v="117"/>
-        <n v="133"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="135"/>
     </cacheField>
     <cacheField name="頭脳" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="132" count="20">
-        <n v="114"/>
-        <n v="123"/>
-        <n v="126"/>
-        <n v="120"/>
-        <n v="117"/>
-        <n v="129"/>
-        <n v="119"/>
-        <n v="118"/>
-        <n v="124"/>
-        <n v="115"/>
-        <n v="122"/>
-        <n v="127"/>
-        <n v="121"/>
-        <n v="116"/>
-        <n v="113"/>
-        <n v="128"/>
-        <n v="125"/>
-        <n v="112"/>
-        <n v="132"/>
-        <n v="130"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="132"/>
     </cacheField>
     <cacheField name="幸運" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="97" maxValue="115" count="4">
-        <n v="97"/>
-        <n v="101"/>
-        <n v="99"/>
-        <n v="115"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="97" maxValue="101"/>
     </cacheField>
     <cacheField name="ブロック" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="134" count="23">
-        <n v="123"/>
-        <n v="115"/>
-        <n v="127"/>
-        <n v="118"/>
-        <n v="110"/>
-        <n v="116"/>
-        <n v="121"/>
-        <n v="120"/>
-        <n v="113"/>
-        <n v="119"/>
-        <n v="129"/>
-        <n v="112"/>
-        <n v="130"/>
-        <n v="125"/>
-        <n v="114"/>
-        <n v="117"/>
-        <n v="128"/>
-        <n v="131"/>
-        <n v="126"/>
-        <n v="111"/>
-        <n v="132"/>
-        <n v="133"/>
-        <n v="134"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="134"/>
     </cacheField>
     <cacheField name="レシーブ" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="136" count="20">
-        <n v="112"/>
-        <n v="120"/>
-        <n v="114"/>
-        <n v="118"/>
-        <n v="130"/>
-        <n v="117"/>
-        <n v="126"/>
-        <n v="116"/>
-        <n v="115"/>
-        <n v="113"/>
-        <n v="123"/>
-        <n v="124"/>
-        <n v="110"/>
-        <n v="122"/>
-        <n v="119"/>
-        <n v="121"/>
-        <n v="131"/>
-        <n v="133"/>
-        <n v="136"/>
-        <n v="127"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="136"/>
     </cacheField>
     <cacheField name="バネ" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="134" count="17">
-        <n v="129"/>
-        <n v="115"/>
-        <n v="116"/>
-        <n v="114"/>
-        <n v="113"/>
-        <n v="119"/>
-        <n v="112"/>
-        <n v="117"/>
-        <n v="118"/>
-        <n v="120"/>
-        <n v="121"/>
-        <n v="122"/>
-        <n v="123"/>
-        <n v="126"/>
-        <n v="132"/>
-        <n v="134"/>
-        <n v="124"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112" maxValue="134"/>
     </cacheField>
     <cacheField name="スピード" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="111" maxValue="130" count="17">
-        <n v="129"/>
-        <n v="115"/>
-        <n v="119"/>
-        <n v="123"/>
-        <n v="120"/>
-        <n v="114"/>
-        <n v="113"/>
-        <n v="122"/>
-        <n v="116"/>
-        <n v="112"/>
-        <n v="121"/>
-        <n v="118"/>
-        <n v="117"/>
-        <n v="130"/>
-        <n v="126"/>
-        <n v="128"/>
-        <n v="111"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="111" maxValue="130"/>
     </cacheField>
     <cacheField name="メンタル" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="51" count="11">
-        <n v="26"/>
-        <n v="31"/>
-        <n v="36"/>
-        <n v="29"/>
-        <n v="27"/>
-        <n v="51"/>
-        <n v="46"/>
-        <n v="41"/>
-        <n v="33"/>
-        <n v="49"/>
-        <n v="28"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="51"/>
     </cacheField>
     <cacheField name="攻撃力" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="453" maxValue="520"/>
@@ -18179,32 +18072,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1046" maxValue="1125"/>
     </cacheField>
     <cacheField name="AttackVal" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="211" maxValue="237" count="24">
-        <n v="212"/>
-        <n v="224"/>
-        <n v="213"/>
-        <n v="211"/>
-        <n v="218"/>
-        <n v="222"/>
-        <n v="219"/>
-        <n v="216"/>
-        <n v="225"/>
-        <n v="214"/>
-        <n v="227"/>
-        <n v="228"/>
-        <n v="226"/>
-        <n v="215"/>
-        <n v="217"/>
-        <n v="223"/>
-        <n v="220"/>
-        <n v="231"/>
-        <n v="221"/>
-        <n v="229"/>
-        <n v="230"/>
-        <n v="232"/>
-        <n v="237"/>
-        <n v="234"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="211" maxValue="237"/>
     </cacheField>
     <cacheField name="ServeVal" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="224" maxValue="262"/>
@@ -18213,69 +18081,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="224" maxValue="264"/>
     </cacheField>
     <cacheField name="ReceiveVal" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="223" maxValue="264" count="27">
-        <n v="241"/>
-        <n v="235"/>
-        <n v="229"/>
-        <n v="237"/>
-        <n v="253"/>
-        <n v="232"/>
-        <n v="246"/>
-        <n v="231"/>
-        <n v="227"/>
-        <n v="234"/>
-        <n v="230"/>
-        <n v="252"/>
-        <n v="243"/>
-        <n v="226"/>
-        <n v="233"/>
-        <n v="244"/>
-        <n v="245"/>
-        <n v="242"/>
-        <n v="236"/>
-        <n v="240"/>
-        <n v="239"/>
-        <n v="238"/>
-        <n v="228"/>
-        <n v="259"/>
-        <n v="264"/>
-        <n v="248"/>
-        <n v="223"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="223" maxValue="264"/>
     </cacheField>
     <cacheField name="BlockVal" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="224" maxValue="262" count="30">
-        <n v="252"/>
-        <n v="230"/>
-        <n v="243"/>
-        <n v="232"/>
-        <n v="226"/>
-        <n v="231"/>
-        <n v="236"/>
-        <n v="234"/>
-        <n v="227"/>
-        <n v="233"/>
-        <n v="245"/>
-        <n v="238"/>
-        <n v="237"/>
-        <n v="229"/>
-        <n v="224"/>
-        <n v="246"/>
-        <n v="241"/>
-        <n v="235"/>
-        <n v="228"/>
-        <n v="242"/>
-        <n v="239"/>
-        <n v="244"/>
-        <n v="258"/>
-        <n v="262"/>
-        <n v="249"/>
-        <n v="251"/>
-        <n v="250"/>
-        <n v="247"/>
-        <n v="240"/>
-        <n v="248"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="224" maxValue="262"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -18287,7 +18096,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="160">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="164">
   <r>
     <s v="1"/>
     <x v="0"/>
@@ -18296,30 +18105,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="112"/>
+    <n v="114"/>
+    <n v="97"/>
+    <n v="123"/>
+    <n v="112"/>
+    <n v="129"/>
+    <n v="129"/>
+    <n v="26"/>
     <n v="453"/>
     <n v="493"/>
     <s v="ユニフォーム日向翔陽ICONIC"/>
     <s v="ひなたしょうよう"/>
     <n v="1069"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="226"/>
     <n v="226"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="241"/>
+    <n v="252"/>
   </r>
   <r>
     <s v="4"/>
@@ -18329,30 +18138,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="129"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="498"/>
     <n v="465"/>
     <s v="ユニフォーム影山飛雄ICONIC"/>
     <s v="かげやまとびお"/>
     <n v="1095"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="246"/>
     <n v="252"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="235"/>
+    <n v="230"/>
   </r>
   <r>
     <s v="8"/>
@@ -18362,30 +18171,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
+    <n v="112"/>
+    <n v="126"/>
+    <n v="97"/>
+    <n v="127"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="466"/>
     <n v="472"/>
     <s v="ユニフォーム月島蛍ICONIC"/>
     <s v="つきしまけい"/>
     <n v="1071"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="238"/>
     <n v="238"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="229"/>
+    <n v="243"/>
   </r>
   <r>
     <s v="11"/>
@@ -18395,30 +18204,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="73"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="118"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="31"/>
     <n v="475"/>
     <n v="469"/>
     <s v="ユニフォーム山口忠ICONIC"/>
     <s v="やまぐちだだし"/>
     <n v="1072"/>
-    <x v="3"/>
+    <n v="211"/>
     <n v="243"/>
     <n v="238"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="237"/>
+    <n v="232"/>
   </r>
   <r>
     <s v="13"/>
@@ -18428,30 +18237,30 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="86"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="120"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="130"/>
+    <n v="116"/>
+    <n v="123"/>
+    <n v="29"/>
     <n v="470"/>
     <n v="479"/>
     <s v="ユニフォーム西谷夕ICONIC"/>
     <s v="にしのやゆう"/>
     <n v="1079"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="233"/>
     <n v="243"/>
-    <x v="4"/>
-    <x v="4"/>
+    <n v="253"/>
+    <n v="226"/>
   </r>
   <r>
     <s v="16"/>
@@ -18461,30 +18270,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
+    <n v="113"/>
+    <n v="114"/>
+    <n v="97"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="27"/>
     <n v="469"/>
     <n v="463"/>
     <s v="ユニフォーム田中龍之介ICONIC"/>
     <s v="たなかりゅうのすけ"/>
     <n v="1056"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="231"/>
     <n v="227"/>
-    <x v="5"/>
-    <x v="5"/>
+    <n v="232"/>
+    <n v="231"/>
   </r>
   <r>
     <s v="19"/>
@@ -18494,30 +18303,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="6"/>
     <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="5"/>
+    <n v="116"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="126"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="51"/>
     <n v="473"/>
     <n v="477"/>
     <s v="ユニフォーム澤村大地ICONIC"/>
     <s v="さわむらだいち"/>
     <n v="1102"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="239"/>
     <n v="239"/>
-    <x v="6"/>
-    <x v="5"/>
+    <n v="246"/>
+    <n v="231"/>
   </r>
   <r>
     <s v="22"/>
@@ -18527,30 +18336,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
+    <n v="124"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="46"/>
     <n v="477"/>
     <n v="462"/>
     <s v="ユニフォーム菅原考支ICONIC"/>
     <s v="すがわらこうし"/>
     <n v="1086"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="238"/>
     <n v="247"/>
-    <x v="7"/>
-    <x v="5"/>
+    <n v="231"/>
+    <n v="231"/>
   </r>
   <r>
     <s v="25"/>
@@ -18560,30 +18369,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="7"/>
     <x v="6"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="3"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="114"/>
+    <n v="29"/>
     <n v="485"/>
     <n v="465"/>
     <s v="ユニフォーム東峰旭ICONIC"/>
     <s v="あずまねあさひ"/>
     <n v="1076"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="245"/>
     <n v="233"/>
-    <x v="2"/>
-    <x v="6"/>
+    <n v="229"/>
+    <n v="236"/>
   </r>
   <r>
     <s v="27"/>
@@ -18593,30 +18402,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="8"/>
     <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="3"/>
+    <n v="112"/>
+    <n v="123"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="113"/>
+    <n v="29"/>
     <n v="491"/>
     <n v="461"/>
     <s v="ユニフォーム東峰旭YELL"/>
     <s v="あずまねあさひ"/>
     <n v="1078"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="251"/>
     <n v="235"/>
-    <x v="8"/>
-    <x v="7"/>
+    <n v="227"/>
+    <n v="234"/>
   </r>
   <r>
     <s v="28"/>
@@ -18626,30 +18435,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="9"/>
     <x v="5"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="7"/>
+    <n v="111"/>
+    <n v="120"/>
+    <n v="99"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="41"/>
     <n v="459"/>
     <n v="461"/>
     <s v="ユニフォーム縁下力ICONIC"/>
     <s v="えんのしたちから"/>
     <n v="1060"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="235"/>
     <n v="231"/>
-    <x v="9"/>
-    <x v="8"/>
+    <n v="234"/>
+    <n v="227"/>
   </r>
   <r>
     <s v="30"/>
@@ -18659,30 +18468,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="4"/>
     <x v="8"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="117"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="469"/>
     <n v="460"/>
     <s v="ユニフォーム木下久志ICONIC"/>
     <s v="きのしたひさし"/>
     <n v="1061"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="239"/>
     <n v="230"/>
-    <x v="10"/>
-    <x v="1"/>
+    <n v="230"/>
+    <n v="230"/>
   </r>
   <r>
     <s v="31"/>
@@ -18692,30 +18501,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="9"/>
     <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="119"/>
+    <n v="113"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="31"/>
     <n v="464"/>
     <n v="460"/>
     <s v="ユニフォーム成田一仁ICONIC"/>
     <s v="なりたかずひと"/>
     <n v="1056"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="239"/>
     <n v="235"/>
-    <x v="8"/>
-    <x v="9"/>
+    <n v="227"/>
+    <n v="233"/>
   </r>
   <r>
     <s v="32"/>
@@ -18725,30 +18534,30 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="9"/>
     <x v="5"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="7"/>
+    <n v="127"/>
+    <n v="129"/>
+    <n v="101"/>
+    <n v="113"/>
+    <n v="117"/>
+    <n v="113"/>
+    <n v="115"/>
+    <n v="41"/>
     <n v="484"/>
     <n v="458"/>
     <s v="ユニフォーム孤爪研磨ICONIC"/>
     <s v="こづめけんま"/>
     <n v="1084"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="244"/>
     <n v="256"/>
-    <x v="5"/>
-    <x v="4"/>
+    <n v="232"/>
+    <n v="226"/>
   </r>
   <r>
     <s v="35"/>
@@ -18758,30 +18567,30 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="10"/>
     <x v="9"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="101"/>
+    <n v="129"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="480"/>
     <n v="477"/>
     <s v="ユニフォーム黒尾鉄朗ICONIC"/>
     <s v="くろおてつろう"/>
     <n v="1094"/>
-    <x v="10"/>
+    <n v="227"/>
     <n v="240"/>
     <n v="233"/>
-    <x v="5"/>
-    <x v="10"/>
+    <n v="232"/>
+    <n v="245"/>
   </r>
   <r>
     <s v="38"/>
@@ -18791,30 +18600,30 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="73"/>
     <x v="4"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="123"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="27"/>
     <n v="462"/>
     <n v="468"/>
     <s v="ユニフォーム灰羽リエーフICONIC"/>
     <s v="はいばりえーふ"/>
     <n v="1054"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="232"/>
     <n v="231"/>
-    <x v="10"/>
-    <x v="11"/>
+    <n v="230"/>
+    <n v="238"/>
   </r>
   <r>
     <s v="40"/>
@@ -18824,30 +18633,30 @@
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="84"/>
     <x v="6"/>
     <x v="11"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
+    <n v="116"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="130"/>
+    <n v="116"/>
+    <n v="122"/>
+    <n v="36"/>
     <n v="469"/>
     <n v="478"/>
     <s v="ユニフォーム夜久衛輔ICONIC"/>
     <s v="やくもりすけ"/>
     <n v="1084"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="235"/>
     <n v="240"/>
-    <x v="11"/>
-    <x v="4"/>
+    <n v="252"/>
+    <n v="226"/>
   </r>
   <r>
     <s v="41"/>
@@ -18857,30 +18666,30 @@
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="4"/>
     <x v="12"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
+    <n v="114"/>
+    <n v="115"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="29"/>
     <n v="459"/>
     <n v="461"/>
     <s v="ユニフォーム福永招平ICONIC"/>
     <s v="ふくながしょうへい"/>
     <n v="1046"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="228"/>
     <n v="229"/>
-    <x v="7"/>
-    <x v="1"/>
+    <n v="231"/>
+    <n v="230"/>
   </r>
   <r>
     <s v="42"/>
@@ -18890,2967 +18699,2967 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="460"/>
     <n v="467"/>
     <s v="ユニフォーム犬岡走ICONIC"/>
     <s v="いぬおかそう"/>
     <n v="1060"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="232"/>
     <n v="231"/>
-    <x v="10"/>
-    <x v="12"/>
+    <n v="230"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="43"/>
+    <s v="44"/>
     <x v="0"/>
     <x v="18"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="1"/>
     <x v="13"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
+    <n v="114"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="29"/>
     <n v="479"/>
     <n v="461"/>
     <s v="ユニフォーム山本猛虎ICONIC"/>
     <s v="やまもとたけとら"/>
     <n v="1070"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="242"/>
     <n v="236"/>
-    <x v="7"/>
-    <x v="1"/>
+    <n v="231"/>
+    <n v="230"/>
   </r>
   <r>
-    <s v="45"/>
+    <s v="46"/>
     <x v="0"/>
     <x v="19"/>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="84"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="8"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="110"/>
+    <n v="123"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="33"/>
     <n v="458"/>
     <n v="472"/>
     <s v="ユニフォーム芝山優生ICONIC"/>
     <s v="しばやまゆうき"/>
     <n v="1060"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="230"/>
     <n v="233"/>
-    <x v="12"/>
-    <x v="13"/>
+    <n v="243"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="46"/>
+    <s v="47"/>
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="11"/>
     <x v="9"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="5"/>
+    <n v="114"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="51"/>
     <n v="481"/>
     <n v="466"/>
     <s v="ユニフォーム海信之ICONIC"/>
     <s v="かいのぶゆき"/>
     <n v="1099"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="243"/>
     <n v="236"/>
-    <x v="9"/>
-    <x v="3"/>
+    <n v="234"/>
+    <n v="232"/>
   </r>
   <r>
-    <s v="47"/>
+    <s v="48"/>
     <x v="0"/>
     <x v="20"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="12"/>
     <x v="3"/>
-    <x v="10"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="110"/>
+    <n v="118"/>
+    <n v="99"/>
+    <n v="112"/>
+    <n v="114"/>
+    <n v="112"/>
+    <n v="112"/>
+    <n v="49"/>
     <n v="465"/>
     <n v="450"/>
     <s v="ユニフォーム海信之YELL"/>
     <s v="かいのぶゆき"/>
     <n v="1063"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="235"/>
     <n v="228"/>
-    <x v="13"/>
-    <x v="14"/>
+    <n v="226"/>
+    <n v="224"/>
   </r>
   <r>
-    <s v="48"/>
+    <s v="49"/>
     <x v="0"/>
     <x v="21"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="5"/>
     <x v="12"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="122"/>
+    <n v="97"/>
+    <n v="130"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="472"/>
     <n v="476"/>
     <s v="ユニフォーム青根高伸ICONIC"/>
     <s v="あおねたかのぶ"/>
     <n v="1076"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="235"/>
     <n v="234"/>
-    <x v="10"/>
-    <x v="15"/>
+    <n v="230"/>
+    <n v="246"/>
   </r>
   <r>
-    <s v="51"/>
+    <s v="52"/>
     <x v="0"/>
     <x v="22"/>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="9"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="114"/>
+    <n v="127"/>
+    <n v="101"/>
+    <n v="127"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="36"/>
     <n v="484"/>
     <n v="478"/>
     <s v="ユニフォーム二口堅治ICONIC"/>
     <s v="ふたくちけんじ"/>
     <n v="1099"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="246"/>
     <n v="241"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="235"/>
+    <n v="243"/>
   </r>
   <r>
-    <s v="54"/>
+    <s v="55"/>
     <x v="0"/>
     <x v="23"/>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="13"/>
     <x v="15"/>
-    <x v="11"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="3"/>
+    <n v="123"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="127"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="29"/>
     <n v="481"/>
     <n v="475"/>
     <s v="ユニフォーム黄金川貫至ICONIC"/>
     <s v="こがねがわかんじ"/>
     <n v="1082"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="239"/>
     <n v="244"/>
-    <x v="5"/>
-    <x v="2"/>
+    <n v="232"/>
+    <n v="243"/>
   </r>
   <r>
-    <s v="57"/>
+    <s v="58"/>
     <x v="0"/>
     <x v="24"/>
     <x v="2"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="14"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="116"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="31"/>
     <n v="469"/>
     <n v="465"/>
     <s v="ユニフォーム小原豊ICONIC"/>
     <s v="おばらゆたか"/>
     <n v="1062"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="236"/>
     <n v="231"/>
-    <x v="14"/>
-    <x v="3"/>
+    <n v="233"/>
+    <n v="232"/>
   </r>
   <r>
-    <s v="58"/>
+    <s v="59"/>
     <x v="0"/>
     <x v="25"/>
     <x v="2"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="15"/>
     <x v="15"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="120"/>
+    <n v="31"/>
     <n v="473"/>
     <n v="473"/>
     <s v="ユニフォーム女川太郎ICONIC"/>
     <s v="おながわたろう"/>
     <n v="1074"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="238"/>
     <n v="233"/>
-    <x v="1"/>
-    <x v="11"/>
+    <n v="235"/>
+    <n v="238"/>
   </r>
   <r>
-    <s v="59"/>
+    <s v="60"/>
     <x v="0"/>
     <x v="26"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="84"/>
     <x v="9"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="2"/>
+    <n v="112"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="124"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="36"/>
     <n v="456"/>
     <n v="473"/>
     <s v="ユニフォーム作並浩輔ICONIC"/>
     <s v="さくなみこうすけ"/>
     <n v="1066"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="231"/>
     <n v="233"/>
-    <x v="15"/>
-    <x v="13"/>
+    <n v="244"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="60"/>
+    <s v="61"/>
     <x v="0"/>
     <x v="27"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="5"/>
     <x v="12"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="122"/>
+    <n v="97"/>
+    <n v="125"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="472"/>
     <n v="471"/>
     <s v="ユニフォーム吹上仁悟ICONIC"/>
     <s v="ふきあげじんご"/>
     <n v="1071"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="235"/>
     <n v="234"/>
-    <x v="10"/>
-    <x v="16"/>
+    <n v="230"/>
+    <n v="241"/>
   </r>
   <r>
-    <s v="61"/>
+    <s v="62"/>
     <x v="0"/>
     <x v="28"/>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="7"/>
     <x v="16"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="129"/>
+    <n v="127"/>
+    <n v="101"/>
+    <n v="114"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="510"/>
     <n v="459"/>
     <s v="ユニフォーム及川徹ICONIC"/>
     <s v="おいかわとおる"/>
     <n v="1106"/>
-    <x v="11"/>
+    <n v="228"/>
     <n v="254"/>
     <n v="256"/>
-    <x v="10"/>
-    <x v="13"/>
+    <n v="230"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="64"/>
+    <s v="66"/>
     <x v="0"/>
     <x v="29"/>
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="5"/>
     <x v="9"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
+    <n v="114"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="36"/>
     <n v="482"/>
     <n v="464"/>
     <s v="ユニフォーム岩泉一ICONIC"/>
     <s v="いわいずみはじめ"/>
     <n v="1083"/>
-    <x v="12"/>
+    <n v="226"/>
     <n v="243"/>
     <n v="236"/>
-    <x v="7"/>
-    <x v="9"/>
+    <n v="231"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="66"/>
+    <s v="68"/>
     <x v="0"/>
     <x v="30"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="71"/>
     <x v="6"/>
     <x v="12"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="116"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="459"/>
     <n v="465"/>
     <s v="ユニフォーム金田一勇太郎ICONIC"/>
     <s v="きんだいちゆうたろう"/>
     <n v="1052"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="229"/>
     <n v="228"/>
-    <x v="10"/>
-    <x v="17"/>
+    <n v="230"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="67"/>
+    <s v="69"/>
     <x v="0"/>
     <x v="31"/>
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="8"/>
     <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="4"/>
+    <n v="112"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="114"/>
+    <n v="110"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="27"/>
     <n v="484"/>
     <n v="461"/>
     <s v="ユニフォーム京谷賢太郎ICONIC"/>
     <s v="きょうたにけんたろう"/>
     <n v="1069"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="244"/>
     <n v="231"/>
-    <x v="7"/>
-    <x v="1"/>
+    <n v="231"/>
+    <n v="230"/>
   </r>
   <r>
-    <s v="68"/>
+    <s v="70"/>
     <x v="0"/>
     <x v="32"/>
     <x v="2"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="70"/>
     <x v="13"/>
     <x v="5"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="467"/>
     <n v="462"/>
     <s v="ユニフォーム国見英ICONIC"/>
     <s v="くにみあきら"/>
     <n v="1057"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="234"/>
     <n v="233"/>
-    <x v="5"/>
-    <x v="1"/>
+    <n v="232"/>
+    <n v="230"/>
   </r>
   <r>
-    <s v="70"/>
+    <s v="72"/>
     <x v="0"/>
     <x v="33"/>
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="84"/>
     <x v="9"/>
     <x v="2"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="119"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="124"/>
+    <n v="119"/>
+    <n v="122"/>
+    <n v="41"/>
     <n v="463"/>
     <n v="475"/>
     <s v="ユニフォーム渡親治ICONIC"/>
     <s v="わたりしんじ"/>
     <n v="1080"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="231"/>
     <n v="240"/>
-    <x v="6"/>
-    <x v="13"/>
+    <n v="246"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="71"/>
+    <s v="73"/>
     <x v="0"/>
     <x v="34"/>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="2"/>
     <x v="12"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="458"/>
     <n v="465"/>
     <s v="ユニフォーム松川一静ICONIC"/>
     <s v="まつかわいっせい"/>
     <n v="1051"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="230"/>
     <n v="229"/>
-    <x v="10"/>
-    <x v="17"/>
+    <n v="230"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="73"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="35"/>
     <x v="2"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="6"/>
     <x v="4"/>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="1"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="31"/>
     <n v="469"/>
     <n v="467"/>
     <s v="ユニフォーム花巻貴大ICONIC"/>
     <s v="はなまきたかひろ"/>
     <n v="1064"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="235"/>
     <n v="235"/>
-    <x v="9"/>
-    <x v="9"/>
+    <n v="234"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="75"/>
+    <s v="77"/>
     <x v="0"/>
     <x v="36"/>
     <x v="2"/>
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="14"/>
     <x v="5"/>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="118"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="41"/>
     <n v="468"/>
     <n v="463"/>
     <s v="ユニフォーム駒木輝ICONIC"/>
     <s v="こまきひかる"/>
     <n v="1073"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="233"/>
     <n v="232"/>
-    <x v="7"/>
-    <x v="3"/>
+    <n v="231"/>
+    <n v="232"/>
   </r>
   <r>
-    <s v="76"/>
+    <s v="78"/>
     <x v="0"/>
     <x v="37"/>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="2"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="462"/>
     <n v="466"/>
     <s v="ユニフォーム茶屋和馬ICONIC"/>
     <s v="ちゃやかずま"/>
     <n v="1056"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="233"/>
     <n v="231"/>
-    <x v="7"/>
-    <x v="17"/>
+    <n v="231"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="77"/>
+    <s v="79"/>
     <x v="0"/>
     <x v="38"/>
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="4"/>
     <x v="10"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="464"/>
     <n v="466"/>
     <s v="ユニフォーム玉川弘樹ICONIC"/>
     <s v="たまがわひろき"/>
     <n v="1058"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="233"/>
     <n v="233"/>
-    <x v="14"/>
-    <x v="9"/>
+    <n v="233"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="78"/>
+    <s v="80"/>
     <x v="0"/>
     <x v="39"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="84"/>
     <x v="9"/>
     <x v="2"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="10"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="124"/>
+    <n v="118"/>
+    <n v="121"/>
+    <n v="41"/>
     <n v="458"/>
     <n v="473"/>
     <s v="ユニフォーム桜井大河ICONIC"/>
     <s v="さくらいたいが"/>
     <n v="1073"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="232"/>
     <n v="235"/>
-    <x v="16"/>
-    <x v="18"/>
+    <n v="245"/>
+    <n v="228"/>
   </r>
   <r>
-    <s v="79"/>
+    <s v="81"/>
     <x v="0"/>
     <x v="40"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="12"/>
     <x v="4"/>
-    <x v="13"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="121"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="477"/>
     <n v="458"/>
     <s v="ユニフォーム芳賀良治ICONIC"/>
     <s v="はがよしはる"/>
     <n v="1063"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="236"/>
     <n v="241"/>
-    <x v="2"/>
-    <x v="13"/>
+    <n v="229"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="80"/>
+    <s v="82"/>
     <x v="0"/>
     <x v="41"/>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="0"/>
     <x v="10"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="460"/>
     <n v="465"/>
     <s v="ユニフォーム渋谷陸斗ICONIC"/>
     <s v="しぶやりくと"/>
     <n v="1053"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="233"/>
     <n v="231"/>
-    <x v="10"/>
-    <x v="17"/>
+    <n v="230"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="81"/>
+    <s v="83"/>
     <x v="0"/>
     <x v="42"/>
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="467"/>
     <n v="465"/>
     <s v="ユニフォーム池尻隼人ICONIC"/>
     <s v="いけじりはやと"/>
     <n v="1060"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="236"/>
     <n v="234"/>
-    <x v="5"/>
-    <x v="9"/>
+    <n v="232"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="82"/>
+    <s v="84"/>
     <x v="0"/>
     <x v="43"/>
     <x v="0"/>
     <x v="3"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="14"/>
     <x v="4"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="41"/>
     <n v="472"/>
     <n v="465"/>
     <s v="ユニフォーム十和田良樹ICONIC"/>
     <s v="とわだよしき"/>
     <n v="1075"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="237"/>
     <n v="235"/>
-    <x v="5"/>
-    <x v="9"/>
+    <n v="232"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="83"/>
+    <s v="85"/>
     <x v="0"/>
     <x v="44"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="2"/>
     <x v="10"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="460"/>
     <n v="465"/>
     <s v="ユニフォーム森岳歩ICONIC"/>
     <s v="もりたけあゆむ"/>
     <n v="1053"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="232"/>
     <n v="230"/>
-    <x v="10"/>
-    <x v="17"/>
+    <n v="230"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="84"/>
+    <s v="86"/>
     <x v="0"/>
     <x v="45"/>
     <x v="1"/>
     <x v="3"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="14"/>
     <x v="3"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="473"/>
     <n v="468"/>
     <s v="ユニフォーム唐松拓巳ICONIC"/>
     <s v="からまつたくみ"/>
     <n v="1069"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="238"/>
     <n v="235"/>
-    <x v="9"/>
-    <x v="7"/>
+    <n v="234"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="85"/>
+    <s v="87"/>
     <x v="0"/>
     <x v="46"/>
     <x v="0"/>
     <x v="3"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="6"/>
     <x v="4"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="467"/>
     <n v="466"/>
     <s v="ユニフォーム田沢裕樹ICONIC"/>
     <s v="たざわゆうき"/>
     <n v="1061"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="235"/>
     <n v="233"/>
-    <x v="5"/>
-    <x v="7"/>
+    <n v="232"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="86"/>
+    <s v="88"/>
     <x v="0"/>
     <x v="47"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="6"/>
     <x v="15"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="468"/>
     <n v="465"/>
     <s v="ユニフォーム子安颯真ICONIC"/>
     <s v="おやすそうま"/>
     <n v="1061"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="238"/>
     <n v="232"/>
-    <x v="10"/>
-    <x v="17"/>
+    <n v="230"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="87"/>
+    <s v="89"/>
     <x v="0"/>
     <x v="48"/>
     <x v="0"/>
     <x v="2"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="85"/>
     <x v="9"/>
     <x v="2"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="8"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="122"/>
+    <n v="118"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="458"/>
     <n v="470"/>
     <s v="ユニフォーム横手駿ICONIC"/>
     <s v="よこてしゅん"/>
     <n v="1070"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="232"/>
     <n v="235"/>
-    <x v="17"/>
-    <x v="18"/>
+    <n v="242"/>
+    <n v="228"/>
   </r>
   <r>
-    <s v="88"/>
+    <s v="90"/>
     <x v="0"/>
     <x v="49"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="73"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="472"/>
     <n v="463"/>
     <s v="ユニフォーム夏瀬伊吹ICONIC"/>
     <s v="なつせいぶき"/>
     <n v="1063"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="235"/>
     <n v="240"/>
-    <x v="10"/>
-    <x v="9"/>
+    <n v="230"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="89"/>
+    <s v="91"/>
     <x v="0"/>
     <x v="50"/>
     <x v="2"/>
     <x v="1"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="14"/>
     <x v="14"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="122"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="484"/>
     <n v="472"/>
     <s v="ユニフォーム古牧譲ICONIC"/>
     <s v="こまきゆずる"/>
     <n v="1098"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="241"/>
     <n v="244"/>
-    <x v="18"/>
-    <x v="6"/>
+    <n v="236"/>
+    <n v="236"/>
   </r>
   <r>
-    <s v="90"/>
+    <s v="92"/>
     <x v="0"/>
     <x v="51"/>
     <x v="0"/>
     <x v="3"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="6"/>
     <x v="4"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="2"/>
+    <n v="114"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="36"/>
     <n v="465"/>
     <n v="466"/>
     <s v="ユニフォーム浅虫快人ICONIC"/>
     <s v="あさむしかいと"/>
     <n v="1064"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="233"/>
     <n v="231"/>
-    <x v="5"/>
-    <x v="7"/>
+    <n v="232"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="91"/>
+    <s v="93"/>
     <x v="0"/>
     <x v="52"/>
     <x v="2"/>
     <x v="2"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="85"/>
     <x v="16"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="8"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="122"/>
+    <n v="118"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="457"/>
     <n v="470"/>
     <s v="ユニフォーム南田大志ICONIC"/>
     <s v="みなみだたいし"/>
     <n v="1069"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="231"/>
     <n v="235"/>
-    <x v="17"/>
-    <x v="18"/>
+    <n v="242"/>
+    <n v="228"/>
   </r>
   <r>
-    <s v="92"/>
+    <s v="94"/>
     <x v="0"/>
     <x v="53"/>
     <x v="2"/>
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="464"/>
     <n v="467"/>
     <s v="ユニフォーム湯川良明ICONIC"/>
     <s v="ぬるかわよしあき"/>
     <n v="1059"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="236"/>
     <n v="232"/>
-    <x v="7"/>
-    <x v="6"/>
+    <n v="231"/>
+    <n v="236"/>
   </r>
   <r>
-    <s v="93"/>
+    <s v="95"/>
     <x v="0"/>
     <x v="54"/>
     <x v="2"/>
     <x v="3"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="12"/>
     <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="468"/>
     <n v="461"/>
     <s v="ユニフォーム稲垣功ICONIC"/>
     <s v="いながきいさお"/>
     <n v="1057"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="234"/>
     <n v="231"/>
-    <x v="10"/>
-    <x v="5"/>
+    <n v="230"/>
+    <n v="231"/>
   </r>
   <r>
-    <s v="94"/>
+    <s v="96"/>
     <x v="0"/>
     <x v="55"/>
     <x v="2"/>
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="462"/>
     <n v="468"/>
     <s v="ユニフォーム馬門英治ICONIC"/>
     <s v="まかどえいじ"/>
     <n v="1058"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="235"/>
     <n v="232"/>
-    <x v="7"/>
-    <x v="12"/>
+    <n v="231"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="95"/>
+    <s v="97"/>
     <x v="0"/>
     <x v="56"/>
     <x v="2"/>
     <x v="3"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="13"/>
     <x v="15"/>
-    <x v="15"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="469"/>
     <n v="463"/>
     <s v="ユニフォーム百沢雄大ICONIC"/>
     <s v="ひゃくざわゆうだい"/>
     <n v="1060"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="235"/>
     <n v="232"/>
-    <x v="7"/>
-    <x v="3"/>
+    <n v="231"/>
+    <n v="232"/>
   </r>
   <r>
-    <s v="97"/>
+    <s v="99"/>
     <x v="0"/>
     <x v="57"/>
     <x v="1"/>
     <x v="3"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="15"/>
     <x v="9"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="114"/>
+    <n v="115"/>
+    <n v="118"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="479"/>
     <n v="467"/>
     <s v="ユニフォーム照島游児ICONIC"/>
     <s v="てるしまゆうじ"/>
     <n v="1088"/>
-    <x v="15"/>
+    <n v="223"/>
     <n v="243"/>
     <n v="236"/>
-    <x v="1"/>
-    <x v="3"/>
+    <n v="235"/>
+    <n v="232"/>
   </r>
   <r>
-    <s v="99"/>
+    <s v="101"/>
     <x v="0"/>
     <x v="58"/>
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="7"/>
+    <n v="112"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="41"/>
     <n v="464"/>
     <n v="470"/>
     <s v="ユニフォーム母畑和馬ICONIC"/>
     <s v="ぼばたかずま"/>
     <n v="1072"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="235"/>
     <n v="232"/>
-    <x v="5"/>
-    <x v="11"/>
+    <n v="232"/>
+    <n v="238"/>
   </r>
   <r>
-    <s v="100"/>
+    <s v="102"/>
     <x v="0"/>
     <x v="59"/>
     <x v="2"/>
     <x v="1"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="0"/>
     <x v="10"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="7"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="41"/>
     <n v="469"/>
     <n v="464"/>
     <s v="ユニフォーム二岐丈晴ICONIC"/>
     <s v="ふたまたたけはる"/>
     <n v="1071"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="234"/>
     <n v="240"/>
-    <x v="7"/>
-    <x v="9"/>
+    <n v="231"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="102"/>
+    <s v="104"/>
     <x v="0"/>
     <x v="60"/>
     <x v="2"/>
     <x v="3"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="12"/>
     <x v="14"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="41"/>
     <n v="470"/>
     <n v="462"/>
     <s v="ユニフォーム沼尻凛太郎ICONIC"/>
     <s v="ぬまじりりんたろう"/>
     <n v="1070"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="237"/>
     <n v="231"/>
-    <x v="7"/>
-    <x v="5"/>
+    <n v="231"/>
+    <n v="231"/>
   </r>
   <r>
-    <s v="103"/>
+    <s v="105"/>
     <x v="0"/>
     <x v="61"/>
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="2"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="41"/>
     <n v="461"/>
     <n v="469"/>
     <s v="ユニフォーム飯坂信義ICONIC"/>
     <s v="いいざかのぶよし"/>
     <n v="1068"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="232"/>
     <n v="230"/>
-    <x v="5"/>
-    <x v="12"/>
+    <n v="232"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="104"/>
+    <s v="106"/>
     <x v="0"/>
     <x v="62"/>
     <x v="1"/>
     <x v="3"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="6"/>
     <x v="15"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="469"/>
     <n v="470"/>
     <s v="ユニフォーム東山勝道ICONIC"/>
     <s v="ひがしやまかつみち"/>
     <n v="1077"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="238"/>
     <n v="233"/>
-    <x v="1"/>
-    <x v="17"/>
+    <n v="235"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="105"/>
+    <s v="107"/>
     <x v="0"/>
     <x v="63"/>
     <x v="1"/>
     <x v="2"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="85"/>
     <x v="16"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="120"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="456"/>
     <n v="469"/>
     <s v="ユニフォーム土湯新ICONIC"/>
     <s v="つちゆあらた"/>
     <n v="1067"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="230"/>
     <n v="234"/>
-    <x v="19"/>
-    <x v="13"/>
+    <n v="240"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="106"/>
+    <s v="108"/>
     <x v="0"/>
     <x v="64"/>
     <x v="0"/>
     <x v="3"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="121"/>
+    <n v="41"/>
     <n v="478"/>
     <n v="471"/>
     <s v="ユニフォーム中島猛ICONIC"/>
     <s v="なかじまたける"/>
     <n v="1087"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="242"/>
     <n v="234"/>
-    <x v="18"/>
-    <x v="17"/>
+    <n v="236"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="107"/>
+    <s v="109"/>
     <x v="0"/>
     <x v="65"/>
     <x v="1"/>
     <x v="3"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="13"/>
     <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="113"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="465"/>
     <n v="459"/>
     <s v="ユニフォーム白石優希ICONIC"/>
     <s v="しろいしゆうき"/>
     <n v="1052"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="233"/>
     <n v="230"/>
-    <x v="7"/>
-    <x v="18"/>
+    <n v="231"/>
+    <n v="228"/>
   </r>
   <r>
-    <s v="108"/>
+    <s v="110"/>
     <x v="0"/>
     <x v="66"/>
     <x v="0"/>
     <x v="1"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="13"/>
     <x v="9"/>
-    <x v="14"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="14"/>
-    <x v="8"/>
-    <x v="11"/>
-    <x v="7"/>
+    <n v="122"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="119"/>
+    <n v="119"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="41"/>
     <n v="483"/>
     <n v="474"/>
     <s v="ユニフォーム花山一雅ICONIC"/>
     <s v="はなやまかずまさ"/>
     <n v="1095"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="242"/>
     <n v="243"/>
-    <x v="3"/>
-    <x v="12"/>
+    <n v="237"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="109"/>
+    <s v="111"/>
     <x v="0"/>
     <x v="67"/>
     <x v="0"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="3"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="117"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="458"/>
     <n v="469"/>
     <s v="ユニフォーム鳴子哲平ICONIC"/>
     <s v="なるこてっぺい"/>
     <n v="1055"/>
-    <x v="3"/>
+    <n v="211"/>
     <n v="231"/>
     <n v="230"/>
-    <x v="5"/>
-    <x v="12"/>
+    <n v="232"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="110"/>
+    <s v="112"/>
     <x v="0"/>
     <x v="68"/>
     <x v="0"/>
     <x v="2"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="85"/>
     <x v="16"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="121"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="456"/>
     <n v="470"/>
     <s v="ユニフォーム秋保和光ICONIC"/>
     <s v="あきうかずてる"/>
     <n v="1068"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="230"/>
     <n v="234"/>
-    <x v="0"/>
-    <x v="13"/>
+    <n v="241"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="111"/>
+    <s v="113"/>
     <x v="0"/>
     <x v="69"/>
     <x v="0"/>
     <x v="0"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="3"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="460"/>
     <n v="471"/>
     <s v="ユニフォーム松島剛ICONIC"/>
     <s v="まつしまつよし"/>
     <n v="1059"/>
-    <x v="3"/>
+    <n v="211"/>
     <n v="233"/>
     <n v="231"/>
-    <x v="9"/>
-    <x v="12"/>
+    <n v="234"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="112"/>
+    <s v="114"/>
     <x v="0"/>
     <x v="70"/>
     <x v="0"/>
     <x v="3"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="14"/>
     <x v="15"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="11"/>
-    <x v="2"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="36"/>
     <n v="473"/>
     <n v="468"/>
     <s v="ユニフォーム川渡瞬己ICONIC"/>
     <s v="かわたびしゅんき"/>
     <n v="1078"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="238"/>
     <n v="234"/>
-    <x v="9"/>
-    <x v="7"/>
+    <n v="234"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="113"/>
+    <s v="115"/>
     <x v="0"/>
     <x v="71"/>
     <x v="2"/>
     <x v="3"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="17"/>
     <x v="17"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="497"/>
     <n v="472"/>
     <s v="ユニフォーム牛島若利ICONIC"/>
     <s v="うしじまわかとし"/>
     <n v="1111"/>
-    <x v="17"/>
+    <n v="231"/>
     <n v="253"/>
     <n v="237"/>
-    <x v="18"/>
-    <x v="6"/>
+    <n v="236"/>
+    <n v="236"/>
   </r>
   <r>
-    <s v="115"/>
+    <s v="118"/>
     <x v="0"/>
     <x v="72"/>
     <x v="2"/>
     <x v="0"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="81"/>
     <x v="1"/>
     <x v="13"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="10"/>
+    <n v="113"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="125"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="28"/>
     <n v="477"/>
     <n v="474"/>
     <s v="ユニフォーム天童覚ICONIC"/>
     <s v="てんどうさとり"/>
     <n v="1076"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="241"/>
     <n v="234"/>
-    <x v="5"/>
-    <x v="19"/>
+    <n v="232"/>
+    <n v="242"/>
   </r>
   <r>
-    <s v="118"/>
+    <s v="121"/>
     <x v="0"/>
     <x v="73"/>
     <x v="0"/>
     <x v="3"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="1"/>
     <x v="13"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="2"/>
+    <n v="118"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="36"/>
     <n v="484"/>
     <n v="478"/>
     <s v="ユニフォーム五色工ICONIC"/>
     <s v="ごしきつとむ"/>
     <n v="1099"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="243"/>
     <n v="241"/>
-    <x v="20"/>
-    <x v="20"/>
+    <n v="239"/>
+    <n v="239"/>
   </r>
   <r>
-    <s v="120"/>
+    <s v="123"/>
     <x v="0"/>
     <x v="74"/>
     <x v="2"/>
     <x v="1"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="13"/>
     <x v="13"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="2"/>
+    <n v="127"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="36"/>
     <n v="489"/>
     <n v="468"/>
     <s v="ユニフォーム白布賢二郎ICONIC"/>
     <s v="しらぶけんじろう"/>
     <n v="1094"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="243"/>
     <n v="250"/>
-    <x v="1"/>
-    <x v="9"/>
+    <n v="235"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="122"/>
+    <s v="125"/>
     <x v="0"/>
     <x v="75"/>
     <x v="2"/>
     <x v="3"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="1"/>
     <x v="13"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="1"/>
+    <n v="118"/>
+    <n v="123"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="31"/>
     <n v="484"/>
     <n v="478"/>
     <s v="ユニフォーム大平獅音ICONIC"/>
     <s v="おおひられおん"/>
     <n v="1090"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="243"/>
     <n v="241"/>
-    <x v="20"/>
-    <x v="20"/>
+    <n v="239"/>
+    <n v="239"/>
   </r>
   <r>
-    <s v="123"/>
+    <s v="126"/>
     <x v="0"/>
     <x v="76"/>
     <x v="2"/>
     <x v="0"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="1"/>
     <x v="13"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="477"/>
     <n v="470"/>
     <s v="ユニフォーム川西太一ICONIC"/>
     <s v="かわにしたいち"/>
     <n v="1079"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="241"/>
     <n v="234"/>
-    <x v="5"/>
-    <x v="11"/>
+    <n v="232"/>
+    <n v="238"/>
   </r>
   <r>
-    <s v="124"/>
+    <s v="127"/>
     <x v="0"/>
     <x v="77"/>
     <x v="2"/>
     <x v="1"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="4"/>
     <x v="13"/>
-    <x v="13"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="11"/>
-    <x v="2"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="118"/>
+    <n v="36"/>
     <n v="479"/>
     <n v="469"/>
     <s v="ユニフォーム瀬見英太ICONIC"/>
     <s v="せみえいた"/>
     <n v="1085"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="241"/>
     <n v="242"/>
-    <x v="1"/>
-    <x v="7"/>
+    <n v="235"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="125"/>
+    <s v="128"/>
     <x v="0"/>
     <x v="78"/>
     <x v="2"/>
     <x v="2"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="85"/>
     <x v="16"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="121"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="456"/>
     <n v="470"/>
     <s v="ユニフォーム山形隼人ICONIC"/>
     <s v="やまがたはやと"/>
     <n v="1068"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="230"/>
     <n v="234"/>
-    <x v="0"/>
-    <x v="13"/>
+    <n v="241"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="126"/>
+    <s v="129"/>
     <x v="0"/>
     <x v="79"/>
     <x v="0"/>
     <x v="1"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="12"/>
     <x v="18"/>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="2"/>
+    <n v="130"/>
+    <n v="127"/>
+    <n v="101"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="114"/>
+    <n v="118"/>
+    <n v="36"/>
     <n v="506"/>
     <n v="465"/>
     <s v="ユニフォーム宮侑ICONIC"/>
     <s v="みやあつむ"/>
     <n v="1108"/>
-    <x v="18"/>
+    <n v="221"/>
     <n v="256"/>
     <n v="257"/>
-    <x v="3"/>
-    <x v="18"/>
+    <n v="237"/>
+    <n v="228"/>
   </r>
   <r>
-    <s v="128"/>
+    <s v="131"/>
     <x v="0"/>
     <x v="80"/>
     <x v="1"/>
     <x v="3"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="7"/>
     <x v="13"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="123"/>
+    <n v="119"/>
+    <n v="122"/>
+    <n v="119"/>
+    <n v="31"/>
     <n v="484"/>
     <n v="483"/>
     <s v="ユニフォーム宮治ICONIC"/>
     <s v="みやおさむ"/>
     <n v="1099"/>
-    <x v="11"/>
+    <n v="228"/>
     <n v="241"/>
     <n v="237"/>
-    <x v="21"/>
-    <x v="10"/>
+    <n v="238"/>
+    <n v="245"/>
   </r>
   <r>
-    <s v="129"/>
+    <s v="132"/>
     <x v="0"/>
     <x v="81"/>
     <x v="0"/>
     <x v="0"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="10"/>
     <x v="15"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="2"/>
+    <n v="112"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="128"/>
+    <n v="114"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="36"/>
     <n v="477"/>
     <n v="476"/>
     <s v="ユニフォーム角名倫太郎ICONIC"/>
     <s v="すなりんたろう"/>
     <n v="1090"/>
-    <x v="10"/>
+    <n v="227"/>
     <n v="239"/>
     <n v="233"/>
-    <x v="7"/>
-    <x v="10"/>
+    <n v="231"/>
+    <n v="245"/>
   </r>
   <r>
-    <s v="130"/>
+    <s v="133"/>
     <x v="0"/>
     <x v="82"/>
     <x v="0"/>
     <x v="3"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="5"/>
     <x v="14"/>
-    <x v="15"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="15"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="121"/>
+    <n v="120"/>
+    <n v="121"/>
+    <n v="36"/>
     <n v="478"/>
     <n v="480"/>
     <s v="ユニフォーム北信介ICONIC"/>
     <s v="きたしんすけ"/>
     <n v="1091"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="238"/>
     <n v="234"/>
-    <x v="17"/>
-    <x v="11"/>
+    <n v="242"/>
+    <n v="238"/>
   </r>
   <r>
-    <s v="132"/>
+    <s v="135"/>
     <x v="0"/>
     <x v="83"/>
     <x v="0"/>
     <x v="3"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="7"/>
     <x v="8"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="117"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="479"/>
     <n v="467"/>
     <s v="ユニフォーム尾白アランICONIC"/>
     <s v="おじろあらん"/>
     <n v="1078"/>
-    <x v="11"/>
+    <n v="228"/>
     <n v="239"/>
     <n v="230"/>
-    <x v="10"/>
-    <x v="12"/>
+    <n v="230"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="133"/>
+    <s v="136"/>
     <x v="0"/>
     <x v="84"/>
     <x v="0"/>
     <x v="2"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="86"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="116"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="124"/>
+    <n v="118"/>
+    <n v="122"/>
+    <n v="41"/>
     <n v="464"/>
     <n v="474"/>
     <s v="ユニフォーム赤木路成ICONIC"/>
     <s v="あかぎみちなり"/>
     <n v="1080"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="232"/>
     <n v="238"/>
-    <x v="6"/>
-    <x v="18"/>
+    <n v="246"/>
+    <n v="228"/>
   </r>
   <r>
-    <s v="134"/>
+    <s v="137"/>
     <x v="0"/>
     <x v="85"/>
     <x v="0"/>
     <x v="0"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="6"/>
     <x v="10"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="129"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="466"/>
     <n v="476"/>
     <s v="ユニフォーム大耳練ICONIC"/>
     <s v="おおみみれん"/>
     <n v="1070"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="234"/>
     <n v="234"/>
-    <x v="5"/>
-    <x v="21"/>
+    <n v="232"/>
+    <n v="244"/>
   </r>
   <r>
-    <s v="135"/>
+    <s v="138"/>
     <x v="0"/>
     <x v="86"/>
     <x v="0"/>
     <x v="3"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="14"/>
     <x v="19"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="115"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="118"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="474"/>
     <n v="465"/>
     <s v="ユニフォーム理石平介ICONIC"/>
     <s v="りせきへいすけ"/>
     <n v="1067"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="241"/>
     <n v="227"/>
-    <x v="5"/>
-    <x v="9"/>
+    <n v="232"/>
+    <n v="233"/>
   </r>
   <r>
-    <s v="136"/>
+    <s v="139"/>
     <x v="0"/>
     <x v="87"/>
     <x v="1"/>
     <x v="3"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="8"/>
     <x v="16"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="15"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="0"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="26"/>
     <n v="488"/>
     <n v="481"/>
     <s v="ユニフォーム木兎光太郎ICONIC"/>
     <s v="ぼくとこうたろう"/>
     <n v="1096"/>
-    <x v="19"/>
+    <n v="229"/>
     <n v="246"/>
     <n v="233"/>
-    <x v="17"/>
-    <x v="20"/>
+    <n v="242"/>
+    <n v="239"/>
   </r>
   <r>
-    <s v="139"/>
+    <s v="142"/>
     <x v="0"/>
     <x v="88"/>
     <x v="1"/>
     <x v="3"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="2"/>
+    <n v="120"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="36"/>
     <n v="483"/>
     <n v="479"/>
     <s v="ユニフォーム木葉秋紀ICONIC"/>
     <s v="このはあきのり"/>
     <n v="1099"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="240"/>
     <n v="243"/>
-    <x v="17"/>
-    <x v="12"/>
+    <n v="242"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="141"/>
+    <s v="144"/>
     <x v="0"/>
     <x v="89"/>
     <x v="1"/>
     <x v="3"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="1"/>
     <x v="14"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="15"/>
-    <x v="12"/>
-    <x v="11"/>
-    <x v="7"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="123"/>
+    <n v="118"/>
+    <n v="41"/>
     <n v="479"/>
     <n v="483"/>
     <s v="ユニフォーム猿杙大和ICONIC"/>
     <s v="さるくいやまと"/>
     <n v="1100"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="240"/>
     <n v="237"/>
-    <x v="20"/>
-    <x v="21"/>
+    <n v="239"/>
+    <n v="244"/>
   </r>
   <r>
-    <s v="142"/>
+    <s v="145"/>
     <x v="0"/>
     <x v="90"/>
     <x v="1"/>
     <x v="2"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="86"/>
     <x v="9"/>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="123"/>
+    <n v="119"/>
+    <n v="122"/>
+    <n v="41"/>
     <n v="456"/>
     <n v="474"/>
     <s v="ユニフォーム小見春樹ICONIC"/>
     <s v="こみはるき"/>
     <n v="1072"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="230"/>
     <n v="233"/>
-    <x v="16"/>
-    <x v="13"/>
+    <n v="245"/>
+    <n v="229"/>
   </r>
   <r>
-    <s v="143"/>
+    <s v="146"/>
     <x v="0"/>
     <x v="91"/>
     <x v="1"/>
     <x v="0"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="112"/>
+    <n v="116"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="113"/>
+    <n v="114"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="462"/>
     <n v="463"/>
     <s v="ユニフォーム尾長渉ICONIC"/>
     <s v="おながわたる"/>
     <n v="1058"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="233"/>
     <n v="228"/>
-    <x v="22"/>
-    <x v="17"/>
+    <n v="228"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="144"/>
+    <s v="147"/>
     <x v="0"/>
     <x v="92"/>
     <x v="1"/>
     <x v="0"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="14"/>
     <x v="9"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="112"/>
+    <n v="122"/>
+    <n v="97"/>
+    <n v="125"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="476"/>
     <n v="471"/>
     <s v="ユニフォーム鷲尾辰生ICONIC"/>
     <s v="わしおたつき"/>
     <n v="1080"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="243"/>
     <n v="234"/>
-    <x v="10"/>
-    <x v="16"/>
+    <n v="230"/>
+    <n v="241"/>
   </r>
   <r>
-    <s v="145"/>
+    <s v="148"/>
     <x v="0"/>
     <x v="93"/>
     <x v="2"/>
     <x v="1"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="13"/>
     <x v="9"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="7"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="101"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="118"/>
+    <n v="119"/>
+    <n v="41"/>
     <n v="492"/>
     <n v="472"/>
     <s v="ユニフォーム赤葦京治ICONIC"/>
     <s v="あかあしけいじ"/>
     <n v="1106"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="247"/>
     <n v="252"/>
-    <x v="19"/>
-    <x v="3"/>
+    <n v="240"/>
+    <n v="232"/>
   </r>
   <r>
-    <s v="147"/>
+    <s v="150"/>
     <x v="0"/>
     <x v="94"/>
     <x v="0"/>
     <x v="3"/>
     <x v="12"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="83"/>
     <x v="17"/>
     <x v="6"/>
-    <x v="15"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="10"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="126"/>
+    <n v="121"/>
+    <n v="36"/>
     <n v="491"/>
     <n v="483"/>
     <s v="ユニフォーム星海光来ICONIC"/>
     <s v="ほしうみこうらい"/>
     <n v="1111"/>
-    <x v="17"/>
+    <n v="231"/>
     <n v="246"/>
     <n v="236"/>
-    <x v="20"/>
-    <x v="21"/>
+    <n v="239"/>
+    <n v="244"/>
   </r>
   <r>
-    <s v="149"/>
+    <s v="152"/>
     <x v="0"/>
     <x v="95"/>
     <x v="0"/>
     <x v="0"/>
     <x v="12"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="5"/>
     <x v="8"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="7"/>
+    <n v="112"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="131"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="41"/>
     <n v="480"/>
     <n v="478"/>
     <s v="ユニフォーム昼神幸郎ICONIC"/>
     <s v="ひるがみさちろう"/>
     <n v="1100"/>
-    <x v="12"/>
+    <n v="226"/>
     <n v="243"/>
     <n v="233"/>
-    <x v="5"/>
-    <x v="15"/>
+    <n v="232"/>
+    <n v="246"/>
   </r>
   <r>
-    <s v="151"/>
+    <s v="154"/>
     <x v="0"/>
     <x v="96"/>
     <x v="0"/>
     <x v="3"/>
     <x v="13"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="18"/>
     <x v="19"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="123"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="490"/>
     <n v="480"/>
     <s v="ユニフォーム佐久早聖臣ICONIC"/>
     <s v="さくさきよおみ"/>
     <n v="1112"/>
-    <x v="20"/>
+    <n v="230"/>
     <n v="247"/>
     <n v="235"/>
-    <x v="12"/>
-    <x v="12"/>
+    <n v="243"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="152"/>
+    <s v="155"/>
     <x v="0"/>
     <x v="97"/>
     <x v="0"/>
     <x v="2"/>
     <x v="13"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="86"/>
     <x v="0"/>
     <x v="11"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
+    <n v="119"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="131"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="36"/>
     <n v="469"/>
     <n v="478"/>
     <s v="ユニフォーム小森元也ICONIC"/>
     <s v="こもりもとや"/>
     <n v="1084"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="235"/>
     <n v="243"/>
-    <x v="11"/>
-    <x v="4"/>
+    <n v="252"/>
+    <n v="226"/>
   </r>
   <r>
-    <s v="153"/>
+    <s v="156"/>
     <x v="0"/>
     <x v="98"/>
     <x v="1"/>
     <x v="3"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="1"/>
     <x v="14"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="13"/>
-    <x v="12"/>
-    <x v="11"/>
-    <x v="2"/>
+    <n v="118"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="122"/>
+    <n v="123"/>
+    <n v="118"/>
+    <n v="36"/>
     <n v="483"/>
     <n v="479"/>
     <s v="ユニフォーム大将優ICONIC"/>
     <s v="だいしょうすぐる"/>
     <n v="1099"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="242"/>
     <n v="241"/>
-    <x v="19"/>
-    <x v="20"/>
+    <n v="240"/>
+    <n v="239"/>
   </r>
   <r>
-    <s v="154"/>
+    <s v="158"/>
     <x v="0"/>
     <x v="99"/>
     <x v="1"/>
     <x v="3"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="5"/>
     <x v="14"/>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="119"/>
+    <n v="121"/>
+    <n v="119"/>
+    <n v="36"/>
     <n v="479"/>
     <n v="477"/>
     <s v="ユニフォーム沼井和馬ICONIC"/>
     <s v="ぬまいかずま"/>
     <n v="1089"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="238"/>
     <n v="235"/>
-    <x v="21"/>
-    <x v="20"/>
+    <n v="238"/>
+    <n v="239"/>
   </r>
   <r>
-    <s v="155"/>
+    <s v="159"/>
     <x v="0"/>
     <x v="100"/>
     <x v="1"/>
     <x v="3"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="1"/>
     <x v="15"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="476"/>
     <n v="469"/>
     <s v="ユニフォーム潜尚保ICONIC"/>
     <s v="くぐりなおやす"/>
     <n v="1073"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="239"/>
     <n v="235"/>
-    <x v="5"/>
-    <x v="12"/>
+    <n v="232"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="156"/>
+    <s v="160"/>
     <x v="0"/>
     <x v="101"/>
     <x v="1"/>
     <x v="3"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="14"/>
     <x v="13"/>
-    <x v="9"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="476"/>
     <n v="465"/>
     <s v="ユニフォーム高千穂恵也ICONIC"/>
     <s v="たかちほよしや"/>
     <n v="1078"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="241"/>
     <n v="235"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="231"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="157"/>
+    <s v="161"/>
     <x v="0"/>
     <x v="102"/>
     <x v="1"/>
     <x v="0"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="126"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="466"/>
     <n v="468"/>
     <s v="ユニフォーム広尾倖児ICONIC"/>
     <s v="ひろおこうじ"/>
     <n v="1062"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="238"/>
     <n v="238"/>
-    <x v="7"/>
-    <x v="12"/>
+    <n v="231"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="158"/>
+    <s v="162"/>
     <x v="0"/>
     <x v="103"/>
     <x v="1"/>
     <x v="1"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="73"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="7"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="41"/>
     <n v="471"/>
     <n v="462"/>
     <s v="ユニフォーム先島伊澄ICONIC"/>
     <s v="さきしまいすみ"/>
     <n v="1071"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="236"/>
     <n v="240"/>
-    <x v="7"/>
-    <x v="5"/>
+    <n v="231"/>
+    <n v="231"/>
   </r>
   <r>
-    <s v="159"/>
+    <s v="163"/>
     <x v="0"/>
     <x v="104"/>
     <x v="1"/>
     <x v="0"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="16"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="72"/>
     <x v="4"/>
     <x v="12"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="112"/>
+    <n v="116"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="115"/>
+    <n v="31"/>
     <n v="458"/>
     <n v="467"/>
     <s v="ユニフォーム背黒晃彦ICONIC"/>
     <s v="せぐろあきひこ"/>
     <n v="1053"/>
-    <x v="9"/>
+    <n v="214"/>
     <n v="229"/>
     <n v="228"/>
-    <x v="10"/>
-    <x v="12"/>
+    <n v="230"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="160"/>
+    <s v="164"/>
     <x v="0"/>
     <x v="105"/>
     <x v="1"/>
     <x v="2"/>
     <x v="14"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="86"/>
     <x v="16"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="110"/>
+    <n v="121"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="456"/>
     <n v="470"/>
     <s v="ユニフォーム赤間颯ICONIC"/>
     <s v="あかまそう"/>
     <n v="1068"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="230"/>
     <n v="234"/>
-    <x v="0"/>
-    <x v="13"/>
+    <n v="241"/>
+    <n v="229"/>
   </r>
   <r>
     <s v="2"/>
@@ -21860,30 +21669,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="6"/>
     <x v="12"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="9"/>
-    <x v="14"/>
-    <x v="13"/>
-    <x v="0"/>
+    <n v="113"/>
+    <n v="115"/>
+    <n v="97"/>
+    <n v="126"/>
+    <n v="113"/>
+    <n v="132"/>
+    <n v="130"/>
+    <n v="26"/>
     <n v="459"/>
     <n v="501"/>
     <s v="制服日向翔陽ICONIC"/>
     <s v="ひなたしょうよう"/>
     <n v="1083"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="228"/>
     <n v="228"/>
-    <x v="12"/>
-    <x v="22"/>
+    <n v="243"/>
+    <n v="258"/>
   </r>
   <r>
     <s v="3"/>
@@ -21893,30 +21702,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="6"/>
     <x v="11"/>
-    <x v="7"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="8"/>
-    <x v="15"/>
-    <x v="13"/>
-    <x v="0"/>
+    <n v="111"/>
+    <n v="113"/>
+    <n v="97"/>
+    <n v="128"/>
+    <n v="115"/>
+    <n v="134"/>
+    <n v="130"/>
+    <n v="26"/>
     <n v="453"/>
     <n v="507"/>
     <s v="夏祭り日向翔陽ICONIC"/>
     <s v="ひなたしょうよう"/>
     <n v="1083"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="224"/>
     <n v="224"/>
-    <x v="16"/>
-    <x v="23"/>
+    <n v="245"/>
+    <n v="262"/>
   </r>
   <r>
     <s v="5"/>
@@ -21926,30 +21735,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="11"/>
     <x v="19"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="132"/>
+    <n v="126"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="508"/>
     <n v="469"/>
     <s v="制服影山飛雄ICONIC"/>
     <s v="かげやまとびお"/>
     <n v="1109"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="252"/>
     <n v="258"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="237"/>
+    <n v="232"/>
   </r>
   <r>
     <s v="6"/>
@@ -21959,30 +21768,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="15"/>
     <x v="7"/>
-    <x v="18"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="132"/>
+    <n v="128"/>
+    <n v="101"/>
+    <n v="114"/>
+    <n v="123"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="510"/>
     <n v="467"/>
     <s v="夏祭り影山飛雄ICONIC"/>
     <s v="かげやまとびお"/>
     <n v="1109"/>
-    <x v="15"/>
+    <n v="223"/>
     <n v="256"/>
     <n v="260"/>
-    <x v="20"/>
-    <x v="18"/>
+    <n v="239"/>
+    <n v="228"/>
   </r>
   <r>
     <s v="7"/>
@@ -21992,30 +21801,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="5"/>
     <x v="7"/>
-    <x v="19"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="135"/>
+    <n v="128"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="121"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="516"/>
     <n v="471"/>
     <s v="Xmas影山飛雄ICONIC"/>
     <s v="かげやまとびお"/>
     <n v="1119"/>
-    <x v="12"/>
+    <n v="226"/>
     <n v="256"/>
     <n v="263"/>
-    <x v="3"/>
-    <x v="7"/>
+    <n v="237"/>
+    <n v="234"/>
   </r>
   <r>
     <s v="9"/>
@@ -22025,30 +21834,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="13"/>
     <x v="12"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="2"/>
+    <n v="113"/>
+    <n v="127"/>
+    <n v="97"/>
+    <n v="130"/>
+    <n v="115"/>
+    <n v="119"/>
+    <n v="116"/>
+    <n v="36"/>
     <n v="472"/>
     <n v="480"/>
     <s v="水着月島蛍ICONIC"/>
     <s v="つきしまけい"/>
     <n v="1085"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="240"/>
     <n v="240"/>
-    <x v="7"/>
-    <x v="24"/>
+    <n v="231"/>
+    <n v="249"/>
   </r>
   <r>
     <s v="10"/>
@@ -22058,30 +21867,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="15"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="9"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="113"/>
+    <n v="128"/>
+    <n v="97"/>
+    <n v="128"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="115"/>
+    <n v="36"/>
     <n v="478"/>
     <n v="474"/>
     <s v="職業体験月島蛍ICONIC"/>
     <s v="つきしまけい"/>
     <n v="1085"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="243"/>
     <n v="241"/>
-    <x v="22"/>
-    <x v="15"/>
+    <n v="228"/>
+    <n v="246"/>
   </r>
   <r>
     <s v="12"/>
@@ -22091,30 +21900,30 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="74"/>
     <x v="0"/>
     <x v="19"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
+    <n v="119"/>
+    <n v="123"/>
+    <n v="97"/>
+    <n v="121"/>
+    <n v="119"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="31"/>
     <n v="483"/>
     <n v="475"/>
     <s v="水着山口忠ICONIC"/>
     <s v="やまぐちだだし"/>
     <n v="1086"/>
-    <x v="0"/>
+    <n v="212"/>
     <n v="249"/>
     <n v="242"/>
-    <x v="20"/>
-    <x v="6"/>
+    <n v="239"/>
+    <n v="236"/>
   </r>
   <r>
     <s v="14"/>
@@ -22124,30 +21933,30 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="17"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="87"/>
     <x v="6"/>
     <x v="11"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="19"/>
-    <x v="17"/>
-    <x v="7"/>
-    <x v="14"/>
-    <x v="3"/>
+    <n v="123"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="111"/>
+    <n v="133"/>
+    <n v="117"/>
+    <n v="126"/>
+    <n v="29"/>
     <n v="476"/>
     <n v="487"/>
     <s v="制服西谷夕ICONIC"/>
     <s v="にしのやゆう"/>
     <n v="1093"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="235"/>
     <n v="247"/>
-    <x v="23"/>
-    <x v="18"/>
+    <n v="259"/>
+    <n v="228"/>
   </r>
   <r>
     <s v="15"/>
@@ -22157,30 +21966,30 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="18"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="88"/>
     <x v="13"/>
     <x v="11"/>
-    <x v="20"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="19"/>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="15"/>
-    <x v="3"/>
+    <n v="125"/>
+    <n v="125"/>
+    <n v="101"/>
+    <n v="111"/>
+    <n v="136"/>
+    <n v="118"/>
+    <n v="128"/>
+    <n v="29"/>
     <n v="480"/>
     <n v="493"/>
     <s v="Xmas西谷夕ICONIC"/>
     <s v="にしのやゆう"/>
     <n v="1103"/>
-    <x v="16"/>
+    <n v="220"/>
     <n v="236"/>
     <n v="250"/>
-    <x v="24"/>
-    <x v="13"/>
+    <n v="264"/>
+    <n v="229"/>
   </r>
   <r>
     <s v="17"/>
@@ -22190,30 +21999,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="8"/>
     <x v="13"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="4"/>
+    <n v="114"/>
+    <n v="115"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="27"/>
     <n v="477"/>
     <n v="469"/>
     <s v="制服田中龍之介ICONIC"/>
     <s v="たなかりゅうのすけ"/>
     <n v="1070"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="235"/>
     <n v="229"/>
-    <x v="9"/>
-    <x v="17"/>
+    <n v="234"/>
+    <n v="235"/>
   </r>
   <r>
     <s v="18"/>
@@ -22223,30 +22032,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="19"/>
     <x v="3"/>
-    <x v="9"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="8"/>
-    <x v="4"/>
+    <n v="114"/>
+    <n v="112"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="120"/>
+    <n v="116"/>
+    <n v="27"/>
     <n v="474"/>
     <n v="472"/>
     <s v="新年田中龍之介ICONIC"/>
     <s v="たなかりゅうのすけ"/>
     <n v="1070"/>
-    <x v="11"/>
+    <n v="228"/>
     <n v="229"/>
     <n v="226"/>
-    <x v="9"/>
-    <x v="11"/>
+    <n v="234"/>
+    <n v="238"/>
   </r>
   <r>
     <s v="20"/>
@@ -22256,30 +22065,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="14"/>
     <x v="14"/>
-    <x v="21"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="19"/>
-    <x v="8"/>
-    <x v="10"/>
-    <x v="5"/>
+    <n v="117"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="127"/>
+    <n v="118"/>
+    <n v="121"/>
+    <n v="51"/>
     <n v="481"/>
     <n v="483"/>
     <s v="プール掃除澤村大地ICONIC"/>
     <s v="さわむらだいち"/>
     <n v="1116"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="243"/>
     <n v="241"/>
-    <x v="25"/>
-    <x v="17"/>
+    <n v="248"/>
+    <n v="235"/>
   </r>
   <r>
     <s v="21"/>
@@ -22289,30 +22098,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="21"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="19"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="5"/>
+    <n v="117"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="127"/>
+    <n v="119"/>
+    <n v="121"/>
+    <n v="51"/>
     <n v="479"/>
     <n v="485"/>
     <s v="文化祭澤村大地ICONIC"/>
     <s v="さわむらだいち"/>
     <n v="1116"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="239"/>
     <n v="239"/>
-    <x v="25"/>
-    <x v="12"/>
+    <n v="248"/>
+    <n v="237"/>
   </r>
   <r>
     <s v="23"/>
@@ -22322,30 +22131,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="81"/>
     <x v="2"/>
     <x v="15"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="6"/>
+    <n v="127"/>
+    <n v="126"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="46"/>
     <n v="487"/>
     <n v="466"/>
     <s v="プール掃除菅原考支ICONIC"/>
     <s v="すがわらこうし"/>
     <n v="1100"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="244"/>
     <n v="253"/>
-    <x v="14"/>
-    <x v="9"/>
+    <n v="233"/>
+    <n v="233"/>
   </r>
   <r>
     <s v="24"/>
@@ -22355,30 +22164,30 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="81"/>
     <x v="0"/>
     <x v="13"/>
-    <x v="17"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="6"/>
+    <n v="126"/>
+    <n v="128"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="118"/>
+    <n v="114"/>
+    <n v="117"/>
+    <n v="46"/>
     <n v="489"/>
     <n v="464"/>
     <s v="文化祭菅原考支ICONIC"/>
     <s v="すがわらこうし"/>
     <n v="1100"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="248"/>
     <n v="254"/>
-    <x v="1"/>
-    <x v="13"/>
+    <n v="235"/>
+    <n v="229"/>
   </r>
   <r>
     <s v="26"/>
@@ -22388,30 +22197,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="11"/>
     <x v="20"/>
-    <x v="10"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="3"/>
+    <n v="110"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="112"/>
+    <n v="112"/>
+    <n v="111"/>
+    <n v="29"/>
     <n v="477"/>
     <n v="453"/>
     <s v="プール掃除東峰旭ICONIC"/>
     <s v="あずまねあさひ"/>
     <n v="1056"/>
-    <x v="18"/>
+    <n v="221"/>
     <n v="243"/>
     <n v="229"/>
-    <x v="26"/>
-    <x v="1"/>
+    <n v="223"/>
+    <n v="230"/>
   </r>
   <r>
     <s v="29"/>
@@ -22421,30 +22230,30 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="2"/>
     <x v="15"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="121"/>
+    <n v="99"/>
+    <n v="114"/>
+    <n v="121"/>
+    <n v="117"/>
+    <n v="115"/>
+    <n v="41"/>
     <n v="468"/>
     <n v="467"/>
     <s v="探偵縁下力ICONIC"/>
     <s v="えんのしたちから"/>
     <n v="1075"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="239"/>
     <n v="234"/>
-    <x v="18"/>
-    <x v="5"/>
+    <n v="236"/>
+    <n v="231"/>
   </r>
   <r>
     <s v="33"/>
@@ -22454,30 +22263,30 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="3"/>
     <x v="15"/>
-    <x v="16"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="7"/>
+    <n v="130"/>
+    <n v="132"/>
+    <n v="101"/>
+    <n v="114"/>
+    <n v="118"/>
+    <n v="114"/>
+    <n v="116"/>
+    <n v="41"/>
     <n v="494"/>
     <n v="462"/>
     <s v="制服孤爪研磨ICONIC"/>
     <s v="こづめけんま"/>
     <n v="1098"/>
-    <x v="13"/>
+    <n v="215"/>
     <n v="250"/>
     <n v="262"/>
-    <x v="9"/>
-    <x v="18"/>
+    <n v="234"/>
+    <n v="228"/>
   </r>
   <r>
     <s v="34"/>
@@ -22487,30 +22296,30 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="80"/>
     <x v="16"/>
     <x v="15"/>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="11"/>
-    <x v="7"/>
+    <n v="132"/>
+    <n v="132"/>
+    <n v="101"/>
+    <n v="112"/>
+    <n v="120"/>
+    <n v="112"/>
+    <n v="118"/>
+    <n v="41"/>
     <n v="494"/>
     <n v="462"/>
     <s v="夏祭り孤爪研磨ICONIC"/>
     <s v="こづめけんま"/>
     <n v="1098"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="250"/>
     <n v="264"/>
-    <x v="21"/>
-    <x v="14"/>
+    <n v="238"/>
+    <n v="224"/>
   </r>
   <r>
     <s v="36"/>
@@ -22520,30 +22329,30 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="18"/>
     <x v="8"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="20"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="132"/>
+    <n v="118"/>
+    <n v="119"/>
+    <n v="116"/>
+    <n v="36"/>
     <n v="486"/>
     <n v="485"/>
     <s v="制服黒尾鉄朗ICONIC"/>
     <s v="くろおてつろう"/>
     <n v="1108"/>
-    <x v="20"/>
+    <n v="230"/>
     <n v="242"/>
     <n v="235"/>
-    <x v="9"/>
-    <x v="25"/>
+    <n v="234"/>
+    <n v="251"/>
   </r>
   <r>
     <s v="37"/>
@@ -22553,30 +22362,30 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="19"/>
     <x v="6"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="129"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="114"/>
+    <n v="36"/>
     <n v="494"/>
     <n v="477"/>
     <s v="夏祭り黒尾鉄朗ICONIC"/>
     <s v="くろおてつろう"/>
     <n v="1108"/>
-    <x v="21"/>
+    <n v="232"/>
     <n v="248"/>
     <n v="238"/>
-    <x v="5"/>
-    <x v="10"/>
+    <n v="232"/>
+    <n v="245"/>
   </r>
   <r>
     <s v="39"/>
@@ -22586,993 +22395,1125 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="12"/>
     <x v="5"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="4"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="126"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="27"/>
     <n v="468"/>
     <n v="476"/>
     <s v="探偵灰羽リエーフICONIC"/>
     <s v="はいばりえーふ"/>
     <n v="1068"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="234"/>
     <n v="233"/>
-    <x v="5"/>
-    <x v="21"/>
+    <n v="232"/>
+    <n v="244"/>
   </r>
   <r>
-    <s v="44"/>
+    <s v="43"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="124"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="116"/>
+    <n v="36"/>
+    <n v="466"/>
+    <n v="475"/>
+    <s v="新年犬岡走ICONIC"/>
+    <s v="いぬおかそう"/>
+    <n v="1074"/>
+    <n v="215"/>
+    <n v="234"/>
+    <n v="233"/>
+    <n v="232"/>
+    <n v="243"/>
+  </r>
+  <r>
+    <s v="45"/>
     <x v="6"/>
     <x v="18"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="10"/>
     <x v="8"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="3"/>
+    <n v="115"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="116"/>
+    <n v="117"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="29"/>
     <n v="486"/>
     <n v="467"/>
     <s v="新年山本猛虎ICONIC"/>
     <s v="やまもとたけとら"/>
     <n v="1083"/>
-    <x v="10"/>
+    <n v="227"/>
     <n v="245"/>
     <n v="238"/>
-    <x v="14"/>
-    <x v="7"/>
+    <n v="233"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="49"/>
+    <s v="50"/>
     <x v="1"/>
     <x v="21"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="8"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="21"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="123"/>
+    <n v="97"/>
+    <n v="133"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="478"/>
     <n v="484"/>
     <s v="制服青根高伸ICONIC"/>
     <s v="あおねたかのぶ"/>
     <n v="1090"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="237"/>
     <n v="236"/>
-    <x v="5"/>
-    <x v="0"/>
+    <n v="232"/>
+    <n v="252"/>
   </r>
   <r>
-    <s v="50"/>
+    <s v="51"/>
     <x v="7"/>
     <x v="21"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="17"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="123"/>
+    <n v="97"/>
+    <n v="131"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="480"/>
     <n v="482"/>
     <s v="プール掃除青根高伸ICONIC"/>
     <s v="あおねたかのぶ"/>
     <n v="1090"/>
-    <x v="10"/>
+    <n v="227"/>
     <n v="237"/>
     <n v="236"/>
-    <x v="5"/>
-    <x v="26"/>
+    <n v="232"/>
+    <n v="250"/>
   </r>
   <r>
-    <s v="52"/>
+    <s v="53"/>
     <x v="1"/>
     <x v="22"/>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="7"/>
     <x v="8"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="128"/>
+    <n v="101"/>
+    <n v="128"/>
+    <n v="117"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="36"/>
     <n v="492"/>
     <n v="484"/>
     <s v="制服二口堅治ICONIC"/>
     <s v="ふたくちけんじ"/>
     <n v="1113"/>
-    <x v="11"/>
+    <n v="228"/>
     <n v="250"/>
     <n v="243"/>
-    <x v="3"/>
-    <x v="27"/>
+    <n v="237"/>
+    <n v="247"/>
   </r>
   <r>
-    <s v="53"/>
+    <s v="54"/>
     <x v="7"/>
     <x v="22"/>
     <x v="2"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="11"/>
     <x v="14"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="126"/>
+    <n v="101"/>
+    <n v="131"/>
+    <n v="120"/>
+    <n v="119"/>
+    <n v="122"/>
+    <n v="36"/>
     <n v="484"/>
     <n v="492"/>
     <s v="プール掃除二口堅治ICONIC"/>
     <s v="ふたくちけんじ"/>
     <n v="1113"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="245"/>
     <n v="241"/>
-    <x v="17"/>
-    <x v="26"/>
+    <n v="242"/>
+    <n v="250"/>
   </r>
   <r>
-    <s v="55"/>
+    <s v="56"/>
     <x v="1"/>
     <x v="23"/>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="12"/>
     <x v="9"/>
-    <x v="17"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="3"/>
+    <n v="126"/>
+    <n v="124"/>
+    <n v="97"/>
+    <n v="128"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="29"/>
     <n v="491"/>
     <n v="479"/>
     <s v="制服黄金川貫至ICONIC"/>
     <s v="こがねがわかんじ"/>
     <n v="1096"/>
-    <x v="14"/>
+    <n v="217"/>
     <n v="245"/>
     <n v="250"/>
-    <x v="9"/>
-    <x v="10"/>
+    <n v="234"/>
+    <n v="245"/>
   </r>
   <r>
-    <s v="56"/>
+    <s v="57"/>
     <x v="5"/>
     <x v="23"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="78"/>
     <x v="15"/>
     <x v="1"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="3"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="97"/>
+    <n v="126"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="29"/>
     <n v="497"/>
     <n v="473"/>
     <s v="職業体験黄金川貫至ICONIC"/>
     <s v="こがねがわかんじ"/>
     <n v="1096"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="249"/>
     <n v="252"/>
-    <x v="7"/>
-    <x v="19"/>
+    <n v="231"/>
+    <n v="242"/>
   </r>
   <r>
-    <s v="62"/>
+    <s v="63"/>
     <x v="7"/>
     <x v="28"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="8"/>
     <x v="17"/>
-    <x v="18"/>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
+    <n v="132"/>
+    <n v="130"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="36"/>
     <n v="520"/>
     <n v="463"/>
     <s v="プール掃除及川徹ICONIC"/>
     <s v="おいかわとおる"/>
     <n v="1120"/>
-    <x v="19"/>
+    <n v="229"/>
     <n v="260"/>
     <n v="262"/>
-    <x v="5"/>
-    <x v="5"/>
+    <n v="232"/>
+    <n v="231"/>
   </r>
   <r>
-    <s v="63"/>
+    <s v="64"/>
     <x v="3"/>
     <x v="28"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="17"/>
     <x v="16"/>
-    <x v="19"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="2"/>
+    <n v="135"/>
+    <n v="127"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="114"/>
+    <n v="119"/>
+    <n v="114"/>
+    <n v="36"/>
     <n v="519"/>
     <n v="465"/>
     <s v="Xmas及川徹ICONIC"/>
     <s v="おいかわとおる"/>
     <n v="1121"/>
-    <x v="17"/>
+    <n v="231"/>
     <n v="254"/>
     <n v="262"/>
-    <x v="22"/>
-    <x v="12"/>
+    <n v="228"/>
+    <n v="237"/>
   </r>
   <r>
     <s v="65"/>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
+    <x v="19"/>
+    <x v="16"/>
+    <n v="131"/>
+    <n v="127"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="36"/>
+    <n v="516"/>
+    <n v="467"/>
+    <s v="制服及川徹ICONIC"/>
+    <s v="おいかわとおる"/>
+    <n v="1120"/>
+    <n v="232"/>
+    <n v="254"/>
+    <n v="258"/>
+    <n v="232"/>
+    <n v="235"/>
+  </r>
+  <r>
+    <s v="67"/>
     <x v="7"/>
     <x v="29"/>
     <x v="2"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="8"/>
     <x v="20"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="2"/>
+    <n v="115"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="117"/>
+    <n v="36"/>
     <n v="490"/>
     <n v="470"/>
     <s v="プール掃除岩泉一ICONIC"/>
     <s v="いわいずみはじめ"/>
     <n v="1097"/>
-    <x v="19"/>
+    <n v="229"/>
     <n v="247"/>
     <n v="238"/>
-    <x v="14"/>
-    <x v="12"/>
+    <n v="233"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="69"/>
+    <s v="71"/>
     <x v="5"/>
     <x v="32"/>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="16"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="72"/>
     <x v="15"/>
     <x v="15"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="119"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="475"/>
     <n v="468"/>
     <s v="職業体験国見英ICONIC"/>
     <s v="くにみあきら"/>
-    <n v="1089"/>
-    <x v="22"/>
+    <n v="1071"/>
+    <n v="219"/>
     <n v="238"/>
     <n v="235"/>
-    <x v="9"/>
-    <x v="7"/>
+    <n v="234"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="72"/>
+    <s v="74"/>
     <x v="10"/>
     <x v="34"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="13"/>
     <x v="10"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="1"/>
+    <n v="113"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="123"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="116"/>
+    <n v="31"/>
     <n v="464"/>
     <n v="473"/>
     <s v="アート松川一静ICONIC"/>
     <s v="まつかわいっせい"/>
     <n v="1065"/>
-    <x v="7"/>
+    <n v="216"/>
     <n v="232"/>
     <n v="231"/>
-    <x v="5"/>
-    <x v="16"/>
+    <n v="232"/>
+    <n v="241"/>
   </r>
   <r>
-    <s v="74"/>
+    <s v="76"/>
     <x v="10"/>
     <x v="35"/>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="14"/>
     <x v="14"/>
-    <x v="21"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="117"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="117"/>
+    <n v="119"/>
+    <n v="119"/>
+    <n v="31"/>
     <n v="477"/>
     <n v="473"/>
     <s v="アート花巻貴大ICONIC"/>
     <s v="はなまきたかひろ"/>
     <n v="1078"/>
-    <x v="4"/>
+    <n v="218"/>
     <n v="239"/>
     <n v="237"/>
-    <x v="18"/>
-    <x v="12"/>
+    <n v="236"/>
+    <n v="237"/>
   </r>
   <r>
-    <s v="96"/>
+    <s v="98"/>
     <x v="5"/>
     <x v="56"/>
     <x v="1"/>
     <x v="3"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="15"/>
     <x v="9"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="1"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="97"/>
+    <n v="117"/>
+    <n v="116"/>
+    <n v="119"/>
+    <n v="117"/>
+    <n v="31"/>
     <n v="477"/>
     <n v="469"/>
     <s v="職業体験百沢雄大ICONIC"/>
     <s v="ひゃくざわゆうだい"/>
     <n v="1074"/>
-    <x v="6"/>
+    <n v="219"/>
     <n v="239"/>
     <n v="234"/>
-    <x v="14"/>
-    <x v="6"/>
+    <n v="233"/>
+    <n v="236"/>
   </r>
   <r>
-    <s v="98"/>
+    <s v="100"/>
     <x v="1"/>
     <x v="57"/>
     <x v="0"/>
     <x v="3"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="5"/>
     <x v="20"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="7"/>
+    <n v="115"/>
+    <n v="123"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="116"/>
+    <n v="121"/>
+    <n v="121"/>
+    <n v="41"/>
     <n v="487"/>
     <n v="473"/>
     <s v="制服照島游児ICONIC"/>
     <s v="てるしまゆうじ"/>
     <n v="1102"/>
-    <x v="12"/>
+    <n v="226"/>
     <n v="247"/>
     <n v="238"/>
-    <x v="3"/>
-    <x v="6"/>
+    <n v="237"/>
+    <n v="236"/>
   </r>
   <r>
-    <s v="101"/>
+    <s v="103"/>
     <x v="1"/>
     <x v="59"/>
     <x v="1"/>
     <x v="1"/>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="75"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="11"/>
-    <x v="7"/>
+    <n v="123"/>
+    <n v="123"/>
+    <n v="97"/>
+    <n v="118"/>
+    <n v="115"/>
+    <n v="117"/>
+    <n v="118"/>
+    <n v="41"/>
     <n v="479"/>
     <n v="468"/>
     <s v="制服二岐丈晴ICONIC"/>
     <s v="ふたまたたけはる"/>
     <n v="1085"/>
-    <x v="2"/>
+    <n v="213"/>
     <n v="240"/>
     <n v="246"/>
-    <x v="14"/>
-    <x v="17"/>
+    <n v="233"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="114"/>
+    <s v="116"/>
     <x v="4"/>
     <x v="71"/>
     <x v="1"/>
     <x v="3"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="83"/>
     <x v="20"/>
     <x v="21"/>
-    <x v="15"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="10"/>
-    <x v="7"/>
+    <n v="115"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="117"/>
+    <n v="123"/>
+    <n v="121"/>
+    <n v="41"/>
     <n v="505"/>
     <n v="478"/>
     <s v="水着牛島若利ICONIC"/>
     <s v="うしじまわかとし"/>
     <n v="1125"/>
-    <x v="23"/>
+    <n v="234"/>
     <n v="257"/>
     <n v="239"/>
-    <x v="21"/>
-    <x v="28"/>
+    <n v="238"/>
+    <n v="240"/>
   </r>
   <r>
-    <s v="116"/>
+    <s v="117"/>
+    <x v="6"/>
+    <x v="71"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="83"/>
+    <x v="21"/>
+    <x v="22"/>
+    <n v="115"/>
+    <n v="125"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="115"/>
+    <n v="122"/>
+    <n v="120"/>
+    <n v="41"/>
+    <n v="511"/>
+    <n v="472"/>
+    <s v="新年牛島若利ICONIC"/>
+    <s v="うしじまわかとし"/>
+    <n v="1125"/>
+    <n v="237"/>
+    <n v="260"/>
+    <n v="240"/>
+    <n v="235"/>
+    <n v="237"/>
+  </r>
+  <r>
+    <s v="119"/>
     <x v="4"/>
     <x v="72"/>
     <x v="1"/>
     <x v="0"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="10"/>
     <x v="9"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="11"/>
-    <x v="10"/>
+    <n v="114"/>
+    <n v="122"/>
+    <n v="97"/>
+    <n v="128"/>
+    <n v="116"/>
+    <n v="120"/>
+    <n v="118"/>
+    <n v="28"/>
     <n v="483"/>
     <n v="482"/>
     <s v="水着天童覚ICONIC"/>
     <s v="てんどうさとり"/>
     <n v="1090"/>
-    <x v="15"/>
+    <n v="223"/>
     <n v="243"/>
     <n v="236"/>
-    <x v="9"/>
-    <x v="29"/>
+    <n v="234"/>
+    <n v="248"/>
   </r>
   <r>
-    <s v="117"/>
+    <s v="120"/>
     <x v="8"/>
     <x v="72"/>
     <x v="0"/>
     <x v="0"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="82"/>
     <x v="7"/>
     <x v="14"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="10"/>
+    <n v="114"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="130"/>
+    <n v="115"/>
+    <n v="122"/>
+    <n v="118"/>
+    <n v="28"/>
     <n v="480"/>
     <n v="485"/>
     <s v="文化祭天童覚ICONIC"/>
     <s v="てんどうさとり"/>
     <n v="1090"/>
-    <x v="1"/>
+    <n v="224"/>
     <n v="239"/>
     <n v="234"/>
-    <x v="14"/>
-    <x v="0"/>
+    <n v="233"/>
+    <n v="252"/>
   </r>
   <r>
-    <s v="119"/>
+    <s v="122"/>
     <x v="5"/>
     <x v="73"/>
     <x v="2"/>
     <x v="3"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="10"/>
     <x v="1"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="14"/>
-    <x v="16"/>
-    <x v="7"/>
-    <x v="7"/>
+    <n v="119"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="119"/>
+    <n v="119"/>
+    <n v="124"/>
+    <n v="122"/>
+    <n v="41"/>
     <n v="492"/>
     <n v="484"/>
     <s v="職業体験五色工ICONIC"/>
     <s v="ごしきつとむ"/>
     <n v="1118"/>
-    <x v="10"/>
+    <n v="227"/>
     <n v="247"/>
     <n v="243"/>
-    <x v="0"/>
-    <x v="2"/>
+    <n v="241"/>
+    <n v="243"/>
   </r>
   <r>
-    <s v="121"/>
+    <s v="124"/>
     <x v="9"/>
     <x v="74"/>
     <x v="1"/>
     <x v="1"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="12"/>
     <x v="1"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="130"/>
+    <n v="126"/>
+    <n v="101"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="117"/>
+    <n v="119"/>
+    <n v="36"/>
     <n v="499"/>
     <n v="472"/>
     <s v="探偵白布賢二郎ICONIC"/>
     <s v="しらぶけんじろう"/>
     <n v="1108"/>
-    <x v="18"/>
+    <n v="221"/>
     <n v="249"/>
     <n v="256"/>
-    <x v="3"/>
-    <x v="17"/>
+    <n v="237"/>
+    <n v="235"/>
   </r>
   <r>
-    <s v="127"/>
+    <s v="130"/>
     <x v="8"/>
     <x v="79"/>
     <x v="2"/>
     <x v="1"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="83"/>
     <x v="14"/>
-    <x v="22"/>
-    <x v="22"/>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="23"/>
+    <n v="133"/>
+    <n v="130"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="115"/>
+    <n v="119"/>
+    <n v="36"/>
     <n v="516"/>
     <n v="469"/>
     <s v="文化祭宮侑ICONIC"/>
     <s v="みやあつむ"/>
     <n v="1122"/>
-    <x v="5"/>
+    <n v="222"/>
     <n v="262"/>
     <n v="263"/>
-    <x v="20"/>
-    <x v="1"/>
+    <n v="239"/>
+    <n v="230"/>
   </r>
   <r>
-    <s v="131"/>
+    <s v="134"/>
     <x v="3"/>
     <x v="82"/>
     <x v="2"/>
     <x v="3"/>
     <x v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="8"/>
     <x v="8"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="13"/>
-    <x v="12"/>
-    <x v="7"/>
-    <x v="2"/>
+    <n v="116"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="119"/>
+    <n v="122"/>
+    <n v="123"/>
+    <n v="122"/>
+    <n v="36"/>
     <n v="486"/>
     <n v="486"/>
     <s v="Xmas北信介ICONIC"/>
     <s v="きたしんすけ"/>
     <n v="1105"/>
-    <x v="8"/>
+    <n v="225"/>
     <n v="242"/>
     <n v="236"/>
-    <x v="15"/>
-    <x v="19"/>
+    <n v="244"/>
+    <n v="242"/>
   </r>
   <r>
-    <s v="137"/>
+    <s v="140"/>
     <x v="2"/>
     <x v="87"/>
     <x v="0"/>
     <x v="3"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="83"/>
     <x v="19"/>
     <x v="17"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="13"/>
-    <x v="16"/>
-    <x v="7"/>
-    <x v="0"/>
+    <n v="115"/>
+    <n v="120"/>
+    <n v="101"/>
+    <n v="119"/>
+    <n v="122"/>
+    <n v="124"/>
+    <n v="122"/>
+    <n v="26"/>
     <n v="496"/>
     <n v="487"/>
     <s v="夏祭り木兎光太郎ICONIC"/>
     <s v="ぼくとこうたろう"/>
     <n v="1110"/>
-    <x v="21"/>
+    <n v="232"/>
     <n v="250"/>
     <n v="235"/>
-    <x v="15"/>
-    <x v="2"/>
+    <n v="244"/>
+    <n v="243"/>
   </r>
   <r>
-    <s v="138"/>
+    <s v="141"/>
     <x v="3"/>
     <x v="87"/>
     <x v="2"/>
     <x v="3"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="83"/>
     <x v="20"/>
     <x v="7"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="10"/>
-    <x v="0"/>
+    <n v="115"/>
+    <n v="118"/>
+    <n v="101"/>
+    <n v="121"/>
+    <n v="122"/>
+    <n v="126"/>
+    <n v="121"/>
+    <n v="26"/>
     <n v="494"/>
     <n v="490"/>
     <s v="Xmas木兎光太郎ICONIC"/>
     <s v="ぼくとこうたろう"/>
     <n v="1111"/>
-    <x v="23"/>
+    <n v="234"/>
     <n v="246"/>
     <n v="233"/>
-    <x v="12"/>
-    <x v="27"/>
+    <n v="243"/>
+    <n v="247"/>
   </r>
   <r>
-    <s v="140"/>
+    <s v="143"/>
     <x v="9"/>
     <x v="88"/>
     <x v="0"/>
     <x v="3"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
     <x v="10"/>
     <x v="13"/>
-    <x v="13"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="13"/>
-    <x v="16"/>
-    <x v="7"/>
-    <x v="2"/>
+    <n v="121"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="122"/>
+    <n v="124"/>
+    <n v="122"/>
+    <n v="36"/>
     <n v="491"/>
     <n v="485"/>
     <s v="探偵木葉秋紀ICONIC"/>
     <s v="このはあきのり"/>
     <n v="1113"/>
-    <x v="10"/>
+    <n v="227"/>
     <n v="244"/>
     <n v="245"/>
-    <x v="15"/>
-    <x v="16"/>
+    <n v="244"/>
+    <n v="241"/>
   </r>
   <r>
-    <s v="146"/>
+    <s v="149"/>
     <x v="2"/>
     <x v="93"/>
     <x v="1"/>
     <x v="1"/>
     <x v="11"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="79"/>
     <x v="12"/>
     <x v="20"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="7"/>
+    <n v="129"/>
+    <n v="129"/>
+    <n v="101"/>
+    <n v="115"/>
+    <n v="122"/>
+    <n v="119"/>
+    <n v="120"/>
+    <n v="41"/>
     <n v="502"/>
     <n v="476"/>
     <s v="夏祭り赤葦京治ICONIC"/>
     <s v="あかあしけいじ"/>
     <n v="1120"/>
-    <x v="18"/>
+    <n v="221"/>
     <n v="253"/>
     <n v="258"/>
-    <x v="17"/>
-    <x v="7"/>
+    <n v="242"/>
+    <n v="234"/>
   </r>
   <r>
-    <s v="148"/>
+    <s v="151"/>
     <x v="8"/>
     <x v="94"/>
     <x v="2"/>
     <x v="3"/>
     <x v="12"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="84"/>
     <x v="20"/>
     <x v="7"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="2"/>
+    <n v="116"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="119"/>
+    <n v="119"/>
+    <n v="129"/>
+    <n v="122"/>
+    <n v="36"/>
     <n v="499"/>
     <n v="489"/>
     <s v="文化祭星海光来ICONIC"/>
     <s v="ほしうみこうらい"/>
     <n v="1125"/>
-    <x v="23"/>
+    <n v="234"/>
     <n v="250"/>
     <n v="238"/>
-    <x v="0"/>
-    <x v="29"/>
+    <n v="241"/>
+    <n v="248"/>
   </r>
   <r>
-    <s v="150"/>
+    <s v="153"/>
     <x v="3"/>
     <x v="95"/>
     <x v="2"/>
     <x v="0"/>
     <x v="12"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="76"/>
     <x v="8"/>
     <x v="1"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="22"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="11"/>
-    <x v="7"/>
+    <n v="113"/>
+    <n v="122"/>
+    <n v="101"/>
+    <n v="134"/>
+    <n v="116"/>
+    <n v="118"/>
+    <n v="118"/>
+    <n v="41"/>
     <n v="486"/>
     <n v="486"/>
     <s v="Xmas昼神幸郎ICONIC"/>
     <s v="ひるがみさちろう"/>
     <n v="1114"/>
-    <x v="19"/>
+    <n v="229"/>
     <n v="245"/>
     <n v="235"/>
-    <x v="9"/>
-    <x v="0"/>
+    <n v="234"/>
+    <n v="252"/>
+  </r>
+  <r>
+    <s v="157"/>
+    <x v="6"/>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="0"/>
+    <s v="99"/>
+    <s v="-"/>
+    <s v="5"/>
+    <s v="77"/>
+    <x v="10"/>
+    <x v="8"/>
+    <n v="119"/>
+    <n v="124"/>
+    <n v="101"/>
+    <n v="117"/>
+    <n v="123"/>
+    <n v="126"/>
+    <n v="119"/>
+    <n v="36"/>
+    <n v="491"/>
+    <n v="485"/>
+    <s v="新年大将優ICONIC"/>
+    <s v="だいしょうすぐる"/>
+    <n v="1113"/>
+    <n v="227"/>
+    <n v="246"/>
+    <n v="243"/>
+    <n v="242"/>
+    <n v="243"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -23752,7 +23693,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="22">
+      <items count="23">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -23774,11 +23715,12 @@
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="24">
+      <items count="25">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -23801,6 +23743,7 @@
         <item x="18"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="23"/>
         <item x="22"/>
         <item t="default"/>
       </items>
@@ -24315,7 +24258,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -24570,37 +24513,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>127.5</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>123.5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>113.5</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>121</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>101</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>124.5</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>120.5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>116.5</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>119</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>38.5</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>1105.5</v>
       </c>
     </row>
@@ -24608,37 +24551,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>122</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>118.5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>116.5</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>122.5</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>101</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>114</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>117.5</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>127</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>120.5</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>38.5</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>1098</v>
       </c>
     </row>
@@ -24646,37 +24589,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>121.25</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>120</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>117.25</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>121.875</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>117.75</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>118.5</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>117.125</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>119</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>35</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>1087.75</v>
       </c>
     </row>
@@ -24684,37 +24627,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>121</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24722,37 +24665,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>122.5</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>119.75</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>116</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>120.25</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>99.5</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>119.25</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>118</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>117.75</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>118.25</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>34.125</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>1085.375</v>
       </c>
     </row>
@@ -24760,37 +24703,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>114</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24798,37 +24741,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>119</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>115.875</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>115</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>120.75</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>98.5</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>116.75</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>118.625</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>117.125</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>117.125</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>35.375</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>1074.125</v>
       </c>
     </row>
@@ -24836,37 +24779,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>117.75</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>120.5</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>118</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24874,37 +24817,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>116</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>41</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24912,37 +24855,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24950,37 +24893,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>36</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="3">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24988,37 +24931,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>120.5</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>117.5</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>116</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>120</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>98.5</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>115.75</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>116</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>115.75</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>117.25</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>33</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>1070.25</v>
       </c>
     </row>
@@ -25026,37 +24969,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="3">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -25064,37 +25007,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="3">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -25102,37 +25045,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>117</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>116</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="3">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -25140,37 +25083,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="3">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5CCBB-841C-44D5-82A0-33E43F1D08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3168FE3-70EB-40A0-A27E-362054CE2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10293" yWindow="4345" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6048" yWindow="5459" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -187,13 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1222,7 +1221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0B9505B-DEFE-459B-BECF-F599D0B3B9CA}" type="CELLRANGE">
+                    <a:fld id="{EA52E7C1-2F37-4EA7-B4D0-A942CE3134DE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2061,7 +2060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BDC71CC-BEF1-4B4F-A128-7D19F76EA801}" type="CELLRANGE">
+                    <a:fld id="{3BE1C84F-DF26-44FF-AAEB-4DCB87306CAC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2095,7 +2094,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07A2E177-7A01-41DE-BDF8-D09B385F9E47}" type="CELLRANGE">
+                    <a:fld id="{BE24EFEA-6D76-47F3-8937-9FD5983251DC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2155,6 +2154,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-407F-467A-963B-CE8F001BEFA4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3229,7 +3231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4F8D95F-5E52-432A-80D1-93328CF73365}" type="CELLRANGE">
+                    <a:fld id="{A1AEC395-EF1D-4E17-990B-6625D6805196}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3263,7 +3265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF4D985C-E139-45D3-88AE-B1ED262086F5}" type="CELLRANGE">
+                    <a:fld id="{C4074E06-54E2-4B23-AF24-BA30CAD4C267}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5392,7 +5394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67B0024E-7796-43AE-AAA6-39535E0EC6E4}" type="CELLRANGE">
+                    <a:fld id="{9587DCA3-7A03-4E34-BA4E-EE75A8B58C05}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6205,7 +6207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DBF2EA8-1EE9-4090-B3D9-EAEDB8803BFC}" type="CELLRANGE">
+                    <a:fld id="{5923C8D3-56C7-42F5-A1AA-6C2C60E0FAC6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6239,7 +6241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F409ECF2-023F-4BA4-B980-B994B8212B35}" type="CELLRANGE">
+                    <a:fld id="{84D6766D-D5B4-4F86-8FA6-1A27F8AC5E16}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8855,7 +8857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63227841-2741-4DC5-AB39-76B051186846}" type="CELLRANGE">
+                    <a:fld id="{AEC262C3-11E0-486D-8F85-8DAD7F0CC5C1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9615,7 +9617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69242DE0-456C-4CED-8FD6-FA10495C7939}" type="CELLRANGE">
+                    <a:fld id="{6EA9A06C-CAE7-4E1C-9CCF-CA49AB1FA835}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23513,7 +23515,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -24513,37 +24515,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>127.5</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>123.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>113.5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>121</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>101</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>124.5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89">
         <v>120.5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89">
         <v>116.5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>119</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <v>38.5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>1105.5</v>
       </c>
     </row>
@@ -24551,37 +24553,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>122</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>118.5</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>116.5</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>122.5</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>101</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>114</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90">
         <v>117.5</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90">
         <v>127</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>120.5</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <v>38.5</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>1098</v>
       </c>
     </row>
@@ -24589,37 +24591,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>121.25</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>120</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>117.25</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>121.875</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>117.75</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91">
         <v>118.5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91">
         <v>117.125</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>119</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91">
         <v>35</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>1087.75</v>
       </c>
     </row>
@@ -24627,37 +24629,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>121</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24665,37 +24667,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>122.5</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>119.75</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>116</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>120.25</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>99.5</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>119.25</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93">
         <v>118</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93">
         <v>117.75</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>118.25</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>34.125</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>1085.375</v>
       </c>
     </row>
@@ -24703,37 +24705,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>114</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24741,37 +24743,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>119</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>115.875</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>115</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>120.75</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>98.5</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>116.75</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95">
         <v>118.625</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95">
         <v>117.125</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>117.125</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95">
         <v>35.375</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95">
         <v>1074.125</v>
       </c>
     </row>
@@ -24779,37 +24781,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>117.75</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>120.5</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96">
         <v>118</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24817,37 +24819,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>116</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97">
         <v>41</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24855,37 +24857,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24893,37 +24895,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>36</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24931,37 +24933,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>120.5</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>117.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>116</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>120</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>98.5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>115.75</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100">
         <v>116</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>115.75</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>117.25</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100">
         <v>33</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>1070.25</v>
       </c>
     </row>
@@ -24969,37 +24971,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101">
         <v>116</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -25007,37 +25009,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -25045,37 +25047,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>117</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>116</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -25083,37 +25085,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5CCBB-841C-44D5-82A0-33E43F1D08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E11AF-0249-418A-A948-FD84A7B285C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10293" yWindow="4345" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="8227" yWindow="5735" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966526" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -187,13 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1222,7 +1221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0B9505B-DEFE-459B-BECF-F599D0B3B9CA}" type="CELLRANGE">
+                    <a:fld id="{6A3592DE-2A89-4EEC-9C28-67C9173FEEE1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1707,8 +1706,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0611499866018424E-2"/>
-                  <c:y val="-2.2713150808852698E-2"/>
+                  <c:x val="-7.1613091005899937E-2"/>
+                  <c:y val="-1.0485577735417149E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2061,7 +2060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BDC71CC-BEF1-4B4F-A128-7D19F76EA801}" type="CELLRANGE">
+                    <a:fld id="{82550F3E-6134-457B-AB8C-DF2F0E1B6B3B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2095,7 +2094,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07A2E177-7A01-41DE-BDF8-D09B385F9E47}" type="CELLRANGE">
+                    <a:fld id="{31DB2F38-2BDB-418A-9C54-9CB21F27DB46}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2155,6 +2154,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5E5D-49F3-8698-38316840B45D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3229,7 +3231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4F8D95F-5E52-432A-80D1-93328CF73365}" type="CELLRANGE">
+                    <a:fld id="{2C260048-2DFA-4022-A0D6-F22C590CEE52}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3263,7 +3265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF4D985C-E139-45D3-88AE-B1ED262086F5}" type="CELLRANGE">
+                    <a:fld id="{B6051AD6-52C5-4B5A-8061-04766E263D9D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4687,8 +4689,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.5440177823913141E-3"/>
-                  <c:y val="-1.2053752777766004E-2"/>
+                  <c:x val="-2.9149623026255175E-2"/>
+                  <c:y val="-1.4220203870644035E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5392,7 +5394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67B0024E-7796-43AE-AAA6-39535E0EC6E4}" type="CELLRANGE">
+                    <a:fld id="{0D3F9F85-B03D-41C7-97DC-9711AA9064B7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6205,7 +6207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DBF2EA8-1EE9-4090-B3D9-EAEDB8803BFC}" type="CELLRANGE">
+                    <a:fld id="{BBD6525D-F91F-4DBB-8086-C4BCDFC6CD7C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6239,7 +6241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F409ECF2-023F-4BA4-B980-B994B8212B35}" type="CELLRANGE">
+                    <a:fld id="{661662BF-FF82-42B9-9111-016A29FFC6A6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6559,8 +6561,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5670421958773409E-2"/>
-                  <c:y val="-4.9654564887545837E-3"/>
+                  <c:x val="-3.2516453409551872E-2"/>
+                  <c:y val="-1.5797753006410075E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6598,8 +6600,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0937885942066843E-2"/>
-                  <c:y val="-2.9110560132935386E-2"/>
+                  <c:x val="-3.1332132010719577E-2"/>
+                  <c:y val="-6.9043522717415493E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6676,8 +6678,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3769782150177103E-2"/>
-                  <c:y val="-4.9601640163221307E-2"/>
+                  <c:x val="-2.8324934753827788E-2"/>
+                  <c:y val="-1.927120991378601E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6754,8 +6756,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8071277454116588E-2"/>
-                  <c:y val="-1.2064448923120462E-2"/>
+                  <c:x val="1.1497177694836408E-2"/>
+                  <c:y val="-6.1066858384101006E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6791,6 +6793,45 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2157586424325989E-2"/>
+                  <c:y val="-1.8563826833713836E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A7A67B12-561D-4404-9C99-1B8738B8D57C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000071-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.7953090303646893E-2"/>
@@ -6822,9 +6863,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000071-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6888,10 +6926,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]条善寺!$F$2:$F$10</c:f>
+              <c:f>[1]条善寺!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>467</c:v>
                 </c:pt>
@@ -6899,24 +6937,27 @@
                   <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>469</c:v>
                 </c:pt>
               </c:numCache>
@@ -6924,10 +6965,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]条善寺!$G$2:$G$10</c:f>
+              <c:f>[1]条善寺!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>479</c:v>
                 </c:pt>
@@ -6935,24 +6976,27 @@
                   <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>456</c:v>
                 </c:pt>
               </c:numCache>
@@ -6962,9 +7006,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]条善寺!$B$2:$B$10</c15:f>
+                <c15:f>[1]条善寺!$B$2:$B$11</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム照島游児ICONIC</c:v>
                   </c:pt>
@@ -6972,24 +7016,27 @@
                     <c:v>制服照島游児ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>雪遊び照島游児ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>ユニフォーム母畑和馬ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>ユニフォーム二岐丈晴ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>制服二岐丈晴ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム沼尻凛太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム飯坂信義ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム東山勝道ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム土湯新ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -7033,8 +7080,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5169556010661691E-2"/>
-                  <c:y val="-1.5601344193447102E-2"/>
+                  <c:x val="5.0435558089767327E-3"/>
+                  <c:y val="-3.1442233281778198E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8855,7 +8902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63227841-2741-4DC5-AB39-76B051186846}" type="CELLRANGE">
+                    <a:fld id="{86ACB860-5995-48B9-8AA3-9E3BDA945365}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9534,8 +9581,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.9122749724151921E-3"/>
-                  <c:y val="2.7127652814490782E-3"/>
+                  <c:x val="7.277751384331432E-3"/>
+                  <c:y val="-1.6201533256132775E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9615,7 +9662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69242DE0-456C-4CED-8FD6-FA10495C7939}" type="CELLRANGE">
+                    <a:fld id="{572A8A9D-4955-4C90-B798-473393CA262B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17304,78 +17351,89 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム母畑和馬ICONIC</v>
+            <v>雪遊び照島游児ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>470</v>
+            <v>476</v>
           </cell>
           <cell r="G4">
-            <v>464</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム二岐丈晴ICONIC</v>
+            <v>ユニフォーム母畑和馬ICONIC</v>
           </cell>
           <cell r="F5">
+            <v>470</v>
+          </cell>
+          <cell r="G5">
             <v>464</v>
-          </cell>
-          <cell r="G5">
-            <v>469</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>制服二岐丈晴ICONIC</v>
+            <v>ユニフォーム二岐丈晴ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>468</v>
+            <v>464</v>
           </cell>
           <cell r="G6">
-            <v>479</v>
+            <v>469</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム沼尻凛太郎ICONIC</v>
+            <v>制服二岐丈晴ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>462</v>
+            <v>468</v>
           </cell>
           <cell r="G7">
-            <v>470</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム飯坂信義ICONIC</v>
+            <v>ユニフォーム沼尻凛太郎ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>469</v>
+            <v>462</v>
           </cell>
           <cell r="G8">
-            <v>461</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム東山勝道ICONIC</v>
+            <v>ユニフォーム飯坂信義ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>470</v>
+            <v>469</v>
           </cell>
           <cell r="G9">
-            <v>469</v>
+            <v>461</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
+            <v>ユニフォーム東山勝道ICONIC</v>
+          </cell>
+          <cell r="F10">
+            <v>470</v>
+          </cell>
+          <cell r="G10">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
             <v>ユニフォーム土湯新ICONIC</v>
           </cell>
-          <cell r="F10">
+          <cell r="F11">
             <v>469</v>
           </cell>
-          <cell r="G10">
+          <cell r="G11">
             <v>456</v>
           </cell>
         </row>
@@ -23513,7 +23571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>
@@ -24513,37 +24571,37 @@
       <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>127.5</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>123.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>113.5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>121</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>101</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>124.5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89">
         <v>120.5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89">
         <v>116.5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>119</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <v>38.5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89">
         <v>1105.5</v>
       </c>
     </row>
@@ -24551,37 +24609,37 @@
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>122</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>118.5</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>116.5</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>122.5</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>101</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>114</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90">
         <v>117.5</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90">
         <v>127</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>120.5</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <v>38.5</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90">
         <v>1098</v>
       </c>
     </row>
@@ -24589,37 +24647,37 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>121.25</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>120</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>117.25</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>121.875</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>117.75</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91">
         <v>118.5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91">
         <v>117.125</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>119</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91">
         <v>35</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>1087.75</v>
       </c>
     </row>
@@ -24627,37 +24685,37 @@
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>120.57142857142857</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>118.85714285714286</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>116.14285714285714</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>121</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>99.285714285714292</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>117.85714285714286</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>118.85714285714286</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92">
         <v>119.28571428571429</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>118.71428571428571</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92">
         <v>36.714285714285715</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92">
         <v>1087.2857142857142</v>
       </c>
     </row>
@@ -24665,37 +24723,37 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>122.5</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>119.75</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>116</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>120.25</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>99.5</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>119.25</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93">
         <v>118</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93">
         <v>117.75</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>118.25</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93">
         <v>34.125</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93">
         <v>1085.375</v>
       </c>
     </row>
@@ -24703,37 +24761,37 @@
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>121.28571428571429</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>115.42857142857143</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>114</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>121.71428571428571</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>98.142857142857139</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>122.28571428571429</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94">
         <v>116.57142857142857</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94">
         <v>116.42857142857143</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>117.71428571428571</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94">
         <v>32.142857142857146</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94">
         <v>1075.7142857142858</v>
       </c>
     </row>
@@ -24741,37 +24799,37 @@
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>119</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>115.875</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>115</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>120.75</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>98.5</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>116.75</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95">
         <v>118.625</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95">
         <v>117.125</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>117.125</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95">
         <v>35.375</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95">
         <v>1074.125</v>
       </c>
     </row>
@@ -24779,37 +24837,37 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>117.75</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>117.16666666666667</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>116.08333333333333</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>120.5</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>99.166666666666671</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>117.41666666666667</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>116.08333333333333</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96">
         <v>118</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>117.33333333333333</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96">
         <v>34.083333333333336</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96">
         <v>1073.5833333333333</v>
       </c>
     </row>
@@ -24817,37 +24875,37 @@
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>117.14285714285714</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>116</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>114.14285714285714</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>119.57142857142857</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>98.142857142857139</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>116.14285714285714</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97">
         <v>117.42857142857143</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97">
         <v>115.57142857142857</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>118.14285714285714</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97">
         <v>41</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97">
         <v>1073.2857142857142</v>
       </c>
     </row>
@@ -24855,37 +24913,37 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>118.66666666666667</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>115.44444444444444</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>115.33333333333333</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>120.77777777777777</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>99.222222222222229</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>116.88888888888889</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98">
         <v>115.66666666666667</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98">
         <v>118.55555555555556</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>116.44444444444444</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98">
         <v>35.333333333333336</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
         <v>1072.3333333333333</v>
       </c>
     </row>
@@ -24893,37 +24951,37 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>117.42857142857143</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>116.42857142857143</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>114.57142857142857</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>119.14285714285714</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>98.142857142857139</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>116.42857142857143</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99">
         <v>117.42857142857143</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99">
         <v>116.85714285714286</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>118.14285714285714</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99">
         <v>36</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99">
         <v>1070.5714285714287</v>
       </c>
     </row>
@@ -24931,37 +24989,37 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>120.5</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>117.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>116</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>120</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>98.5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>115.75</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100">
         <v>116</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>115.75</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>117.25</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100">
         <v>33</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100">
         <v>1070.25</v>
       </c>
     </row>
@@ -24969,37 +25027,37 @@
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>117.28571428571429</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>115.85714285714286</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>114.71428571428571</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>119.14285714285714</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>98.142857142857139</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>116.28571428571429</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101">
         <v>117.14285714285714</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101">
         <v>116</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>117.28571428571429</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101">
         <v>34.571428571428569</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>1066.4285714285713</v>
       </c>
     </row>
@@ -25007,37 +25065,37 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>117.71428571428571</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>115.14285714285714</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>114.14285714285714</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>120.14285714285714</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>97.571428571428569</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>116.71428571428571</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102">
         <v>116.42857142857143</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102">
         <v>116.42857142857143</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>116.42857142857143</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102">
         <v>33.857142857142854</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102">
         <v>1064.5714285714287</v>
       </c>
     </row>
@@ -25045,37 +25103,37 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>117</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>114.28571428571429</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>114.42857142857143</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>119.42857142857143</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>98.142857142857139</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>116</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103">
         <v>116.14285714285714</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103">
         <v>116.42857142857143</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>116.57142857142857</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103">
         <v>33.857142857142854</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>1062.2857142857142</v>
       </c>
     </row>
@@ -25083,37 +25141,37 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>119.29245283018868</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>116.9622641509434</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>115.28301886792453</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>120.41509433962264</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>98.79245283018868</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>117.41509433962264</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>117.16037735849056</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104">
         <v>117.27358490566037</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>117.63207547169812</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104">
         <v>35.075471698113205</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104">
         <v>1075.3018867924529</v>
       </c>
     </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E11AF-0249-418A-A948-FD84A7B285C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61601246-A511-45D3-AB2D-C9D25131E399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8227" yWindow="5735" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="3443" yWindow="2655" windowWidth="35237" windowHeight="20610" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966526" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966522" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -832,6 +832,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0777725184041515E-2"/>
+                  <c:y val="-1.8563826833713756E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -846,7 +852,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1221,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A3592DE-2A89-4EEC-9C28-67C9173FEEE1}" type="CELLRANGE">
+                    <a:fld id="{302A4586-284C-4488-BF05-B628E91F7354}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2060,7 +2066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82550F3E-6134-457B-AB8C-DF2F0E1B6B3B}" type="CELLRANGE">
+                    <a:fld id="{E1CDB415-F410-4036-BEC1-73043940734D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2094,7 +2100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31DB2F38-2BDB-418A-9C54-9CB21F27DB46}" type="CELLRANGE">
+                    <a:fld id="{79310E7C-77B1-4D5F-888F-BC14CE6BC09B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2463,6 +2469,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.468288708817434E-2"/>
+                  <c:y val="-1.5043330465475763E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2477,7 +2489,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2498,8 +2510,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.9960061272870651E-2"/>
-                  <c:y val="4.5063948657362948E-2"/>
+                  <c:x val="-3.1467727823938058E-2"/>
+                  <c:y val="-8.5559363159907007E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2537,8 +2549,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.0413572218607405E-3"/>
-                  <c:y val="-1.5578661495616609E-2"/>
+                  <c:x val="1.2137780991900759E-2"/>
+                  <c:y val="3.100019881955246E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2615,8 +2627,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7620867629346518E-2"/>
-                  <c:y val="-1.3926384873741236E-2"/>
+                  <c:x val="-0.13613509217162659"/>
+                  <c:y val="-1.0135063384714038E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2654,8 +2666,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11505525156872685"/>
-                  <c:y val="-3.1291903182468932E-2"/>
+                  <c:x val="2.0171149979151464E-2"/>
+                  <c:y val="-1.7209917709516871E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2691,6 +2703,45 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12037813226949397"/>
+                  <c:y val="-5.4039597929035496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1C790D38-7331-4AAE-AD77-78EA5B400414}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.3234563345263838E-2"/>
@@ -2722,9 +2773,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-D64C-4F4B-A79B-996E4DDA24D1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2788,32 +2836,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]角川!$F$2:$F$9</c:f>
+              <c:f>[1]角川!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>469</c:v>
                 </c:pt>
               </c:numCache>
@@ -2821,32 +2872,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]角川!$G$2:$G$9</c:f>
+              <c:f>[1]角川!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>457</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
@@ -2856,31 +2910,34 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]角川!$B$2:$B$9</c15:f>
+                <c15:f>[1]角川!$B$2:$B$10</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム古牧譲ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>雪遊び古牧譲ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>ユニフォーム浅虫快人ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>ユニフォーム南田大志ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>ユニフォーム湯川良明ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>ユニフォーム稲垣功ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム馬門英治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム百沢雄大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>職業体験百沢雄大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -3231,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C260048-2DFA-4022-A0D6-F22C590CEE52}" type="CELLRANGE">
+                    <a:fld id="{F8DBA37C-3A32-4C12-91FC-73E27FE5D451}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3265,7 +3322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6051AD6-52C5-4B5A-8061-04766E263D9D}" type="CELLRANGE">
+                    <a:fld id="{62494677-E9D1-4D93-A94C-4935FF97D0B7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5394,7 +5451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D3F9F85-B03D-41C7-97DC-9711AA9064B7}" type="CELLRANGE">
+                    <a:fld id="{A5EE466B-4D1B-4329-A585-BF52590F0A3F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6207,7 +6264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBD6525D-F91F-4DBB-8086-C4BCDFC6CD7C}" type="CELLRANGE">
+                    <a:fld id="{1DC65A17-F013-41BC-A2A0-10B49AB6C6CA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6241,7 +6298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{661662BF-FF82-42B9-9111-016A29FFC6A6}" type="CELLRANGE">
+                    <a:fld id="{30C9E4C5-167C-4664-B266-AC257823A966}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6864,6 +6921,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8063-4AC0-B6E2-4B36A85EBBA7}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7522,8 +7582,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.9168151954314445E-2"/>
-                  <c:y val="4.0007930913659305E-2"/>
+                  <c:x val="-3.8773914594008529E-2"/>
+                  <c:y val="3.2966942986894031E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7561,8 +7621,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4227873730993307E-2"/>
-                  <c:y val="-2.9599463468677208E-2"/>
+                  <c:x val="-7.7381842280214955E-2"/>
+                  <c:y val="-1.6059092821607845E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8902,7 +8962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86ACB860-5995-48B9-8AA3-9E3BDA945365}" type="CELLRANGE">
+                    <a:fld id="{D606514D-2DC6-4844-BA4F-1AE06840EA5A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9662,7 +9722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{572A8A9D-4955-4C90-B798-473393CA262B}" type="CELLRANGE">
+                    <a:fld id="{689853EC-457F-4012-B9F5-98DF90B7B6B2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16516,78 +16576,89 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>ユニフォーム浅虫快人ICONIC</v>
+            <v>雪遊び古牧譲ICONIC</v>
           </cell>
           <cell r="F3">
-            <v>466</v>
+            <v>476</v>
           </cell>
           <cell r="G3">
-            <v>465</v>
+            <v>494</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム南田大志ICONIC</v>
+            <v>ユニフォーム浅虫快人ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>470</v>
+            <v>466</v>
           </cell>
           <cell r="G4">
-            <v>457</v>
+            <v>465</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム湯川良明ICONIC</v>
+            <v>ユニフォーム南田大志ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>467</v>
+            <v>470</v>
           </cell>
           <cell r="G5">
-            <v>464</v>
+            <v>457</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>ユニフォーム稲垣功ICONIC</v>
+            <v>ユニフォーム湯川良明ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>461</v>
+            <v>467</v>
           </cell>
           <cell r="G6">
-            <v>468</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム馬門英治ICONIC</v>
+            <v>ユニフォーム稲垣功ICONIC</v>
           </cell>
           <cell r="F7">
+            <v>461</v>
+          </cell>
+          <cell r="G7">
             <v>468</v>
-          </cell>
-          <cell r="G7">
-            <v>462</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム百沢雄大ICONIC</v>
+            <v>ユニフォーム馬門英治ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>463</v>
+            <v>468</v>
           </cell>
           <cell r="G8">
-            <v>469</v>
+            <v>462</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
+            <v>ユニフォーム百沢雄大ICONIC</v>
+          </cell>
+          <cell r="F9">
+            <v>463</v>
+          </cell>
+          <cell r="G9">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
             <v>職業体験百沢雄大ICONIC</v>
           </cell>
-          <cell r="F9">
+          <cell r="F10">
             <v>469</v>
           </cell>
-          <cell r="G9">
+          <cell r="G10">
             <v>477</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61601246-A511-45D3-AB2D-C9D25131E399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91277DC-FB91-4B0C-B155-6E829F1869BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3443" yWindow="2655" windowWidth="35237" windowHeight="20610" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6436" yWindow="1778" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966522" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -1227,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{302A4586-284C-4488-BF05-B628E91F7354}" type="CELLRANGE">
+                    <a:fld id="{44DE7F13-9CB9-40EF-B11C-1AFC0A07D27D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2066,7 +2066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1CDB415-F410-4036-BEC1-73043940734D}" type="CELLRANGE">
+                    <a:fld id="{9D38384B-99E0-4993-8567-2B0481A4266E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +2100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79310E7C-77B1-4D5F-888F-BC14CE6BC09B}" type="CELLRANGE">
+                    <a:fld id="{DB8D1A5D-5570-4551-BA62-D346DA2ED9A5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2774,6 +2774,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E9C6-4145-A5E5-B51164981EC5}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3246,8 +3249,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8002237827606064E-2"/>
-                  <c:y val="-3.1278042960546813E-3"/>
+                  <c:x val="-2.9307290410718782E-2"/>
+                  <c:y val="-2.6958856634896843E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3283,12 +3286,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7213745690300652E-2"/>
+                  <c:y val="-3.6694191219374559E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8DBA37C-3A32-4C12-91FC-73E27FE5D451}" type="CELLRANGE">
+                    <a:fld id="{81E77792-F7A3-44C2-B1A0-B140A3F246D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD62A2F6-6E2A-4A78-8A1C-D82BD07B5B42}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3311,18 +3353,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000002-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62494677-E9D1-4D93-A94C-4935FF97D0B7}" type="CELLRANGE">
+                    <a:fld id="{89E410A4-616F-462D-922D-B07BBFFA6AF3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3345,7 +3387,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
+                  <c16:uniqueId val="{00000002-E9C6-4145-A5E5-B51164981EC5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3409,10 +3451,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]稲荷崎!$F$2:$F$11</c:f>
+              <c:f>[1]稲荷崎!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>465</c:v>
                 </c:pt>
@@ -3435,12 +3477,15 @@
                   <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -3448,10 +3493,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]稲荷崎!$G$2:$G$11</c:f>
+              <c:f>[1]稲荷崎!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>506</c:v>
                 </c:pt>
@@ -3474,12 +3519,15 @@
                   <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>474</c:v>
                 </c:pt>
               </c:numCache>
@@ -3489,9 +3537,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]稲荷崎!$B$2:$B$11</c15:f>
+                <c15:f>[1]稲荷崎!$B$2:$B$12</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム宮侑ICONIC</c:v>
                   </c:pt>
@@ -3514,12 +3562,15 @@
                     <c:v>ユニフォーム尾白アランICONIC</c:v>
                   </c:pt>
                   <c:pt idx="7">
+                    <c:v>雪遊び尾白アランICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>ユニフォーム赤木路成ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム大耳練ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム理石平介ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -5451,7 +5502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5EE466B-4D1B-4329-A585-BF52590F0A3F}" type="CELLRANGE">
+                    <a:fld id="{4AE8C3EE-7632-4F9B-83FC-143D5D49C8CA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6264,7 +6315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DC65A17-F013-41BC-A2A0-10B49AB6C6CA}" type="CELLRANGE">
+                    <a:fld id="{4D5D29BC-3C49-47C0-B62E-1388E5AA1311}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6298,7 +6349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30C9E4C5-167C-4664-B266-AC257823A966}" type="CELLRANGE">
+                    <a:fld id="{5B35A863-9396-4A48-829B-88DC184A470F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6583,6 +6634,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.240798420929636E-2"/>
+                  <c:y val="-1.6938982356065512E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6597,7 +6654,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8962,7 +9019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D606514D-2DC6-4844-BA4F-1AE06840EA5A}" type="CELLRANGE">
+                    <a:fld id="{B4D9A164-5B32-40EB-A1E5-3E61E2F0AAE2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9722,7 +9779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{689853EC-457F-4012-B9F5-98DF90B7B6B2}" type="CELLRANGE">
+                    <a:fld id="{65658C87-4186-412A-BAED-0AB2D8D9D44D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16038,6 +16095,8 @@
       <sheetName val="伊達工"/>
       <sheetName val="井闥山"/>
       <sheetName val="Settings"/>
+      <sheetName val="Statistics100"/>
+      <sheetName val="SD100"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -16743,34 +16802,45 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム赤木路成ICONIC</v>
+            <v>雪遊び尾白アランICONIC</v>
           </cell>
           <cell r="F9">
-            <v>474</v>
+            <v>473</v>
           </cell>
           <cell r="G9">
-            <v>464</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム大耳練ICONIC</v>
+            <v>ユニフォーム赤木路成ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>476</v>
+            <v>474</v>
           </cell>
           <cell r="G10">
-            <v>466</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
+            <v>ユニフォーム大耳練ICONIC</v>
+          </cell>
+          <cell r="F11">
+            <v>476</v>
+          </cell>
+          <cell r="G11">
+            <v>466</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
             <v>ユニフォーム理石平介ICONIC</v>
           </cell>
-          <cell r="F11">
+          <cell r="F12">
             <v>465</v>
           </cell>
-          <cell r="G11">
+          <cell r="G12">
             <v>474</v>
           </cell>
         </row>
@@ -17916,6 +17986,8 @@
         </row>
       </sheetData>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91277DC-FB91-4B0C-B155-6E829F1869BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C51D5-AA71-47D7-BF70-C8554E254975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6436" yWindow="1778" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="7112" yWindow="2454" windowWidth="35237" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44DE7F13-9CB9-40EF-B11C-1AFC0A07D27D}" type="CELLRANGE">
+                    <a:fld id="{759A44A4-E557-4EA2-863F-D81B33713DC0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2066,7 +2066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D38384B-99E0-4993-8567-2B0481A4266E}" type="CELLRANGE">
+                    <a:fld id="{88FFA955-ECEB-467D-8B29-F6ACFAA378EC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +2100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB8D1A5D-5570-4551-BA62-D346DA2ED9A5}" type="CELLRANGE">
+                    <a:fld id="{A52CE60A-2674-4620-8959-94E83CDD9318}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3330,7 +3330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD62A2F6-6E2A-4A78-8A1C-D82BD07B5B42}" type="CELLRANGE">
+                    <a:fld id="{658954CF-FF10-4C85-96A1-95B0B8EF8D87}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3364,7 +3364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89E410A4-616F-462D-922D-B07BBFFA6AF3}" type="CELLRANGE">
+                    <a:fld id="{00010693-2640-45BC-AB1A-09639B306969}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4758,8 +4758,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1460861112884007E-3"/>
-                  <c:y val="-3.398611708996148E-3"/>
+                  <c:x val="4.2036254247612773E-3"/>
+                  <c:y val="2.5591513757143723E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4836,8 +4836,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.9719110541133509E-3"/>
-                  <c:y val="-1.4541675725565559E-2"/>
+                  <c:x val="-6.9806698979530332E-3"/>
+                  <c:y val="-1.0208757118503362E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5031,8 +5031,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.9185043086438853E-2"/>
-                  <c:y val="-1.6229936049362518E-2"/>
+                  <c:x val="-9.0271515715331208E-2"/>
+                  <c:y val="-1.514670639759697E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5502,7 +5502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AE8C3EE-7632-4F9B-83FC-143D5D49C8CA}" type="CELLRANGE">
+                    <a:fld id="{C31CDD62-9495-425F-A56D-113FC8A64D30}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5531,6 +5531,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{08C3ED84-AFD4-4FF5-A299-849CCCED4E3E}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-635D-4264-889F-58F8065EC991}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.8664666437033598E-2"/>
@@ -5562,9 +5596,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-635D-4264-889F-58F8065EC991}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5628,10 +5659,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]烏野!$F$2:$F$32</c:f>
+              <c:f>[1]烏野!$F$2:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>493</c:v>
                 </c:pt>
@@ -5669,60 +5700,63 @@
                   <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>493</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
@@ -5730,10 +5764,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]烏野!$G$2:$G$32</c:f>
+              <c:f>[1]烏野!$G$2:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>453</c:v>
                 </c:pt>
@@ -5771,60 +5805,63 @@
                   <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
@@ -5834,9 +5871,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]烏野!$B$2:$B$32</c15:f>
+                <c15:f>[1]烏野!$B$2:$B$33</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="31"/>
+                  <c:ptCount val="32"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム日向翔陽ICONIC</c:v>
                   </c:pt>
@@ -5874,60 +5911,63 @@
                     <c:v>水着山口忠ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="12">
+                    <c:v>雪遊び山口忠ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>ユニフォーム西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>制服西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Xmas西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>ユニフォーム田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>制服田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>新年田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>ユニフォーム澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>プール掃除澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>文化祭澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>ユニフォーム菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>プール掃除菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>文化祭菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>ユニフォーム東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>プール掃除東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>ユニフォーム東峰旭YELL</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>ユニフォーム縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>探偵縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>ユニフォーム木下久志ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="31">
                     <c:v>ユニフォーム成田一仁ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -6315,7 +6355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D5D29BC-3C49-47C0-B62E-1388E5AA1311}" type="CELLRANGE">
+                    <a:fld id="{648E7823-CBAA-4720-9958-E56575249E22}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6349,7 +6389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B35A863-9396-4A48-829B-88DC184A470F}" type="CELLRANGE">
+                    <a:fld id="{FCA2BF97-42A2-4BC9-B0AF-AAC7243D7643}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8798,6 +8838,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6904515216408241E-2"/>
+                  <c:y val="-9.8979896195894434E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8812,7 +8858,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -9019,7 +9065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4D9A164-5B32-40EB-A1E5-3E61E2F0AAE2}" type="CELLRANGE">
+                    <a:fld id="{BE3801F8-30D8-479C-AE24-250333806627}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9779,7 +9825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65658C87-4186-412A-BAED-0AB2D8D9D44D}" type="CELLRANGE">
+                    <a:fld id="{1D33068E-BB2B-4189-84CD-E929BEEE056F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16099,14 +16145,14 @@
       <sheetName val="SD100"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2" t="str">
@@ -17136,210 +17182,221 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム西谷夕ICONIC</v>
+            <v>雪遊び山口忠ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>479</v>
+            <v>476</v>
           </cell>
           <cell r="G14">
-            <v>470</v>
+            <v>482</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>制服西谷夕ICONIC</v>
+            <v>ユニフォーム西谷夕ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>487</v>
+            <v>479</v>
           </cell>
           <cell r="G15">
-            <v>476</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Xmas西谷夕ICONIC</v>
+            <v>制服西谷夕ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>493</v>
+            <v>487</v>
           </cell>
           <cell r="G16">
-            <v>480</v>
+            <v>476</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>ユニフォーム田中龍之介ICONIC</v>
+            <v>Xmas西谷夕ICONIC</v>
           </cell>
           <cell r="F17">
-            <v>463</v>
+            <v>493</v>
           </cell>
           <cell r="G17">
-            <v>469</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>制服田中龍之介ICONIC</v>
+            <v>ユニフォーム田中龍之介ICONIC</v>
           </cell>
           <cell r="F18">
+            <v>463</v>
+          </cell>
+          <cell r="G18">
             <v>469</v>
-          </cell>
-          <cell r="G18">
-            <v>477</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>新年田中龍之介ICONIC</v>
+            <v>制服田中龍之介ICONIC</v>
           </cell>
           <cell r="F19">
-            <v>472</v>
+            <v>469</v>
           </cell>
           <cell r="G19">
-            <v>474</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>ユニフォーム澤村大地ICONIC</v>
+            <v>新年田中龍之介ICONIC</v>
           </cell>
           <cell r="F20">
-            <v>477</v>
+            <v>472</v>
           </cell>
           <cell r="G20">
-            <v>473</v>
+            <v>474</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>プール掃除澤村大地ICONIC</v>
+            <v>ユニフォーム澤村大地ICONIC</v>
           </cell>
           <cell r="F21">
-            <v>483</v>
+            <v>477</v>
           </cell>
           <cell r="G21">
-            <v>481</v>
+            <v>473</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>文化祭澤村大地ICONIC</v>
+            <v>プール掃除澤村大地ICONIC</v>
           </cell>
           <cell r="F22">
-            <v>485</v>
+            <v>483</v>
           </cell>
           <cell r="G22">
-            <v>479</v>
+            <v>481</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>ユニフォーム菅原考支ICONIC</v>
+            <v>文化祭澤村大地ICONIC</v>
           </cell>
           <cell r="F23">
-            <v>462</v>
+            <v>485</v>
           </cell>
           <cell r="G23">
-            <v>477</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>プール掃除菅原考支ICONIC</v>
+            <v>ユニフォーム菅原考支ICONIC</v>
           </cell>
           <cell r="F24">
-            <v>466</v>
+            <v>462</v>
           </cell>
           <cell r="G24">
-            <v>487</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>文化祭菅原考支ICONIC</v>
+            <v>プール掃除菅原考支ICONIC</v>
           </cell>
           <cell r="F25">
-            <v>464</v>
+            <v>466</v>
           </cell>
           <cell r="G25">
-            <v>489</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>ユニフォーム東峰旭ICONIC</v>
+            <v>文化祭菅原考支ICONIC</v>
           </cell>
           <cell r="F26">
-            <v>465</v>
+            <v>464</v>
           </cell>
           <cell r="G26">
-            <v>485</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>プール掃除東峰旭ICONIC</v>
+            <v>ユニフォーム東峰旭ICONIC</v>
           </cell>
           <cell r="F27">
-            <v>453</v>
+            <v>465</v>
           </cell>
           <cell r="G27">
-            <v>477</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>ユニフォーム東峰旭YELL</v>
+            <v>プール掃除東峰旭ICONIC</v>
           </cell>
           <cell r="F28">
-            <v>461</v>
+            <v>453</v>
           </cell>
           <cell r="G28">
-            <v>491</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>ユニフォーム縁下力ICONIC</v>
+            <v>ユニフォーム東峰旭YELL</v>
           </cell>
           <cell r="F29">
             <v>461</v>
           </cell>
           <cell r="G29">
-            <v>459</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>探偵縁下力ICONIC</v>
+            <v>ユニフォーム縁下力ICONIC</v>
           </cell>
           <cell r="F30">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G30">
-            <v>468</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>ユニフォーム木下久志ICONIC</v>
+            <v>探偵縁下力ICONIC</v>
           </cell>
           <cell r="F31">
-            <v>460</v>
+            <v>467</v>
           </cell>
           <cell r="G31">
-            <v>469</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>ユニフォーム成田一仁ICONIC</v>
+            <v>ユニフォーム木下久志ICONIC</v>
           </cell>
           <cell r="F32">
             <v>460</v>
           </cell>
           <cell r="G32">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>ユニフォーム成田一仁ICONIC</v>
+          </cell>
+          <cell r="F33">
+            <v>460</v>
+          </cell>
+          <cell r="G33">
             <v>464</v>
           </cell>
         </row>
@@ -17985,9 +18042,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C51D5-AA71-47D7-BF70-C8554E254975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D05F2-6E8F-4CCC-9627-F03B2D7CE1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7112" yWindow="2454" windowWidth="35237" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="11057" yWindow="4495" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{759A44A4-E557-4EA2-863F-D81B33713DC0}" type="CELLRANGE">
+                    <a:fld id="{CCD981FF-113F-4713-8ACF-094D3A47C451}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2066,7 +2066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88FFA955-ECEB-467D-8B29-F6ACFAA378EC}" type="CELLRANGE">
+                    <a:fld id="{AA766779-D16B-4DBB-857E-E5842BBE5801}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +2100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A52CE60A-2674-4620-8959-94E83CDD9318}" type="CELLRANGE">
+                    <a:fld id="{BA1D30E5-5C6F-41F4-BBCC-1C9B8016B986}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2705,8 +2705,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12037813226949397"/>
-                  <c:y val="-5.4039597929035496E-2"/>
+                  <c:x val="-0.11880114799488313"/>
+                  <c:y val="-3.8874382804317806E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3249,8 +3249,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9307290410718782E-2"/>
-                  <c:y val="-2.6958856634896843E-2"/>
+                  <c:x val="-6.2029714108893429E-2"/>
+                  <c:y val="-2.3167552853717341E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3330,7 +3330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{658954CF-FF10-4C85-96A1-95B0B8EF8D87}" type="CELLRANGE">
+                    <a:fld id="{627271F5-306F-4F1E-97E1-AC24F5C10467}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3364,7 +3364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00010693-2640-45BC-AB1A-09639B306969}" type="CELLRANGE">
+                    <a:fld id="{3EB25849-E3EF-4963-803B-CD76D0BB3BE6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4111,6 +4111,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4D0C3608-D7E8-417D-B365-735ED0AAD1CF}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="6.9053812532556772E-4"/>
@@ -4142,9 +4176,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4208,10 +4239,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]白鳥沢!$F$2:$F$15</c:f>
+              <c:f>[1]白鳥沢!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>472</c:v>
                 </c:pt>
@@ -4252,6 +4283,9 @@
                   <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
@@ -4259,10 +4293,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]白鳥沢!$G$2:$G$15</c:f>
+              <c:f>[1]白鳥沢!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>497</c:v>
                 </c:pt>
@@ -4303,6 +4337,9 @@
                   <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>456</c:v>
                 </c:pt>
               </c:numCache>
@@ -4312,9 +4349,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]白鳥沢!$B$2:$B$15</c15:f>
+                <c15:f>[1]白鳥沢!$B$2:$B$16</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="14"/>
+                  <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム牛島若利ICONIC</c:v>
                   </c:pt>
@@ -4355,6 +4392,9 @@
                     <c:v>ユニフォーム瀬見英太ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>雪遊び瀬見英太ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>ユニフォーム山形隼人ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -4992,8 +5032,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2818206246198785E-2"/>
-                  <c:y val="-1.2606063749003317E-2"/>
+                  <c:x val="-0.11722416372027231"/>
+                  <c:y val="-2.831289369960378E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5109,8 +5149,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9439514132130428E-2"/>
-                  <c:y val="-1.8259322332978421E-2"/>
+                  <c:x val="-1.6823628340319665E-2"/>
+                  <c:y val="-2.4217091504502859E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5187,8 +5227,8 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5999012087646839E-3"/>
-                  <c:y val="-2.097315987215843E-2"/>
+                  <c:x val="2.3208831459619394E-2"/>
+                  <c:y val="-1.4750261403786247E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5265,8 +5305,8 @@
               <c:idx val="23"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7265450741565849E-3"/>
-                  <c:y val="-7.5137762594287849E-4"/>
+                  <c:x val="-3.7063538559003954E-2"/>
+                  <c:y val="-1.4833380088481951E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5304,8 +5344,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4926015844842598E-2"/>
-                  <c:y val="-1.8689762942440753E-2"/>
+                  <c:x val="-5.2810937217896758E-2"/>
+                  <c:y val="-1.1107155380081829E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5497,13 +5537,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9633479053302812E-3"/>
+                  <c:y val="-5.0234561866443926E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C31CDD62-9495-425F-A56D-113FC8A64D30}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{9EDCE3B9-8D61-4FAE-9D3A-E918B99A3881}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5511,7 +5557,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -5521,7 +5567,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5536,7 +5581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08C3ED84-AFD4-4FF5-A299-849CCCED4E3E}" type="CELLRANGE">
+                    <a:fld id="{6AFB7746-AC62-455C-B6EB-EC3420C04BBD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5596,6 +5641,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DBB9-4DF7-A142-5DB882B143CE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6355,7 +6403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{648E7823-CBAA-4720-9958-E56575249E22}" type="CELLRANGE">
+                    <a:fld id="{097C6875-0EB9-44D2-A17A-1F8CE1F174B8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6389,7 +6437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCA2BF97-42A2-4BC9-B0AF-AAC7243D7643}" type="CELLRANGE">
+                    <a:fld id="{B3A1EC7F-272C-4033-BEE2-52E2D44419B8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6676,8 +6724,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.240798420929636E-2"/>
-                  <c:y val="-1.6938982356065512E-2"/>
+                  <c:x val="-5.5130407907471063E-2"/>
+                  <c:y val="-1.3689293400768786E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9065,7 +9113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE3801F8-30D8-479C-AE24-250333806627}" type="CELLRANGE">
+                    <a:fld id="{1162525C-96A8-4B86-99D8-0D0CCD053F5F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9825,7 +9873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D33068E-BB2B-4189-84CD-E929BEEE056F}" type="CELLRANGE">
+                    <a:fld id="{82D4F104-EDCB-45AE-AB66-E5FE81E4AC98}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16145,14 +16193,14 @@
       <sheetName val="SD100"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2" t="str">
@@ -17037,12 +17085,23 @@
         </row>
         <row r="15">
           <cell r="B15" t="str">
+            <v>雪遊び瀬見英太ICONIC</v>
+          </cell>
+          <cell r="F15">
+            <v>473</v>
+          </cell>
+          <cell r="G15">
+            <v>489</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
             <v>ユニフォーム山形隼人ICONIC</v>
           </cell>
-          <cell r="F15">
+          <cell r="F16">
             <v>470</v>
           </cell>
-          <cell r="G15">
+          <cell r="G16">
             <v>456</v>
           </cell>
         </row>
@@ -18042,9 +18101,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D05F2-6E8F-4CCC-9627-F03B2D7CE1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BF3CC-8500-4082-A84F-533E694ABB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11057" yWindow="4495" windowWidth="35236" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6611" yWindow="2041" windowWidth="35237" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCD981FF-113F-4713-8ACF-094D3A47C451}" type="CELLRANGE">
+                    <a:fld id="{F060270D-7735-427C-8374-7F689BF02286}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1868,8 +1868,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.7067392857577488E-2"/>
-                  <c:y val="-3.6829339044825229E-2"/>
+                  <c:x val="-1.7498937708624523E-2"/>
+                  <c:y val="-3.0871575960114632E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1946,8 +1946,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0740426401647274E-2"/>
-                  <c:y val="-8.5439525548825068E-3"/>
+                  <c:x val="-8.3319001816139521E-2"/>
+                  <c:y val="-2.0445746442891324E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1985,8 +1985,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7464143475271024E-2"/>
-                  <c:y val="-2.5861894701719066E-3"/>
+                  <c:x val="-3.4826735371856619E-2"/>
+                  <c:y val="-8.5439525548825068E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2024,8 +2024,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8694598493595118E-2"/>
-                  <c:y val="7.053181202400266E-2"/>
+                  <c:x val="2.5887159200660141E-2"/>
+                  <c:y val="7.70449222160081E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2061,12 +2061,90 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5540629944373429E-2"/>
+                  <c:y val="5.2116907943988169E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA766779-D16B-4DBB-857E-E5842BBE5801}" type="CELLRANGE">
+                    <a:fld id="{5AF08B89-3566-4A0D-8934-D8F1CE0F6F68}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5828777256062261E-4"/>
+                  <c:y val="-1.1793641510179075E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CA1CE679-2187-4077-9C59-0DEEF579F1B6}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0808-416E-9E90-08DFCF2547A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{835CDCD7-9784-4BCF-BA57-A9616AF2C292}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2089,46 +2167,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-3202-4223-BEE5-06E7CE49A952}"/>
+                  <c16:uniqueId val="{00000000-5E5D-49F3-8698-38316840B45D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BA1D30E5-5C6F-41F4-BBCC-1C9B8016B986}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-0808-416E-9E90-08DFCF2547A3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.8644957015382177E-2"/>
@@ -2160,9 +2204,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5E5D-49F3-8698-38316840B45D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2226,10 +2267,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$17</c:f>
+              <c:f>[1]青城!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -2255,27 +2296,30 @@
                   <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
@@ -2283,10 +2327,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$17</c:f>
+              <c:f>[1]青城!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2312,27 +2356,30 @@
                   <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
@@ -2342,9 +2389,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$17</c15:f>
+                <c15:f>[1]青城!$B$2:$B$18</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2370,27 +2417,30 @@
                     <c:v>ユニフォーム金田一勇太郎ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>雪遊び金田一勇太郎ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ユニフォーム京谷賢太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>職業体験国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム渡親治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ユニフォーム松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>アート松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>アート花巻貴大ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -3330,7 +3380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{627271F5-306F-4F1E-97E1-AC24F5C10467}" type="CELLRANGE">
+                    <a:fld id="{FDE7F589-CA16-41C5-9334-60B99C2B14DF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3364,7 +3414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EB25849-E3EF-4963-803B-CD76D0BB3BE6}" type="CELLRANGE">
+                    <a:fld id="{BD90AD19-AD7A-45AA-914A-E8C2CAC1B17C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4035,8 +4085,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.9738141140341502E-3"/>
-                  <c:y val="-4.0853068085930727E-2"/>
+                  <c:x val="-1.225298155574093E-2"/>
+                  <c:y val="-4.7894060822406714E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4116,7 +4166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D0C3608-D7E8-417D-B365-735ED0AAD1CF}" type="CELLRANGE">
+                    <a:fld id="{87EA3A2E-5303-472E-993A-898CDF90950F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4176,6 +4226,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A6EF-403C-A8B2-CF61F56A6C6A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4681,8 +4734,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8662646557095704E-2"/>
-                  <c:y val="-1.3689293400768944E-2"/>
+                  <c:x val="-2.8913044342066017E-2"/>
+                  <c:y val="-2.9937738177252024E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4954,8 +5007,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3949822843821687E-2"/>
-                  <c:y val="-2.0525197499633024E-2"/>
+                  <c:x val="8.9164491380352966E-3"/>
+                  <c:y val="-5.3599823749152561E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4993,8 +5046,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12037813226949397"/>
-                  <c:y val="-4.4561338476087016E-2"/>
+                  <c:x val="8.9345782485938142E-3"/>
+                  <c:y val="-2.9396123351369329E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5110,8 +5163,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.574849509756508E-3"/>
-                  <c:y val="-1.5913667108516327E-2"/>
+                  <c:x val="2.1710168667781068E-2"/>
+                  <c:y val="-1.4830437456750856E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5500,8 +5553,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.9777327336985146E-3"/>
-                  <c:y val="-1.4772523052534335E-2"/>
+                  <c:x val="-0.15526890934525847"/>
+                  <c:y val="3.6139270580446477E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5581,7 +5634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AFB7746-AC62-455C-B6EB-EC3420C04BBD}" type="CELLRANGE">
+                    <a:fld id="{1DF469A7-F2DD-44A0-97DA-911B1F7E1A50}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6403,7 +6456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{097C6875-0EB9-44D2-A17A-1F8CE1F174B8}" type="CELLRANGE">
+                    <a:fld id="{31D9F226-F2D4-4D7B-9CED-DC0A0608F1D1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6437,7 +6490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3A1EC7F-272C-4033-BEE2-52E2D44419B8}" type="CELLRANGE">
+                    <a:fld id="{8C5FE96F-D443-4654-9D2A-BEED7767D640}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7324,8 +7377,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0243468588389733E-2"/>
-                  <c:y val="-8.0416920704814241E-3"/>
+                  <c:x val="-7.1319672593230188E-2"/>
+                  <c:y val="-5.3336266298448188E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7922,8 +7975,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10902936303987688"/>
-                  <c:y val="-1.8623594652767216E-2"/>
+                  <c:x val="-7.3152978898460341E-2"/>
+                  <c:y val="-1.5373886096611108E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9113,7 +9166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1162525C-96A8-4B86-99D8-0D0CCD053F5F}" type="CELLRANGE">
+                    <a:fld id="{2B588D41-E65D-4712-8726-1A345463365D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9873,7 +9926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82D4F104-EDCB-45AE-AB66-E5FE81E4AC98}" type="CELLRANGE">
+                    <a:fld id="{256C4FD3-F8A8-4B1D-B284-1BFE1FBA22E5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16628,89 +16681,100 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム京谷賢太郎ICONIC</v>
+            <v>雪遊び金田一勇太郎ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>461</v>
+            <v>473</v>
           </cell>
           <cell r="G10">
-            <v>484</v>
+            <v>465</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム国見英ICONIC</v>
+            <v>ユニフォーム京谷賢太郎ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>462</v>
+            <v>461</v>
           </cell>
           <cell r="G11">
-            <v>467</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>職業体験国見英ICONIC</v>
+            <v>ユニフォーム国見英ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>468</v>
+            <v>462</v>
           </cell>
           <cell r="G12">
-            <v>475</v>
+            <v>467</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム渡親治ICONIC</v>
+            <v>職業体験国見英ICONIC</v>
           </cell>
           <cell r="F13">
+            <v>468</v>
+          </cell>
+          <cell r="G13">
             <v>475</v>
-          </cell>
-          <cell r="G13">
-            <v>463</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム松川一静ICONIC</v>
+            <v>ユニフォーム渡親治ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>465</v>
+            <v>475</v>
           </cell>
           <cell r="G14">
-            <v>458</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>アート松川一静ICONIC</v>
+            <v>ユニフォーム松川一静ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>473</v>
+            <v>465</v>
           </cell>
           <cell r="G15">
-            <v>464</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>ユニフォーム花巻貴大ICONIC</v>
+            <v>アート松川一静ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>467</v>
+            <v>473</v>
           </cell>
           <cell r="G16">
-            <v>469</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
+            <v>ユニフォーム花巻貴大ICONIC</v>
+          </cell>
+          <cell r="F17">
+            <v>467</v>
+          </cell>
+          <cell r="G17">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
             <v>アート花巻貴大ICONIC</v>
           </cell>
-          <cell r="F17">
+          <cell r="F18">
             <v>473</v>
           </cell>
-          <cell r="G17">
+          <cell r="G18">
             <v>477</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3BF3CC-8500-4082-A84F-533E694ABB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C88ABB-0FF3-4A0B-9735-C5AA726390E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6611" yWindow="2041" windowWidth="35237" windowHeight="20611" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6449" yWindow="4621" windowWidth="35236" windowHeight="20610" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F060270D-7735-427C-8374-7F689BF02286}" type="CELLRANGE">
+                    <a:fld id="{FCEDC21E-C07B-4975-9010-A72AB74FB057}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1907,8 +1907,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10819471807122159"/>
-                  <c:y val="2.535055912988012E-3"/>
+                  <c:x val="-2.2249075104931539E-2"/>
+                  <c:y val="-2.5628915032916186E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2102,8 +2102,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.5828777256062261E-4"/>
-                  <c:y val="-1.1793641510179075E-2"/>
+                  <c:x val="4.794994527740337E-3"/>
+                  <c:y val="-8.543952554882427E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2144,7 +2144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{835CDCD7-9784-4BCF-BA57-A9616AF2C292}" type="CELLRANGE">
+                    <a:fld id="{10D3A521-5E96-497C-8BA8-89DCE90A611F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2204,6 +2204,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9FE3-44C4-B0DF-B68D9E8EF872}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3221,8 +3224,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5888523850831695E-3"/>
-                  <c:y val="4.9690388230360129E-3"/>
+                  <c:x val="8.5888523850830532E-3"/>
+                  <c:y val="-8.0297169981505771E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3338,8 +3341,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7213745690300652E-2"/>
-                  <c:y val="-3.6694191219374559E-3"/>
+                  <c:x val="5.111890759443348E-2"/>
+                  <c:y val="4.9964180921867789E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3380,7 +3383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDE7F589-CA16-41C5-9334-60B99C2B14DF}" type="CELLRANGE">
+                    <a:fld id="{37ABAB87-D269-4605-8216-A05878BEE416}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3414,7 +3417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD90AD19-AD7A-45AA-914A-E8C2CAC1B17C}" type="CELLRANGE">
+                    <a:fld id="{BF53F62A-782B-4CE1-B0F8-719E69C88D4E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4166,7 +4169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87EA3A2E-5303-472E-993A-898CDF90950F}" type="CELLRANGE">
+                    <a:fld id="{81B1AD7D-89B1-4C15-B366-51E9E8BC152D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5634,7 +5637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DF469A7-F2DD-44A0-97DA-911B1F7E1A50}" type="CELLRANGE">
+                    <a:fld id="{919E374B-C7CC-45F5-B457-8208A9891FEE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6258,8 +6261,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2546120581432861E-2"/>
-                  <c:y val="-7.1707244136679131E-3"/>
+                  <c:x val="2.0825288023139699E-2"/>
+                  <c:y val="-3.6959539837220515E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6297,8 +6300,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.922708027197639E-2"/>
-                  <c:y val="4.325672909509639E-2"/>
+                  <c:x val="1.0842170446917343E-2"/>
+                  <c:y val="-9.8215238414155991E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6336,8 +6339,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9899461664754006E-2"/>
-                  <c:y val="1.7443835608726874E-3"/>
+                  <c:x val="-4.081443290776287E-2"/>
+                  <c:y val="3.3699658287956312E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6375,8 +6378,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7359161024498419E-2"/>
-                  <c:y val="-5.8305475708830944E-3"/>
+                  <c:x val="2.6508702097240079E-2"/>
+                  <c:y val="2.8352896432412996E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6451,12 +6454,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2467799098659781E-3"/>
+                  <c:y val="-1.4892275369950061E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31D9F226-F2D4-4D7B-9CED-DC0A0608F1D1}" type="CELLRANGE">
+                    <a:fld id="{1670CDBD-689C-45F2-9351-A3C1B9DF875F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000067-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5566FCC8-5076-4C2E-AF46-062771D01DB6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6479,18 +6521,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000067-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                  <c16:uniqueId val="{00000001-B8BC-4BA4-BE87-A64C9E5DD061}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C5FE96F-D443-4654-9D2A-BEED7767D640}" type="CELLRANGE">
+                    <a:fld id="{4BC50059-EAA9-4149-BC9C-347C3995F4B0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6513,7 +6555,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B8BC-4BA4-BE87-A64C9E5DD061}"/>
+                  <c16:uniqueId val="{00000002-9FE3-44C4-B0DF-B68D9E8EF872}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6577,10 +6619,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]梟谷!$F$2:$F$12</c:f>
+              <c:f>[1]梟谷!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>481</c:v>
                 </c:pt>
@@ -6591,27 +6633,30 @@
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -6619,10 +6664,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]梟谷!$G$2:$G$12</c:f>
+              <c:f>[1]梟谷!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>488</c:v>
                 </c:pt>
@@ -6633,27 +6678,30 @@
                   <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>456</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>502</c:v>
                 </c:pt>
               </c:numCache>
@@ -6663,9 +6711,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]梟谷!$B$2:$B$12</c15:f>
+                <c15:f>[1]梟谷!$B$2:$B$13</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム木兎光太郎ICONIC</c:v>
                   </c:pt>
@@ -6676,27 +6724,30 @@
                     <c:v>Xmas木兎光太郎ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>制服木兎光太郎ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>ユニフォーム木葉秋紀ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>探偵木葉秋紀ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>ユニフォーム猿杙大和ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム小見春樹ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム尾長渉ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム鷲尾辰生ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム赤葦京治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>夏祭り赤葦京治ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -9166,7 +9217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B588D41-E65D-4712-8726-1A345463365D}" type="CELLRANGE">
+                    <a:fld id="{05DFCEF0-82D2-458F-A473-8B996A817943}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9767,8 +9818,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5084349177377371E-2"/>
-                  <c:y val="-4.4402990468600523E-3"/>
+                  <c:x val="-4.7305989336606173E-2"/>
+                  <c:y val="-4.9819181677145646E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9926,7 +9977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{256C4FD3-F8A8-4B1D-B284-1BFE1FBA22E5}" type="CELLRANGE">
+                    <a:fld id="{1C59AC62-4BA2-4D06-9C7D-817218AB0864}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17560,89 +17611,100 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム木葉秋紀ICONIC</v>
+            <v>制服木兎光太郎ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>479</v>
+            <v>492</v>
           </cell>
           <cell r="G5">
-            <v>483</v>
+            <v>493</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>探偵木葉秋紀ICONIC</v>
+            <v>ユニフォーム木葉秋紀ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>485</v>
+            <v>479</v>
           </cell>
           <cell r="G6">
-            <v>491</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ユニフォーム猿杙大和ICONIC</v>
+            <v>探偵木葉秋紀ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>483</v>
+            <v>485</v>
           </cell>
           <cell r="G7">
-            <v>479</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム小見春樹ICONIC</v>
+            <v>ユニフォーム猿杙大和ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>474</v>
+            <v>483</v>
           </cell>
           <cell r="G8">
-            <v>456</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム尾長渉ICONIC</v>
+            <v>ユニフォーム小見春樹ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>463</v>
+            <v>474</v>
           </cell>
           <cell r="G9">
-            <v>462</v>
+            <v>456</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム鷲尾辰生ICONIC</v>
+            <v>ユニフォーム尾長渉ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>471</v>
+            <v>463</v>
           </cell>
           <cell r="G10">
-            <v>476</v>
+            <v>462</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム赤葦京治ICONIC</v>
+            <v>ユニフォーム鷲尾辰生ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>472</v>
+            <v>471</v>
           </cell>
           <cell r="G11">
-            <v>492</v>
+            <v>476</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
+            <v>ユニフォーム赤葦京治ICONIC</v>
+          </cell>
+          <cell r="F12">
+            <v>472</v>
+          </cell>
+          <cell r="G12">
+            <v>492</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
             <v>夏祭り赤葦京治ICONIC</v>
           </cell>
-          <cell r="F12">
+          <cell r="F13">
             <v>476</v>
           </cell>
-          <cell r="G12">
+          <cell r="G13">
             <v>502</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C88ABB-0FF3-4A0B-9735-C5AA726390E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE233325-C459-4391-878F-50951E0FEE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6449" yWindow="4621" windowWidth="35236" windowHeight="20610" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="5935" yWindow="2980" windowWidth="36063" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCEDC21E-C07B-4975-9010-A72AB74FB057}" type="CELLRANGE">
+                    <a:fld id="{B14FC634-2212-4967-AD10-98E23ADEE7A9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2144,7 +2144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10D3A521-5E96-497C-8BA8-89DCE90A611F}" type="CELLRANGE">
+                    <a:fld id="{E1CA445E-CEA2-4310-9CC0-A4B240DED6CC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3383,7 +3383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37ABAB87-D269-4605-8216-A05878BEE416}" type="CELLRANGE">
+                    <a:fld id="{3BBA7C23-F38D-474B-A202-13AF66C2DD2F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3417,7 +3417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF53F62A-782B-4CE1-B0F8-719E69C88D4E}" type="CELLRANGE">
+                    <a:fld id="{7E67EBFC-DD17-4E91-A35D-E8FB27378AFC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4169,7 +4169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81B1AD7D-89B1-4C15-B366-51E9E8BC152D}" type="CELLRANGE">
+                    <a:fld id="{8B7A3E44-9A2B-4179-8FB2-F896205183BA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5637,7 +5637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{919E374B-C7CC-45F5-B457-8208A9891FEE}" type="CELLRANGE">
+                    <a:fld id="{5A25F4BC-EC3E-40CF-B843-F50A7FAB9D1C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6498,7 +6498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5566FCC8-5076-4C2E-AF46-062771D01DB6}" type="CELLRANGE">
+                    <a:fld id="{2051338D-EC2D-4280-A94B-A558338FD29B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6532,7 +6532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BC50059-EAA9-4149-BC9C-347C3995F4B0}" type="CELLRANGE">
+                    <a:fld id="{C8440346-F89E-4D31-9AB3-0F5BC75C91B3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6556,6 +6556,40 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-9FE3-44C4-B0DF-B68D9E8EF872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8D5CD453-A90C-4215-972A-7EB138F86DDD}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-80CB-4EEC-8482-1B5531E2F8FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6619,10 +6653,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]梟谷!$F$2:$F$13</c:f>
+              <c:f>[1]梟谷!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>481</c:v>
                 </c:pt>
@@ -6658,16 +6692,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]梟谷!$G$2:$G$13</c:f>
+              <c:f>[1]梟谷!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>488</c:v>
                 </c:pt>
@@ -6703,6 +6740,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,9 +6751,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]梟谷!$B$2:$B$13</c15:f>
+                <c15:f>[1]梟谷!$B$2:$B$14</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="13"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム木兎光太郎ICONIC</c:v>
                   </c:pt>
@@ -6749,6 +6789,9 @@
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>夏祭り赤葦京治ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>制服赤葦京治ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6945,8 +6988,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2121705686058996E-2"/>
-                  <c:y val="-5.1304357764654196E-2"/>
+                  <c:x val="-2.5275674235280619E-2"/>
+                  <c:y val="-5.2929202242302437E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9217,7 +9260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05DFCEF0-82D2-458F-A473-8B996A817943}" type="CELLRANGE">
+                    <a:fld id="{29C2D229-A831-4151-8391-B1C54909063A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9977,7 +10020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C59AC62-4BA2-4D06-9C7D-817218AB0864}" type="CELLRANGE">
+                    <a:fld id="{9279B20B-DCAA-4E5C-ACB3-623E5089D049}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17708,6 +17751,17 @@
             <v>502</v>
           </cell>
         </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>制服赤葦京治ICONIC</v>
+          </cell>
+          <cell r="F14">
+            <v>471</v>
+          </cell>
+          <cell r="G14">
+            <v>507</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="17">
         <row r="2">

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE233325-C459-4391-878F-50951E0FEE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E475E49-5A4F-4DD3-81AF-3F7C952220BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5935" yWindow="2980" windowWidth="36063" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="1866" yWindow="1490" windowWidth="43600" windowHeight="25332" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -294,8 +294,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.8104058859510073E-2"/>
-          <c:y val="2.2082489387974392E-2"/>
+          <c:x val="3.0719933056396684E-2"/>
+          <c:y val="5.1871304811526998E-2"/>
           <c:w val="0.96401082695089213"/>
           <c:h val="0.93818426370670249"/>
         </c:manualLayout>
@@ -458,8 +458,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.3082952104628313E-3"/>
-                  <c:y val="-1.8022212007831061E-2"/>
+                  <c:x val="1.0981708720822375E-2"/>
+                  <c:y val="-2.9396123351369249E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -799,6 +799,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8987852999237831E-2"/>
+                  <c:y val="2.259889993337711E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -813,7 +819,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -873,8 +879,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9203277080163634E-2"/>
-                  <c:y val="-5.6216966493223232E-3"/>
+                  <c:x val="1.4472338578275415E-2"/>
+                  <c:y val="1.2251583242488463E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -912,8 +918,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8297105637600384E-2"/>
-                  <c:y val="-1.4992907551031966E-2"/>
+                  <c:x val="2.7648538880609377E-2"/>
+                  <c:y val="-6.8686995162741491E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -951,8 +957,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6630830216409373E-2"/>
-                  <c:y val="-5.6568043582337696E-3"/>
+                  <c:x val="-3.0785247523203399E-2"/>
+                  <c:y val="-2.5154938090013575E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -990,8 +996,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.157275003464907"/>
-                  <c:y val="4.7103541927240318E-2"/>
+                  <c:x val="1.8952991713009723E-2"/>
+                  <c:y val="5.2468403171927302E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1107,8 +1113,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0079220487981019E-2"/>
-                  <c:y val="-1.0177624927724274E-2"/>
+                  <c:x val="4.5771347710628022E-3"/>
+                  <c:y val="6.0708198487588053E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1146,8 +1152,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1374655950458358E-3"/>
-                  <c:y val="-2.0468903675210561E-2"/>
+                  <c:x val="2.1455522959028459E-2"/>
+                  <c:y val="1.2569600703638687E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1222,12 +1228,90 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4266336004935093E-3"/>
+                  <c:y val="-1.531413787841711E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B14FC634-2212-4967-AD10-98E23ADEE7A9}" type="CELLRANGE">
+                    <a:fld id="{F238B4BA-BD28-4F24-B514-29C0DB3126A8}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-635D-4264-889F-58F8065EC991}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5129425707029681E-3"/>
+                  <c:y val="-1.8022212007831141E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{62043DAC-8DC1-4037-A905-EA0FDADADAB3}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9EA918E2-1042-41EF-AE09-5FB4DB0E2D73}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1250,12 +1334,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-635D-4264-889F-58F8065EC991}"/>
+                  <c16:uniqueId val="{00000000-888F-4A11-B3A6-C454DFCDB3CF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="4.2550636716713776E-4"/>
@@ -1287,9 +1371,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-FAA8-47E0-B0E9-8FC18BF2E7E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1353,10 +1434,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]音駒!$F$2:$F$18</c:f>
+              <c:f>[1]音駒!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>458</c:v>
                 </c:pt>
@@ -1376,36 +1457,42 @@
                   <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -1413,10 +1500,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]音駒!$G$2:$G$18</c:f>
+              <c:f>[1]音駒!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>484</c:v>
                 </c:pt>
@@ -1436,36 +1523,42 @@
                   <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -1475,9 +1568,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]音駒!$B$2:$B$18</c15:f>
+                <c15:f>[1]音駒!$B$2:$B$20</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="17"/>
+                  <c:ptCount val="19"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム孤爪研磨ICONIC</c:v>
                   </c:pt>
@@ -1497,36 +1590,42 @@
                     <c:v>夏祭り黒尾鉄朗ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>1周年黒尾鉄朗ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>ユニフォーム灰羽リエーフICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>探偵灰羽リエーフICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム夜久衛輔ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
+                    <c:v>1周年夜久衛輔ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>ユニフォーム福永招平ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム犬岡走ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="13">
                     <c:v>新年犬岡走ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="14">
                     <c:v>ユニフォーム山本猛虎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="15">
                     <c:v>新年山本猛虎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="16">
                     <c:v>ユニフォーム芝山優生ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="17">
                     <c:v>ユニフォーム海信之ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="18">
                     <c:v>ユニフォーム海信之YELL</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2144,7 +2243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1CA445E-CEA2-4310-9CC0-A4B240DED6CC}" type="CELLRANGE">
+                    <a:fld id="{E54FF839-75C7-4BFC-89BB-443EB9EF396A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2641,8 +2740,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11478472914796471"/>
-                  <c:y val="-7.0697140850236612E-3"/>
+                  <c:x val="-7.7331366366228421E-2"/>
+                  <c:y val="-8.6945385352125114E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3224,8 +3323,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5888523850830532E-3"/>
-                  <c:y val="-8.0297169981505771E-3"/>
+                  <c:x val="1.0954328796999292E-2"/>
+                  <c:y val="-1.9403628341688843E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3383,7 +3482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BBA7C23-F38D-474B-A202-13AF66C2DD2F}" type="CELLRANGE">
+                    <a:fld id="{3C1BBD60-E7A0-4403-B23A-C3123FBC3978}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3417,7 +3516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E67EBFC-DD17-4E91-A35D-E8FB27378AFC}" type="CELLRANGE">
+                    <a:fld id="{DAF7B05F-D98E-45B4-A83C-3810918AE44E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4169,7 +4268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B7A3E44-9A2B-4179-8FB2-F896205183BA}" type="CELLRANGE">
+                    <a:fld id="{F9EC6A6D-42EC-4F8F-9480-0ABA7C5638F0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5595,8 +5694,8 @@
               <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.9633479053302812E-3"/>
-                  <c:y val="-5.0234561866443926E-3"/>
+                  <c:x val="4.2036254247612773E-3"/>
+                  <c:y val="-2.3153820572306785E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5637,7 +5736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A25F4BC-EC3E-40CF-B843-F50A7FAB9D1C}" type="CELLRANGE">
+                    <a:fld id="{C74034D5-BD34-490A-8A45-19DDEB26558E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6498,7 +6597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2051338D-EC2D-4280-A94B-A558338FD29B}" type="CELLRANGE">
+                    <a:fld id="{9EC8808F-70B0-410A-82C3-6938B3B3245E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6532,7 +6631,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8440346-F89E-4D31-9AB3-0F5BC75C91B3}" type="CELLRANGE">
+                    <a:fld id="{29C0CF7F-828A-457D-BA70-7412B47FB9F3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6566,7 +6665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D5CD453-A90C-4215-972A-7EB138F86DDD}" type="CELLRANGE">
+                    <a:fld id="{8411B384-D02A-4F40-8EB5-A8B463EDB6BE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6832,8 +6931,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2834234366684328E-2"/>
-                  <c:y val="-1.9350362442670924E-2"/>
+                  <c:x val="-8.0074511886115404E-2"/>
+                  <c:y val="-1.5559058661491581E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7913,8 +8012,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7381842280214955E-2"/>
-                  <c:y val="-1.6059092821607845E-2"/>
+                  <c:x val="-2.6918345492668513E-2"/>
+                  <c:y val="-1.1726174214545648E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7952,8 +8051,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5767015190450834E-2"/>
-                  <c:y val="1.1541674427993526E-2"/>
+                  <c:x val="-0.16124381716618161"/>
+                  <c:y val="2.8331743601417728E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9260,7 +9359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29C2D229-A831-4151-8391-B1C54909063A}" type="CELLRANGE">
+                    <a:fld id="{ACE6AE27-FC5E-428C-83C0-084C56621DD9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9567,8 +9666,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5428235269908688E-2"/>
-                  <c:y val="8.3384100182329335E-3"/>
+                  <c:x val="1.8081397471311923E-2"/>
+                  <c:y val="1.2129698583246497E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -10020,7 +10119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9279B20B-DCAA-4E5C-ACB3-623E5089D049}" type="CELLRANGE">
+                    <a:fld id="{2EE5521C-8BEF-482E-A628-12145C78BD8A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16564,122 +16663,144 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム灰羽リエーフICONIC</v>
+            <v>1周年黒尾鉄朗ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>468</v>
+            <v>485</v>
           </cell>
           <cell r="G8">
-            <v>462</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>探偵灰羽リエーフICONIC</v>
+            <v>ユニフォーム灰羽リエーフICONIC</v>
           </cell>
           <cell r="F9">
-            <v>476</v>
+            <v>468</v>
           </cell>
           <cell r="G9">
-            <v>468</v>
+            <v>462</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム夜久衛輔ICONIC</v>
+            <v>探偵灰羽リエーフICONIC</v>
           </cell>
           <cell r="F10">
-            <v>478</v>
+            <v>476</v>
           </cell>
           <cell r="G10">
-            <v>469</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム福永招平ICONIC</v>
+            <v>ユニフォーム夜久衛輔ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>461</v>
+            <v>478</v>
           </cell>
           <cell r="G11">
-            <v>459</v>
+            <v>469</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ユニフォーム犬岡走ICONIC</v>
+            <v>1周年夜久衛輔ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>467</v>
+            <v>486</v>
           </cell>
           <cell r="G12">
-            <v>460</v>
+            <v>475</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>新年犬岡走ICONIC</v>
+            <v>ユニフォーム福永招平ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>475</v>
+            <v>461</v>
           </cell>
           <cell r="G13">
-            <v>466</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム山本猛虎ICONIC</v>
+            <v>ユニフォーム犬岡走ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>461</v>
+            <v>467</v>
           </cell>
           <cell r="G14">
-            <v>479</v>
+            <v>460</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>新年山本猛虎ICONIC</v>
+            <v>新年犬岡走ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>467</v>
+            <v>475</v>
           </cell>
           <cell r="G15">
-            <v>486</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>ユニフォーム芝山優生ICONIC</v>
+            <v>ユニフォーム山本猛虎ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>472</v>
+            <v>461</v>
           </cell>
           <cell r="G16">
-            <v>458</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>ユニフォーム海信之ICONIC</v>
+            <v>新年山本猛虎ICONIC</v>
           </cell>
           <cell r="F17">
-            <v>466</v>
+            <v>467</v>
           </cell>
           <cell r="G17">
-            <v>481</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
+            <v>ユニフォーム芝山優生ICONIC</v>
+          </cell>
+          <cell r="F18">
+            <v>472</v>
+          </cell>
+          <cell r="G18">
+            <v>458</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>ユニフォーム海信之ICONIC</v>
+          </cell>
+          <cell r="F19">
+            <v>466</v>
+          </cell>
+          <cell r="G19">
+            <v>481</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
             <v>ユニフォーム海信之YELL</v>
           </cell>
-          <cell r="F18">
+          <cell r="F20">
             <v>450</v>
           </cell>
-          <cell r="G18">
+          <cell r="G20">
             <v>465</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E475E49-5A4F-4DD3-81AF-3F7C952220BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DED29-0E75-4CFD-8A38-1BD6DED608EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1866" yWindow="1490" windowWidth="43600" windowHeight="25332" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="6712" yWindow="3356" windowWidth="36062" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.0719933056396684E-2"/>
-          <c:y val="5.1871304811526998E-2"/>
-          <c:w val="0.96401082695089213"/>
-          <c:h val="0.93818426370670249"/>
+          <c:x val="2.2830683596382288E-2"/>
+          <c:y val="3.4663973274085387E-2"/>
+          <c:w val="0.96243294459287576"/>
+          <c:h val="0.92857207731178149"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1074,8 +1074,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2800766290185471E-2"/>
-                  <c:y val="1.1455324154767417E-2"/>
+                  <c:x val="-6.4865709234397759E-2"/>
+                  <c:y val="1.4705013110064065E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1191,8 +1191,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1460861112884007E-3"/>
-                  <c:y val="-2.3438360266658888E-2"/>
+                  <c:x val="-4.6685693116388809E-2"/>
+                  <c:y val="-2.3438357931389549E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1311,7 +1311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EA918E2-1042-41EF-AE09-5FB4DB0E2D73}" type="CELLRANGE">
+                    <a:fld id="{81CED4E8-DA8C-4491-903A-6DD3FA8125D3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1371,6 +1371,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1DF4-41BA-9F03-6129E1CEE35B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1698,6 +1701,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4452300743557276E-2"/>
+                  <c:y val="2.9927240255953273E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1712,7 +1721,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2006,8 +2015,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2249075104931539E-2"/>
-                  <c:y val="-2.5628915032916186E-2"/>
+                  <c:x val="-3.7624671782387098E-2"/>
+                  <c:y val="-5.2709656327054918E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2243,7 +2252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E54FF839-75C7-4BFC-89BB-443EB9EF396A}" type="CELLRANGE">
+                    <a:fld id="{873699AC-498B-49D0-B0FB-92B5C9FAE7AB}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2896,8 +2905,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3234563345263838E-2"/>
-                  <c:y val="-6.7436338795154758E-3"/>
+                  <c:x val="-8.6532386662636865E-2"/>
+                  <c:y val="-1.4867838732522367E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3482,7 +3491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C1BBD60-E7A0-4403-B23A-C3123FBC3978}" type="CELLRANGE">
+                    <a:fld id="{F2BC5AAE-E4FC-4F8B-B5BB-FC80E04B9B46}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3516,7 +3525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAF7B05F-D98E-45B4-A83C-3810918AE44E}" type="CELLRANGE">
+                    <a:fld id="{56B63D84-EE06-467F-82D8-5CF9BDDD7482}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3875,8 +3884,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.6213424829878161E-3"/>
-                  <c:y val="-1.0648019536345378E-2"/>
+                  <c:x val="-4.5715159885096205E-3"/>
+                  <c:y val="1.9140795887207147E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4268,7 +4277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9EC6A6D-42EC-4F8F-9480-0ABA7C5638F0}" type="CELLRANGE">
+                    <a:fld id="{CDC4DA66-235A-418C-BEFE-DC9A9C14284F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4624,6 +4633,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0436753866032709E-2"/>
+                  <c:y val="2.6390203714556373E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4638,7 +4653,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4690,6 +4705,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1323807520501302E-2"/>
+                  <c:y val="-2.3438360266658888E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4704,7 +4725,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4836,8 +4857,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8913044342066017E-2"/>
-                  <c:y val="-2.9937738177252024E-2"/>
+                  <c:x val="-2.8913044342066076E-2"/>
+                  <c:y val="2.0432440629846012E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4875,8 +4896,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.415497416646228E-2"/>
-                  <c:y val="-1.7464781037968617E-2"/>
+                  <c:x val="-3.2290305172533257E-2"/>
+                  <c:y val="-2.9921916200842218E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4914,8 +4935,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7582815887955142E-2"/>
-                  <c:y val="-1.7707393059432034E-2"/>
+                  <c:x val="-2.1527555153185985E-2"/>
+                  <c:y val="-3.3639792912962235E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4953,8 +4974,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2036254247612773E-3"/>
-                  <c:y val="2.5591513757143723E-3"/>
+                  <c:x val="-1.2748955527305048E-2"/>
+                  <c:y val="-8.2731451419411194E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4992,8 +5013,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9149623026255175E-2"/>
-                  <c:y val="-1.4220203870644035E-2"/>
+                  <c:x val="-1.1416956964302748E-2"/>
+                  <c:y val="-9.7840385843452719E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5031,8 +5052,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9806698979530332E-3"/>
-                  <c:y val="-1.0208757118503362E-2"/>
+                  <c:x val="1.1178502536633909E-2"/>
+                  <c:y val="7.9428975204459825E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5070,8 +5091,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7711209725746292E-2"/>
-                  <c:y val="-1.0669982657237474E-2"/>
+                  <c:x val="1.6134225451135464E-2"/>
+                  <c:y val="-2.5457602689957755E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5148,8 +5169,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.9345782485938142E-3"/>
-                  <c:y val="-2.9396123351369329E-2"/>
+                  <c:x val="-2.4985577423346766E-3"/>
+                  <c:y val="-9.8979896195893636E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5187,8 +5208,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11722416372027231"/>
-                  <c:y val="-2.831289369960378E-2"/>
+                  <c:x val="4.5978714934140422E-3"/>
+                  <c:y val="-1.2064448923120542E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5226,8 +5247,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0271515715331208E-2"/>
-                  <c:y val="-1.514670639759697E-2"/>
+                  <c:x val="1.5780676752246713E-2"/>
+                  <c:y val="-7.5640988352380463E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5265,7 +5286,7 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1710168667781068E-2"/>
+                  <c:x val="-9.1044206966893013E-2"/>
                   <c:y val="-1.4830437456750856E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5304,8 +5325,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6823628340319665E-2"/>
-                  <c:y val="-2.4217091504502859E-2"/>
+                  <c:x val="-0.12051034439598152"/>
+                  <c:y val="-2.8550010111565136E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5343,8 +5364,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.357593973982988E-3"/>
-                  <c:y val="-6.1066858384100208E-3"/>
+                  <c:x val="-7.3462850099821869E-2"/>
+                  <c:y val="-6.6483006642927165E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5382,8 +5403,8 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.3208831459619394E-2"/>
-                  <c:y val="-1.4750261403786247E-3"/>
+                  <c:x val="-4.3418305255275298E-2"/>
+                  <c:y val="-1.7258597274799389E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5421,8 +5442,8 @@
               <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.2967116399652221E-2"/>
-                  <c:y val="-1.2113532437336818E-2"/>
+                  <c:x val="1.5775554657654099E-2"/>
+                  <c:y val="-7.7806168250811845E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5499,8 +5520,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2810937217896758E-2"/>
-                  <c:y val="-1.1107155380081829E-2"/>
+                  <c:x val="1.5038469995385169E-2"/>
+                  <c:y val="-4.278985135338715E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5538,8 +5559,8 @@
               <c:idx val="25"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.304148719185624E-3"/>
-                  <c:y val="2.6805884438536642E-4"/>
+                  <c:x val="-4.9188424067205104E-2"/>
+                  <c:y val="-8.8361598617449199E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5577,8 +5598,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15554407447537955"/>
-                  <c:y val="3.4752224864146211E-2"/>
+                  <c:x val="-6.4867478685257038E-2"/>
+                  <c:y val="5.5050242664764623E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5616,8 +5637,8 @@
               <c:idx val="27"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15270630989901593"/>
-                  <c:y val="3.0181507495735956E-2"/>
+                  <c:x val="-2.2149054566884402E-2"/>
+                  <c:y val="1.2308218241604394E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5655,8 +5676,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15526890934525847"/>
-                  <c:y val="3.6139270580446477E-2"/>
+                  <c:x val="-8.1303734751705953E-3"/>
+                  <c:y val="1.7361826267844917E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5694,8 +5715,8 @@
               <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2036254247612773E-3"/>
-                  <c:y val="-2.3153820572306785E-3"/>
+                  <c:x val="-3.560090127511463E-2"/>
+                  <c:y val="4.1365294736197745E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5736,7 +5757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C74034D5-BD34-490A-8A45-19DDEB26558E}" type="CELLRANGE">
+                    <a:fld id="{966A2F9C-65CB-4FD6-AAD1-EF4F796A25C5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5765,6 +5786,113 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0837B090-5C49-4123-91BE-5501819C0CF1}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DBB9-4DF7-A142-5DB882B143CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9633479053302812E-3"/>
+                  <c:y val="-1.2321524054649704E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EFAA68F7-1204-49A9-B45C-FB1A6B0B6143}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1DF4-41BA-9F03-6129E1CEE35B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{437FC187-40E1-49E4-84CE-9E90D9FBECA6}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1DF4-41BA-9F03-6129E1CEE35B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.8664666437033598E-2"/>
@@ -5796,9 +5924,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DBB9-4DF7-A142-5DB882B143CE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5862,10 +5987,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]烏野!$F$2:$F$33</c:f>
+              <c:f>[1]烏野!$F$2:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>493</c:v>
                 </c:pt>
@@ -5876,90 +6001,99 @@
                   <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>471</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>493</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>453</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
@@ -5967,10 +6101,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]烏野!$G$2:$G$33</c:f>
+              <c:f>[1]烏野!$G$2:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>453</c:v>
                 </c:pt>
@@ -5981,90 +6115,99 @@
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>508</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>516</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>470</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
@@ -6074,9 +6217,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]烏野!$B$2:$B$33</c15:f>
+                <c15:f>[1]烏野!$B$2:$B$36</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="32"/>
+                  <c:ptCount val="35"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム日向翔陽ICONIC</c:v>
                   </c:pt>
@@ -6087,90 +6230,99 @@
                     <c:v>夏祭り日向翔陽ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>1周年日向翔陽ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>ユニフォーム影山飛雄ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>制服影山飛雄ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>夏祭り影山飛雄ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Xmas影山飛雄ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
+                    <c:v>1周年影山飛雄ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ユニフォーム月島蛍ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="10">
                     <c:v>水着月島蛍ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="11">
                     <c:v>職業体験月島蛍ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
+                    <c:v>1周年月島蛍ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>ユニフォーム山口忠ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="14">
                     <c:v>水着山口忠ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="15">
                     <c:v>雪遊び山口忠ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="16">
                     <c:v>ユニフォーム西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="17">
                     <c:v>制服西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="18">
                     <c:v>Xmas西谷夕ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="19">
                     <c:v>ユニフォーム田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="20">
                     <c:v>制服田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>新年田中龍之介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>ユニフォーム澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="23">
                     <c:v>プール掃除澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="24">
                     <c:v>文化祭澤村大地ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="25">
                     <c:v>ユニフォーム菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="26">
                     <c:v>プール掃除菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="27">
                     <c:v>文化祭菅原考支ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="28">
                     <c:v>ユニフォーム東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="29">
                     <c:v>プール掃除東峰旭ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="30">
                     <c:v>ユニフォーム東峰旭YELL</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="31">
                     <c:v>ユニフォーム縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="32">
                     <c:v>探偵縁下力ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="33">
                     <c:v>ユニフォーム木下久志ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="31">
+                  <c:pt idx="34">
                     <c:v>ユニフォーム成田一仁ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -6555,8 +6707,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2467799098659781E-3"/>
-                  <c:y val="-1.4892275369950061E-4"/>
+                  <c:x val="-1.8465523522769353E-2"/>
+                  <c:y val="-6.6483006642927955E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6597,7 +6749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EC8808F-70B0-410A-82C3-6938B3B3245E}" type="CELLRANGE">
+                    <a:fld id="{66FDC029-CF0F-41F8-91D8-BB13D869D2C5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6631,7 +6783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29C0CF7F-828A-457D-BA70-7412B47FB9F3}" type="CELLRANGE">
+                    <a:fld id="{E367488B-03CA-4322-90CF-2D991D34E170}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6665,7 +6817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8411B384-D02A-4F40-8EB5-A8B463EDB6BE}" type="CELLRANGE">
+                    <a:fld id="{109BB6C2-281B-49BA-93EB-7C9469B7E720}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8430,8 +8582,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1897321933020139E-2"/>
-                  <c:y val="-1.0192167499033488E-2"/>
+                  <c:x val="3.0840286757827119E-3"/>
+                  <c:y val="-1.8858004713157881E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9359,7 +9511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACE6AE27-FC5E-428C-83C0-084C56621DD9}" type="CELLRANGE">
+                    <a:fld id="{0B359713-2804-4DAA-A6D6-DB7009D00590}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10119,7 +10271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EE5521C-8BEF-482E-A628-12145C78BD8A}" type="CELLRANGE">
+                    <a:fld id="{8F40EE27-2FAF-43CE-981C-73D6A94CEA7D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16325,13 +16477,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71561</xdr:rowOff>
+      <xdr:rowOff>7952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>26504</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>159027</xdr:rowOff>
+      <xdr:colOff>7951</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17421,320 +17573,353 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム影山飛雄ICONIC</v>
+            <v>1周年日向翔陽ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>465</v>
+            <v>501</v>
           </cell>
           <cell r="G5">
-            <v>498</v>
+            <v>460</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>制服影山飛雄ICONIC</v>
+            <v>ユニフォーム影山飛雄ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>469</v>
+            <v>465</v>
           </cell>
           <cell r="G6">
-            <v>508</v>
+            <v>498</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>夏祭り影山飛雄ICONIC</v>
+            <v>制服影山飛雄ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>467</v>
+            <v>469</v>
           </cell>
           <cell r="G7">
-            <v>510</v>
+            <v>508</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>Xmas影山飛雄ICONIC</v>
+            <v>夏祭り影山飛雄ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>471</v>
+            <v>467</v>
           </cell>
           <cell r="G8">
-            <v>516</v>
+            <v>510</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム月島蛍ICONIC</v>
+            <v>Xmas影山飛雄ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>472</v>
+            <v>471</v>
           </cell>
           <cell r="G9">
-            <v>466</v>
+            <v>516</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>水着月島蛍ICONIC</v>
+            <v>1周年影山飛雄ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>480</v>
+            <v>472</v>
           </cell>
           <cell r="G10">
-            <v>472</v>
+            <v>515</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>職業体験月島蛍ICONIC</v>
+            <v>ユニフォーム月島蛍ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>474</v>
+            <v>472</v>
           </cell>
           <cell r="G11">
-            <v>478</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ユニフォーム山口忠ICONIC</v>
+            <v>水着月島蛍ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>469</v>
+            <v>480</v>
           </cell>
           <cell r="G12">
-            <v>475</v>
+            <v>472</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>水着山口忠ICONIC</v>
+            <v>職業体験月島蛍ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>475</v>
+            <v>474</v>
           </cell>
           <cell r="G13">
-            <v>483</v>
+            <v>478</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>雪遊び山口忠ICONIC</v>
+            <v>1周年月島蛍ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>476</v>
+            <v>483</v>
           </cell>
           <cell r="G14">
-            <v>482</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ユニフォーム西谷夕ICONIC</v>
+            <v>ユニフォーム山口忠ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>479</v>
+            <v>469</v>
           </cell>
           <cell r="G15">
-            <v>470</v>
+            <v>475</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>制服西谷夕ICONIC</v>
+            <v>水着山口忠ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>487</v>
+            <v>475</v>
           </cell>
           <cell r="G16">
-            <v>476</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Xmas西谷夕ICONIC</v>
+            <v>雪遊び山口忠ICONIC</v>
           </cell>
           <cell r="F17">
-            <v>493</v>
+            <v>476</v>
           </cell>
           <cell r="G17">
-            <v>480</v>
+            <v>482</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>ユニフォーム田中龍之介ICONIC</v>
+            <v>ユニフォーム西谷夕ICONIC</v>
           </cell>
           <cell r="F18">
-            <v>463</v>
+            <v>479</v>
           </cell>
           <cell r="G18">
-            <v>469</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>制服田中龍之介ICONIC</v>
+            <v>制服西谷夕ICONIC</v>
           </cell>
           <cell r="F19">
-            <v>469</v>
+            <v>487</v>
           </cell>
           <cell r="G19">
-            <v>477</v>
+            <v>476</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>新年田中龍之介ICONIC</v>
+            <v>Xmas西谷夕ICONIC</v>
           </cell>
           <cell r="F20">
-            <v>472</v>
+            <v>493</v>
           </cell>
           <cell r="G20">
-            <v>474</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>ユニフォーム澤村大地ICONIC</v>
+            <v>ユニフォーム田中龍之介ICONIC</v>
           </cell>
           <cell r="F21">
-            <v>477</v>
+            <v>463</v>
           </cell>
           <cell r="G21">
-            <v>473</v>
+            <v>469</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>プール掃除澤村大地ICONIC</v>
+            <v>制服田中龍之介ICONIC</v>
           </cell>
           <cell r="F22">
-            <v>483</v>
+            <v>469</v>
           </cell>
           <cell r="G22">
-            <v>481</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>文化祭澤村大地ICONIC</v>
+            <v>新年田中龍之介ICONIC</v>
           </cell>
           <cell r="F23">
-            <v>485</v>
+            <v>472</v>
           </cell>
           <cell r="G23">
-            <v>479</v>
+            <v>474</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>ユニフォーム菅原考支ICONIC</v>
+            <v>ユニフォーム澤村大地ICONIC</v>
           </cell>
           <cell r="F24">
-            <v>462</v>
+            <v>477</v>
           </cell>
           <cell r="G24">
-            <v>477</v>
+            <v>473</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>プール掃除菅原考支ICONIC</v>
+            <v>プール掃除澤村大地ICONIC</v>
           </cell>
           <cell r="F25">
-            <v>466</v>
+            <v>483</v>
           </cell>
           <cell r="G25">
-            <v>487</v>
+            <v>481</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>文化祭菅原考支ICONIC</v>
+            <v>文化祭澤村大地ICONIC</v>
           </cell>
           <cell r="F26">
-            <v>464</v>
+            <v>485</v>
           </cell>
           <cell r="G26">
-            <v>489</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>ユニフォーム東峰旭ICONIC</v>
+            <v>ユニフォーム菅原考支ICONIC</v>
           </cell>
           <cell r="F27">
-            <v>465</v>
+            <v>462</v>
           </cell>
           <cell r="G27">
-            <v>485</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>プール掃除東峰旭ICONIC</v>
+            <v>プール掃除菅原考支ICONIC</v>
           </cell>
           <cell r="F28">
-            <v>453</v>
+            <v>466</v>
           </cell>
           <cell r="G28">
-            <v>477</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>ユニフォーム東峰旭YELL</v>
+            <v>文化祭菅原考支ICONIC</v>
           </cell>
           <cell r="F29">
-            <v>461</v>
+            <v>464</v>
           </cell>
           <cell r="G29">
-            <v>491</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>ユニフォーム縁下力ICONIC</v>
+            <v>ユニフォーム東峰旭ICONIC</v>
           </cell>
           <cell r="F30">
-            <v>461</v>
+            <v>465</v>
           </cell>
           <cell r="G30">
-            <v>459</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>探偵縁下力ICONIC</v>
+            <v>プール掃除東峰旭ICONIC</v>
           </cell>
           <cell r="F31">
-            <v>467</v>
+            <v>453</v>
           </cell>
           <cell r="G31">
-            <v>468</v>
+            <v>477</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>ユニフォーム木下久志ICONIC</v>
+            <v>ユニフォーム東峰旭YELL</v>
           </cell>
           <cell r="F32">
-            <v>460</v>
+            <v>461</v>
           </cell>
           <cell r="G32">
-            <v>469</v>
+            <v>491</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
+            <v>ユニフォーム縁下力ICONIC</v>
+          </cell>
+          <cell r="F33">
+            <v>461</v>
+          </cell>
+          <cell r="G33">
+            <v>459</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>探偵縁下力ICONIC</v>
+          </cell>
+          <cell r="F34">
+            <v>467</v>
+          </cell>
+          <cell r="G34">
+            <v>468</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>ユニフォーム木下久志ICONIC</v>
+          </cell>
+          <cell r="F35">
+            <v>460</v>
+          </cell>
+          <cell r="G35">
+            <v>469</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
             <v>ユニフォーム成田一仁ICONIC</v>
           </cell>
-          <cell r="F33">
+          <cell r="F36">
             <v>460</v>
           </cell>
-          <cell r="G33">
+          <cell r="G36">
             <v>464</v>
           </cell>
         </row>
@@ -24877,7 +25062,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="AO123" sqref="AO123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DED29-0E75-4CFD-8A38-1BD6DED608EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10315CE-0FAE-4283-B503-64082A59F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6712" yWindow="3356" windowWidth="36062" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="4733" yWindow="3256" windowWidth="36063" windowHeight="19984" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8987852999237831E-2"/>
-                  <c:y val="2.259889993337711E-2"/>
+                  <c:x val="1.7015495437761423E-2"/>
+                  <c:y val="1.0649611898861931E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -840,8 +840,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0777725184041515E-2"/>
-                  <c:y val="-1.8563826833713756E-2"/>
+                  <c:x val="-2.4189814818409826E-2"/>
+                  <c:y val="-1.7994820718256043E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -918,8 +918,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7648538880609377E-2"/>
-                  <c:y val="-6.8686995162741491E-3"/>
+                  <c:x val="-1.9688253682710859E-2"/>
+                  <c:y val="-2.8491246884816471E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -957,8 +957,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0785247523203399E-2"/>
-                  <c:y val="-2.5154938090013575E-2"/>
+                  <c:x val="1.8523905281565171E-2"/>
+                  <c:y val="-6.946495794605846E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -996,8 +996,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8952991713009723E-2"/>
-                  <c:y val="5.2468403171927302E-4"/>
+                  <c:x val="-2.3255658649054566E-2"/>
+                  <c:y val="-2.0528814711171052E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1152,8 +1152,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1455522959028459E-2"/>
-                  <c:y val="1.2569600703638687E-2"/>
+                  <c:x val="-3.2192838657857901E-2"/>
+                  <c:y val="-1.2467006710018961E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1191,8 +1191,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6685693116388809E-2"/>
-                  <c:y val="-2.3438357931389549E-2"/>
+                  <c:x val="1.7218975306936637E-2"/>
+                  <c:y val="1.4116564798976097E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1230,8 +1230,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4266336004935093E-3"/>
-                  <c:y val="-1.531413787841711E-2"/>
+                  <c:x val="-5.5552364912243211E-2"/>
+                  <c:y val="-2.2711319359275919E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1311,7 +1311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81CED4E8-DA8C-4491-903A-6DD3FA8125D3}" type="CELLRANGE">
+                    <a:fld id="{DD7A1AB5-7EE3-403E-B200-9F63F93C9388}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1340,6 +1340,40 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D2E8784B-DBB7-4035-9993-12EFEE3DD2BD}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1DF4-41BA-9F03-6129E1CEE35B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="4.2550636716713776E-4"/>
@@ -1371,9 +1405,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-1DF4-41BA-9F03-6129E1CEE35B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1437,10 +1468,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]音駒!$F$2:$F$20</c:f>
+              <c:f>[1]音駒!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>458</c:v>
                 </c:pt>
@@ -1451,51 +1482,54 @@
                   <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>485</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>472</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -1503,10 +1537,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]音駒!$G$2:$G$20</c:f>
+              <c:f>[1]音駒!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>484</c:v>
                 </c:pt>
@@ -1517,51 +1551,54 @@
                   <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>494</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -1571,9 +1608,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]音駒!$B$2:$B$20</c15:f>
+                <c15:f>[1]音駒!$B$2:$B$21</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="19"/>
+                  <c:ptCount val="20"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム孤爪研磨ICONIC</c:v>
                   </c:pt>
@@ -1584,51 +1621,54 @@
                     <c:v>夏祭り孤爪研磨ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>1周年孤爪研磨ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>ユニフォーム黒尾鉄朗ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>制服黒尾鉄朗ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>夏祭り黒尾鉄朗ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>1周年黒尾鉄朗ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>ユニフォーム灰羽リエーフICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>探偵灰羽リエーフICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム夜久衛輔ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>1周年夜久衛輔ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>ユニフォーム福永招平ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ユニフォーム犬岡走ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>新年犬岡走ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ユニフォーム山本猛虎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>新年山本猛虎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>ユニフォーム芝山優生ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>ユニフォーム海信之ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>ユニフォーム海信之YELL</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2252,7 +2292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{873699AC-498B-49D0-B0FB-92B5C9FAE7AB}" type="CELLRANGE">
+                    <a:fld id="{5A14F1DB-EA82-4AEF-8389-561A20ECAAC4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3293,8 +3333,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4631936077148031E-2"/>
-                  <c:y val="-1.3514396489821714E-2"/>
+                  <c:x val="-3.0943507670532576E-2"/>
+                  <c:y val="1.1522219480700003E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3491,7 +3531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2BC5AAE-E4FC-4F8B-B5BB-FC80E04B9B46}" type="CELLRANGE">
+                    <a:fld id="{F3C7F705-C903-4B17-9CF4-0EE648BF7B76}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3525,7 +3565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56B63D84-EE06-467F-82D8-5CF9BDDD7482}" type="CELLRANGE">
+                    <a:fld id="{A96117F3-6D03-41C1-B7B5-356B6594C737}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4157,8 +4197,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8776811526538159E-2"/>
-                  <c:y val="-5.7792775438219701E-2"/>
+                  <c:x val="-7.2583390793385438E-2"/>
+                  <c:y val="-5.2102638831458555E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4277,7 +4317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDC4DA66-235A-418C-BEFE-DC9A9C14284F}" type="CELLRANGE">
+                    <a:fld id="{D9256B5B-60DC-4687-81AA-C4EC85C4FD96}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5757,7 +5797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{966A2F9C-65CB-4FD6-AAD1-EF4F796A25C5}" type="CELLRANGE">
+                    <a:fld id="{2FC78FC9-4B1E-4C1D-A47D-E3F628FFCA7E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5791,7 +5831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0837B090-5C49-4123-91BE-5501819C0CF1}" type="CELLRANGE">
+                    <a:fld id="{BB9B1581-2839-41CF-81B4-8DAD9BF8D701}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5864,7 +5904,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{437FC187-40E1-49E4-84CE-9E90D9FBECA6}" type="CELLRANGE">
+                    <a:fld id="{B3D58822-6597-45FD-BFCA-9F681D0DA03E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5924,6 +5964,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-173C-470C-9374-94EC5BAB4577}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6668,8 +6711,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.24450433397555E-4"/>
-                  <c:y val="3.9269207218327399E-4"/>
+                  <c:x val="-7.0940704736111207E-2"/>
+                  <c:y val="-5.8664445331668164E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6749,7 +6792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66FDC029-CF0F-41F8-91D8-BB13D869D2C5}" type="CELLRANGE">
+                    <a:fld id="{AABED201-8DC0-4A19-BF36-7EE2E2FAD336}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6783,7 +6826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E367488B-03CA-4322-90CF-2D991D34E170}" type="CELLRANGE">
+                    <a:fld id="{EC43EFCD-4174-4B6A-85F3-FB73A9A8A4DA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6817,7 +6860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{109BB6C2-281B-49BA-93EB-7C9469B7E720}" type="CELLRANGE">
+                    <a:fld id="{D2DB89A0-EFF1-417D-915C-C601B8DFE51D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7870,6 +7913,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9974926409770566E-2"/>
+                  <c:y val="-1.8933917807767452E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -7884,7 +7933,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -8203,8 +8252,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16124381716618161"/>
-                  <c:y val="2.8331743601417728E-2"/>
+                  <c:x val="-8.432151732680318E-2"/>
+                  <c:y val="5.0021705419132341E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9169,8 +9218,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2709221716003632E-2"/>
-                  <c:y val="-6.9012840900450276E-2"/>
+                  <c:x val="-6.2965511451201647E-2"/>
+                  <c:y val="-6.3891712427861319E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9511,7 +9560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B359713-2804-4DAA-A6D6-DB7009D00590}" type="CELLRANGE">
+                    <a:fld id="{3AF70936-51A4-4BD0-88D0-F3B99AB9158E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10073,8 +10122,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0299947375910583E-2"/>
-                  <c:y val="7.4752228275893305E-3"/>
+                  <c:x val="-2.7400454439409912E-2"/>
+                  <c:y val="1.3734384542605281E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -10271,7 +10320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F40EE27-2FAF-43CE-981C-73D6A94CEA7D}" type="CELLRANGE">
+                    <a:fld id="{1C5EFEBE-2E54-4949-8D99-14B6CB708990}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16782,177 +16831,188 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ユニフォーム黒尾鉄朗ICONIC</v>
+            <v>1周年孤爪研磨ICONIC</v>
           </cell>
           <cell r="F5">
-            <v>477</v>
+            <v>464</v>
           </cell>
           <cell r="G5">
-            <v>480</v>
+            <v>502</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>制服黒尾鉄朗ICONIC</v>
+            <v>ユニフォーム黒尾鉄朗ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>485</v>
+            <v>477</v>
           </cell>
           <cell r="G6">
-            <v>486</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>夏祭り黒尾鉄朗ICONIC</v>
+            <v>制服黒尾鉄朗ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>477</v>
+            <v>485</v>
           </cell>
           <cell r="G7">
-            <v>494</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>1周年黒尾鉄朗ICONIC</v>
+            <v>夏祭り黒尾鉄朗ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>485</v>
+            <v>477</v>
           </cell>
           <cell r="G8">
-            <v>486</v>
+            <v>494</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム灰羽リエーフICONIC</v>
+            <v>1周年黒尾鉄朗ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>468</v>
+            <v>485</v>
           </cell>
           <cell r="G9">
-            <v>462</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>探偵灰羽リエーフICONIC</v>
+            <v>ユニフォーム灰羽リエーフICONIC</v>
           </cell>
           <cell r="F10">
-            <v>476</v>
+            <v>468</v>
           </cell>
           <cell r="G10">
-            <v>468</v>
+            <v>462</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム夜久衛輔ICONIC</v>
+            <v>探偵灰羽リエーフICONIC</v>
           </cell>
           <cell r="F11">
-            <v>478</v>
+            <v>476</v>
           </cell>
           <cell r="G11">
-            <v>469</v>
+            <v>468</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>1周年夜久衛輔ICONIC</v>
+            <v>ユニフォーム夜久衛輔ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>486</v>
+            <v>478</v>
           </cell>
           <cell r="G12">
-            <v>475</v>
+            <v>469</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ユニフォーム福永招平ICONIC</v>
+            <v>1周年夜久衛輔ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>461</v>
+            <v>486</v>
           </cell>
           <cell r="G13">
-            <v>459</v>
+            <v>475</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム犬岡走ICONIC</v>
+            <v>ユニフォーム福永招平ICONIC</v>
           </cell>
           <cell r="F14">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G14">
-            <v>460</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>新年犬岡走ICONIC</v>
+            <v>ユニフォーム犬岡走ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>475</v>
+            <v>467</v>
           </cell>
           <cell r="G15">
-            <v>466</v>
+            <v>460</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>ユニフォーム山本猛虎ICONIC</v>
+            <v>新年犬岡走ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>461</v>
+            <v>475</v>
           </cell>
           <cell r="G16">
-            <v>479</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>新年山本猛虎ICONIC</v>
+            <v>ユニフォーム山本猛虎ICONIC</v>
           </cell>
           <cell r="F17">
-            <v>467</v>
+            <v>461</v>
           </cell>
           <cell r="G17">
-            <v>486</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>ユニフォーム芝山優生ICONIC</v>
+            <v>新年山本猛虎ICONIC</v>
           </cell>
           <cell r="F18">
-            <v>472</v>
+            <v>467</v>
           </cell>
           <cell r="G18">
-            <v>458</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>ユニフォーム海信之ICONIC</v>
+            <v>ユニフォーム芝山優生ICONIC</v>
           </cell>
           <cell r="F19">
-            <v>466</v>
+            <v>472</v>
           </cell>
           <cell r="G19">
-            <v>481</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
+            <v>ユニフォーム海信之ICONIC</v>
+          </cell>
+          <cell r="F20">
+            <v>466</v>
+          </cell>
+          <cell r="G20">
+            <v>481</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
             <v>ユニフォーム海信之YELL</v>
           </cell>
-          <cell r="F20">
+          <cell r="F21">
             <v>450</v>
           </cell>
-          <cell r="G20">
+          <cell r="G21">
             <v>465</v>
           </cell>
         </row>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10315CE-0FAE-4283-B503-64082A59F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA7CD6-7CCC-40C0-A36C-2D6D114E98B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4733" yWindow="3256" windowWidth="36063" windowHeight="19984" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="5973" yWindow="5973" windowWidth="36062" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD7A1AB5-7EE3-403E-B200-9F63F93C9388}" type="CELLRANGE">
+                    <a:fld id="{9422C2C4-2E0C-4525-8915-B4D9946A543D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1345,7 +1345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2E8784B-DBB7-4035-9993-12EFEE3DD2BD}" type="CELLRANGE">
+                    <a:fld id="{3D4FCA18-28BF-4D96-8363-3A28A09B9A13}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1405,6 +1405,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6DAD-476A-B5F8-AE9892CCA193}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1899,8 +1902,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5588095929319316E-2"/>
-                  <c:y val="-2.1001520018553078E-2"/>
+                  <c:x val="-8.3694491205747248E-3"/>
+                  <c:y val="-1.3604317803538015E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2292,7 +2295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A14F1DB-EA82-4AEF-8389-561A20ECAAC4}" type="CELLRANGE">
+                    <a:fld id="{CCAFA40E-65D6-4137-8BDE-64CD2C6AA77A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3531,7 +3534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3C7F705-C903-4B17-9CF4-0EE648BF7B76}" type="CELLRANGE">
+                    <a:fld id="{C6C205A1-6C73-4444-AD33-D456BD076984}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3565,7 +3568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A96117F3-6D03-41C1-B7B5-356B6594C737}" type="CELLRANGE">
+                    <a:fld id="{305D0BA7-9065-4166-8B03-680C1358936C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4317,7 +4320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9256B5B-60DC-4687-81AA-C4EC85C4FD96}" type="CELLRANGE">
+                    <a:fld id="{2063BFEB-F13B-4253-B2B8-57FD95FBF9C6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5797,7 +5800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FC78FC9-4B1E-4C1D-A47D-E3F628FFCA7E}" type="CELLRANGE">
+                    <a:fld id="{ADDBD123-3484-4F1A-AD35-077131D396AD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5831,7 +5834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB9B1581-2839-41CF-81B4-8DAD9BF8D701}" type="CELLRANGE">
+                    <a:fld id="{35E72E1A-89B2-488C-AD29-DF272C051E6D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5862,8 +5865,8 @@
               <c:idx val="32"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.9633479053302812E-3"/>
-                  <c:y val="-1.2321524054649704E-3"/>
+                  <c:x val="4.9909875284016867E-3"/>
+                  <c:y val="-9.7673714031762966E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5904,7 +5907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3D58822-6597-45FD-BFCA-9F681D0DA03E}" type="CELLRANGE">
+                    <a:fld id="{B99562C0-258F-4301-960D-A67F5503BF1F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6792,7 +6795,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AABED201-8DC0-4A19-BF36-7EE2E2FAD336}" type="CELLRANGE">
+                    <a:fld id="{40C31F67-C4AB-49C3-927C-FB1652BEBF9A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6826,7 +6829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC43EFCD-4174-4B6A-85F3-FB73A9A8A4DA}" type="CELLRANGE">
+                    <a:fld id="{09B1C1BD-2292-42EA-8290-806B3FAAB890}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6860,7 +6863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2DB89A0-EFF1-417D-915C-C601B8DFE51D}" type="CELLRANGE">
+                    <a:fld id="{8A01BE9A-3A83-42C7-B02B-46B36FDF5F80}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7282,8 +7285,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5275674235280619E-2"/>
-                  <c:y val="-5.2929202242302437E-2"/>
+                  <c:x val="-3.9871183047986834E-2"/>
+                  <c:y val="-6.8292565124434254E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7837,8 +7840,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.0374710797975558E-3"/>
-                  <c:y val="1.4543578015251929E-3"/>
+                  <c:x val="3.0339031753264988E-2"/>
+                  <c:y val="-1.9597379148487992E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9560,7 +9563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AF70936-51A4-4BD0-88D0-F3B99AB9158E}" type="CELLRANGE">
+                    <a:fld id="{EC3EA2DE-0723-494C-B8C7-5F096A15E61B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9584,6 +9587,123 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000097-D64C-4F4B-A79B-996E4DDA24D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1967324816831678E-2"/>
+                  <c:y val="1.2361851134203919E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B512256-170A-4548-9252-C54181695721}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6DAD-476A-B5F8-AE9892CCA193}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.896871115739045E-2"/>
+                  <c:y val="-1.2944844041109451E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A619328E-EC65-4365-A4B3-2A9A08F7B7D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6DAD-476A-B5F8-AE9892CCA193}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6420027177654699E-3"/>
+                  <c:y val="4.1255753817856934E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9DCD5E9B-9398-4291-8C72-DDC8FF788C8F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6DAD-476A-B5F8-AE9892CCA193}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -9647,10 +9767,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]伊達工!$F$2:$F$14</c:f>
+              <c:f>[1]伊達工!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>476</c:v>
                 </c:pt>
@@ -9689,16 +9809,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]伊達工!$G$2:$G$14</c:f>
+              <c:f>[1]伊達工!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>472</c:v>
                 </c:pt>
@@ -9737,6 +9866,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9745,9 +9883,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]伊達工!$B$2:$B$14</c15:f>
+                <c15:f>[1]伊達工!$B$2:$B$17</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="16"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム青根高伸ICONIC</c:v>
                   </c:pt>
@@ -9786,6 +9924,15 @@
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>ユニフォーム吹上仁悟ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ユニフォーム茂庭要ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ユニフォーム鎌先靖志ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>ユニフォーム笹谷武仁ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -10320,7 +10467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C5EFEBE-2E54-4949-8D99-14B6CB708990}" type="CELLRANGE">
+                    <a:fld id="{D727E93D-9962-4C49-9C84-15FE2618694A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10980,6 +11127,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46928024368413396"/>
+          <c:y val="1.7993018436372639E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12981,9 +13136,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.740302563647986E-2"/>
-          <c:y val="0.11788623083279277"/>
-          <c:w val="0.89130552079278558"/>
-          <c:h val="0.79611299669208391"/>
+          <c:y val="7.957439164329877E-2"/>
+          <c:w val="0.90958504076239788"/>
+          <c:h val="0.83442481896045684"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -16572,10 +16727,10 @@
       <xdr:rowOff>77587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>119697</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>373711</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15902</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18620,6 +18775,39 @@
           </cell>
           <cell r="G14">
             <v>472</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>ユニフォーム茂庭要ICONIC</v>
+          </cell>
+          <cell r="F15">
+            <v>469</v>
+          </cell>
+          <cell r="G15">
+            <v>472</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>ユニフォーム鎌先靖志ICONIC</v>
+          </cell>
+          <cell r="F16">
+            <v>468</v>
+          </cell>
+          <cell r="G16">
+            <v>473</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>ユニフォーム笹谷武仁ICONIC</v>
+          </cell>
+          <cell r="F17">
+            <v>468</v>
+          </cell>
+          <cell r="G17">
+            <v>468</v>
           </cell>
         </row>
       </sheetData>
@@ -24376,7 +24564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB629DAE-5A6C-4C79-80AB-11E26384B1DD}" name="P_Stat" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A88:L104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="31">
     <pivotField showAll="0"/>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA7CD6-7CCC-40C0-A36C-2D6D114E98B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2C56D-C8F9-4110-871E-905121D33742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5973" yWindow="5973" windowWidth="36062" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="1089" yWindow="1089" windowWidth="36063" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9422C2C4-2E0C-4525-8915-B4D9946A543D}" type="CELLRANGE">
+                    <a:fld id="{D91BEEEA-3837-4D94-819B-321413B79C58}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1345,7 +1345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D4FCA18-28BF-4D96-8363-3A28A09B9A13}" type="CELLRANGE">
+                    <a:fld id="{834A8B7B-CF46-49A7-940C-17A4459F4604}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2295,7 +2295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCAFA40E-65D6-4137-8BDE-64CD2C6AA77A}" type="CELLRANGE">
+                    <a:fld id="{EFB8EF81-ACAC-4ABB-8E9C-4A7006D448C1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2324,10 +2324,44 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DA11A399-7273-41EC-881F-28E5880E2FA9}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9FE3-44C4-B0DF-B68D9E8EF872}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8644957015382177E-2"/>
-                  <c:y val="-9.8292002720185827E-3"/>
+                  <c:x val="-4.2451535154820377E-2"/>
+                  <c:y val="-1.8933424961012461E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2355,9 +2389,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-9FE3-44C4-B0DF-B68D9E8EF872}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2421,10 +2452,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$18</c:f>
+              <c:f>[1]青城!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -2475,16 +2506,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$18</c:f>
+              <c:f>[1]青城!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2535,6 +2569,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,9 +2580,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$18</c15:f>
+                <c15:f>[1]青城!$B$2:$B$19</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="17"/>
+                  <c:ptCount val="18"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2596,6 +2633,9 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>アート花巻貴大ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>ユニフォーム矢巾秀ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3534,7 +3574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6C205A1-6C73-4444-AD33-D456BD076984}" type="CELLRANGE">
+                    <a:fld id="{E2FA0415-C26E-4925-ABB4-D22759F4E3A9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3568,7 +3608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{305D0BA7-9065-4166-8B03-680C1358936C}" type="CELLRANGE">
+                    <a:fld id="{E53A27BC-6F64-4CC2-A656-2AEA2B4FBD34}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4320,7 +4360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2063BFEB-F13B-4253-B2B8-57FD95FBF9C6}" type="CELLRANGE">
+                    <a:fld id="{EB4BE314-A66B-4DE6-A10C-C5528D1A7FBA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5800,7 +5840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADDBD123-3484-4F1A-AD35-077131D396AD}" type="CELLRANGE">
+                    <a:fld id="{9C48F69F-45FF-4595-A968-2A33D2C0469E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5834,7 +5874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35E72E1A-89B2-488C-AD29-DF272C051E6D}" type="CELLRANGE">
+                    <a:fld id="{5FC1E739-FA1E-4AC6-B466-3793A8970367}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5907,7 +5947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B99562C0-258F-4301-960D-A67F5503BF1F}" type="CELLRANGE">
+                    <a:fld id="{31D62DD4-AAEE-4039-9AB9-58DF96C71B1C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6795,7 +6835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40C31F67-C4AB-49C3-927C-FB1652BEBF9A}" type="CELLRANGE">
+                    <a:fld id="{07D0997F-C4A3-43B6-A6EE-325597066920}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6829,7 +6869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09B1C1BD-2292-42EA-8290-806B3FAAB890}" type="CELLRANGE">
+                    <a:fld id="{CD0D50D9-2EBE-47DB-8CB1-FA3B5CC6FCF1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6863,7 +6903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A01BE9A-3A83-42C7-B02B-46B36FDF5F80}" type="CELLRANGE">
+                    <a:fld id="{B1C733B5-2561-4185-B7F7-781B9EB06AA2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7805,6 +7845,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3722422397558164E-2"/>
+                  <c:y val="-9.8296941155575999E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -7819,7 +7865,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -9563,7 +9609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC3EA2DE-0723-494C-B8C7-5F096A15E61B}" type="CELLRANGE">
+                    <a:fld id="{EABAB922-CE7F-494A-AA56-8CA52E1B155E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10467,7 +10513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D727E93D-9962-4C49-9C84-15FE2618694A}" type="CELLRANGE">
+                    <a:fld id="{E91C6F32-8237-4DF5-BE13-05CB7C786736}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17360,6 +17406,17 @@
             <v>477</v>
           </cell>
         </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>ユニフォーム矢巾秀ICONIC</v>
+          </cell>
+          <cell r="F19">
+            <v>464</v>
+          </cell>
+          <cell r="G19">
+            <v>484</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2C56D-C8F9-4110-871E-905121D33742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD7D651-68FB-4711-8A0E-E622753E53D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1089" yWindow="1089" windowWidth="36063" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="2479" yWindow="4646" windowWidth="36063" windowHeight="19984" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -294,8 +294,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2830683596382288E-2"/>
-          <c:y val="3.4663973274085387E-2"/>
+          <c:x val="1.9682926797424873E-2"/>
+          <c:y val="3.6082813477791416E-2"/>
           <c:w val="0.96243294459287576"/>
           <c:h val="0.92857207731178149"/>
         </c:manualLayout>
@@ -801,8 +801,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7015495437761423E-2"/>
-                  <c:y val="1.0649611898861931E-2"/>
+                  <c:x val="-3.3477082081903149E-2"/>
+                  <c:y val="-1.5525031216241481E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1311,7 +1311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D91BEEEA-3837-4D94-819B-321413B79C58}" type="CELLRANGE">
+                    <a:fld id="{9473BD9C-AD6B-4E33-97E8-3DD971D38B3D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1345,7 +1345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{834A8B7B-CF46-49A7-940C-17A4459F4604}" type="CELLRANGE">
+                    <a:fld id="{E5D9B309-646A-4291-855F-097C3CB54145}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2295,7 +2295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFB8EF81-ACAC-4ABB-8E9C-4A7006D448C1}" type="CELLRANGE">
+                    <a:fld id="{9C66DA8A-4409-4078-8C92-993545798034}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2329,7 +2329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA11A399-7273-41EC-881F-28E5880E2FA9}" type="CELLRANGE">
+                    <a:fld id="{EAF0F39D-F95A-4D8C-B49A-0C333594CBD3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2389,6 +2389,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-CEDB-45E7-9C1C-661E63CABB98}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3376,8 +3379,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0943507670532576E-2"/>
-                  <c:y val="1.1522219480700003E-2"/>
+                  <c:x val="1.3237497659173921E-2"/>
+                  <c:y val="4.1250377307794133E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3454,8 +3457,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2924755747486825E-2"/>
-                  <c:y val="-5.8358784254686335E-3"/>
+                  <c:x val="1.1354369277477998E-2"/>
+                  <c:y val="-1.8354195611145881E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3532,8 +3535,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.111890759443348E-2"/>
-                  <c:y val="4.9964180921867789E-3"/>
+                  <c:x val="-6.170043259428825E-2"/>
+                  <c:y val="-2.4023277421063843E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3569,12 +3572,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5763939869726293E-2"/>
+                  <c:y val="6.9562183169543179E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2FA0415-C26E-4925-ABB4-D22759F4E3A9}" type="CELLRANGE">
+                    <a:fld id="{F3CBFC9F-AC2B-4D3E-8CCB-3B618A5D1EB0}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5FF0F9D3-58A5-411F-BAFD-1B615B2E1784}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3597,18 +3639,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DF7E-4DAF-A2C8-D41EB6FDCAB7}"/>
+                  <c16:uniqueId val="{00000002-E9C6-4145-A5E5-B51164981EC5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E53A27BC-6F64-4CC2-A656-2AEA2B4FBD34}" type="CELLRANGE">
+                    <a:fld id="{7ED38DCE-4B11-4DB4-BF64-91AFFA602F93}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3631,7 +3673,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-E9C6-4145-A5E5-B51164981EC5}"/>
+                  <c16:uniqueId val="{00000002-CEDB-45E7-9C1C-661E63CABB98}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3695,10 +3737,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]稲荷崎!$F$2:$F$12</c:f>
+              <c:f>[1]稲荷崎!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>465</c:v>
                 </c:pt>
@@ -3712,24 +3754,27 @@
                   <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>476</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
@@ -3737,10 +3782,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]稲荷崎!$G$2:$G$12</c:f>
+              <c:f>[1]稲荷崎!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>506</c:v>
                 </c:pt>
@@ -3754,24 +3799,27 @@
                   <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>466</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>474</c:v>
                 </c:pt>
               </c:numCache>
@@ -3781,9 +3829,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]稲荷崎!$B$2:$B$12</c15:f>
+                <c15:f>[1]稲荷崎!$B$2:$B$13</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム宮侑ICONIC</c:v>
                   </c:pt>
@@ -3797,24 +3845,27 @@
                     <c:v>ユニフォーム角名倫太郎ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>サバゲ角名倫太郎ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>ユニフォーム北信介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>Xmas北信介ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>ユニフォーム尾白アランICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>雪遊び尾白アランICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>ユニフォーム赤木路成ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム大耳練ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ユニフォーム理石平介ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -4360,7 +4411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB4BE314-A66B-4DE6-A10C-C5528D1A7FBA}" type="CELLRANGE">
+                    <a:fld id="{386735CB-5217-4037-8748-C688B49986E8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5840,7 +5891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C48F69F-45FF-4595-A968-2A33D2C0469E}" type="CELLRANGE">
+                    <a:fld id="{9EFA14FF-B812-4F87-8AB0-CFF3D68076C2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5874,7 +5925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FC1E739-FA1E-4AC6-B466-3793A8970367}" type="CELLRANGE">
+                    <a:fld id="{E7A64D4A-3BFE-4F06-A816-23F8564D81C1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5947,7 +5998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31D62DD4-AAEE-4039-9AB9-58DF96C71B1C}" type="CELLRANGE">
+                    <a:fld id="{34EA323E-BFD0-43EB-8B47-D5E403820ADE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6835,7 +6886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07D0997F-C4A3-43B6-A6EE-325597066920}" type="CELLRANGE">
+                    <a:fld id="{BB9ECC3C-D280-45E3-BBE3-7B3FB6B16D95}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6869,7 +6920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD0D50D9-2EBE-47DB-8CB1-FA3B5CC6FCF1}" type="CELLRANGE">
+                    <a:fld id="{09895B89-75F3-4569-AC81-6D46D48C1D2A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6903,7 +6954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1C733B5-2561-4185-B7F7-781B9EB06AA2}" type="CELLRANGE">
+                    <a:fld id="{14BDA327-E5AD-43BD-930B-D6D9C946258C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9609,7 +9660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EABAB922-CE7F-494A-AA56-8CA52E1B155E}" type="CELLRANGE">
+                    <a:fld id="{161DD50E-B602-4252-AB96-BD4E2184624F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10237,8 +10288,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4171630028065411E-2"/>
-                  <c:y val="-4.5499483589454597E-2"/>
+                  <c:x val="1.9437965057185733E-2"/>
+                  <c:y val="-4.5499478008080088E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -10513,7 +10564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E91C6F32-8237-4DF5-BE13-05CB7C786736}" type="CELLRANGE">
+                    <a:fld id="{1F9A0DBC-86C8-41E9-8BBB-D4887EEED780}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16732,8 +16783,8 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>7951</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>150801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17566,78 +17617,89 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>ユニフォーム北信介ICONIC</v>
+            <v>サバゲ角名倫太郎ICONIC</v>
           </cell>
           <cell r="F6">
-            <v>480</v>
+            <v>484</v>
           </cell>
           <cell r="G6">
-            <v>478</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>Xmas北信介ICONIC</v>
+            <v>ユニフォーム北信介ICONIC</v>
           </cell>
           <cell r="F7">
-            <v>486</v>
+            <v>480</v>
           </cell>
           <cell r="G7">
-            <v>486</v>
+            <v>478</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ユニフォーム尾白アランICONIC</v>
+            <v>Xmas北信介ICONIC</v>
           </cell>
           <cell r="F8">
-            <v>467</v>
+            <v>486</v>
           </cell>
           <cell r="G8">
-            <v>479</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>雪遊び尾白アランICONIC</v>
+            <v>ユニフォーム尾白アランICONIC</v>
           </cell>
           <cell r="F9">
-            <v>473</v>
+            <v>467</v>
           </cell>
           <cell r="G9">
-            <v>487</v>
+            <v>479</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ユニフォーム赤木路成ICONIC</v>
+            <v>雪遊び尾白アランICONIC</v>
           </cell>
           <cell r="F10">
-            <v>474</v>
+            <v>473</v>
           </cell>
           <cell r="G10">
-            <v>464</v>
+            <v>487</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム大耳練ICONIC</v>
+            <v>ユニフォーム赤木路成ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>476</v>
+            <v>474</v>
           </cell>
           <cell r="G11">
-            <v>466</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
+            <v>ユニフォーム大耳練ICONIC</v>
+          </cell>
+          <cell r="F12">
+            <v>476</v>
+          </cell>
+          <cell r="G12">
+            <v>466</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
             <v>ユニフォーム理石平介ICONIC</v>
           </cell>
-          <cell r="F12">
+          <cell r="F13">
             <v>465</v>
           </cell>
-          <cell r="G12">
+          <cell r="G13">
             <v>474</v>
           </cell>
         </row>
@@ -25367,7 +25429,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO123" sqref="AO123"/>
+      <selection activeCell="Z113" sqref="Z113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.3" x14ac:dyDescent="0.45"/>

--- a/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧Annex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD7D651-68FB-4711-8A0E-E622753E53D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916A6E1-D704-4BF9-8E7B-DC19D8D2C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2479" yWindow="4646" windowWidth="36063" windowHeight="19984" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
+    <workbookView xWindow="3381" yWindow="3381" windowWidth="36062" windowHeight="19985" xr2:uid="{18FC0877-C782-4E78-9F82-2A43469C99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat散布図" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294967234" uniqueCount="35">
   <si>
     <t>総計</t>
   </si>
@@ -458,6 +458,45 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-1.2953507971512629E-2"/>
+                  <c:y val="1.0781694622264384E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3749244-18E7-4145-B467-6902970578B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3202-4223-BEE5-06E7CE49A952}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="1.0981708720822375E-2"/>
                   <c:y val="-2.9396123351369249E-2"/>
                 </c:manualLayout>
@@ -487,9 +526,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-3202-4223-BEE5-06E7CE49A952}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -553,10 +589,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]鴎台!$F$2:$F$5</c:f>
+              <c:f>[1]鴎台!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>483</c:v>
                 </c:pt>
@@ -564,9 +600,12 @@
                   <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
@@ -574,10 +613,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]鴎台!$G$2:$G$5</c:f>
+              <c:f>[1]鴎台!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>491</c:v>
                 </c:pt>
@@ -585,9 +624,12 @@
                   <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
@@ -597,9 +639,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]鴎台!$B$2:$B$5</c15:f>
+                <c15:f>[1]鴎台!$B$2:$B$6</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム星海光来ICONIC</c:v>
                   </c:pt>
@@ -607,9 +649,12 @@
                     <c:v>文化祭星海光来ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>サバゲ星海光来ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>ユニフォーム昼神幸郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Xmas昼神幸郎ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -1152,8 +1197,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2192838657857901E-2"/>
-                  <c:y val="-1.2467006710018961E-2"/>
+                  <c:x val="1.5396881567727441E-4"/>
+                  <c:y val="-4.9817188870618758E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1311,7 +1356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9473BD9C-AD6B-4E33-97E8-3DD971D38B3D}" type="CELLRANGE">
+                    <a:fld id="{003A8861-2E86-4DBC-83D9-46292FF4F04A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1345,7 +1390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5D9B309-646A-4291-855F-097C3CB54145}" type="CELLRANGE">
+                    <a:fld id="{536410B9-7713-4C6C-86E3-0FAFA9F74CCC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1980,8 +2025,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1042498670738846"/>
-                  <c:y val="5.1005787261031492E-2"/>
+                  <c:x val="-2.9694425170301349E-2"/>
+                  <c:y val="-1.4058530391114803E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2058,8 +2103,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7624671782387098E-2"/>
-                  <c:y val="-5.2709656327054918E-2"/>
+                  <c:x val="-1.2772857854107077E-2"/>
+                  <c:y val="-3.7739104824831921E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2097,8 +2142,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.3319001816139521E-2"/>
-                  <c:y val="-2.0445746442891324E-3"/>
+                  <c:x val="-2.690931969793536E-2"/>
+                  <c:y val="-1.1257197604495044E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2136,8 +2181,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4826735371856619E-2"/>
-                  <c:y val="-8.5439525548825068E-3"/>
+                  <c:x val="-8.886957660998436E-2"/>
+                  <c:y val="6.6868740321518829E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2175,8 +2220,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5887159200660141E-2"/>
-                  <c:y val="7.70449222160081E-3"/>
+                  <c:x val="-3.2494874720727686E-2"/>
+                  <c:y val="-8.4176450415576302E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2214,8 +2259,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5540629944373429E-2"/>
-                  <c:y val="5.2116907943988169E-2"/>
+                  <c:x val="9.783744477490754E-3"/>
+                  <c:y val="7.2052665854333963E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2290,12 +2335,51 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2198957652549297E-3"/>
+                  <c:y val="-1.1962019244632138E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C66DA8A-4409-4078-8C92-993545798034}" type="CELLRANGE">
+                    <a:fld id="{A307B93B-FEE2-4ECC-8842-83567F53C930}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5E5D-49F3-8698-38316840B45D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6CE4D549-2A3C-49CB-BF20-EA3DE5CFDC1A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2318,19 +2402,25 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5E5D-49F3-8698-38316840B45D}"/>
+                  <c16:uniqueId val="{00000000-9FE3-44C4-B0DF-B68D9E8EF872}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0310331493897325E-2"/>
+                  <c:y val="-1.3689389918067318E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAF0F39D-F95A-4D8C-B49A-0C333594CBD3}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{38C94EFA-5DE5-43F1-BE85-B88A9CB95D1C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2338,7 +2428,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2348,16 +2438,15 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-9FE3-44C4-B0DF-B68D9E8EF872}"/>
+                  <c16:uniqueId val="{00000000-CEDB-45E7-9C1C-661E63CABB98}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-4.2451535154820377E-2"/>
@@ -2389,9 +2478,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-CEDB-45E7-9C1C-661E63CABB98}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2455,10 +2541,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]青城!$F$2:$F$19</c:f>
+              <c:f>[1]青城!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>459</c:v>
                 </c:pt>
@@ -2481,36 +2567,39 @@
                   <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>462</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>468</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>473</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
@@ -2518,10 +2607,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]青城!$G$2:$G$19</c:f>
+              <c:f>[1]青城!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
                 </c:pt>
@@ -2544,36 +2633,39 @@
                   <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>484</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>463</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>464</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>469</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>477</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
@@ -2583,9 +2675,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>[1]青城!$B$2:$B$19</c15:f>
+                <c15:f>[1]青城!$B$2:$B$20</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="18"/>
+                  <c:ptCount val="19"/>
                   <c:pt idx="0">
                     <c:v>ユニフォーム及川徹ICONIC</c:v>
                   </c:pt>
@@ -2608,36 +2700,39 @@
                     <c:v>制服岩泉一ICONIC</c:v>
                   </c:pt>
                   <c:pt idx="7">
+                    <c:v>サバゲ岩泉一ICONIC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>ユニフォーム金田一勇太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>雪遊び金田一勇太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>ユニフォーム京谷賢太郎ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>ユニフォーム国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>職業体験国見英ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>ユニフォーム渡親治ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>ユニフォーム松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>アート松川一静ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>ユニフォーム花巻貴大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>アート花巻貴大ICONIC</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>ユニフォーム矢巾秀ICONIC</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -3616,7 +3711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FF0F9D3-58A5-411F-BAFD-1B615B2E1784}" type="CELLRANGE">
+                    <a:fld id="{382808C0-A028-46B8-BE52-0DA9872D74AC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3650,7 +3745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7ED38DCE-4B11-4DB4-BF64-91AFFA602F93}" type="CELLRANGE">
+                    <a:fld id="{73303904-BC3E-44B7-BD63-A5B08AA4145E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4411,7 +4506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{386735CB-5217-4037-8748-C688B49986E8}" type="CELLRANGE">
+                    <a:fld id="{5CC9B034-94E0-4F3E-A9FC-5A520BEE4547}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5069,8 +5164,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1527555153185985E-2"/>
-                  <c:y val="-3.3639792912962235E-2"/>
+                  <c:x val="-1.9160715581951648E-2"/>
+                  <c:y val="-4.573139050528259E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5420,8 +5515,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.1044206966893013E-2"/>
-                  <c:y val="-1.4830437456750856E-2"/>
+                  <c:x val="-8.9937729444829195E-3"/>
+                  <c:y val="2.2595912596676086E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5537,8 +5632,8 @@
               <c:idx val="21"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3418305255275298E-2"/>
-                  <c:y val="-1.7258597274799389E-4"/>
+                  <c:x val="-4.7757511135871469E-2"/>
+                  <c:y val="3.8579305174440016E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5891,7 +5986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EFA14FF-B812-4F87-8AB0-CFF3D68076C2}" type="CELLRANGE">
+                    <a:fld id="{BD4B167A-86CC-43C3-B462-AB308229189B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5925,7 +6020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7A64D4A-3BFE-4F06-A816-23F8564D81C1}" type="CELLRANGE">
+                    <a:fld id="{2158B683-B047-4B25-85F8-C4723735ACCC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5998,7 +6093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34EA323E-BFD0-43EB-8B47-D5E403820ADE}" type="CELLRANGE">
+                    <a:fld id="{1EABB461-76FC-4C2E-AF03-FFE2BA2483AD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6886,7 +6981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB9ECC3C-D280-45E3-BBE3-7B3FB6B16D95}" type="CELLRANGE">
+                    <a:fld id="{8B6D57DE-D831-4530-B466-A23ACE496F87}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6920,7 +7015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09895B89-75F3-4569-AC81-6D46D48C1D2A}" type="CELLRANGE">
+                    <a:fld id="{94FFC682-3117-4D70-B853-1C6AE23B3BEA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6954,7 +7049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14BDA327-E5AD-43BD-930B-D6D9C946258C}" type="CELLRANGE">
+                    <a:fld id="{0548F43A-51B8-41C3-8B30-CA288EF6904E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7298,8 +7393,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2516453409551872E-2"/>
-                  <c:y val="-1.5797753006410075E-2"/>
+                  <c:x val="-6.4863269510562177E-2"/>
+                  <c:y val="-7.7366710910327062E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9660,7 +9755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{161DD50E-B602-4252-AB96-BD4E2184624F}" type="CELLRANGE">
+                    <a:fld id="{6A101AAD-613A-4D18-91A9-7A9733745749}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10559,13 +10654,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5398419702839882E-2"/>
+                  <c:y val="1.9418547989440281E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F9A0DBC-86C8-41E9-8BBB-D4887EEED780}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{15FC4382-75F0-4954-85F5-89941139AE90}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -10573,7 +10674,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -10583,7 +10684,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17026,23 +17126,34 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ユニフォーム昼神幸郎ICONIC</v>
+            <v>サバゲ星海光来ICONIC</v>
           </cell>
           <cell r="F4">
-            <v>478</v>
+            <v>489</v>
           </cell>
           <cell r="G4">
-            <v>480</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
+            <v>ユニフォーム昼神幸郎ICONIC</v>
+          </cell>
+          <cell r="F5">
+            <v>478</v>
+          </cell>
+          <cell r="G5">
+            <v>480</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
             <v>Xmas昼神幸郎ICONIC</v>
           </cell>
-          <cell r="F5">
+          <cell r="F6">
             <v>486</v>
           </cell>
-          <cell r="G5">
+          <cell r="G6">
             <v>486</v>
           </cell>
         </row>
@@ -17349,122 +17460,133 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ユニフォーム金田一勇太郎ICONIC</v>
+            <v>サバゲ岩泉一ICONIC</v>
           </cell>
           <cell r="F9">
-            <v>465</v>
+            <v>476</v>
           </cell>
           <cell r="G9">
-            <v>459</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>雪遊び金田一勇太郎ICONIC</v>
+            <v>ユニフォーム金田一勇太郎ICONIC</v>
           </cell>
           <cell r="F10">
-            <v>473</v>
+            <v>465</v>
           </cell>
           <cell r="G10">
-            <v>465</v>
+            <v>459</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ユニフォーム京谷賢太郎ICONIC</v>
+            <v>雪遊び金田一勇太郎ICONIC</v>
           </cell>
           <cell r="F11">
-            <v>461</v>
+            <v>473</v>
           </cell>
           <cell r="G11">
-            <v>484</v>
+            <v>465</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ユニフォーム国見英ICONIC</v>
+            <v>ユニフォーム京谷賢太郎ICONIC</v>
           </cell>
           <cell r="F12">
-            <v>462</v>
+            <v>461</v>
           </cell>
           <cell r="G12">
-            <v>467</v>
+            <v>484</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>職業体験国見英ICONIC</v>
+            <v>ユニフォーム国見英ICONIC</v>
           </cell>
           <cell r="F13">
-            <v>468</v>
+            <v>462</v>
           </cell>
           <cell r="G13">
-            <v>475</v>
+            <v>467</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ユニフォーム渡親治ICONIC</v>
+            <v>職業体験国見英ICONIC</v>
           </cell>
           <cell r="F14">
+            <v>468</v>
+          </cell>
+          <cell r="G14">
             <v>475</v>
-          </cell>
-          <cell r="G14">
-            <v>463</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ユニフォーム松川一静ICONIC</v>
+            <v>ユニフォーム渡親治ICONIC</v>
           </cell>
           <cell r="F15">
-            <v>465</v>
+            <v>475</v>
           </cell>
           <cell r="G15">
-            <v>458</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>アート松川一静ICONIC</v>
+            <v>ユニフォーム松川一静ICONIC</v>
           </cell>
           <cell r="F16">
-            <v>473</v>
+            <v>465</v>
           </cell>
           <cell r="G16">
-            <v>464</v>
+            <v>458</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>ユニフォーム花巻貴大ICONIC</v>
+            <v>アート松川一静ICONIC</v>
           </cell>
           <cell r="F17">
-            <v>467</v>
+            <v>473</v>
           </cell>
           <cell r="G17">
-            <v>469</v>
+            <v>464</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>アート花巻貴大ICONIC</v>
+            <v>ユニフォーム花巻貴大ICONIC</v>
           </cell>
           <cell r="F18">
-            <v>473</v>
+            <v>467</v>
           </cell>
           <cell r="G18">
-            <v>477</v>
+            <v>469</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
+            <v>アート花巻貴大ICONIC</v>
+          </cell>
+          <cell r="F19">
+            <v>473</v>
+          </cell>
+          <cell r="G19">
+            <v>477</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
             <v>ユニフォーム矢巾秀ICONIC</v>
           </cell>
-          <cell r="F19">
+          <cell r="F20">
             <v>464</v>
           </cell>
-          <cell r="G19">
+          <cell r="G20">
             <v>484</v>
           </cell>
         </row>
